--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17A50A-249D-4D9D-A45D-4CA58275C585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,9 +19,12 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2551" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1325">
   <si>
     <t>OFFICE</t>
   </si>
@@ -4011,7 +4015,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4076,7 +4080,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4130,11 +4134,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4183,11 +4196,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4195,6 +4207,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4328,18 +4352,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4359,7 +4371,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ASUS" refreshedDate="45034.434464467595" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="396">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ASUS" refreshedDate="45034.434464467595" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="396" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:E399" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
@@ -7212,7 +7224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -7529,36 +7541,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:E399" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A3:E399">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A3:E399" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:E399" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="P"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A121:E399">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A121:E399">
     <sortCondition ref="C3:C399"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Total No." dataDxfId="3"/>
-    <tableColumn id="2" name="NAME" dataDxfId="2"/>
-    <tableColumn id="4" name="Column1"/>
-    <tableColumn id="3" name="OFFICE"/>
-    <tableColumn id="5" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total No." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAME" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="OFFICE"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarks" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A367" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A367"/>
-  <sortState ref="A2:A367">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:A367" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:A367" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A367">
     <sortCondition ref="A1:A367"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="NAME"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NAME"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7826,62 +7838,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>440</v>
       </c>
@@ -7889,363 +7901,363 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="B46" s="20">
+      <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48">
         <v>396</v>
       </c>
     </row>
@@ -8255,37 +8267,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>409</v>
       </c>
@@ -8302,7 +8314,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -8313,11 +8325,9 @@
       <c r="D4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>7</v>
       </c>
@@ -8328,11 +8338,9 @@
       <c r="D5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>23</v>
       </c>
@@ -8347,7 +8355,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>25</v>
       </c>
@@ -8362,7 +8370,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>27</v>
       </c>
@@ -8375,7 +8383,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>21</v>
       </c>
@@ -8390,7 +8398,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>31</v>
       </c>
@@ -8405,7 +8413,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>29</v>
       </c>
@@ -8420,7 +8428,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>34</v>
       </c>
@@ -8431,11 +8439,9 @@
       <c r="D12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>35</v>
       </c>
@@ -8450,7 +8456,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>33</v>
       </c>
@@ -8461,11 +8467,9 @@
       <c r="D14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>28</v>
       </c>
@@ -8476,11 +8480,9 @@
       <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>30</v>
       </c>
@@ -8491,11 +8493,9 @@
       <c r="D16" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>37</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>38</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>253</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>40</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>36</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>227</v>
       </c>
@@ -8583,7 +8583,7 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>341</v>
       </c>
@@ -8594,11 +8594,9 @@
       <c r="D23" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>342</v>
       </c>
@@ -8613,7 +8611,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>229</v>
       </c>
@@ -8624,11 +8622,9 @@
       <c r="D25" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>46</v>
       </c>
@@ -8643,7 +8639,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>47</v>
       </c>
@@ -8658,7 +8654,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>44</v>
       </c>
@@ -8673,7 +8669,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>49</v>
       </c>
@@ -8689,7 +8685,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>162</v>
       </c>
@@ -8704,7 +8700,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>344</v>
       </c>
@@ -8719,7 +8715,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>68</v>
       </c>
@@ -8734,7 +8730,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>67</v>
       </c>
@@ -8749,7 +8745,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>71</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>80</v>
       </c>
@@ -8779,7 +8775,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>87</v>
       </c>
@@ -8794,7 +8790,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>85</v>
       </c>
@@ -8809,7 +8805,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>91</v>
       </c>
@@ -8824,7 +8820,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>79</v>
       </c>
@@ -8839,7 +8835,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>90</v>
       </c>
@@ -8854,7 +8850,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>92</v>
       </c>
@@ -8869,7 +8865,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>88</v>
       </c>
@@ -8884,7 +8880,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>78</v>
       </c>
@@ -8899,7 +8895,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>89</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>366</v>
       </c>
@@ -8929,7 +8925,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>112</v>
       </c>
@@ -8942,7 +8938,7 @@
       </c>
       <c r="E46" s="17"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>128</v>
       </c>
@@ -8957,7 +8953,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>124</v>
       </c>
@@ -8972,7 +8968,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>125</v>
       </c>
@@ -8983,11 +8979,9 @@
       <c r="D49" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>129</v>
       </c>
@@ -9002,7 +8996,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>131</v>
       </c>
@@ -9017,7 +9011,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>126</v>
       </c>
@@ -9032,7 +9026,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>164</v>
       </c>
@@ -9047,7 +9041,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>151</v>
       </c>
@@ -9062,7 +9056,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>146</v>
       </c>
@@ -9077,7 +9071,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>171</v>
       </c>
@@ -9092,7 +9086,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>206</v>
       </c>
@@ -9107,7 +9101,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>213</v>
       </c>
@@ -9122,7 +9116,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>196</v>
       </c>
@@ -9137,7 +9131,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>214</v>
       </c>
@@ -9152,7 +9146,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>182</v>
       </c>
@@ -9167,7 +9161,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>205</v>
       </c>
@@ -9182,7 +9176,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>181</v>
       </c>
@@ -9197,7 +9191,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>180</v>
       </c>
@@ -9212,7 +9206,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>190</v>
       </c>
@@ -9227,7 +9221,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>199</v>
       </c>
@@ -9242,7 +9236,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>197</v>
       </c>
@@ -9257,7 +9251,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>219</v>
       </c>
@@ -9272,7 +9266,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>223</v>
       </c>
@@ -9287,7 +9281,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>220</v>
       </c>
@@ -9302,7 +9296,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>233</v>
       </c>
@@ -9317,7 +9311,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>235</v>
       </c>
@@ -9332,7 +9326,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>379</v>
       </c>
@@ -9347,7 +9341,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>376</v>
       </c>
@@ -9362,7 +9356,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>372</v>
       </c>
@@ -9377,7 +9371,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>252</v>
       </c>
@@ -9392,7 +9386,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>249</v>
       </c>
@@ -9407,7 +9401,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>251</v>
       </c>
@@ -9422,7 +9416,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>264</v>
       </c>
@@ -9437,7 +9431,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>262</v>
       </c>
@@ -9452,7 +9446,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>266</v>
       </c>
@@ -9467,7 +9461,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>265</v>
       </c>
@@ -9482,7 +9476,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>382</v>
       </c>
@@ -9497,7 +9491,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>257</v>
       </c>
@@ -9512,7 +9506,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>254</v>
       </c>
@@ -9527,7 +9521,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>260</v>
       </c>
@@ -9542,7 +9536,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>270</v>
       </c>
@@ -9557,7 +9551,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>285</v>
       </c>
@@ -9572,7 +9566,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>296</v>
       </c>
@@ -9587,7 +9581,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>297</v>
       </c>
@@ -9602,7 +9596,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>286</v>
       </c>
@@ -9617,7 +9611,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>292</v>
       </c>
@@ -9632,7 +9626,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>294</v>
       </c>
@@ -9647,7 +9641,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>287</v>
       </c>
@@ -9662,7 +9656,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>289</v>
       </c>
@@ -9677,7 +9671,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>302</v>
       </c>
@@ -9692,7 +9686,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>288</v>
       </c>
@@ -9707,7 +9701,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>291</v>
       </c>
@@ -9722,7 +9716,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>303</v>
       </c>
@@ -9737,7 +9731,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>386</v>
       </c>
@@ -9752,7 +9746,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>324</v>
       </c>
@@ -9767,7 +9761,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>333</v>
       </c>
@@ -9782,7 +9776,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>331</v>
       </c>
@@ -9797,7 +9791,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>316</v>
       </c>
@@ -9812,7 +9806,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>319</v>
       </c>
@@ -9823,11 +9817,9 @@
       <c r="D105" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E105" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="17"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>315</v>
       </c>
@@ -9842,7 +9834,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>313</v>
       </c>
@@ -9857,7 +9849,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>317</v>
       </c>
@@ -9872,7 +9864,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>328</v>
       </c>
@@ -9887,7 +9879,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>329</v>
       </c>
@@ -9902,7 +9894,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>330</v>
       </c>
@@ -9917,7 +9909,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>312</v>
       </c>
@@ -9932,7 +9924,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>318</v>
       </c>
@@ -9947,7 +9939,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>314</v>
       </c>
@@ -9958,11 +9950,9 @@
       <c r="D114" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E114" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="17"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>323</v>
       </c>
@@ -9977,7 +9967,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>321</v>
       </c>
@@ -9992,7 +9982,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>332</v>
       </c>
@@ -10007,7 +9997,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>320</v>
       </c>
@@ -10022,7 +10012,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>310</v>
       </c>
@@ -10037,7 +10027,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>394</v>
       </c>
@@ -10052,7 +10042,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>75</v>
       </c>
@@ -10069,7 +10059,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>364</v>
       </c>
@@ -10084,7 +10074,7 @@
       </c>
       <c r="E122" s="17"/>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>108</v>
       </c>
@@ -10101,7 +10091,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>276</v>
       </c>
@@ -10118,7 +10108,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>98</v>
       </c>
@@ -10135,7 +10125,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>343</v>
       </c>
@@ -10152,7 +10142,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>385</v>
       </c>
@@ -10169,7 +10159,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>194</v>
       </c>
@@ -10186,7 +10176,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>337</v>
       </c>
@@ -10203,7 +10193,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>161</v>
       </c>
@@ -10220,7 +10210,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>355</v>
       </c>
@@ -10237,7 +10227,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>374</v>
       </c>
@@ -10254,7 +10244,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>369</v>
       </c>
@@ -10271,7 +10261,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <v>210</v>
       </c>
@@ -10288,7 +10278,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>368</v>
       </c>
@@ -10305,7 +10295,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <v>2</v>
       </c>
@@ -10322,7 +10312,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
         <v>26</v>
       </c>
@@ -10339,7 +10329,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>325</v>
       </c>
@@ -10356,7 +10346,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>187</v>
       </c>
@@ -10373,7 +10363,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
         <v>10</v>
       </c>
@@ -10390,7 +10380,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <v>70</v>
       </c>
@@ -10407,7 +10397,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
         <v>16</v>
       </c>
@@ -10424,7 +10414,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <v>218</v>
       </c>
@@ -10441,7 +10431,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <v>22</v>
       </c>
@@ -10458,7 +10448,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
         <v>224</v>
       </c>
@@ -10475,7 +10465,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <v>172</v>
       </c>
@@ -10492,7 +10482,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>109</v>
       </c>
@@ -10509,7 +10499,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>59</v>
       </c>
@@ -10526,7 +10516,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <v>134</v>
       </c>
@@ -10543,7 +10533,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
         <v>120</v>
       </c>
@@ -10558,7 +10548,7 @@
       </c>
       <c r="E150" s="17"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
         <v>334</v>
       </c>
@@ -10575,7 +10565,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>395</v>
       </c>
@@ -10592,7 +10582,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <v>230</v>
       </c>
@@ -10609,7 +10599,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>241</v>
       </c>
@@ -10626,7 +10616,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
         <v>278</v>
       </c>
@@ -10643,7 +10633,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <v>42</v>
       </c>
@@ -10660,7 +10650,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>81</v>
       </c>
@@ -10677,7 +10667,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
         <v>306</v>
       </c>
@@ -10694,7 +10684,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <v>140</v>
       </c>
@@ -10711,7 +10701,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <v>152</v>
       </c>
@@ -10728,7 +10718,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
         <v>50</v>
       </c>
@@ -10745,7 +10735,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>339</v>
       </c>
@@ -10762,7 +10752,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
         <v>72</v>
       </c>
@@ -10779,7 +10769,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>191</v>
       </c>
@@ -10796,7 +10786,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>143</v>
       </c>
@@ -10813,7 +10803,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>51</v>
       </c>
@@ -10830,7 +10820,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>13</v>
       </c>
@@ -10847,7 +10837,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <v>138</v>
       </c>
@@ -10864,7 +10854,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>373</v>
       </c>
@@ -10881,7 +10871,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
         <v>118</v>
       </c>
@@ -10896,7 +10886,7 @@
       </c>
       <c r="E170" s="17"/>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>273</v>
       </c>
@@ -10913,7 +10903,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
         <v>304</v>
       </c>
@@ -10930,7 +10920,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
         <v>256</v>
       </c>
@@ -10947,7 +10937,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <v>106</v>
       </c>
@@ -10964,7 +10954,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>375</v>
       </c>
@@ -10981,7 +10971,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>77</v>
       </c>
@@ -10998,7 +10988,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <v>178</v>
       </c>
@@ -11013,7 +11003,7 @@
       </c>
       <c r="E177" s="17"/>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
         <v>76</v>
       </c>
@@ -11030,7 +11020,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>121</v>
       </c>
@@ -11045,7 +11035,7 @@
       </c>
       <c r="E179" s="17"/>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <v>144</v>
       </c>
@@ -11060,7 +11050,7 @@
       </c>
       <c r="E180" s="17"/>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
         <v>156</v>
       </c>
@@ -11077,7 +11067,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>299</v>
       </c>
@@ -11094,7 +11084,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>247</v>
       </c>
@@ -11109,7 +11099,7 @@
       </c>
       <c r="E183" s="17"/>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>185</v>
       </c>
@@ -11126,7 +11116,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <v>110</v>
       </c>
@@ -11143,7 +11133,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <v>202</v>
       </c>
@@ -11160,7 +11150,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
         <v>130</v>
       </c>
@@ -11177,7 +11167,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>231</v>
       </c>
@@ -11194,7 +11184,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
         <v>350</v>
       </c>
@@ -11211,7 +11201,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
         <v>352</v>
       </c>
@@ -11228,7 +11218,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
         <v>176</v>
       </c>
@@ -11245,7 +11235,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>17</v>
       </c>
@@ -11262,7 +11252,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
         <v>272</v>
       </c>
@@ -11279,7 +11269,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>133</v>
       </c>
@@ -11294,7 +11284,7 @@
       </c>
       <c r="E194" s="17"/>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>267</v>
       </c>
@@ -11311,7 +11301,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="15">
         <v>348</v>
       </c>
@@ -11326,7 +11316,7 @@
       </c>
       <c r="E196" s="17"/>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>345</v>
       </c>
@@ -11341,7 +11331,7 @@
       </c>
       <c r="E197" s="17"/>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
         <v>380</v>
       </c>
@@ -11358,7 +11348,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>307</v>
       </c>
@@ -11375,7 +11365,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
         <v>388</v>
       </c>
@@ -11392,7 +11382,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
         <v>14</v>
       </c>
@@ -11409,7 +11399,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
         <v>74</v>
       </c>
@@ -11426,7 +11416,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>275</v>
       </c>
@@ -11443,7 +11433,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>55</v>
       </c>
@@ -11460,7 +11450,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>389</v>
       </c>
@@ -11477,7 +11467,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
         <v>4</v>
       </c>
@@ -11494,7 +11484,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
         <v>186</v>
       </c>
@@ -11511,7 +11501,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>117</v>
       </c>
@@ -11528,7 +11518,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
         <v>240</v>
       </c>
@@ -11543,7 +11533,7 @@
       </c>
       <c r="E209" s="17"/>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
         <v>148</v>
       </c>
@@ -11560,7 +11550,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>381</v>
       </c>
@@ -11577,7 +11567,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
         <v>32</v>
       </c>
@@ -11594,7 +11584,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
         <v>100</v>
       </c>
@@ -11611,7 +11601,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>149</v>
       </c>
@@ -11628,7 +11618,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>69</v>
       </c>
@@ -11645,7 +11635,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
         <v>154</v>
       </c>
@@ -11662,7 +11652,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>97</v>
       </c>
@@ -11679,7 +11669,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>65</v>
       </c>
@@ -11696,7 +11686,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
         <v>280</v>
       </c>
@@ -11713,7 +11703,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>281</v>
       </c>
@@ -11730,7 +11720,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>153</v>
       </c>
@@ -11745,7 +11735,7 @@
       </c>
       <c r="E221" s="17"/>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>367</v>
       </c>
@@ -11762,7 +11752,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="15">
         <v>54</v>
       </c>
@@ -11779,7 +11769,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>215</v>
       </c>
@@ -11796,7 +11786,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>3</v>
       </c>
@@ -11813,7 +11803,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="15">
         <v>166</v>
       </c>
@@ -11830,7 +11820,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>211</v>
       </c>
@@ -11847,7 +11837,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="15">
         <v>354</v>
       </c>
@@ -11864,7 +11854,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="15">
         <v>158</v>
       </c>
@@ -11881,7 +11871,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="15">
         <v>290</v>
       </c>
@@ -11896,7 +11886,7 @@
       </c>
       <c r="E230" s="17"/>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="15">
         <v>242</v>
       </c>
@@ -11913,7 +11903,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="15">
         <v>192</v>
       </c>
@@ -11930,7 +11920,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>165</v>
       </c>
@@ -11947,7 +11937,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="15">
         <v>168</v>
       </c>
@@ -11964,7 +11954,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="15">
         <v>160</v>
       </c>
@@ -11981,7 +11971,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>63</v>
       </c>
@@ -11998,7 +11988,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>349</v>
       </c>
@@ -12015,7 +12005,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>271</v>
       </c>
@@ -12032,7 +12022,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>145</v>
       </c>
@@ -12049,7 +12039,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="15">
         <v>340</v>
       </c>
@@ -12066,7 +12056,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>39</v>
       </c>
@@ -12083,7 +12073,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>101</v>
       </c>
@@ -12100,7 +12090,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="15">
         <v>56</v>
       </c>
@@ -12117,7 +12107,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>301</v>
       </c>
@@ -12134,7 +12124,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="15">
         <v>94</v>
       </c>
@@ -12151,7 +12141,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>119</v>
       </c>
@@ -12166,7 +12156,7 @@
       </c>
       <c r="E246" s="17"/>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="15">
         <v>104</v>
       </c>
@@ -12183,7 +12173,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>193</v>
       </c>
@@ -12200,7 +12190,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="15">
         <v>226</v>
       </c>
@@ -12217,7 +12207,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="15">
         <v>338</v>
       </c>
@@ -12234,7 +12224,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>83</v>
       </c>
@@ -12249,7 +12239,7 @@
       </c>
       <c r="E251" s="17"/>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="15">
         <v>384</v>
       </c>
@@ -12266,7 +12256,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="15">
         <v>274</v>
       </c>
@@ -12283,7 +12273,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>209</v>
       </c>
@@ -12300,7 +12290,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>387</v>
       </c>
@@ -12317,7 +12307,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="15">
         <v>212</v>
       </c>
@@ -12334,7 +12324,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>347</v>
       </c>
@@ -12351,7 +12341,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>159</v>
       </c>
@@ -12368,7 +12358,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>269</v>
       </c>
@@ -12385,7 +12375,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="15">
         <v>24</v>
       </c>
@@ -12402,7 +12392,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>283</v>
       </c>
@@ -12419,7 +12409,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="15">
         <v>142</v>
       </c>
@@ -12436,7 +12426,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>201</v>
       </c>
@@ -12453,7 +12443,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="15">
         <v>232</v>
       </c>
@@ -12470,7 +12460,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="15">
         <v>336</v>
       </c>
@@ -12487,7 +12477,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>41</v>
       </c>
@@ -12504,7 +12494,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="15">
         <v>150</v>
       </c>
@@ -12521,7 +12511,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>155</v>
       </c>
@@ -12538,7 +12528,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>195</v>
       </c>
@@ -12555,7 +12545,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>327</v>
       </c>
@@ -12572,7 +12562,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>1</v>
       </c>
@@ -12589,7 +12579,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="15">
         <v>360</v>
       </c>
@@ -12606,7 +12596,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="15">
         <v>248</v>
       </c>
@@ -12621,7 +12611,7 @@
       </c>
       <c r="E273" s="17"/>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="15">
         <v>84</v>
       </c>
@@ -12636,7 +12626,7 @@
       </c>
       <c r="E274" s="17"/>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="15">
         <v>48</v>
       </c>
@@ -12653,7 +12643,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>137</v>
       </c>
@@ -12670,7 +12660,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>147</v>
       </c>
@@ -12687,7 +12677,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="15">
         <v>258</v>
       </c>
@@ -12704,7 +12694,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="15">
         <v>326</v>
       </c>
@@ -12721,7 +12711,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>293</v>
       </c>
@@ -12738,7 +12728,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>207</v>
       </c>
@@ -12755,7 +12745,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="15">
         <v>174</v>
       </c>
@@ -12772,7 +12762,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="15">
         <v>300</v>
       </c>
@@ -12789,7 +12779,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="15">
         <v>282</v>
       </c>
@@ -12806,7 +12796,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>351</v>
       </c>
@@ -12823,7 +12813,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>57</v>
       </c>
@@ -12840,7 +12830,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>95</v>
       </c>
@@ -12857,7 +12847,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>361</v>
       </c>
@@ -12874,7 +12864,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>93</v>
       </c>
@@ -12891,7 +12881,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>393</v>
       </c>
@@ -12906,7 +12896,7 @@
       </c>
       <c r="E290" s="17"/>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="15">
         <v>64</v>
       </c>
@@ -12923,7 +12913,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="15">
         <v>390</v>
       </c>
@@ -12940,7 +12930,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="15">
         <v>6</v>
       </c>
@@ -12957,7 +12947,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="15">
         <v>358</v>
       </c>
@@ -12974,7 +12964,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="15">
         <v>20</v>
       </c>
@@ -12991,7 +12981,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>377</v>
       </c>
@@ -13008,7 +12998,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="16"/>
       <c r="B297" s="10" t="s">
         <v>1320</v>
@@ -13021,7 +13011,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>15</v>
       </c>
@@ -13038,7 +13028,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="15">
         <v>102</v>
       </c>
@@ -13055,7 +13045,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>239</v>
       </c>
@@ -13072,7 +13062,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>225</v>
       </c>
@@ -13089,7 +13079,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>279</v>
       </c>
@@ -13106,7 +13096,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>221</v>
       </c>
@@ -13123,7 +13113,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="15">
         <v>362</v>
       </c>
@@ -13140,7 +13130,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="15">
         <v>228</v>
       </c>
@@ -13157,7 +13147,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="15">
         <v>188</v>
       </c>
@@ -13174,7 +13164,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>263</v>
       </c>
@@ -13191,7 +13181,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>9</v>
       </c>
@@ -13208,7 +13198,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="15">
         <v>378</v>
       </c>
@@ -13225,7 +13215,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="15">
         <v>116</v>
       </c>
@@ -13240,7 +13230,7 @@
       </c>
       <c r="E310" s="17"/>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="15">
         <v>18</v>
       </c>
@@ -13257,7 +13247,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>141</v>
       </c>
@@ -13274,7 +13264,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="15">
         <v>208</v>
       </c>
@@ -13291,7 +13281,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>53</v>
       </c>
@@ -13308,7 +13298,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>157</v>
       </c>
@@ -13325,7 +13315,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="15">
         <v>216</v>
       </c>
@@ -13342,7 +13332,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="15">
         <v>12</v>
       </c>
@@ -13359,7 +13349,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>167</v>
       </c>
@@ -13376,7 +13366,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="15">
         <v>66</v>
       </c>
@@ -13393,7 +13383,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="15">
         <v>60</v>
       </c>
@@ -13410,7 +13400,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="15">
         <v>86</v>
       </c>
@@ -13427,7 +13417,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>135</v>
       </c>
@@ -13442,7 +13432,7 @@
       </c>
       <c r="E322" s="17"/>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>183</v>
       </c>
@@ -13459,7 +13449,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="15">
         <v>82</v>
       </c>
@@ -13474,7 +13464,7 @@
       </c>
       <c r="E324" s="17"/>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="15">
         <v>222</v>
       </c>
@@ -13491,7 +13481,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>259</v>
       </c>
@@ -13508,7 +13498,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>295</v>
       </c>
@@ -13525,7 +13515,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>261</v>
       </c>
@@ -13542,7 +13532,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="15">
         <v>96</v>
       </c>
@@ -13559,7 +13549,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>61</v>
       </c>
@@ -13576,7 +13566,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="15">
         <v>58</v>
       </c>
@@ -13593,7 +13583,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>305</v>
       </c>
@@ -13610,7 +13600,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="15">
         <v>170</v>
       </c>
@@ -13627,7 +13617,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>189</v>
       </c>
@@ -13644,7 +13634,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>175</v>
       </c>
@@ -13661,7 +13651,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="15">
         <v>346</v>
       </c>
@@ -13678,7 +13668,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>73</v>
       </c>
@@ -13695,7 +13685,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>359</v>
       </c>
@@ -13712,7 +13702,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>127</v>
       </c>
@@ -13729,7 +13719,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="15">
         <v>392</v>
       </c>
@@ -13744,7 +13734,7 @@
       </c>
       <c r="E340" s="17"/>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="15">
         <v>200</v>
       </c>
@@ -13761,7 +13751,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>353</v>
       </c>
@@ -13778,7 +13768,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>111</v>
       </c>
@@ -13795,7 +13785,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>99</v>
       </c>
@@ -13812,7 +13802,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>277</v>
       </c>
@@ -13827,7 +13817,7 @@
       </c>
       <c r="E345" s="17"/>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>43</v>
       </c>
@@ -13844,7 +13834,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="15">
         <v>244</v>
       </c>
@@ -13861,7 +13851,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>103</v>
       </c>
@@ -13878,7 +13868,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>19</v>
       </c>
@@ -13895,7 +13885,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="15">
         <v>198</v>
       </c>
@@ -13912,7 +13902,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>105</v>
       </c>
@@ -13929,7 +13919,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="15">
         <v>322</v>
       </c>
@@ -13946,7 +13936,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="15">
         <v>308</v>
       </c>
@@ -13963,7 +13953,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>217</v>
       </c>
@@ -13980,7 +13970,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>255</v>
       </c>
@@ -13997,7 +13987,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>115</v>
       </c>
@@ -14012,7 +14002,7 @@
       </c>
       <c r="E356" s="17"/>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>179</v>
       </c>
@@ -14027,7 +14017,7 @@
       </c>
       <c r="E357" s="17"/>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="15">
         <v>284</v>
       </c>
@@ -14044,7 +14034,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="15">
         <v>250</v>
       </c>
@@ -14061,7 +14051,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>365</v>
       </c>
@@ -14078,7 +14068,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>139</v>
       </c>
@@ -14095,7 +14085,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="15">
         <v>8</v>
       </c>
@@ -14112,7 +14102,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="15">
         <v>122</v>
       </c>
@@ -14127,7 +14117,7 @@
       </c>
       <c r="E363" s="17"/>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>123</v>
       </c>
@@ -14142,7 +14132,7 @@
       </c>
       <c r="E364" s="17"/>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>45</v>
       </c>
@@ -14157,7 +14147,7 @@
       </c>
       <c r="E365" s="17"/>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="15">
         <v>370</v>
       </c>
@@ -14174,7 +14164,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>357</v>
       </c>
@@ -14189,7 +14179,7 @@
       </c>
       <c r="E367" s="17"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="15">
         <v>184</v>
       </c>
@@ -14206,7 +14196,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>163</v>
       </c>
@@ -14223,7 +14213,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="15">
         <v>204</v>
       </c>
@@ -14240,7 +14230,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="15">
         <v>356</v>
       </c>
@@ -14255,7 +14245,7 @@
       </c>
       <c r="E371" s="17"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="15">
         <v>298</v>
       </c>
@@ -14272,7 +14262,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>177</v>
       </c>
@@ -14289,7 +14279,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>203</v>
       </c>
@@ -14306,7 +14296,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="15">
         <v>246</v>
       </c>
@@ -14323,7 +14313,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="15">
         <v>234</v>
       </c>
@@ -14340,7 +14330,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>173</v>
       </c>
@@ -14357,7 +14347,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>311</v>
       </c>
@@ -14374,7 +14364,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>309</v>
       </c>
@@ -14391,7 +14381,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="15">
         <v>62</v>
       </c>
@@ -14408,7 +14398,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="15">
         <v>238</v>
       </c>
@@ -14425,7 +14415,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>335</v>
       </c>
@@ -14442,7 +14432,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>243</v>
       </c>
@@ -14459,7 +14449,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="15">
         <v>132</v>
       </c>
@@ -14476,7 +14466,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>391</v>
       </c>
@@ -14493,7 +14483,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="15">
         <v>268</v>
       </c>
@@ -14510,7 +14500,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>383</v>
       </c>
@@ -14527,7 +14517,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>237</v>
       </c>
@@ -14542,7 +14532,7 @@
       </c>
       <c r="E388" s="17"/>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>11</v>
       </c>
@@ -14559,7 +14549,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="15">
         <v>236</v>
       </c>
@@ -14576,7 +14566,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>363</v>
       </c>
@@ -14593,7 +14583,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>107</v>
       </c>
@@ -14610,7 +14600,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>113</v>
       </c>
@@ -14627,7 +14617,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>245</v>
       </c>
@@ -14642,7 +14632,7 @@
       </c>
       <c r="E394" s="17"/>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>169</v>
       </c>
@@ -14659,7 +14649,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="15">
         <v>114</v>
       </c>
@@ -14676,7 +14666,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="15">
         <v>52</v>
       </c>
@@ -14693,7 +14683,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="15">
         <v>136</v>
       </c>
@@ -14710,7 +14700,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>371</v>
       </c>
@@ -14736,7 +14726,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E399">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$E4="P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14749,225 +14739,225 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>799</v>
       </c>
@@ -14978,1849 +14968,1849 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A367"/>
   <sheetViews>
     <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>530</v>
       </c>
@@ -16834,19 +16824,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:E278"/>
   <sheetViews>
     <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>831</v>
       </c>
@@ -16857,7 +16847,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>834</v>
       </c>
@@ -16868,7 +16858,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>837</v>
       </c>
@@ -16876,7 +16866,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>839</v>
       </c>
@@ -16887,7 +16877,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>841</v>
       </c>
@@ -16895,7 +16885,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>841</v>
       </c>
@@ -16906,7 +16896,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>844</v>
       </c>
@@ -16914,7 +16904,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>846</v>
       </c>
@@ -16925,7 +16915,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>849</v>
       </c>
@@ -16936,7 +16926,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>853</v>
       </c>
@@ -16947,7 +16937,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>853</v>
       </c>
@@ -16955,7 +16945,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>853</v>
       </c>
@@ -16963,7 +16953,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>853</v>
       </c>
@@ -16974,7 +16964,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>859</v>
       </c>
@@ -16985,7 +16975,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>862</v>
       </c>
@@ -16993,7 +16983,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>864</v>
       </c>
@@ -17001,7 +16991,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>866</v>
       </c>
@@ -17009,7 +16999,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>868</v>
       </c>
@@ -17017,7 +17007,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>869</v>
       </c>
@@ -17025,7 +17015,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>871</v>
       </c>
@@ -17036,7 +17026,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>874</v>
       </c>
@@ -17047,7 +17037,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>877</v>
       </c>
@@ -17058,7 +17048,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>879</v>
       </c>
@@ -17069,7 +17059,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>883</v>
       </c>
@@ -17077,7 +17067,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>885</v>
       </c>
@@ -17085,7 +17075,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>887</v>
       </c>
@@ -17096,7 +17086,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>890</v>
       </c>
@@ -17104,7 +17094,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>892</v>
       </c>
@@ -17115,7 +17105,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>895</v>
       </c>
@@ -17126,7 +17116,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>895</v>
       </c>
@@ -17134,7 +17124,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>899</v>
       </c>
@@ -17145,7 +17135,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>903</v>
       </c>
@@ -17153,7 +17143,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>905</v>
       </c>
@@ -17161,7 +17151,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>907</v>
       </c>
@@ -17169,7 +17159,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>908</v>
       </c>
@@ -17177,7 +17167,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>909</v>
       </c>
@@ -17185,7 +17175,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>909</v>
       </c>
@@ -17193,7 +17183,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>912</v>
       </c>
@@ -17204,7 +17194,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>914</v>
       </c>
@@ -17212,7 +17202,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>916</v>
       </c>
@@ -17226,7 +17216,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>919</v>
       </c>
@@ -17234,7 +17224,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>921</v>
       </c>
@@ -17245,7 +17235,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>924</v>
       </c>
@@ -17256,7 +17246,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>927</v>
       </c>
@@ -17264,7 +17254,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>929</v>
       </c>
@@ -17272,7 +17262,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>931</v>
       </c>
@@ -17280,7 +17270,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>933</v>
       </c>
@@ -17288,7 +17278,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>935</v>
       </c>
@@ -17299,7 +17289,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>938</v>
       </c>
@@ -17307,7 +17297,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>940</v>
       </c>
@@ -17318,7 +17308,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>943</v>
       </c>
@@ -17326,7 +17316,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>945</v>
       </c>
@@ -17337,7 +17327,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>947</v>
       </c>
@@ -17348,7 +17338,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>950</v>
       </c>
@@ -17356,7 +17346,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>950</v>
       </c>
@@ -17364,7 +17354,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>953</v>
       </c>
@@ -17372,7 +17362,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>955</v>
       </c>
@@ -17380,7 +17370,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>957</v>
       </c>
@@ -17388,7 +17378,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>959</v>
       </c>
@@ -17396,7 +17386,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>959</v>
       </c>
@@ -17404,7 +17394,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>962</v>
       </c>
@@ -17412,7 +17402,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>964</v>
       </c>
@@ -17420,7 +17410,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>964</v>
       </c>
@@ -17428,7 +17418,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>967</v>
       </c>
@@ -17439,7 +17429,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>968</v>
       </c>
@@ -17447,7 +17437,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>968</v>
       </c>
@@ -17455,7 +17445,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>971</v>
       </c>
@@ -17463,7 +17453,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>973</v>
       </c>
@@ -17474,7 +17464,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>973</v>
       </c>
@@ -17482,7 +17472,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>973</v>
       </c>
@@ -17490,7 +17480,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>973</v>
       </c>
@@ -17498,7 +17488,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>978</v>
       </c>
@@ -17506,7 +17496,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>980</v>
       </c>
@@ -17514,7 +17504,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>982</v>
       </c>
@@ -17522,7 +17512,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>983</v>
       </c>
@@ -17530,7 +17520,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>984</v>
       </c>
@@ -17538,7 +17528,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>986</v>
       </c>
@@ -17546,7 +17536,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>988</v>
       </c>
@@ -17554,7 +17544,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>990</v>
       </c>
@@ -17565,7 +17555,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>992</v>
       </c>
@@ -17576,7 +17566,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>993</v>
       </c>
@@ -17587,7 +17577,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>993</v>
       </c>
@@ -17598,7 +17588,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>997</v>
       </c>
@@ -17609,7 +17599,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>999</v>
       </c>
@@ -17617,7 +17607,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>1001</v>
       </c>
@@ -17628,7 +17618,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>1001</v>
       </c>
@@ -17636,7 +17626,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>1003</v>
       </c>
@@ -17644,7 +17634,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>1005</v>
       </c>
@@ -17652,7 +17642,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>1007</v>
       </c>
@@ -17660,7 +17650,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>1008</v>
       </c>
@@ -17668,7 +17658,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>1009</v>
       </c>
@@ -17676,7 +17666,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>1011</v>
       </c>
@@ -17684,7 +17674,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>1013</v>
       </c>
@@ -17692,7 +17682,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>1013</v>
       </c>
@@ -17700,7 +17690,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>1016</v>
       </c>
@@ -17708,7 +17698,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>1018</v>
       </c>
@@ -17716,7 +17706,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>1020</v>
       </c>
@@ -17727,7 +17717,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>1021</v>
       </c>
@@ -17738,7 +17728,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>1024</v>
       </c>
@@ -17746,7 +17736,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>1025</v>
       </c>
@@ -17757,7 +17747,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>1027</v>
       </c>
@@ -17765,7 +17755,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>1029</v>
       </c>
@@ -17773,7 +17763,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>1031</v>
       </c>
@@ -17781,7 +17771,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>1033</v>
       </c>
@@ -17789,7 +17779,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>1035</v>
       </c>
@@ -17797,7 +17787,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>1037</v>
       </c>
@@ -17805,7 +17795,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>1039</v>
       </c>
@@ -17813,7 +17803,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>1041</v>
       </c>
@@ -17821,7 +17811,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>1041</v>
       </c>
@@ -17832,7 +17822,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>1043</v>
       </c>
@@ -17843,7 +17833,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>1045</v>
       </c>
@@ -17851,7 +17841,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>1046</v>
       </c>
@@ -17862,7 +17852,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>1049</v>
       </c>
@@ -17870,7 +17860,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>1051</v>
       </c>
@@ -17878,7 +17868,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>1053</v>
       </c>
@@ -17889,7 +17879,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>1055</v>
       </c>
@@ -17897,7 +17887,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>1056</v>
       </c>
@@ -17905,7 +17895,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>1057</v>
       </c>
@@ -17913,7 +17903,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>1058</v>
       </c>
@@ -17921,7 +17911,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>1060</v>
       </c>
@@ -17932,7 +17922,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>1062</v>
       </c>
@@ -17940,7 +17930,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>1064</v>
       </c>
@@ -17954,7 +17944,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>1068</v>
       </c>
@@ -17965,7 +17955,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>1070</v>
       </c>
@@ -17976,7 +17966,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>1071</v>
       </c>
@@ -17987,7 +17977,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>1072</v>
       </c>
@@ -17998,7 +17988,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>946</v>
       </c>
@@ -18006,7 +17996,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>1076</v>
       </c>
@@ -18017,7 +18007,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>1079</v>
       </c>
@@ -18025,7 +18015,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>1079</v>
       </c>
@@ -18036,7 +18026,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>1082</v>
       </c>
@@ -18044,7 +18034,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>1082</v>
       </c>
@@ -18055,7 +18045,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>1085</v>
       </c>
@@ -18063,7 +18053,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>1085</v>
       </c>
@@ -18074,7 +18064,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>1089</v>
       </c>
@@ -18082,7 +18072,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>1091</v>
       </c>
@@ -18093,7 +18083,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>1092</v>
       </c>
@@ -18104,7 +18094,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>1095</v>
       </c>
@@ -18112,7 +18102,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>1096</v>
       </c>
@@ -18120,7 +18110,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>1098</v>
       </c>
@@ -18134,7 +18124,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>1100</v>
       </c>
@@ -18142,7 +18132,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>860</v>
       </c>
@@ -18150,7 +18140,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>1102</v>
       </c>
@@ -18158,7 +18148,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>1103</v>
       </c>
@@ -18169,7 +18159,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>1106</v>
       </c>
@@ -18180,7 +18170,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>1108</v>
       </c>
@@ -18188,7 +18178,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>1110</v>
       </c>
@@ -18199,7 +18189,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>1113</v>
       </c>
@@ -18207,7 +18197,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>1114</v>
       </c>
@@ -18215,7 +18205,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>1116</v>
       </c>
@@ -18226,7 +18216,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>1118</v>
       </c>
@@ -18237,7 +18227,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>1120</v>
       </c>
@@ -18245,7 +18235,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>1121</v>
       </c>
@@ -18253,7 +18243,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>1123</v>
       </c>
@@ -18261,7 +18251,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>1125</v>
       </c>
@@ -18272,7 +18262,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>1128</v>
       </c>
@@ -18283,7 +18273,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>1128</v>
       </c>
@@ -18291,7 +18281,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>1131</v>
       </c>
@@ -18302,7 +18292,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>1133</v>
       </c>
@@ -18310,7 +18300,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>1135</v>
       </c>
@@ -18318,7 +18308,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>1136</v>
       </c>
@@ -18326,7 +18316,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>1138</v>
       </c>
@@ -18337,7 +18327,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>1140</v>
       </c>
@@ -18348,7 +18338,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>1140</v>
       </c>
@@ -18359,7 +18349,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>1140</v>
       </c>
@@ -18370,7 +18360,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>1140</v>
       </c>
@@ -18381,7 +18371,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>1145</v>
       </c>
@@ -18389,7 +18379,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>1147</v>
       </c>
@@ -18397,7 +18387,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>1137</v>
       </c>
@@ -18405,7 +18395,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>1137</v>
       </c>
@@ -18416,7 +18406,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>1137</v>
       </c>
@@ -18427,7 +18417,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>1150</v>
       </c>
@@ -18438,7 +18428,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>1150</v>
       </c>
@@ -18446,7 +18436,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>1150</v>
       </c>
@@ -18457,7 +18447,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>1150</v>
       </c>
@@ -18468,7 +18458,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>1150</v>
       </c>
@@ -18479,7 +18469,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>1150</v>
       </c>
@@ -18490,7 +18480,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>1160</v>
       </c>
@@ -18501,7 +18491,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>1163</v>
       </c>
@@ -18512,7 +18502,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>1165</v>
       </c>
@@ -18523,7 +18513,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>1168</v>
       </c>
@@ -18531,7 +18521,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>1170</v>
       </c>
@@ -18539,7 +18529,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>1172</v>
       </c>
@@ -18547,7 +18537,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>1174</v>
       </c>
@@ -18558,7 +18548,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>1174</v>
       </c>
@@ -18566,7 +18556,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>1176</v>
       </c>
@@ -18577,7 +18567,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>1176</v>
       </c>
@@ -18588,7 +18578,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>1178</v>
       </c>
@@ -18599,7 +18589,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>1181</v>
       </c>
@@ -18607,7 +18597,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>1182</v>
       </c>
@@ -18618,7 +18608,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>1182</v>
       </c>
@@ -18629,7 +18619,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>1182</v>
       </c>
@@ -18640,7 +18630,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>1187</v>
       </c>
@@ -18648,7 +18638,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>1187</v>
       </c>
@@ -18659,7 +18649,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>1190</v>
       </c>
@@ -18667,7 +18657,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>1192</v>
       </c>
@@ -18675,7 +18665,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>1194</v>
       </c>
@@ -18683,7 +18673,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>1196</v>
       </c>
@@ -18691,7 +18681,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>1198</v>
       </c>
@@ -18699,7 +18689,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>1200</v>
       </c>
@@ -18710,7 +18700,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>1203</v>
       </c>
@@ -18721,7 +18711,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>1205</v>
       </c>
@@ -18729,7 +18719,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>1207</v>
       </c>
@@ -18740,7 +18730,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>1208</v>
       </c>
@@ -18748,7 +18738,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>1210</v>
       </c>
@@ -18756,7 +18746,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>1212</v>
       </c>
@@ -18764,7 +18754,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>1214</v>
       </c>
@@ -18772,7 +18762,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>1216</v>
       </c>
@@ -18780,7 +18770,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>1217</v>
       </c>
@@ -18791,7 +18781,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>1218</v>
       </c>
@@ -18799,7 +18789,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>1219</v>
       </c>
@@ -18807,7 +18797,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>1221</v>
       </c>
@@ -18818,7 +18808,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>1221</v>
       </c>
@@ -18826,7 +18816,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>1222</v>
       </c>
@@ -18834,7 +18824,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>1223</v>
       </c>
@@ -18842,7 +18832,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>1225</v>
       </c>
@@ -18850,7 +18840,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>1226</v>
       </c>
@@ -18858,7 +18848,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>1227</v>
       </c>
@@ -18866,7 +18856,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>1228</v>
       </c>
@@ -18874,7 +18864,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>1229</v>
       </c>
@@ -18882,7 +18872,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>1231</v>
       </c>
@@ -18890,7 +18880,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>1232</v>
       </c>
@@ -18898,7 +18888,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>1234</v>
       </c>
@@ -18906,7 +18896,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>1236</v>
       </c>
@@ -18917,7 +18907,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>1237</v>
       </c>
@@ -18931,7 +18921,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>1238</v>
       </c>
@@ -18939,7 +18929,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>1240</v>
       </c>
@@ -18947,7 +18937,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>1240</v>
       </c>
@@ -18955,7 +18945,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>1242</v>
       </c>
@@ -18963,7 +18953,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>1244</v>
       </c>
@@ -18971,7 +18961,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>1246</v>
       </c>
@@ -18979,7 +18969,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>1248</v>
       </c>
@@ -18990,7 +18980,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>1249</v>
       </c>
@@ -18998,7 +18988,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>1250</v>
       </c>
@@ -19009,7 +18999,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>1252</v>
       </c>
@@ -19017,7 +19007,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>1253</v>
       </c>
@@ -19025,7 +19015,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>1255</v>
       </c>
@@ -19033,7 +19023,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>1257</v>
       </c>
@@ -19041,7 +19031,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>1258</v>
       </c>
@@ -19049,7 +19039,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>1259</v>
       </c>
@@ -19057,7 +19047,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>1260</v>
       </c>
@@ -19065,7 +19055,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>1261</v>
       </c>
@@ -19076,7 +19066,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>1263</v>
       </c>
@@ -19087,7 +19077,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>1265</v>
       </c>
@@ -19098,7 +19088,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>1268</v>
       </c>
@@ -19106,7 +19096,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>1269</v>
       </c>
@@ -19114,7 +19104,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>1270</v>
       </c>
@@ -19122,7 +19112,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>1270</v>
       </c>
@@ -19130,7 +19120,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>1270</v>
       </c>
@@ -19138,7 +19128,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>1273</v>
       </c>
@@ -19146,7 +19136,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>1274</v>
       </c>
@@ -19157,7 +19147,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>1275</v>
       </c>
@@ -19165,7 +19155,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>1276</v>
       </c>
@@ -19173,7 +19163,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>1278</v>
       </c>
@@ -19184,7 +19174,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>1279</v>
       </c>
@@ -19192,7 +19182,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>1281</v>
       </c>
@@ -19200,7 +19190,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>1281</v>
       </c>
@@ -19208,7 +19198,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>1284</v>
       </c>
@@ -19216,7 +19206,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>1286</v>
       </c>
@@ -19224,7 +19214,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>1287</v>
       </c>
@@ -19235,7 +19225,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>1288</v>
       </c>
@@ -19243,7 +19233,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>1290</v>
       </c>
@@ -19251,7 +19241,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>1291</v>
       </c>
@@ -19259,7 +19249,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>1292</v>
       </c>
@@ -19267,7 +19257,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>1293</v>
       </c>
@@ -19275,7 +19265,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>1294</v>
       </c>
@@ -19283,7 +19273,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>1296</v>
       </c>
@@ -19291,7 +19281,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>1297</v>
       </c>
@@ -19299,7 +19289,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>1298</v>
       </c>
@@ -19307,7 +19297,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>1300</v>
       </c>
@@ -19315,7 +19305,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>1301</v>
       </c>
@@ -19323,7 +19313,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>1303</v>
       </c>
@@ -19331,7 +19321,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>1304</v>
       </c>
@@ -19339,7 +19329,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>1306</v>
       </c>
@@ -19350,7 +19340,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>1307</v>
       </c>
@@ -19361,7 +19351,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>1309</v>
       </c>

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17A50A-249D-4D9D-A45D-4CA58275C585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -30,12 +29,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="1325">
   <si>
     <t>OFFICE</t>
   </si>
@@ -4015,7 +4025,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4208,18 +4218,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4352,6 +4350,18 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4371,7 +4381,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ASUS" refreshedDate="45034.434464467595" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="396" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ASUS" refreshedDate="45034.434464467595" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="396">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:E399" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
@@ -7224,7 +7234,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -7541,36 +7551,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A3:E399" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E399" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:E399" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A3:E399">
     <filterColumn colId="4">
       <filters>
         <filter val="P"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A121:E399">
+  <sortState ref="A121:E399">
     <sortCondition ref="C3:C399"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total No." dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAME" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="OFFICE"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarks" dataDxfId="2"/>
+    <tableColumn id="1" name="Total No." dataDxfId="3"/>
+    <tableColumn id="2" name="NAME" dataDxfId="2"/>
+    <tableColumn id="4" name="Column1"/>
+    <tableColumn id="3" name="OFFICE"/>
+    <tableColumn id="5" name="Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:A367" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:A367" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A367">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A367" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A367"/>
+  <sortState ref="A2:A367">
     <sortCondition ref="A1:A367"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NAME"/>
+    <tableColumn id="1" name="NAME"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7838,62 +7848,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>440</v>
       </c>
@@ -7901,7 +7911,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -7909,7 +7919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>307</v>
       </c>
@@ -7917,7 +7927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -7925,7 +7935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -7933,7 +7943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>367</v>
       </c>
@@ -7941,7 +7951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>410</v>
       </c>
@@ -7949,7 +7959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>382</v>
       </c>
@@ -7957,7 +7967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>377</v>
       </c>
@@ -7965,7 +7975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>322</v>
       </c>
@@ -7973,7 +7983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -7981,7 +7991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>328</v>
       </c>
@@ -7989,7 +7999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>378</v>
       </c>
@@ -7997,7 +8007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
@@ -8005,7 +8015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>330</v>
       </c>
@@ -8013,7 +8023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -8021,7 +8031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>333</v>
       </c>
@@ -8029,7 +8039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
@@ -8037,7 +8047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>376</v>
       </c>
@@ -8045,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
@@ -8053,7 +8063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>338</v>
       </c>
@@ -8061,7 +8071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>110</v>
       </c>
@@ -8069,7 +8079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>119</v>
       </c>
@@ -8077,7 +8087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>157</v>
       </c>
@@ -8085,7 +8095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>341</v>
       </c>
@@ -8093,7 +8103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>411</v>
       </c>
@@ -8101,7 +8111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>203</v>
       </c>
@@ -8109,7 +8119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>213</v>
       </c>
@@ -8117,7 +8127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>344</v>
       </c>
@@ -8125,7 +8135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>416</v>
       </c>
@@ -8133,7 +8143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>412</v>
       </c>
@@ -8141,7 +8151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>406</v>
       </c>
@@ -8149,7 +8159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>368</v>
       </c>
@@ -8157,7 +8167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>369</v>
       </c>
@@ -8165,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>372</v>
       </c>
@@ -8173,7 +8183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>405</v>
       </c>
@@ -8181,7 +8191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>413</v>
       </c>
@@ -8189,7 +8199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>414</v>
       </c>
@@ -8197,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>267</v>
       </c>
@@ -8205,7 +8215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>359</v>
       </c>
@@ -8213,7 +8223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>304</v>
       </c>
@@ -8221,7 +8231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>363</v>
       </c>
@@ -8229,7 +8239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>1324</v>
       </c>
@@ -8237,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>830</v>
       </c>
@@ -8245,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>829</v>
       </c>
@@ -8253,7 +8263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>441</v>
       </c>
@@ -8267,37 +8277,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>364</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>438</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>409</v>
       </c>
@@ -8314,7 +8324,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -8327,7 +8337,7 @@
       </c>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>7</v>
       </c>
@@ -8340,7 +8350,7 @@
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>23</v>
       </c>
@@ -8351,11 +8361,9 @@
       <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>25</v>
       </c>
@@ -8366,11 +8374,9 @@
       <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>27</v>
       </c>
@@ -8383,7 +8389,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>21</v>
       </c>
@@ -8398,7 +8404,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>31</v>
       </c>
@@ -8409,11 +8415,9 @@
       <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>29</v>
       </c>
@@ -8424,11 +8428,9 @@
       <c r="D11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>34</v>
       </c>
@@ -8441,7 +8443,7 @@
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>35</v>
       </c>
@@ -8452,11 +8454,9 @@
       <c r="D13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>33</v>
       </c>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>28</v>
       </c>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>30</v>
       </c>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>37</v>
       </c>
@@ -8506,11 +8506,9 @@
       <c r="D17" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>38</v>
       </c>
@@ -8521,11 +8519,9 @@
       <c r="D18" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>253</v>
       </c>
@@ -8536,11 +8532,9 @@
       <c r="D19" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>40</v>
       </c>
@@ -8555,7 +8549,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>36</v>
       </c>
@@ -8570,7 +8564,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>227</v>
       </c>
@@ -8583,7 +8577,7 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>341</v>
       </c>
@@ -8596,7 +8590,7 @@
       </c>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>342</v>
       </c>
@@ -8607,11 +8601,9 @@
       <c r="D24" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>229</v>
       </c>
@@ -8624,7 +8616,7 @@
       </c>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>46</v>
       </c>
@@ -8639,7 +8631,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>47</v>
       </c>
@@ -8654,7 +8646,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>44</v>
       </c>
@@ -8669,7 +8661,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>49</v>
       </c>
@@ -8685,7 +8677,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>162</v>
       </c>
@@ -8700,7 +8692,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>344</v>
       </c>
@@ -8711,11 +8703,9 @@
       <c r="D31" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>68</v>
       </c>
@@ -8730,7 +8720,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>67</v>
       </c>
@@ -8745,7 +8735,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>71</v>
       </c>
@@ -8760,7 +8750,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>80</v>
       </c>
@@ -8775,7 +8765,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>87</v>
       </c>
@@ -8790,7 +8780,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>85</v>
       </c>
@@ -8805,7 +8795,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>91</v>
       </c>
@@ -8820,7 +8810,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>79</v>
       </c>
@@ -8835,7 +8825,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>90</v>
       </c>
@@ -8850,7 +8840,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>92</v>
       </c>
@@ -8865,7 +8855,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>88</v>
       </c>
@@ -8880,7 +8870,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>78</v>
       </c>
@@ -8895,7 +8885,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>89</v>
       </c>
@@ -8910,7 +8900,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>366</v>
       </c>
@@ -8925,7 +8915,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>112</v>
       </c>
@@ -8938,7 +8928,7 @@
       </c>
       <c r="E46" s="17"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>128</v>
       </c>
@@ -8953,7 +8943,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>124</v>
       </c>
@@ -8968,7 +8958,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>125</v>
       </c>
@@ -8981,7 +8971,7 @@
       </c>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>129</v>
       </c>
@@ -8996,7 +8986,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>131</v>
       </c>
@@ -9011,7 +9001,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>126</v>
       </c>
@@ -9026,7 +9016,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>164</v>
       </c>
@@ -9041,7 +9031,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>151</v>
       </c>
@@ -9056,7 +9046,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>146</v>
       </c>
@@ -9071,7 +9061,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>171</v>
       </c>
@@ -9086,7 +9076,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>206</v>
       </c>
@@ -9101,7 +9091,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>213</v>
       </c>
@@ -9116,7 +9106,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>196</v>
       </c>
@@ -9131,7 +9121,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>214</v>
       </c>
@@ -9146,7 +9136,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>182</v>
       </c>
@@ -9161,7 +9151,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>205</v>
       </c>
@@ -9176,7 +9166,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>181</v>
       </c>
@@ -9191,7 +9181,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>180</v>
       </c>
@@ -9206,7 +9196,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>190</v>
       </c>
@@ -9221,7 +9211,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>199</v>
       </c>
@@ -9236,7 +9226,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>197</v>
       </c>
@@ -9251,7 +9241,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>219</v>
       </c>
@@ -9266,7 +9256,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>223</v>
       </c>
@@ -9281,7 +9271,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>220</v>
       </c>
@@ -9296,7 +9286,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>233</v>
       </c>
@@ -9311,7 +9301,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>235</v>
       </c>
@@ -9326,7 +9316,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>379</v>
       </c>
@@ -9341,7 +9331,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>376</v>
       </c>
@@ -9356,7 +9346,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>372</v>
       </c>
@@ -9371,7 +9361,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>252</v>
       </c>
@@ -9386,7 +9376,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>249</v>
       </c>
@@ -9401,7 +9391,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>251</v>
       </c>
@@ -9416,7 +9406,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>264</v>
       </c>
@@ -9431,7 +9421,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>262</v>
       </c>
@@ -9446,7 +9436,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>266</v>
       </c>
@@ -9461,7 +9451,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>265</v>
       </c>
@@ -9476,7 +9466,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>382</v>
       </c>
@@ -9491,7 +9481,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>257</v>
       </c>
@@ -9506,7 +9496,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>254</v>
       </c>
@@ -9521,7 +9511,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>260</v>
       </c>
@@ -9536,7 +9526,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>270</v>
       </c>
@@ -9551,7 +9541,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>285</v>
       </c>
@@ -9566,7 +9556,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>296</v>
       </c>
@@ -9581,7 +9571,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>297</v>
       </c>
@@ -9596,7 +9586,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>286</v>
       </c>
@@ -9611,7 +9601,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>292</v>
       </c>
@@ -9626,7 +9616,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>294</v>
       </c>
@@ -9641,7 +9631,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>287</v>
       </c>
@@ -9656,7 +9646,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>289</v>
       </c>
@@ -9671,7 +9661,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <v>302</v>
       </c>
@@ -9686,7 +9676,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <v>288</v>
       </c>
@@ -9701,7 +9691,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>291</v>
       </c>
@@ -9716,7 +9706,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>303</v>
       </c>
@@ -9731,7 +9721,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>386</v>
       </c>
@@ -9746,7 +9736,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>324</v>
       </c>
@@ -9761,7 +9751,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>333</v>
       </c>
@@ -9776,7 +9766,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>331</v>
       </c>
@@ -9791,7 +9781,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <v>316</v>
       </c>
@@ -9806,7 +9796,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>319</v>
       </c>
@@ -9819,7 +9809,7 @@
       </c>
       <c r="E105" s="17"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>315</v>
       </c>
@@ -9834,7 +9824,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>313</v>
       </c>
@@ -9849,7 +9839,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>317</v>
       </c>
@@ -9864,7 +9854,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>328</v>
       </c>
@@ -9879,7 +9869,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>329</v>
       </c>
@@ -9894,7 +9884,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <v>330</v>
       </c>
@@ -9909,7 +9899,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>312</v>
       </c>
@@ -9924,7 +9914,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <v>318</v>
       </c>
@@ -9939,7 +9929,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <v>314</v>
       </c>
@@ -9952,7 +9942,7 @@
       </c>
       <c r="E114" s="17"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="16">
         <v>323</v>
       </c>
@@ -9967,7 +9957,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="16">
         <v>321</v>
       </c>
@@ -9982,7 +9972,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <v>332</v>
       </c>
@@ -9997,7 +9987,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <v>320</v>
       </c>
@@ -10012,7 +10002,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <v>310</v>
       </c>
@@ -10023,11 +10013,9 @@
       <c r="D119" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E119" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="17"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <v>394</v>
       </c>
@@ -10042,7 +10030,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
         <v>75</v>
       </c>
@@ -10059,7 +10047,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <v>364</v>
       </c>
@@ -10074,7 +10062,7 @@
       </c>
       <c r="E122" s="17"/>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <v>108</v>
       </c>
@@ -10091,7 +10079,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <v>276</v>
       </c>
@@ -10108,7 +10096,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <v>98</v>
       </c>
@@ -10125,7 +10113,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <v>343</v>
       </c>
@@ -10142,7 +10130,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16">
         <v>385</v>
       </c>
@@ -10159,7 +10147,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <v>194</v>
       </c>
@@ -10176,7 +10164,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16">
         <v>337</v>
       </c>
@@ -10193,7 +10181,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16">
         <v>161</v>
       </c>
@@ -10210,7 +10198,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16">
         <v>355</v>
       </c>
@@ -10227,7 +10215,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
         <v>374</v>
       </c>
@@ -10244,7 +10232,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16">
         <v>369</v>
       </c>
@@ -10261,7 +10249,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
         <v>210</v>
       </c>
@@ -10278,7 +10266,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <v>368</v>
       </c>
@@ -10295,7 +10283,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <v>2</v>
       </c>
@@ -10312,7 +10300,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
         <v>26</v>
       </c>
@@ -10329,7 +10317,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="16">
         <v>325</v>
       </c>
@@ -10346,7 +10334,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <v>187</v>
       </c>
@@ -10363,7 +10351,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
         <v>10</v>
       </c>
@@ -10380,7 +10368,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <v>70</v>
       </c>
@@ -10397,7 +10385,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <v>16</v>
       </c>
@@ -10414,7 +10402,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <v>218</v>
       </c>
@@ -10431,7 +10419,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <v>22</v>
       </c>
@@ -10448,7 +10436,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <v>224</v>
       </c>
@@ -10465,7 +10453,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
         <v>172</v>
       </c>
@@ -10482,7 +10470,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="16">
         <v>109</v>
       </c>
@@ -10499,7 +10487,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16">
         <v>59</v>
       </c>
@@ -10516,7 +10504,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <v>134</v>
       </c>
@@ -10533,7 +10521,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <v>120</v>
       </c>
@@ -10548,7 +10536,7 @@
       </c>
       <c r="E150" s="17"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <v>334</v>
       </c>
@@ -10565,7 +10553,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="16">
         <v>395</v>
       </c>
@@ -10582,7 +10570,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <v>230</v>
       </c>
@@ -10599,7 +10587,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16">
         <v>241</v>
       </c>
@@ -10616,7 +10604,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
         <v>278</v>
       </c>
@@ -10633,7 +10621,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <v>42</v>
       </c>
@@ -10650,7 +10638,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16">
         <v>81</v>
       </c>
@@ -10667,7 +10655,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <v>306</v>
       </c>
@@ -10684,7 +10672,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
         <v>140</v>
       </c>
@@ -10701,7 +10689,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
         <v>152</v>
       </c>
@@ -10718,7 +10706,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
         <v>50</v>
       </c>
@@ -10735,7 +10723,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="16">
         <v>339</v>
       </c>
@@ -10752,7 +10740,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <v>72</v>
       </c>
@@ -10769,7 +10757,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16">
         <v>191</v>
       </c>
@@ -10786,7 +10774,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="16">
         <v>143</v>
       </c>
@@ -10803,7 +10791,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="16">
         <v>51</v>
       </c>
@@ -10820,7 +10808,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="16">
         <v>13</v>
       </c>
@@ -10837,7 +10825,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15">
         <v>138</v>
       </c>
@@ -10854,7 +10842,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="16">
         <v>373</v>
       </c>
@@ -10871,7 +10859,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
         <v>118</v>
       </c>
@@ -10886,7 +10874,7 @@
       </c>
       <c r="E170" s="17"/>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16">
         <v>273</v>
       </c>
@@ -10903,7 +10891,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <v>304</v>
       </c>
@@ -10920,7 +10908,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <v>256</v>
       </c>
@@ -10937,7 +10925,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
         <v>106</v>
       </c>
@@ -10954,7 +10942,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="16">
         <v>375</v>
       </c>
@@ -10971,7 +10959,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="16">
         <v>77</v>
       </c>
@@ -10988,7 +10976,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
         <v>178</v>
       </c>
@@ -11003,7 +10991,7 @@
       </c>
       <c r="E177" s="17"/>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
         <v>76</v>
       </c>
@@ -11020,7 +11008,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="16">
         <v>121</v>
       </c>
@@ -11035,7 +11023,7 @@
       </c>
       <c r="E179" s="17"/>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <v>144</v>
       </c>
@@ -11050,7 +11038,7 @@
       </c>
       <c r="E180" s="17"/>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <v>156</v>
       </c>
@@ -11067,7 +11055,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16">
         <v>299</v>
       </c>
@@ -11084,7 +11072,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="16">
         <v>247</v>
       </c>
@@ -11099,7 +11087,7 @@
       </c>
       <c r="E183" s="17"/>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="16">
         <v>185</v>
       </c>
@@ -11116,7 +11104,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15">
         <v>110</v>
       </c>
@@ -11133,7 +11121,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
         <v>202</v>
       </c>
@@ -11150,7 +11138,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
         <v>130</v>
       </c>
@@ -11167,7 +11155,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="16">
         <v>231</v>
       </c>
@@ -11184,7 +11172,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <v>350</v>
       </c>
@@ -11201,7 +11189,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
         <v>352</v>
       </c>
@@ -11218,7 +11206,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <v>176</v>
       </c>
@@ -11235,7 +11223,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="16">
         <v>17</v>
       </c>
@@ -11252,7 +11240,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
         <v>272</v>
       </c>
@@ -11269,7 +11257,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="16">
         <v>133</v>
       </c>
@@ -11284,7 +11272,7 @@
       </c>
       <c r="E194" s="17"/>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="16">
         <v>267</v>
       </c>
@@ -11301,7 +11289,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
         <v>348</v>
       </c>
@@ -11316,7 +11304,7 @@
       </c>
       <c r="E196" s="17"/>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="16">
         <v>345</v>
       </c>
@@ -11331,7 +11319,7 @@
       </c>
       <c r="E197" s="17"/>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
         <v>380</v>
       </c>
@@ -11348,7 +11336,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="16">
         <v>307</v>
       </c>
@@ -11365,7 +11353,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <v>388</v>
       </c>
@@ -11382,7 +11370,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <v>14</v>
       </c>
@@ -11399,7 +11387,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <v>74</v>
       </c>
@@ -11416,7 +11404,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16">
         <v>275</v>
       </c>
@@ -11433,7 +11421,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="16">
         <v>55</v>
       </c>
@@ -11450,7 +11438,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="16">
         <v>389</v>
       </c>
@@ -11467,7 +11455,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
         <v>4</v>
       </c>
@@ -11484,7 +11472,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
         <v>186</v>
       </c>
@@ -11501,7 +11489,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="16">
         <v>117</v>
       </c>
@@ -11518,7 +11506,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="15">
         <v>240</v>
       </c>
@@ -11533,7 +11521,7 @@
       </c>
       <c r="E209" s="17"/>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
         <v>148</v>
       </c>
@@ -11550,7 +11538,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16">
         <v>381</v>
       </c>
@@ -11567,7 +11555,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="15">
         <v>32</v>
       </c>
@@ -11584,7 +11572,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15">
         <v>100</v>
       </c>
@@ -11601,7 +11589,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="16">
         <v>149</v>
       </c>
@@ -11618,7 +11606,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="16">
         <v>69</v>
       </c>
@@ -11635,7 +11623,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="15">
         <v>154</v>
       </c>
@@ -11652,7 +11640,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="16">
         <v>97</v>
       </c>
@@ -11669,7 +11657,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="16">
         <v>65</v>
       </c>
@@ -11686,7 +11674,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
         <v>280</v>
       </c>
@@ -11703,7 +11691,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="16">
         <v>281</v>
       </c>
@@ -11720,7 +11708,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="16">
         <v>153</v>
       </c>
@@ -11735,7 +11723,7 @@
       </c>
       <c r="E221" s="17"/>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="16">
         <v>367</v>
       </c>
@@ -11752,7 +11740,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="15">
         <v>54</v>
       </c>
@@ -11769,7 +11757,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16">
         <v>215</v>
       </c>
@@ -11786,7 +11774,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="16">
         <v>3</v>
       </c>
@@ -11803,7 +11791,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
         <v>166</v>
       </c>
@@ -11820,7 +11808,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="16">
         <v>211</v>
       </c>
@@ -11837,7 +11825,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
         <v>354</v>
       </c>
@@ -11854,7 +11842,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="15">
         <v>158</v>
       </c>
@@ -11871,7 +11859,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="15">
         <v>290</v>
       </c>
@@ -11886,7 +11874,7 @@
       </c>
       <c r="E230" s="17"/>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="15">
         <v>242</v>
       </c>
@@ -11903,7 +11891,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
         <v>192</v>
       </c>
@@ -11920,7 +11908,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="16">
         <v>165</v>
       </c>
@@ -11937,7 +11925,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
         <v>168</v>
       </c>
@@ -11954,7 +11942,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
         <v>160</v>
       </c>
@@ -11971,7 +11959,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="16">
         <v>63</v>
       </c>
@@ -11988,7 +11976,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="16">
         <v>349</v>
       </c>
@@ -12005,7 +11993,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="16">
         <v>271</v>
       </c>
@@ -12022,7 +12010,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="16">
         <v>145</v>
       </c>
@@ -12039,7 +12027,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="15">
         <v>340</v>
       </c>
@@ -12056,7 +12044,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="16">
         <v>39</v>
       </c>
@@ -12073,7 +12061,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="16">
         <v>101</v>
       </c>
@@ -12090,7 +12078,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="15">
         <v>56</v>
       </c>
@@ -12107,7 +12095,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="16">
         <v>301</v>
       </c>
@@ -12124,7 +12112,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="15">
         <v>94</v>
       </c>
@@ -12141,7 +12129,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="16">
         <v>119</v>
       </c>
@@ -12156,7 +12144,7 @@
       </c>
       <c r="E246" s="17"/>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="15">
         <v>104</v>
       </c>
@@ -12173,7 +12161,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="16">
         <v>193</v>
       </c>
@@ -12190,7 +12178,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="15">
         <v>226</v>
       </c>
@@ -12207,7 +12195,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="15">
         <v>338</v>
       </c>
@@ -12224,7 +12212,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="16">
         <v>83</v>
       </c>
@@ -12239,7 +12227,7 @@
       </c>
       <c r="E251" s="17"/>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="15">
         <v>384</v>
       </c>
@@ -12256,7 +12244,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="15">
         <v>274</v>
       </c>
@@ -12273,7 +12261,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="16">
         <v>209</v>
       </c>
@@ -12290,7 +12278,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="16">
         <v>387</v>
       </c>
@@ -12307,7 +12295,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="15">
         <v>212</v>
       </c>
@@ -12324,7 +12312,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="16">
         <v>347</v>
       </c>
@@ -12341,7 +12329,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16">
         <v>159</v>
       </c>
@@ -12358,7 +12346,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="16">
         <v>269</v>
       </c>
@@ -12375,7 +12363,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
         <v>24</v>
       </c>
@@ -12392,7 +12380,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="16">
         <v>283</v>
       </c>
@@ -12409,7 +12397,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <v>142</v>
       </c>
@@ -12426,7 +12414,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="16">
         <v>201</v>
       </c>
@@ -12443,7 +12431,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="15">
         <v>232</v>
       </c>
@@ -12460,7 +12448,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="15">
         <v>336</v>
       </c>
@@ -12477,7 +12465,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="16">
         <v>41</v>
       </c>
@@ -12494,7 +12482,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="15">
         <v>150</v>
       </c>
@@ -12511,7 +12499,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="16">
         <v>155</v>
       </c>
@@ -12528,7 +12516,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="16">
         <v>195</v>
       </c>
@@ -12545,7 +12533,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="16">
         <v>327</v>
       </c>
@@ -12562,7 +12550,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="16">
         <v>1</v>
       </c>
@@ -12579,7 +12567,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="15">
         <v>360</v>
       </c>
@@ -12596,7 +12584,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="15">
         <v>248</v>
       </c>
@@ -12611,7 +12599,7 @@
       </c>
       <c r="E273" s="17"/>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="15">
         <v>84</v>
       </c>
@@ -12626,7 +12614,7 @@
       </c>
       <c r="E274" s="17"/>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="15">
         <v>48</v>
       </c>
@@ -12643,7 +12631,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="16">
         <v>137</v>
       </c>
@@ -12660,7 +12648,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="16">
         <v>147</v>
       </c>
@@ -12677,7 +12665,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="15">
         <v>258</v>
       </c>
@@ -12694,7 +12682,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="15">
         <v>326</v>
       </c>
@@ -12711,7 +12699,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="16">
         <v>293</v>
       </c>
@@ -12728,7 +12716,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="16">
         <v>207</v>
       </c>
@@ -12745,7 +12733,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="15">
         <v>174</v>
       </c>
@@ -12762,7 +12750,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="15">
         <v>300</v>
       </c>
@@ -12779,7 +12767,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="15">
         <v>282</v>
       </c>
@@ -12796,7 +12784,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="16">
         <v>351</v>
       </c>
@@ -12813,7 +12801,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="16">
         <v>57</v>
       </c>
@@ -12830,7 +12818,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="16">
         <v>95</v>
       </c>
@@ -12847,7 +12835,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="16">
         <v>361</v>
       </c>
@@ -12864,7 +12852,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="16">
         <v>93</v>
       </c>
@@ -12881,7 +12869,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="16">
         <v>393</v>
       </c>
@@ -12896,7 +12884,7 @@
       </c>
       <c r="E290" s="17"/>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="15">
         <v>64</v>
       </c>
@@ -12913,7 +12901,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="15">
         <v>390</v>
       </c>
@@ -12930,7 +12918,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="15">
         <v>6</v>
       </c>
@@ -12947,7 +12935,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="15">
         <v>358</v>
       </c>
@@ -12964,7 +12952,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="15">
         <v>20</v>
       </c>
@@ -12981,7 +12969,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="16">
         <v>377</v>
       </c>
@@ -12998,7 +12986,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="16"/>
       <c r="B297" s="10" t="s">
         <v>1320</v>
@@ -13011,7 +12999,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="16">
         <v>15</v>
       </c>
@@ -13028,7 +13016,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="15">
         <v>102</v>
       </c>
@@ -13045,7 +13033,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="16">
         <v>239</v>
       </c>
@@ -13062,7 +13050,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="16">
         <v>225</v>
       </c>
@@ -13079,7 +13067,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="16">
         <v>279</v>
       </c>
@@ -13096,7 +13084,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="16">
         <v>221</v>
       </c>
@@ -13113,7 +13101,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="15">
         <v>362</v>
       </c>
@@ -13130,7 +13118,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="15">
         <v>228</v>
       </c>
@@ -13147,7 +13135,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="15">
         <v>188</v>
       </c>
@@ -13164,7 +13152,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="16">
         <v>263</v>
       </c>
@@ -13181,7 +13169,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="16">
         <v>9</v>
       </c>
@@ -13198,7 +13186,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="15">
         <v>378</v>
       </c>
@@ -13215,7 +13203,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="15">
         <v>116</v>
       </c>
@@ -13230,7 +13218,7 @@
       </c>
       <c r="E310" s="17"/>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="15">
         <v>18</v>
       </c>
@@ -13247,7 +13235,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="16">
         <v>141</v>
       </c>
@@ -13264,7 +13252,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="15">
         <v>208</v>
       </c>
@@ -13281,7 +13269,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="16">
         <v>53</v>
       </c>
@@ -13298,7 +13286,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="16">
         <v>157</v>
       </c>
@@ -13315,7 +13303,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="15">
         <v>216</v>
       </c>
@@ -13332,7 +13320,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="15">
         <v>12</v>
       </c>
@@ -13349,7 +13337,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="16">
         <v>167</v>
       </c>
@@ -13366,7 +13354,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="15">
         <v>66</v>
       </c>
@@ -13383,7 +13371,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="15">
         <v>60</v>
       </c>
@@ -13400,7 +13388,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="15">
         <v>86</v>
       </c>
@@ -13417,7 +13405,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="16">
         <v>135</v>
       </c>
@@ -13432,7 +13420,7 @@
       </c>
       <c r="E322" s="17"/>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="16">
         <v>183</v>
       </c>
@@ -13449,7 +13437,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="15">
         <v>82</v>
       </c>
@@ -13464,7 +13452,7 @@
       </c>
       <c r="E324" s="17"/>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="15">
         <v>222</v>
       </c>
@@ -13481,7 +13469,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="16">
         <v>259</v>
       </c>
@@ -13498,7 +13486,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="16">
         <v>295</v>
       </c>
@@ -13515,7 +13503,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="16">
         <v>261</v>
       </c>
@@ -13532,7 +13520,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="15">
         <v>96</v>
       </c>
@@ -13549,7 +13537,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="16">
         <v>61</v>
       </c>
@@ -13566,7 +13554,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="15">
         <v>58</v>
       </c>
@@ -13583,7 +13571,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="16">
         <v>305</v>
       </c>
@@ -13600,7 +13588,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="15">
         <v>170</v>
       </c>
@@ -13617,7 +13605,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="16">
         <v>189</v>
       </c>
@@ -13634,7 +13622,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="16">
         <v>175</v>
       </c>
@@ -13651,7 +13639,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="15">
         <v>346</v>
       </c>
@@ -13668,7 +13656,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="16">
         <v>73</v>
       </c>
@@ -13685,7 +13673,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="16">
         <v>359</v>
       </c>
@@ -13702,7 +13690,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="16">
         <v>127</v>
       </c>
@@ -13719,7 +13707,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="15">
         <v>392</v>
       </c>
@@ -13734,7 +13722,7 @@
       </c>
       <c r="E340" s="17"/>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="15">
         <v>200</v>
       </c>
@@ -13751,7 +13739,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="16">
         <v>353</v>
       </c>
@@ -13768,7 +13756,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="16">
         <v>111</v>
       </c>
@@ -13785,7 +13773,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="16">
         <v>99</v>
       </c>
@@ -13802,7 +13790,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="16">
         <v>277</v>
       </c>
@@ -13817,7 +13805,7 @@
       </c>
       <c r="E345" s="17"/>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="16">
         <v>43</v>
       </c>
@@ -13834,7 +13822,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="15">
         <v>244</v>
       </c>
@@ -13851,7 +13839,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="16">
         <v>103</v>
       </c>
@@ -13868,7 +13856,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="16">
         <v>19</v>
       </c>
@@ -13885,7 +13873,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="15">
         <v>198</v>
       </c>
@@ -13902,7 +13890,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="16">
         <v>105</v>
       </c>
@@ -13919,7 +13907,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="15">
         <v>322</v>
       </c>
@@ -13936,7 +13924,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="15">
         <v>308</v>
       </c>
@@ -13953,7 +13941,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="16">
         <v>217</v>
       </c>
@@ -13970,7 +13958,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="16">
         <v>255</v>
       </c>
@@ -13987,7 +13975,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="16">
         <v>115</v>
       </c>
@@ -14002,7 +13990,7 @@
       </c>
       <c r="E356" s="17"/>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="16">
         <v>179</v>
       </c>
@@ -14017,7 +14005,7 @@
       </c>
       <c r="E357" s="17"/>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="15">
         <v>284</v>
       </c>
@@ -14034,7 +14022,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="15">
         <v>250</v>
       </c>
@@ -14051,7 +14039,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="16">
         <v>365</v>
       </c>
@@ -14068,7 +14056,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="16">
         <v>139</v>
       </c>
@@ -14085,7 +14073,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="15">
         <v>8</v>
       </c>
@@ -14102,7 +14090,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="15">
         <v>122</v>
       </c>
@@ -14117,7 +14105,7 @@
       </c>
       <c r="E363" s="17"/>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="16">
         <v>123</v>
       </c>
@@ -14132,7 +14120,7 @@
       </c>
       <c r="E364" s="17"/>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="16">
         <v>45</v>
       </c>
@@ -14147,7 +14135,7 @@
       </c>
       <c r="E365" s="17"/>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="15">
         <v>370</v>
       </c>
@@ -14164,7 +14152,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="16">
         <v>357</v>
       </c>
@@ -14179,7 +14167,7 @@
       </c>
       <c r="E367" s="17"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="15">
         <v>184</v>
       </c>
@@ -14196,7 +14184,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="16">
         <v>163</v>
       </c>
@@ -14213,7 +14201,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="15">
         <v>204</v>
       </c>
@@ -14230,7 +14218,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="15">
         <v>356</v>
       </c>
@@ -14245,7 +14233,7 @@
       </c>
       <c r="E371" s="17"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="15">
         <v>298</v>
       </c>
@@ -14262,7 +14250,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="16">
         <v>177</v>
       </c>
@@ -14279,7 +14267,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="16">
         <v>203</v>
       </c>
@@ -14296,7 +14284,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="15">
         <v>246</v>
       </c>
@@ -14313,7 +14301,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="15">
         <v>234</v>
       </c>
@@ -14330,7 +14318,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="16">
         <v>173</v>
       </c>
@@ -14347,7 +14335,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="16">
         <v>311</v>
       </c>
@@ -14364,7 +14352,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="16">
         <v>309</v>
       </c>
@@ -14381,7 +14369,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="15">
         <v>62</v>
       </c>
@@ -14398,7 +14386,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="15">
         <v>238</v>
       </c>
@@ -14415,7 +14403,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="16">
         <v>335</v>
       </c>
@@ -14432,7 +14420,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="16">
         <v>243</v>
       </c>
@@ -14449,7 +14437,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="15">
         <v>132</v>
       </c>
@@ -14466,7 +14454,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="16">
         <v>391</v>
       </c>
@@ -14483,7 +14471,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="15">
         <v>268</v>
       </c>
@@ -14500,7 +14488,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="16">
         <v>383</v>
       </c>
@@ -14517,7 +14505,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="16">
         <v>237</v>
       </c>
@@ -14532,7 +14520,7 @@
       </c>
       <c r="E388" s="17"/>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="16">
         <v>11</v>
       </c>
@@ -14549,7 +14537,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="15">
         <v>236</v>
       </c>
@@ -14566,7 +14554,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="16">
         <v>363</v>
       </c>
@@ -14583,7 +14571,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="16">
         <v>107</v>
       </c>
@@ -14600,7 +14588,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="16">
         <v>113</v>
       </c>
@@ -14617,7 +14605,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="16">
         <v>245</v>
       </c>
@@ -14632,7 +14620,7 @@
       </c>
       <c r="E394" s="17"/>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="16">
         <v>169</v>
       </c>
@@ -14649,7 +14637,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="15">
         <v>114</v>
       </c>
@@ -14666,7 +14654,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="15">
         <v>52</v>
       </c>
@@ -14683,7 +14671,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="15">
         <v>136</v>
       </c>
@@ -14700,7 +14688,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="16">
         <v>371</v>
       </c>
@@ -14726,7 +14714,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:E399">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$E4="P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14739,225 +14727,225 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>799</v>
       </c>
@@ -14968,1849 +14956,1849 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A367"/>
   <sheetViews>
     <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>530</v>
       </c>
@@ -16824,19 +16812,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E278"/>
   <sheetViews>
     <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>831</v>
       </c>
@@ -16847,7 +16835,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>834</v>
       </c>
@@ -16858,7 +16846,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>837</v>
       </c>
@@ -16866,7 +16854,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>839</v>
       </c>
@@ -16877,7 +16865,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>841</v>
       </c>
@@ -16885,7 +16873,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>841</v>
       </c>
@@ -16896,7 +16884,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>844</v>
       </c>
@@ -16904,7 +16892,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>846</v>
       </c>
@@ -16915,7 +16903,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>849</v>
       </c>
@@ -16926,7 +16914,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>853</v>
       </c>
@@ -16937,7 +16925,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>853</v>
       </c>
@@ -16945,7 +16933,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>853</v>
       </c>
@@ -16953,7 +16941,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>853</v>
       </c>
@@ -16964,7 +16952,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>859</v>
       </c>
@@ -16975,7 +16963,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>862</v>
       </c>
@@ -16983,7 +16971,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>864</v>
       </c>
@@ -16991,7 +16979,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>866</v>
       </c>
@@ -16999,7 +16987,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>868</v>
       </c>
@@ -17007,7 +16995,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>869</v>
       </c>
@@ -17015,7 +17003,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>871</v>
       </c>
@@ -17026,7 +17014,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>874</v>
       </c>
@@ -17037,7 +17025,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>877</v>
       </c>
@@ -17048,7 +17036,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>879</v>
       </c>
@@ -17059,7 +17047,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>883</v>
       </c>
@@ -17067,7 +17055,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>885</v>
       </c>
@@ -17075,7 +17063,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>887</v>
       </c>
@@ -17086,7 +17074,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>890</v>
       </c>
@@ -17094,7 +17082,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>892</v>
       </c>
@@ -17105,7 +17093,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>895</v>
       </c>
@@ -17116,7 +17104,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>895</v>
       </c>
@@ -17124,7 +17112,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>899</v>
       </c>
@@ -17135,7 +17123,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>903</v>
       </c>
@@ -17143,7 +17131,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>905</v>
       </c>
@@ -17151,7 +17139,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>907</v>
       </c>
@@ -17159,7 +17147,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>908</v>
       </c>
@@ -17167,7 +17155,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>909</v>
       </c>
@@ -17175,7 +17163,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>909</v>
       </c>
@@ -17183,7 +17171,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>912</v>
       </c>
@@ -17194,7 +17182,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>914</v>
       </c>
@@ -17202,7 +17190,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>916</v>
       </c>
@@ -17216,7 +17204,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>919</v>
       </c>
@@ -17224,7 +17212,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>921</v>
       </c>
@@ -17235,7 +17223,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>924</v>
       </c>
@@ -17246,7 +17234,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>927</v>
       </c>
@@ -17254,7 +17242,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>929</v>
       </c>
@@ -17262,7 +17250,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>931</v>
       </c>
@@ -17270,7 +17258,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>933</v>
       </c>
@@ -17278,7 +17266,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>935</v>
       </c>
@@ -17289,7 +17277,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>938</v>
       </c>
@@ -17297,7 +17285,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>940</v>
       </c>
@@ -17308,7 +17296,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>943</v>
       </c>
@@ -17316,7 +17304,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>945</v>
       </c>
@@ -17327,7 +17315,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>947</v>
       </c>
@@ -17338,7 +17326,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>950</v>
       </c>
@@ -17346,7 +17334,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>950</v>
       </c>
@@ -17354,7 +17342,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>953</v>
       </c>
@@ -17362,7 +17350,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>955</v>
       </c>
@@ -17370,7 +17358,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>957</v>
       </c>
@@ -17378,7 +17366,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>959</v>
       </c>
@@ -17386,7 +17374,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>959</v>
       </c>
@@ -17394,7 +17382,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>962</v>
       </c>
@@ -17402,7 +17390,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>964</v>
       </c>
@@ -17410,7 +17398,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>964</v>
       </c>
@@ -17418,7 +17406,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>967</v>
       </c>
@@ -17429,7 +17417,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>968</v>
       </c>
@@ -17437,7 +17425,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>968</v>
       </c>
@@ -17445,7 +17433,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>971</v>
       </c>
@@ -17453,7 +17441,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>973</v>
       </c>
@@ -17464,7 +17452,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>973</v>
       </c>
@@ -17472,7 +17460,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>973</v>
       </c>
@@ -17480,7 +17468,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>973</v>
       </c>
@@ -17488,7 +17476,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>978</v>
       </c>
@@ -17496,7 +17484,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>980</v>
       </c>
@@ -17504,7 +17492,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>982</v>
       </c>
@@ -17512,7 +17500,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>983</v>
       </c>
@@ -17520,7 +17508,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>984</v>
       </c>
@@ -17528,7 +17516,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>986</v>
       </c>
@@ -17536,7 +17524,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>988</v>
       </c>
@@ -17544,7 +17532,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>990</v>
       </c>
@@ -17555,7 +17543,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>992</v>
       </c>
@@ -17566,7 +17554,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>993</v>
       </c>
@@ -17577,7 +17565,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>993</v>
       </c>
@@ -17588,7 +17576,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>997</v>
       </c>
@@ -17599,7 +17587,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>999</v>
       </c>
@@ -17607,7 +17595,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1001</v>
       </c>
@@ -17618,7 +17606,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>1001</v>
       </c>
@@ -17626,7 +17614,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1003</v>
       </c>
@@ -17634,7 +17622,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>1005</v>
       </c>
@@ -17642,7 +17630,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>1007</v>
       </c>
@@ -17650,7 +17638,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>1008</v>
       </c>
@@ -17658,7 +17646,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>1009</v>
       </c>
@@ -17666,7 +17654,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>1011</v>
       </c>
@@ -17674,7 +17662,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>1013</v>
       </c>
@@ -17682,7 +17670,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>1013</v>
       </c>
@@ -17690,7 +17678,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>1016</v>
       </c>
@@ -17698,7 +17686,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>1018</v>
       </c>
@@ -17706,7 +17694,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>1020</v>
       </c>
@@ -17717,7 +17705,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>1021</v>
       </c>
@@ -17728,7 +17716,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>1024</v>
       </c>
@@ -17736,7 +17724,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>1025</v>
       </c>
@@ -17747,7 +17735,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>1027</v>
       </c>
@@ -17755,7 +17743,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>1029</v>
       </c>
@@ -17763,7 +17751,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>1031</v>
       </c>
@@ -17771,7 +17759,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>1033</v>
       </c>
@@ -17779,7 +17767,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>1035</v>
       </c>
@@ -17787,7 +17775,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>1037</v>
       </c>
@@ -17795,7 +17783,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>1039</v>
       </c>
@@ -17803,7 +17791,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>1041</v>
       </c>
@@ -17811,7 +17799,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>1041</v>
       </c>
@@ -17822,7 +17810,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>1043</v>
       </c>
@@ -17833,7 +17821,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>1045</v>
       </c>
@@ -17841,7 +17829,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>1046</v>
       </c>
@@ -17852,7 +17840,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>1049</v>
       </c>
@@ -17860,7 +17848,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>1051</v>
       </c>
@@ -17868,7 +17856,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>1053</v>
       </c>
@@ -17879,7 +17867,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>1055</v>
       </c>
@@ -17887,7 +17875,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>1056</v>
       </c>
@@ -17895,7 +17883,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>1057</v>
       </c>
@@ -17903,7 +17891,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>1058</v>
       </c>
@@ -17911,7 +17899,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>1060</v>
       </c>
@@ -17922,7 +17910,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>1062</v>
       </c>
@@ -17930,7 +17918,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>1064</v>
       </c>
@@ -17944,7 +17932,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>1068</v>
       </c>
@@ -17955,7 +17943,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>1070</v>
       </c>
@@ -17966,7 +17954,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>1071</v>
       </c>
@@ -17977,7 +17965,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>1072</v>
       </c>
@@ -17988,7 +17976,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>946</v>
       </c>
@@ -17996,7 +17984,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>1076</v>
       </c>
@@ -18007,7 +17995,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>1079</v>
       </c>
@@ -18015,7 +18003,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>1079</v>
       </c>
@@ -18026,7 +18014,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>1082</v>
       </c>
@@ -18034,7 +18022,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>1082</v>
       </c>
@@ -18045,7 +18033,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>1085</v>
       </c>
@@ -18053,7 +18041,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>1085</v>
       </c>
@@ -18064,7 +18052,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>1089</v>
       </c>
@@ -18072,7 +18060,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>1091</v>
       </c>
@@ -18083,7 +18071,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>1092</v>
       </c>
@@ -18094,7 +18082,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>1095</v>
       </c>
@@ -18102,7 +18090,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>1096</v>
       </c>
@@ -18110,7 +18098,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>1098</v>
       </c>
@@ -18124,7 +18112,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>1100</v>
       </c>
@@ -18132,7 +18120,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>860</v>
       </c>
@@ -18140,7 +18128,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>1102</v>
       </c>
@@ -18148,7 +18136,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>1103</v>
       </c>
@@ -18159,7 +18147,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>1106</v>
       </c>
@@ -18170,7 +18158,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>1108</v>
       </c>
@@ -18178,7 +18166,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>1110</v>
       </c>
@@ -18189,7 +18177,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>1113</v>
       </c>
@@ -18197,7 +18185,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>1114</v>
       </c>
@@ -18205,7 +18193,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>1116</v>
       </c>
@@ -18216,7 +18204,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>1118</v>
       </c>
@@ -18227,7 +18215,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>1120</v>
       </c>
@@ -18235,7 +18223,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>1121</v>
       </c>
@@ -18243,7 +18231,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>1123</v>
       </c>
@@ -18251,7 +18239,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>1125</v>
       </c>
@@ -18262,7 +18250,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>1128</v>
       </c>
@@ -18273,7 +18261,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>1128</v>
       </c>
@@ -18281,7 +18269,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>1131</v>
       </c>
@@ -18292,7 +18280,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>1133</v>
       </c>
@@ -18300,7 +18288,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>1135</v>
       </c>
@@ -18308,7 +18296,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>1136</v>
       </c>
@@ -18316,7 +18304,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>1138</v>
       </c>
@@ -18327,7 +18315,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>1140</v>
       </c>
@@ -18338,7 +18326,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>1140</v>
       </c>
@@ -18349,7 +18337,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>1140</v>
       </c>
@@ -18360,7 +18348,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>1140</v>
       </c>
@@ -18371,7 +18359,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>1145</v>
       </c>
@@ -18379,7 +18367,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>1147</v>
       </c>
@@ -18387,7 +18375,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>1137</v>
       </c>
@@ -18395,7 +18383,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>1137</v>
       </c>
@@ -18406,7 +18394,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>1137</v>
       </c>
@@ -18417,7 +18405,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>1150</v>
       </c>
@@ -18428,7 +18416,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>1150</v>
       </c>
@@ -18436,7 +18424,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>1150</v>
       </c>
@@ -18447,7 +18435,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>1150</v>
       </c>
@@ -18458,7 +18446,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>1150</v>
       </c>
@@ -18469,7 +18457,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>1150</v>
       </c>
@@ -18480,7 +18468,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>1160</v>
       </c>
@@ -18491,7 +18479,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>1163</v>
       </c>
@@ -18502,7 +18490,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>1165</v>
       </c>
@@ -18513,7 +18501,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>1168</v>
       </c>
@@ -18521,7 +18509,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>1170</v>
       </c>
@@ -18529,7 +18517,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>1172</v>
       </c>
@@ -18537,7 +18525,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>1174</v>
       </c>
@@ -18548,7 +18536,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>1174</v>
       </c>
@@ -18556,7 +18544,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>1176</v>
       </c>
@@ -18567,7 +18555,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>1176</v>
       </c>
@@ -18578,7 +18566,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>1178</v>
       </c>
@@ -18589,7 +18577,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>1181</v>
       </c>
@@ -18597,7 +18585,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>1182</v>
       </c>
@@ -18608,7 +18596,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>1182</v>
       </c>
@@ -18619,7 +18607,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>1182</v>
       </c>
@@ -18630,7 +18618,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>1187</v>
       </c>
@@ -18638,7 +18626,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>1187</v>
       </c>
@@ -18649,7 +18637,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>1190</v>
       </c>
@@ -18657,7 +18645,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>1192</v>
       </c>
@@ -18665,7 +18653,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>1194</v>
       </c>
@@ -18673,7 +18661,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>1196</v>
       </c>
@@ -18681,7 +18669,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>1198</v>
       </c>
@@ -18689,7 +18677,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>1200</v>
       </c>
@@ -18700,7 +18688,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>1203</v>
       </c>
@@ -18711,7 +18699,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>1205</v>
       </c>
@@ -18719,7 +18707,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>1207</v>
       </c>
@@ -18730,7 +18718,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>1208</v>
       </c>
@@ -18738,7 +18726,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>1210</v>
       </c>
@@ -18746,7 +18734,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>1212</v>
       </c>
@@ -18754,7 +18742,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>1214</v>
       </c>
@@ -18762,7 +18750,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>1216</v>
       </c>
@@ -18770,7 +18758,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>1217</v>
       </c>
@@ -18781,7 +18769,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>1218</v>
       </c>
@@ -18789,7 +18777,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>1219</v>
       </c>
@@ -18797,7 +18785,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>1221</v>
       </c>
@@ -18808,7 +18796,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>1221</v>
       </c>
@@ -18816,7 +18804,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>1222</v>
       </c>
@@ -18824,7 +18812,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>1223</v>
       </c>
@@ -18832,7 +18820,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>1225</v>
       </c>
@@ -18840,7 +18828,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>1226</v>
       </c>
@@ -18848,7 +18836,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>1227</v>
       </c>
@@ -18856,7 +18844,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>1228</v>
       </c>
@@ -18864,7 +18852,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>1229</v>
       </c>
@@ -18872,7 +18860,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>1231</v>
       </c>
@@ -18880,7 +18868,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>1232</v>
       </c>
@@ -18888,7 +18876,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>1234</v>
       </c>
@@ -18896,7 +18884,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>1236</v>
       </c>
@@ -18907,7 +18895,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>1237</v>
       </c>
@@ -18921,7 +18909,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>1238</v>
       </c>
@@ -18929,7 +18917,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>1240</v>
       </c>
@@ -18937,7 +18925,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>1240</v>
       </c>
@@ -18945,7 +18933,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>1242</v>
       </c>
@@ -18953,7 +18941,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>1244</v>
       </c>
@@ -18961,7 +18949,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>1246</v>
       </c>
@@ -18969,7 +18957,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>1248</v>
       </c>
@@ -18980,7 +18968,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>1249</v>
       </c>
@@ -18988,7 +18976,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>1250</v>
       </c>
@@ -18999,7 +18987,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>1252</v>
       </c>
@@ -19007,7 +18995,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>1253</v>
       </c>
@@ -19015,7 +19003,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>1255</v>
       </c>
@@ -19023,7 +19011,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>1257</v>
       </c>
@@ -19031,7 +19019,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>1258</v>
       </c>
@@ -19039,7 +19027,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>1259</v>
       </c>
@@ -19047,7 +19035,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>1260</v>
       </c>
@@ -19055,7 +19043,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>1261</v>
       </c>
@@ -19066,7 +19054,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>1263</v>
       </c>
@@ -19077,7 +19065,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>1265</v>
       </c>
@@ -19088,7 +19076,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>1268</v>
       </c>
@@ -19096,7 +19084,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>1269</v>
       </c>
@@ -19104,7 +19092,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>1270</v>
       </c>
@@ -19112,7 +19100,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>1270</v>
       </c>
@@ -19120,7 +19108,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>1270</v>
       </c>
@@ -19128,7 +19116,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>1273</v>
       </c>
@@ -19136,7 +19124,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>1274</v>
       </c>
@@ -19147,7 +19135,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>1275</v>
       </c>
@@ -19155,7 +19143,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>1276</v>
       </c>
@@ -19163,7 +19151,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>1278</v>
       </c>
@@ -19174,7 +19162,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>1279</v>
       </c>
@@ -19182,7 +19170,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>1281</v>
       </c>
@@ -19190,7 +19178,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>1281</v>
       </c>
@@ -19198,7 +19186,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>1284</v>
       </c>
@@ -19206,7 +19194,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>1286</v>
       </c>
@@ -19214,7 +19202,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>1287</v>
       </c>
@@ -19225,7 +19213,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>1288</v>
       </c>
@@ -19233,7 +19221,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>1290</v>
       </c>
@@ -19241,7 +19229,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>1291</v>
       </c>
@@ -19249,7 +19237,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>1292</v>
       </c>
@@ -19257,7 +19245,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>1293</v>
       </c>
@@ -19265,7 +19253,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>1294</v>
       </c>
@@ -19273,7 +19261,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>1296</v>
       </c>
@@ -19281,7 +19269,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>1297</v>
       </c>
@@ -19289,7 +19277,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>1298</v>
       </c>
@@ -19297,7 +19285,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>1300</v>
       </c>
@@ -19305,7 +19293,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>1301</v>
       </c>
@@ -19313,7 +19301,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>1303</v>
       </c>
@@ -19321,7 +19309,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>1304</v>
       </c>
@@ -19329,7 +19317,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>1306</v>
       </c>
@@ -19340,7 +19328,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>1307</v>
       </c>
@@ -19351,7 +19339,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>1309</v>
       </c>

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564C3F2-339B-497B-BEFB-A2CE906F7AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -23,29 +24,18 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1325">
   <si>
     <t>OFFICE</t>
   </si>
@@ -4025,7 +4015,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4381,7 +4371,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ASUS" refreshedDate="45034.434464467595" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="396">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ASUS" refreshedDate="45034.434464467595" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="396" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:E399" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
@@ -7234,7 +7224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -7551,36 +7541,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:E399" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A3:E399">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A3:E399" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A3:E399" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="4">
       <filters>
         <filter val="P"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A121:E399">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A121:E399">
     <sortCondition ref="C3:C399"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Total No." dataDxfId="3"/>
-    <tableColumn id="2" name="NAME" dataDxfId="2"/>
-    <tableColumn id="4" name="Column1"/>
-    <tableColumn id="3" name="OFFICE"/>
-    <tableColumn id="5" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total No." dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAME" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="OFFICE"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A367" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A367"/>
-  <sortState ref="A2:A367">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:A367" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A367" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A367">
     <sortCondition ref="A1:A367"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" name="NAME"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NAME"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7848,62 +7838,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>440</v>
       </c>
@@ -7911,7 +7901,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -7919,7 +7909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>307</v>
       </c>
@@ -7927,7 +7917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -7935,7 +7925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -7943,7 +7933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>367</v>
       </c>
@@ -7951,7 +7941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>410</v>
       </c>
@@ -7959,7 +7949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>382</v>
       </c>
@@ -7967,7 +7957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>377</v>
       </c>
@@ -7975,7 +7965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>322</v>
       </c>
@@ -7983,7 +7973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -7991,7 +7981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>328</v>
       </c>
@@ -7999,7 +7989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>378</v>
       </c>
@@ -8007,7 +7997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
@@ -8015,7 +8005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>330</v>
       </c>
@@ -8023,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -8031,7 +8021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>333</v>
       </c>
@@ -8039,7 +8029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
@@ -8047,7 +8037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>376</v>
       </c>
@@ -8055,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
@@ -8063,7 +8053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>338</v>
       </c>
@@ -8071,7 +8061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>110</v>
       </c>
@@ -8079,7 +8069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>119</v>
       </c>
@@ -8087,7 +8077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>157</v>
       </c>
@@ -8095,7 +8085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>341</v>
       </c>
@@ -8103,7 +8093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>411</v>
       </c>
@@ -8111,7 +8101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>203</v>
       </c>
@@ -8119,7 +8109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>213</v>
       </c>
@@ -8127,7 +8117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>344</v>
       </c>
@@ -8135,7 +8125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>416</v>
       </c>
@@ -8143,7 +8133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>412</v>
       </c>
@@ -8151,7 +8141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>406</v>
       </c>
@@ -8159,7 +8149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>368</v>
       </c>
@@ -8167,7 +8157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>369</v>
       </c>
@@ -8175,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>372</v>
       </c>
@@ -8183,7 +8173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>405</v>
       </c>
@@ -8191,7 +8181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>413</v>
       </c>
@@ -8199,7 +8189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>414</v>
       </c>
@@ -8207,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>267</v>
       </c>
@@ -8215,7 +8205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>359</v>
       </c>
@@ -8223,7 +8213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>304</v>
       </c>
@@ -8231,7 +8221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>363</v>
       </c>
@@ -8239,7 +8229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>1324</v>
       </c>
@@ -8247,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>830</v>
       </c>
@@ -8255,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>829</v>
       </c>
@@ -8263,7 +8253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>441</v>
       </c>
@@ -8277,37 +8267,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>364</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>438</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>409</v>
       </c>
@@ -8324,7 +8314,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -8337,7 +8327,7 @@
       </c>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>7</v>
       </c>
@@ -8350,7 +8340,7 @@
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>23</v>
       </c>
@@ -8363,7 +8353,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>25</v>
       </c>
@@ -8376,7 +8366,7 @@
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>27</v>
       </c>
@@ -8389,7 +8379,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>21</v>
       </c>
@@ -8400,11 +8390,9 @@
       <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>31</v>
       </c>
@@ -8417,7 +8405,7 @@
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>29</v>
       </c>
@@ -8430,7 +8418,7 @@
       </c>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>34</v>
       </c>
@@ -8443,7 +8431,7 @@
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>35</v>
       </c>
@@ -8456,7 +8444,7 @@
       </c>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>33</v>
       </c>
@@ -8469,7 +8457,7 @@
       </c>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>28</v>
       </c>
@@ -8482,7 +8470,7 @@
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>30</v>
       </c>
@@ -8495,7 +8483,7 @@
       </c>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>37</v>
       </c>
@@ -8508,7 +8496,7 @@
       </c>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>38</v>
       </c>
@@ -8521,7 +8509,7 @@
       </c>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>253</v>
       </c>
@@ -8534,7 +8522,7 @@
       </c>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>40</v>
       </c>
@@ -8545,11 +8533,9 @@
       <c r="D20" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>36</v>
       </c>
@@ -8560,11 +8546,9 @@
       <c r="D21" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>227</v>
       </c>
@@ -8577,7 +8561,7 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>341</v>
       </c>
@@ -8590,7 +8574,7 @@
       </c>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>342</v>
       </c>
@@ -8603,7 +8587,7 @@
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>229</v>
       </c>
@@ -8616,7 +8600,7 @@
       </c>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>46</v>
       </c>
@@ -8631,7 +8615,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>47</v>
       </c>
@@ -8646,7 +8630,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>44</v>
       </c>
@@ -8661,7 +8645,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>49</v>
       </c>
@@ -8677,7 +8661,7 @@
       </c>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>162</v>
       </c>
@@ -8692,7 +8676,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>344</v>
       </c>
@@ -8705,7 +8689,7 @@
       </c>
       <c r="E31" s="17"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>68</v>
       </c>
@@ -8720,7 +8704,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>67</v>
       </c>
@@ -8735,7 +8719,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>71</v>
       </c>
@@ -8750,7 +8734,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>80</v>
       </c>
@@ -8765,7 +8749,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>87</v>
       </c>
@@ -8780,7 +8764,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>85</v>
       </c>
@@ -8791,11 +8775,9 @@
       <c r="D37" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>91</v>
       </c>
@@ -8810,7 +8792,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>79</v>
       </c>
@@ -8825,7 +8807,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>90</v>
       </c>
@@ -8836,11 +8818,9 @@
       <c r="D40" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>92</v>
       </c>
@@ -8855,7 +8835,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>88</v>
       </c>
@@ -8866,11 +8846,9 @@
       <c r="D42" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>78</v>
       </c>
@@ -8885,7 +8863,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>89</v>
       </c>
@@ -8896,11 +8874,9 @@
       <c r="D44" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>366</v>
       </c>
@@ -8911,11 +8887,9 @@
       <c r="D45" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>112</v>
       </c>
@@ -8928,7 +8902,7 @@
       </c>
       <c r="E46" s="17"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>128</v>
       </c>
@@ -8943,7 +8917,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>124</v>
       </c>
@@ -8954,11 +8928,9 @@
       <c r="D48" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>125</v>
       </c>
@@ -8971,7 +8943,7 @@
       </c>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>129</v>
       </c>
@@ -8986,7 +8958,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>131</v>
       </c>
@@ -9001,7 +8973,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>126</v>
       </c>
@@ -9016,7 +8988,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>164</v>
       </c>
@@ -9031,7 +9003,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>151</v>
       </c>
@@ -9046,7 +9018,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>146</v>
       </c>
@@ -9061,7 +9033,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>171</v>
       </c>
@@ -9076,7 +9048,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>206</v>
       </c>
@@ -9087,11 +9059,9 @@
       <c r="D57" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>213</v>
       </c>
@@ -9106,7 +9076,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>196</v>
       </c>
@@ -9117,11 +9087,9 @@
       <c r="D59" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>214</v>
       </c>
@@ -9136,7 +9104,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>182</v>
       </c>
@@ -9147,11 +9115,9 @@
       <c r="D61" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>205</v>
       </c>
@@ -9162,11 +9128,9 @@
       <c r="D62" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>181</v>
       </c>
@@ -9177,11 +9141,9 @@
       <c r="D63" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="E63" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>180</v>
       </c>
@@ -9192,11 +9154,9 @@
       <c r="D64" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>190</v>
       </c>
@@ -9207,11 +9167,9 @@
       <c r="D65" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>199</v>
       </c>
@@ -9222,11 +9180,9 @@
       <c r="D66" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>197</v>
       </c>
@@ -9241,7 +9197,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>219</v>
       </c>
@@ -9256,7 +9212,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>223</v>
       </c>
@@ -9271,7 +9227,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
         <v>220</v>
       </c>
@@ -9286,7 +9242,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>233</v>
       </c>
@@ -9301,7 +9257,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>235</v>
       </c>
@@ -9316,7 +9272,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>379</v>
       </c>
@@ -9331,7 +9287,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
         <v>376</v>
       </c>
@@ -9346,7 +9302,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
         <v>372</v>
       </c>
@@ -9361,7 +9317,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
         <v>252</v>
       </c>
@@ -9376,7 +9332,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>249</v>
       </c>
@@ -9391,7 +9347,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>251</v>
       </c>
@@ -9406,7 +9362,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>264</v>
       </c>
@@ -9421,7 +9377,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>262</v>
       </c>
@@ -9432,11 +9388,9 @@
       <c r="D80" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="E80" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>266</v>
       </c>
@@ -9447,11 +9401,9 @@
       <c r="D81" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>265</v>
       </c>
@@ -9466,7 +9418,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
         <v>382</v>
       </c>
@@ -9481,7 +9433,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>257</v>
       </c>
@@ -9496,7 +9448,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
         <v>254</v>
       </c>
@@ -9511,7 +9463,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
         <v>260</v>
       </c>
@@ -9526,7 +9478,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
         <v>270</v>
       </c>
@@ -9541,7 +9493,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>285</v>
       </c>
@@ -9556,7 +9508,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
         <v>296</v>
       </c>
@@ -9571,7 +9523,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>297</v>
       </c>
@@ -9586,7 +9538,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
         <v>286</v>
       </c>
@@ -9601,7 +9553,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
         <v>292</v>
       </c>
@@ -9616,7 +9568,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
         <v>294</v>
       </c>
@@ -9631,7 +9583,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>287</v>
       </c>
@@ -9646,7 +9598,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>289</v>
       </c>
@@ -9661,7 +9613,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
         <v>302</v>
       </c>
@@ -9676,7 +9628,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
         <v>288</v>
       </c>
@@ -9691,7 +9643,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>291</v>
       </c>
@@ -9706,7 +9658,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>303</v>
       </c>
@@ -9721,7 +9673,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
         <v>386</v>
       </c>
@@ -9736,7 +9688,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>324</v>
       </c>
@@ -9747,11 +9699,9 @@
       <c r="D101" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E101" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="17"/>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>333</v>
       </c>
@@ -9762,11 +9712,9 @@
       <c r="D102" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E102" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="17"/>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>331</v>
       </c>
@@ -9777,11 +9725,9 @@
       <c r="D103" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E103" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="17"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
         <v>316</v>
       </c>
@@ -9796,7 +9742,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>319</v>
       </c>
@@ -9809,7 +9755,7 @@
       </c>
       <c r="E105" s="17"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="16">
         <v>315</v>
       </c>
@@ -9824,7 +9770,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="16">
         <v>313</v>
       </c>
@@ -9839,7 +9785,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>317</v>
       </c>
@@ -9850,11 +9796,9 @@
       <c r="D108" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E108" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>328</v>
       </c>
@@ -9865,11 +9809,9 @@
       <c r="D109" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E109" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="17"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="16">
         <v>329</v>
       </c>
@@ -9884,7 +9826,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>330</v>
       </c>
@@ -9895,11 +9837,9 @@
       <c r="D111" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E111" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="17"/>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>312</v>
       </c>
@@ -9910,11 +9850,9 @@
       <c r="D112" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E112" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="17"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
         <v>318</v>
       </c>
@@ -9929,7 +9867,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>314</v>
       </c>
@@ -9942,7 +9880,7 @@
       </c>
       <c r="E114" s="17"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>323</v>
       </c>
@@ -9957,7 +9895,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>321</v>
       </c>
@@ -9968,11 +9906,9 @@
       <c r="D116" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="E116" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="17"/>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>332</v>
       </c>
@@ -9983,11 +9919,9 @@
       <c r="D117" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E117" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="17"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
         <v>320</v>
       </c>
@@ -10002,7 +9936,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>310</v>
       </c>
@@ -10015,7 +9949,7 @@
       </c>
       <c r="E119" s="17"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
         <v>394</v>
       </c>
@@ -10030,7 +9964,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>75</v>
       </c>
@@ -10047,7 +9981,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>364</v>
       </c>
@@ -10062,7 +9996,7 @@
       </c>
       <c r="E122" s="17"/>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>108</v>
       </c>
@@ -10079,7 +10013,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>276</v>
       </c>
@@ -10096,7 +10030,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>98</v>
       </c>
@@ -10113,7 +10047,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>343</v>
       </c>
@@ -10130,7 +10064,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>385</v>
       </c>
@@ -10147,7 +10081,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>194</v>
       </c>
@@ -10164,7 +10098,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>337</v>
       </c>
@@ -10181,7 +10115,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>161</v>
       </c>
@@ -10198,7 +10132,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>355</v>
       </c>
@@ -10215,7 +10149,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>374</v>
       </c>
@@ -10232,7 +10166,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>369</v>
       </c>
@@ -10249,7 +10183,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <v>210</v>
       </c>
@@ -10266,7 +10200,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>368</v>
       </c>
@@ -10283,7 +10217,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <v>2</v>
       </c>
@@ -10300,7 +10234,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
         <v>26</v>
       </c>
@@ -10317,7 +10251,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>325</v>
       </c>
@@ -10334,7 +10268,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>187</v>
       </c>
@@ -10351,7 +10285,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
         <v>10</v>
       </c>
@@ -10368,7 +10302,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <v>70</v>
       </c>
@@ -10385,7 +10319,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
         <v>16</v>
       </c>
@@ -10402,7 +10336,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <v>218</v>
       </c>
@@ -10419,7 +10353,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <v>22</v>
       </c>
@@ -10436,7 +10370,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
         <v>224</v>
       </c>
@@ -10453,7 +10387,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <v>172</v>
       </c>
@@ -10470,7 +10404,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>109</v>
       </c>
@@ -10487,7 +10421,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>59</v>
       </c>
@@ -10504,7 +10438,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <v>134</v>
       </c>
@@ -10521,7 +10455,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
         <v>120</v>
       </c>
@@ -10536,7 +10470,7 @@
       </c>
       <c r="E150" s="17"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
         <v>334</v>
       </c>
@@ -10553,7 +10487,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>395</v>
       </c>
@@ -10570,7 +10504,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <v>230</v>
       </c>
@@ -10587,7 +10521,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>241</v>
       </c>
@@ -10604,7 +10538,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
         <v>278</v>
       </c>
@@ -10621,7 +10555,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <v>42</v>
       </c>
@@ -10638,7 +10572,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>81</v>
       </c>
@@ -10655,7 +10589,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
         <v>306</v>
       </c>
@@ -10672,7 +10606,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <v>140</v>
       </c>
@@ -10689,7 +10623,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <v>152</v>
       </c>
@@ -10706,7 +10640,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
         <v>50</v>
       </c>
@@ -10723,7 +10657,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>339</v>
       </c>
@@ -10740,7 +10674,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
         <v>72</v>
       </c>
@@ -10757,7 +10691,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>191</v>
       </c>
@@ -10774,7 +10708,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>143</v>
       </c>
@@ -10791,7 +10725,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>51</v>
       </c>
@@ -10808,7 +10742,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>13</v>
       </c>
@@ -10825,7 +10759,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <v>138</v>
       </c>
@@ -10842,7 +10776,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>373</v>
       </c>
@@ -10859,7 +10793,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
         <v>118</v>
       </c>
@@ -10874,7 +10808,7 @@
       </c>
       <c r="E170" s="17"/>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>273</v>
       </c>
@@ -10891,7 +10825,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
         <v>304</v>
       </c>
@@ -10908,7 +10842,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
         <v>256</v>
       </c>
@@ -10925,7 +10859,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <v>106</v>
       </c>
@@ -10942,7 +10876,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>375</v>
       </c>
@@ -10959,7 +10893,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>77</v>
       </c>
@@ -10976,7 +10910,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <v>178</v>
       </c>
@@ -10991,7 +10925,7 @@
       </c>
       <c r="E177" s="17"/>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
         <v>76</v>
       </c>
@@ -11008,7 +10942,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>121</v>
       </c>
@@ -11023,7 +10957,7 @@
       </c>
       <c r="E179" s="17"/>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <v>144</v>
       </c>
@@ -11038,7 +10972,7 @@
       </c>
       <c r="E180" s="17"/>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
         <v>156</v>
       </c>
@@ -11055,7 +10989,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>299</v>
       </c>
@@ -11072,7 +11006,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>247</v>
       </c>
@@ -11087,7 +11021,7 @@
       </c>
       <c r="E183" s="17"/>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>185</v>
       </c>
@@ -11104,7 +11038,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <v>110</v>
       </c>
@@ -11121,7 +11055,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <v>202</v>
       </c>
@@ -11138,7 +11072,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
         <v>130</v>
       </c>
@@ -11155,7 +11089,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>231</v>
       </c>
@@ -11172,7 +11106,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
         <v>350</v>
       </c>
@@ -11189,7 +11123,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
         <v>352</v>
       </c>
@@ -11206,7 +11140,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
         <v>176</v>
       </c>
@@ -11223,7 +11157,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>17</v>
       </c>
@@ -11240,7 +11174,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
         <v>272</v>
       </c>
@@ -11257,7 +11191,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>133</v>
       </c>
@@ -11272,7 +11206,7 @@
       </c>
       <c r="E194" s="17"/>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>267</v>
       </c>
@@ -11289,7 +11223,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="15">
         <v>348</v>
       </c>
@@ -11304,7 +11238,7 @@
       </c>
       <c r="E196" s="17"/>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>345</v>
       </c>
@@ -11319,7 +11253,7 @@
       </c>
       <c r="E197" s="17"/>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
         <v>380</v>
       </c>
@@ -11336,7 +11270,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>307</v>
       </c>
@@ -11353,7 +11287,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
         <v>388</v>
       </c>
@@ -11370,7 +11304,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
         <v>14</v>
       </c>
@@ -11387,7 +11321,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
         <v>74</v>
       </c>
@@ -11404,7 +11338,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>275</v>
       </c>
@@ -11421,7 +11355,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>55</v>
       </c>
@@ -11438,7 +11372,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>389</v>
       </c>
@@ -11455,7 +11389,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
         <v>4</v>
       </c>
@@ -11472,7 +11406,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
         <v>186</v>
       </c>
@@ -11489,7 +11423,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>117</v>
       </c>
@@ -11506,7 +11440,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
         <v>240</v>
       </c>
@@ -11521,7 +11455,7 @@
       </c>
       <c r="E209" s="17"/>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
         <v>148</v>
       </c>
@@ -11538,7 +11472,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>381</v>
       </c>
@@ -11555,7 +11489,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
         <v>32</v>
       </c>
@@ -11572,7 +11506,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
         <v>100</v>
       </c>
@@ -11589,7 +11523,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>149</v>
       </c>
@@ -11606,7 +11540,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>69</v>
       </c>
@@ -11623,7 +11557,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
         <v>154</v>
       </c>
@@ -11640,7 +11574,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>97</v>
       </c>
@@ -11657,7 +11591,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>65</v>
       </c>
@@ -11674,7 +11608,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
         <v>280</v>
       </c>
@@ -11691,7 +11625,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>281</v>
       </c>
@@ -11708,7 +11642,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>153</v>
       </c>
@@ -11723,7 +11657,7 @@
       </c>
       <c r="E221" s="17"/>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>367</v>
       </c>
@@ -11740,7 +11674,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="15">
         <v>54</v>
       </c>
@@ -11757,7 +11691,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>215</v>
       </c>
@@ -11774,7 +11708,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>3</v>
       </c>
@@ -11791,7 +11725,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="15">
         <v>166</v>
       </c>
@@ -11808,7 +11742,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>211</v>
       </c>
@@ -11825,7 +11759,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="15">
         <v>354</v>
       </c>
@@ -11842,7 +11776,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="15">
         <v>158</v>
       </c>
@@ -11859,7 +11793,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="15">
         <v>290</v>
       </c>
@@ -11874,7 +11808,7 @@
       </c>
       <c r="E230" s="17"/>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="15">
         <v>242</v>
       </c>
@@ -11891,7 +11825,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="15">
         <v>192</v>
       </c>
@@ -11908,7 +11842,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>165</v>
       </c>
@@ -11925,7 +11859,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="15">
         <v>168</v>
       </c>
@@ -11942,7 +11876,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="15">
         <v>160</v>
       </c>
@@ -11959,7 +11893,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>63</v>
       </c>
@@ -11976,7 +11910,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>349</v>
       </c>
@@ -11993,7 +11927,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>271</v>
       </c>
@@ -12010,7 +11944,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>145</v>
       </c>
@@ -12027,7 +11961,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="15">
         <v>340</v>
       </c>
@@ -12044,7 +11978,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>39</v>
       </c>
@@ -12061,7 +11995,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>101</v>
       </c>
@@ -12078,7 +12012,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="15">
         <v>56</v>
       </c>
@@ -12095,7 +12029,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>301</v>
       </c>
@@ -12112,7 +12046,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="15">
         <v>94</v>
       </c>
@@ -12129,7 +12063,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>119</v>
       </c>
@@ -12144,7 +12078,7 @@
       </c>
       <c r="E246" s="17"/>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="15">
         <v>104</v>
       </c>
@@ -12161,7 +12095,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>193</v>
       </c>
@@ -12178,7 +12112,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="15">
         <v>226</v>
       </c>
@@ -12195,7 +12129,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="15">
         <v>338</v>
       </c>
@@ -12212,7 +12146,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>83</v>
       </c>
@@ -12227,7 +12161,7 @@
       </c>
       <c r="E251" s="17"/>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="15">
         <v>384</v>
       </c>
@@ -12244,7 +12178,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="15">
         <v>274</v>
       </c>
@@ -12261,7 +12195,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>209</v>
       </c>
@@ -12278,7 +12212,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>387</v>
       </c>
@@ -12295,7 +12229,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="15">
         <v>212</v>
       </c>
@@ -12312,7 +12246,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>347</v>
       </c>
@@ -12329,7 +12263,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>159</v>
       </c>
@@ -12346,7 +12280,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>269</v>
       </c>
@@ -12363,7 +12297,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="15">
         <v>24</v>
       </c>
@@ -12380,7 +12314,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>283</v>
       </c>
@@ -12397,7 +12331,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="15">
         <v>142</v>
       </c>
@@ -12414,7 +12348,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>201</v>
       </c>
@@ -12431,7 +12365,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="15">
         <v>232</v>
       </c>
@@ -12448,7 +12382,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="15">
         <v>336</v>
       </c>
@@ -12465,7 +12399,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>41</v>
       </c>
@@ -12482,7 +12416,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="15">
         <v>150</v>
       </c>
@@ -12499,7 +12433,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>155</v>
       </c>
@@ -12516,7 +12450,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>195</v>
       </c>
@@ -12533,7 +12467,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>327</v>
       </c>
@@ -12550,7 +12484,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>1</v>
       </c>
@@ -12567,7 +12501,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="15">
         <v>360</v>
       </c>
@@ -12584,7 +12518,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="15">
         <v>248</v>
       </c>
@@ -12599,7 +12533,7 @@
       </c>
       <c r="E273" s="17"/>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="15">
         <v>84</v>
       </c>
@@ -12614,7 +12548,7 @@
       </c>
       <c r="E274" s="17"/>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="15">
         <v>48</v>
       </c>
@@ -12631,7 +12565,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>137</v>
       </c>
@@ -12648,7 +12582,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>147</v>
       </c>
@@ -12665,7 +12599,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="15">
         <v>258</v>
       </c>
@@ -12682,7 +12616,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="15">
         <v>326</v>
       </c>
@@ -12699,7 +12633,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>293</v>
       </c>
@@ -12716,7 +12650,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>207</v>
       </c>
@@ -12733,7 +12667,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="15">
         <v>174</v>
       </c>
@@ -12750,7 +12684,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="15">
         <v>300</v>
       </c>
@@ -12767,7 +12701,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="15">
         <v>282</v>
       </c>
@@ -12784,7 +12718,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>351</v>
       </c>
@@ -12801,7 +12735,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>57</v>
       </c>
@@ -12818,7 +12752,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>95</v>
       </c>
@@ -12835,7 +12769,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>361</v>
       </c>
@@ -12852,7 +12786,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>93</v>
       </c>
@@ -12869,7 +12803,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>393</v>
       </c>
@@ -12884,7 +12818,7 @@
       </c>
       <c r="E290" s="17"/>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="15">
         <v>64</v>
       </c>
@@ -12901,7 +12835,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="15">
         <v>390</v>
       </c>
@@ -12918,7 +12852,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="15">
         <v>6</v>
       </c>
@@ -12935,7 +12869,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="15">
         <v>358</v>
       </c>
@@ -12952,7 +12886,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="15">
         <v>20</v>
       </c>
@@ -12969,7 +12903,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>377</v>
       </c>
@@ -12986,7 +12920,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="16"/>
       <c r="B297" s="10" t="s">
         <v>1320</v>
@@ -12999,7 +12933,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>15</v>
       </c>
@@ -13016,7 +12950,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="15">
         <v>102</v>
       </c>
@@ -13033,7 +12967,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>239</v>
       </c>
@@ -13050,7 +12984,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>225</v>
       </c>
@@ -13067,7 +13001,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>279</v>
       </c>
@@ -13084,7 +13018,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>221</v>
       </c>
@@ -13101,7 +13035,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="15">
         <v>362</v>
       </c>
@@ -13118,7 +13052,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="15">
         <v>228</v>
       </c>
@@ -13135,7 +13069,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="15">
         <v>188</v>
       </c>
@@ -13152,7 +13086,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>263</v>
       </c>
@@ -13169,7 +13103,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>9</v>
       </c>
@@ -13186,7 +13120,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="15">
         <v>378</v>
       </c>
@@ -13203,7 +13137,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="15">
         <v>116</v>
       </c>
@@ -13218,7 +13152,7 @@
       </c>
       <c r="E310" s="17"/>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="15">
         <v>18</v>
       </c>
@@ -13235,7 +13169,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>141</v>
       </c>
@@ -13252,7 +13186,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="15">
         <v>208</v>
       </c>
@@ -13269,7 +13203,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>53</v>
       </c>
@@ -13286,7 +13220,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>157</v>
       </c>
@@ -13303,7 +13237,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="15">
         <v>216</v>
       </c>
@@ -13320,7 +13254,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="15">
         <v>12</v>
       </c>
@@ -13337,7 +13271,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>167</v>
       </c>
@@ -13354,7 +13288,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="15">
         <v>66</v>
       </c>
@@ -13371,7 +13305,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="15">
         <v>60</v>
       </c>
@@ -13388,7 +13322,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="15">
         <v>86</v>
       </c>
@@ -13405,7 +13339,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>135</v>
       </c>
@@ -13420,7 +13354,7 @@
       </c>
       <c r="E322" s="17"/>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>183</v>
       </c>
@@ -13437,7 +13371,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="15">
         <v>82</v>
       </c>
@@ -13452,7 +13386,7 @@
       </c>
       <c r="E324" s="17"/>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="15">
         <v>222</v>
       </c>
@@ -13469,7 +13403,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>259</v>
       </c>
@@ -13486,7 +13420,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>295</v>
       </c>
@@ -13503,7 +13437,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>261</v>
       </c>
@@ -13520,7 +13454,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="15">
         <v>96</v>
       </c>
@@ -13537,7 +13471,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>61</v>
       </c>
@@ -13554,7 +13488,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="15">
         <v>58</v>
       </c>
@@ -13571,7 +13505,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>305</v>
       </c>
@@ -13588,7 +13522,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="15">
         <v>170</v>
       </c>
@@ -13605,7 +13539,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>189</v>
       </c>
@@ -13622,7 +13556,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>175</v>
       </c>
@@ -13639,7 +13573,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="15">
         <v>346</v>
       </c>
@@ -13656,7 +13590,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>73</v>
       </c>
@@ -13673,7 +13607,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>359</v>
       </c>
@@ -13690,7 +13624,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>127</v>
       </c>
@@ -13707,7 +13641,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="15">
         <v>392</v>
       </c>
@@ -13722,7 +13656,7 @@
       </c>
       <c r="E340" s="17"/>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="15">
         <v>200</v>
       </c>
@@ -13739,7 +13673,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>353</v>
       </c>
@@ -13756,7 +13690,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>111</v>
       </c>
@@ -13773,7 +13707,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>99</v>
       </c>
@@ -13790,7 +13724,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>277</v>
       </c>
@@ -13805,7 +13739,7 @@
       </c>
       <c r="E345" s="17"/>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>43</v>
       </c>
@@ -13822,7 +13756,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="15">
         <v>244</v>
       </c>
@@ -13839,7 +13773,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>103</v>
       </c>
@@ -13856,7 +13790,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>19</v>
       </c>
@@ -13873,7 +13807,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="15">
         <v>198</v>
       </c>
@@ -13890,7 +13824,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>105</v>
       </c>
@@ -13907,7 +13841,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="15">
         <v>322</v>
       </c>
@@ -13924,7 +13858,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="15">
         <v>308</v>
       </c>
@@ -13941,7 +13875,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>217</v>
       </c>
@@ -13958,7 +13892,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>255</v>
       </c>
@@ -13975,7 +13909,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>115</v>
       </c>
@@ -13990,7 +13924,7 @@
       </c>
       <c r="E356" s="17"/>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>179</v>
       </c>
@@ -14005,7 +13939,7 @@
       </c>
       <c r="E357" s="17"/>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="15">
         <v>284</v>
       </c>
@@ -14022,7 +13956,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="15">
         <v>250</v>
       </c>
@@ -14039,7 +13973,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>365</v>
       </c>
@@ -14056,7 +13990,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>139</v>
       </c>
@@ -14073,7 +14007,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="15">
         <v>8</v>
       </c>
@@ -14090,7 +14024,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="15">
         <v>122</v>
       </c>
@@ -14105,7 +14039,7 @@
       </c>
       <c r="E363" s="17"/>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>123</v>
       </c>
@@ -14120,7 +14054,7 @@
       </c>
       <c r="E364" s="17"/>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>45</v>
       </c>
@@ -14135,7 +14069,7 @@
       </c>
       <c r="E365" s="17"/>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="15">
         <v>370</v>
       </c>
@@ -14152,7 +14086,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>357</v>
       </c>
@@ -14167,7 +14101,7 @@
       </c>
       <c r="E367" s="17"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="15">
         <v>184</v>
       </c>
@@ -14184,7 +14118,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>163</v>
       </c>
@@ -14201,7 +14135,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="15">
         <v>204</v>
       </c>
@@ -14218,7 +14152,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="15">
         <v>356</v>
       </c>
@@ -14233,7 +14167,7 @@
       </c>
       <c r="E371" s="17"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="15">
         <v>298</v>
       </c>
@@ -14250,7 +14184,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>177</v>
       </c>
@@ -14267,7 +14201,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>203</v>
       </c>
@@ -14284,7 +14218,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="15">
         <v>246</v>
       </c>
@@ -14301,7 +14235,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="15">
         <v>234</v>
       </c>
@@ -14318,7 +14252,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>173</v>
       </c>
@@ -14335,7 +14269,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>311</v>
       </c>
@@ -14352,7 +14286,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>309</v>
       </c>
@@ -14369,7 +14303,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="15">
         <v>62</v>
       </c>
@@ -14386,7 +14320,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="15">
         <v>238</v>
       </c>
@@ -14403,7 +14337,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>335</v>
       </c>
@@ -14420,7 +14354,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>243</v>
       </c>
@@ -14437,7 +14371,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="15">
         <v>132</v>
       </c>
@@ -14454,7 +14388,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>391</v>
       </c>
@@ -14471,7 +14405,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="15">
         <v>268</v>
       </c>
@@ -14488,7 +14422,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>383</v>
       </c>
@@ -14505,7 +14439,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>237</v>
       </c>
@@ -14520,7 +14454,7 @@
       </c>
       <c r="E388" s="17"/>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>11</v>
       </c>
@@ -14537,7 +14471,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="15">
         <v>236</v>
       </c>
@@ -14554,7 +14488,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>363</v>
       </c>
@@ -14571,7 +14505,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>107</v>
       </c>
@@ -14588,7 +14522,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>113</v>
       </c>
@@ -14605,7 +14539,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>245</v>
       </c>
@@ -14620,7 +14554,7 @@
       </c>
       <c r="E394" s="17"/>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>169</v>
       </c>
@@ -14637,7 +14571,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="15">
         <v>114</v>
       </c>
@@ -14654,7 +14588,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="15">
         <v>52</v>
       </c>
@@ -14671,7 +14605,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="15">
         <v>136</v>
       </c>
@@ -14688,7 +14622,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>371</v>
       </c>
@@ -14727,225 +14661,225 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>799</v>
       </c>
@@ -14956,1849 +14890,1849 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A367"/>
   <sheetViews>
     <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>530</v>
       </c>
@@ -16812,19 +16746,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:E278"/>
   <sheetViews>
     <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>831</v>
       </c>
@@ -16835,7 +16769,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>834</v>
       </c>
@@ -16846,7 +16780,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>837</v>
       </c>
@@ -16854,7 +16788,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>839</v>
       </c>
@@ -16865,7 +16799,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>841</v>
       </c>
@@ -16873,7 +16807,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>841</v>
       </c>
@@ -16884,7 +16818,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>844</v>
       </c>
@@ -16892,7 +16826,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>846</v>
       </c>
@@ -16903,7 +16837,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>849</v>
       </c>
@@ -16914,7 +16848,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>853</v>
       </c>
@@ -16925,7 +16859,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>853</v>
       </c>
@@ -16933,7 +16867,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>853</v>
       </c>
@@ -16941,7 +16875,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>853</v>
       </c>
@@ -16952,7 +16886,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>859</v>
       </c>
@@ -16963,7 +16897,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>862</v>
       </c>
@@ -16971,7 +16905,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>864</v>
       </c>
@@ -16979,7 +16913,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>866</v>
       </c>
@@ -16987,7 +16921,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>868</v>
       </c>
@@ -16995,7 +16929,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>869</v>
       </c>
@@ -17003,7 +16937,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>871</v>
       </c>
@@ -17014,7 +16948,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>874</v>
       </c>
@@ -17025,7 +16959,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>877</v>
       </c>
@@ -17036,7 +16970,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>879</v>
       </c>
@@ -17047,7 +16981,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>883</v>
       </c>
@@ -17055,7 +16989,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>885</v>
       </c>
@@ -17063,7 +16997,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>887</v>
       </c>
@@ -17074,7 +17008,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>890</v>
       </c>
@@ -17082,7 +17016,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>892</v>
       </c>
@@ -17093,7 +17027,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>895</v>
       </c>
@@ -17104,7 +17038,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>895</v>
       </c>
@@ -17112,7 +17046,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>899</v>
       </c>
@@ -17123,7 +17057,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>903</v>
       </c>
@@ -17131,7 +17065,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>905</v>
       </c>
@@ -17139,7 +17073,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>907</v>
       </c>
@@ -17147,7 +17081,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>908</v>
       </c>
@@ -17155,7 +17089,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>909</v>
       </c>
@@ -17163,7 +17097,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>909</v>
       </c>
@@ -17171,7 +17105,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>912</v>
       </c>
@@ -17182,7 +17116,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>914</v>
       </c>
@@ -17190,7 +17124,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>916</v>
       </c>
@@ -17204,7 +17138,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>919</v>
       </c>
@@ -17212,7 +17146,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>921</v>
       </c>
@@ -17223,7 +17157,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>924</v>
       </c>
@@ -17234,7 +17168,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>927</v>
       </c>
@@ -17242,7 +17176,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>929</v>
       </c>
@@ -17250,7 +17184,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>931</v>
       </c>
@@ -17258,7 +17192,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>933</v>
       </c>
@@ -17266,7 +17200,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>935</v>
       </c>
@@ -17277,7 +17211,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>938</v>
       </c>
@@ -17285,7 +17219,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>940</v>
       </c>
@@ -17296,7 +17230,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>943</v>
       </c>
@@ -17304,7 +17238,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>945</v>
       </c>
@@ -17315,7 +17249,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>947</v>
       </c>
@@ -17326,7 +17260,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>950</v>
       </c>
@@ -17334,7 +17268,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>950</v>
       </c>
@@ -17342,7 +17276,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>953</v>
       </c>
@@ -17350,7 +17284,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>955</v>
       </c>
@@ -17358,7 +17292,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>957</v>
       </c>
@@ -17366,7 +17300,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>959</v>
       </c>
@@ -17374,7 +17308,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>959</v>
       </c>
@@ -17382,7 +17316,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>962</v>
       </c>
@@ -17390,7 +17324,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>964</v>
       </c>
@@ -17398,7 +17332,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>964</v>
       </c>
@@ -17406,7 +17340,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>967</v>
       </c>
@@ -17417,7 +17351,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>968</v>
       </c>
@@ -17425,7 +17359,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>968</v>
       </c>
@@ -17433,7 +17367,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>971</v>
       </c>
@@ -17441,7 +17375,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>973</v>
       </c>
@@ -17452,7 +17386,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>973</v>
       </c>
@@ -17460,7 +17394,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>973</v>
       </c>
@@ -17468,7 +17402,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>973</v>
       </c>
@@ -17476,7 +17410,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>978</v>
       </c>
@@ -17484,7 +17418,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>980</v>
       </c>
@@ -17492,7 +17426,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>982</v>
       </c>
@@ -17500,7 +17434,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>983</v>
       </c>
@@ -17508,7 +17442,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>984</v>
       </c>
@@ -17516,7 +17450,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>986</v>
       </c>
@@ -17524,7 +17458,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>988</v>
       </c>
@@ -17532,7 +17466,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>990</v>
       </c>
@@ -17543,7 +17477,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>992</v>
       </c>
@@ -17554,7 +17488,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>993</v>
       </c>
@@ -17565,7 +17499,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>993</v>
       </c>
@@ -17576,7 +17510,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>997</v>
       </c>
@@ -17587,7 +17521,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>999</v>
       </c>
@@ -17595,7 +17529,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>1001</v>
       </c>
@@ -17606,7 +17540,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>1001</v>
       </c>
@@ -17614,7 +17548,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>1003</v>
       </c>
@@ -17622,7 +17556,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>1005</v>
       </c>
@@ -17630,7 +17564,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>1007</v>
       </c>
@@ -17638,7 +17572,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>1008</v>
       </c>
@@ -17646,7 +17580,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>1009</v>
       </c>
@@ -17654,7 +17588,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>1011</v>
       </c>
@@ -17662,7 +17596,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>1013</v>
       </c>
@@ -17670,7 +17604,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>1013</v>
       </c>
@@ -17678,7 +17612,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>1016</v>
       </c>
@@ -17686,7 +17620,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>1018</v>
       </c>
@@ -17694,7 +17628,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>1020</v>
       </c>
@@ -17705,7 +17639,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>1021</v>
       </c>
@@ -17716,7 +17650,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>1024</v>
       </c>
@@ -17724,7 +17658,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>1025</v>
       </c>
@@ -17735,7 +17669,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>1027</v>
       </c>
@@ -17743,7 +17677,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>1029</v>
       </c>
@@ -17751,7 +17685,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>1031</v>
       </c>
@@ -17759,7 +17693,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>1033</v>
       </c>
@@ -17767,7 +17701,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>1035</v>
       </c>
@@ -17775,7 +17709,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>1037</v>
       </c>
@@ -17783,7 +17717,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>1039</v>
       </c>
@@ -17791,7 +17725,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>1041</v>
       </c>
@@ -17799,7 +17733,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>1041</v>
       </c>
@@ -17810,7 +17744,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>1043</v>
       </c>
@@ -17821,7 +17755,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>1045</v>
       </c>
@@ -17829,7 +17763,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>1046</v>
       </c>
@@ -17840,7 +17774,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>1049</v>
       </c>
@@ -17848,7 +17782,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>1051</v>
       </c>
@@ -17856,7 +17790,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>1053</v>
       </c>
@@ -17867,7 +17801,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>1055</v>
       </c>
@@ -17875,7 +17809,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>1056</v>
       </c>
@@ -17883,7 +17817,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>1057</v>
       </c>
@@ -17891,7 +17825,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>1058</v>
       </c>
@@ -17899,7 +17833,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
         <v>1060</v>
       </c>
@@ -17910,7 +17844,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>1062</v>
       </c>
@@ -17918,7 +17852,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>1064</v>
       </c>
@@ -17932,7 +17866,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>1068</v>
       </c>
@@ -17943,7 +17877,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>1070</v>
       </c>
@@ -17954,7 +17888,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>1071</v>
       </c>
@@ -17965,7 +17899,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>1072</v>
       </c>
@@ -17976,7 +17910,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>946</v>
       </c>
@@ -17984,7 +17918,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>1076</v>
       </c>
@@ -17995,7 +17929,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>1079</v>
       </c>
@@ -18003,7 +17937,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>1079</v>
       </c>
@@ -18014,7 +17948,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>1082</v>
       </c>
@@ -18022,7 +17956,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>1082</v>
       </c>
@@ -18033,7 +17967,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>1085</v>
       </c>
@@ -18041,7 +17975,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>1085</v>
       </c>
@@ -18052,7 +17986,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>1089</v>
       </c>
@@ -18060,7 +17994,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>1091</v>
       </c>
@@ -18071,7 +18005,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>1092</v>
       </c>
@@ -18082,7 +18016,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>1095</v>
       </c>
@@ -18090,7 +18024,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>1096</v>
       </c>
@@ -18098,7 +18032,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>1098</v>
       </c>
@@ -18112,7 +18046,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>1100</v>
       </c>
@@ -18120,7 +18054,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>860</v>
       </c>
@@ -18128,7 +18062,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>1102</v>
       </c>
@@ -18136,7 +18070,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>1103</v>
       </c>
@@ -18147,7 +18081,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>1106</v>
       </c>
@@ -18158,7 +18092,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>1108</v>
       </c>
@@ -18166,7 +18100,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>1110</v>
       </c>
@@ -18177,7 +18111,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>1113</v>
       </c>
@@ -18185,7 +18119,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>1114</v>
       </c>
@@ -18193,7 +18127,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>1116</v>
       </c>
@@ -18204,7 +18138,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>1118</v>
       </c>
@@ -18215,7 +18149,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>1120</v>
       </c>
@@ -18223,7 +18157,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>1121</v>
       </c>
@@ -18231,7 +18165,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>1123</v>
       </c>
@@ -18239,7 +18173,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>1125</v>
       </c>
@@ -18250,7 +18184,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>1128</v>
       </c>
@@ -18261,7 +18195,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>1128</v>
       </c>
@@ -18269,7 +18203,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>1131</v>
       </c>
@@ -18280,7 +18214,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>1133</v>
       </c>
@@ -18288,7 +18222,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>1135</v>
       </c>
@@ -18296,7 +18230,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>1136</v>
       </c>
@@ -18304,7 +18238,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>1138</v>
       </c>
@@ -18315,7 +18249,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>1140</v>
       </c>
@@ -18326,7 +18260,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>1140</v>
       </c>
@@ -18337,7 +18271,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>1140</v>
       </c>
@@ -18348,7 +18282,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>1140</v>
       </c>
@@ -18359,7 +18293,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>1145</v>
       </c>
@@ -18367,7 +18301,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>1147</v>
       </c>
@@ -18375,7 +18309,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>1137</v>
       </c>
@@ -18383,7 +18317,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>1137</v>
       </c>
@@ -18394,7 +18328,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>1137</v>
       </c>
@@ -18405,7 +18339,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>1150</v>
       </c>
@@ -18416,7 +18350,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>1150</v>
       </c>
@@ -18424,7 +18358,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>1150</v>
       </c>
@@ -18435,7 +18369,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>1150</v>
       </c>
@@ -18446,7 +18380,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>1150</v>
       </c>
@@ -18457,7 +18391,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>1150</v>
       </c>
@@ -18468,7 +18402,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>1160</v>
       </c>
@@ -18479,7 +18413,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>1163</v>
       </c>
@@ -18490,7 +18424,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>1165</v>
       </c>
@@ -18501,7 +18435,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>1168</v>
       </c>
@@ -18509,7 +18443,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>1170</v>
       </c>
@@ -18517,7 +18451,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>1172</v>
       </c>
@@ -18525,7 +18459,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>1174</v>
       </c>
@@ -18536,7 +18470,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>1174</v>
       </c>
@@ -18544,7 +18478,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>1176</v>
       </c>
@@ -18555,7 +18489,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>1176</v>
       </c>
@@ -18566,7 +18500,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>1178</v>
       </c>
@@ -18577,7 +18511,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>1181</v>
       </c>
@@ -18585,7 +18519,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>1182</v>
       </c>
@@ -18596,7 +18530,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>1182</v>
       </c>
@@ -18607,7 +18541,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>1182</v>
       </c>
@@ -18618,7 +18552,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>1187</v>
       </c>
@@ -18626,7 +18560,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>1187</v>
       </c>
@@ -18637,7 +18571,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>1190</v>
       </c>
@@ -18645,7 +18579,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>1192</v>
       </c>
@@ -18653,7 +18587,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>1194</v>
       </c>
@@ -18661,7 +18595,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>1196</v>
       </c>
@@ -18669,7 +18603,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>1198</v>
       </c>
@@ -18677,7 +18611,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>1200</v>
       </c>
@@ -18688,7 +18622,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>1203</v>
       </c>
@@ -18699,7 +18633,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>1205</v>
       </c>
@@ -18707,7 +18641,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>1207</v>
       </c>
@@ -18718,7 +18652,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>1208</v>
       </c>
@@ -18726,7 +18660,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>1210</v>
       </c>
@@ -18734,7 +18668,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>1212</v>
       </c>
@@ -18742,7 +18676,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>1214</v>
       </c>
@@ -18750,7 +18684,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>1216</v>
       </c>
@@ -18758,7 +18692,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>1217</v>
       </c>
@@ -18769,7 +18703,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>1218</v>
       </c>
@@ -18777,7 +18711,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>1219</v>
       </c>
@@ -18785,7 +18719,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>1221</v>
       </c>
@@ -18796,7 +18730,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>1221</v>
       </c>
@@ -18804,7 +18738,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>1222</v>
       </c>
@@ -18812,7 +18746,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>1223</v>
       </c>
@@ -18820,7 +18754,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>1225</v>
       </c>
@@ -18828,7 +18762,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>1226</v>
       </c>
@@ -18836,7 +18770,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>1227</v>
       </c>
@@ -18844,7 +18778,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>1228</v>
       </c>
@@ -18852,7 +18786,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>1229</v>
       </c>
@@ -18860,7 +18794,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>1231</v>
       </c>
@@ -18868,7 +18802,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>1232</v>
       </c>
@@ -18876,7 +18810,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>1234</v>
       </c>
@@ -18884,7 +18818,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>1236</v>
       </c>
@@ -18895,7 +18829,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>1237</v>
       </c>
@@ -18909,7 +18843,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>1238</v>
       </c>
@@ -18917,7 +18851,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>1240</v>
       </c>
@@ -18925,7 +18859,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>1240</v>
       </c>
@@ -18933,7 +18867,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>1242</v>
       </c>
@@ -18941,7 +18875,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>1244</v>
       </c>
@@ -18949,7 +18883,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>1246</v>
       </c>
@@ -18957,7 +18891,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>1248</v>
       </c>
@@ -18968,7 +18902,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>1249</v>
       </c>
@@ -18976,7 +18910,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>1250</v>
       </c>
@@ -18987,7 +18921,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>1252</v>
       </c>
@@ -18995,7 +18929,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>1253</v>
       </c>
@@ -19003,7 +18937,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>1255</v>
       </c>
@@ -19011,7 +18945,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>1257</v>
       </c>
@@ -19019,7 +18953,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>1258</v>
       </c>
@@ -19027,7 +18961,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>1259</v>
       </c>
@@ -19035,7 +18969,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>1260</v>
       </c>
@@ -19043,7 +18977,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>1261</v>
       </c>
@@ -19054,7 +18988,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>1263</v>
       </c>
@@ -19065,7 +18999,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>1265</v>
       </c>
@@ -19076,7 +19010,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>1268</v>
       </c>
@@ -19084,7 +19018,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>1269</v>
       </c>
@@ -19092,7 +19026,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>1270</v>
       </c>
@@ -19100,7 +19034,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>1270</v>
       </c>
@@ -19108,7 +19042,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>1270</v>
       </c>
@@ -19116,7 +19050,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>1273</v>
       </c>
@@ -19124,7 +19058,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>1274</v>
       </c>
@@ -19135,7 +19069,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>1275</v>
       </c>
@@ -19143,7 +19077,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>1276</v>
       </c>
@@ -19151,7 +19085,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>1278</v>
       </c>
@@ -19162,7 +19096,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>1279</v>
       </c>
@@ -19170,7 +19104,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>1281</v>
       </c>
@@ -19178,7 +19112,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>1281</v>
       </c>
@@ -19186,7 +19120,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>1284</v>
       </c>
@@ -19194,7 +19128,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>1286</v>
       </c>
@@ -19202,7 +19136,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>1287</v>
       </c>
@@ -19213,7 +19147,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>1288</v>
       </c>
@@ -19221,7 +19155,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>1290</v>
       </c>
@@ -19229,7 +19163,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>1291</v>
       </c>
@@ -19237,7 +19171,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>1292</v>
       </c>
@@ -19245,7 +19179,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>1293</v>
       </c>
@@ -19253,7 +19187,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>1294</v>
       </c>
@@ -19261,7 +19195,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>1296</v>
       </c>
@@ -19269,7 +19203,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>1297</v>
       </c>
@@ -19277,7 +19211,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>1298</v>
       </c>
@@ -19285,7 +19219,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>1300</v>
       </c>
@@ -19293,7 +19227,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>1301</v>
       </c>
@@ -19301,7 +19235,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>1303</v>
       </c>
@@ -19309,7 +19243,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>1304</v>
       </c>
@@ -19317,7 +19251,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>1306</v>
       </c>
@@ -19328,7 +19262,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>1307</v>
       </c>
@@ -19339,7 +19273,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>1309</v>
       </c>

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564C3F2-339B-497B-BEFB-A2CE906F7AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EAAFA9-1499-423F-809E-69B88D0929CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="10" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1326">
   <si>
     <t>OFFICE</t>
   </si>
@@ -4010,6 +4010,9 @@
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -7224,7 +7227,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -7542,13 +7545,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A3:E399" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A3:E399" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="P"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:E399" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A121:E399">
     <sortCondition ref="C3:C399"/>
   </sortState>
@@ -8270,8 +8267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8314,7 +8311,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -8327,7 +8324,7 @@
       </c>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>7</v>
       </c>
@@ -8340,7 +8337,7 @@
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>23</v>
       </c>
@@ -8353,7 +8350,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>25</v>
       </c>
@@ -8366,7 +8363,7 @@
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>27</v>
       </c>
@@ -8379,7 +8376,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>21</v>
       </c>
@@ -8392,7 +8389,7 @@
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>31</v>
       </c>
@@ -8405,7 +8402,7 @@
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>29</v>
       </c>
@@ -8418,7 +8415,7 @@
       </c>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>34</v>
       </c>
@@ -8431,7 +8428,7 @@
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>35</v>
       </c>
@@ -8444,7 +8441,7 @@
       </c>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>33</v>
       </c>
@@ -8457,7 +8454,7 @@
       </c>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>28</v>
       </c>
@@ -8470,7 +8467,7 @@
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>30</v>
       </c>
@@ -8483,7 +8480,7 @@
       </c>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>37</v>
       </c>
@@ -8496,7 +8493,7 @@
       </c>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>38</v>
       </c>
@@ -8509,7 +8506,7 @@
       </c>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>253</v>
       </c>
@@ -8522,7 +8519,7 @@
       </c>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>40</v>
       </c>
@@ -8535,7 +8532,7 @@
       </c>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>36</v>
       </c>
@@ -8548,7 +8545,7 @@
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>227</v>
       </c>
@@ -8561,7 +8558,7 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>341</v>
       </c>
@@ -8574,7 +8571,7 @@
       </c>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>342</v>
       </c>
@@ -8587,7 +8584,7 @@
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>229</v>
       </c>
@@ -8611,9 +8608,7 @@
       <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
@@ -8626,9 +8621,7 @@
       <c r="D27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
@@ -8641,9 +8634,7 @@
       <c r="D28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
@@ -8656,9 +8647,7 @@
       <c r="D29" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E29" s="17"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -8676,7 +8665,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>344</v>
       </c>
@@ -8700,9 +8689,7 @@
       <c r="D32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
@@ -8715,9 +8702,7 @@
       <c r="D33" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
@@ -8730,9 +8715,7 @@
       <c r="D34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
@@ -8745,9 +8728,7 @@
       <c r="D35" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
@@ -8760,11 +8741,9 @@
       <c r="D36" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>85</v>
       </c>
@@ -8788,9 +8767,7 @@
       <c r="D38" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
@@ -8803,11 +8780,9 @@
       <c r="D39" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>90</v>
       </c>
@@ -8831,11 +8806,9 @@
       <c r="D41" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>88</v>
       </c>
@@ -8859,11 +8832,9 @@
       <c r="D43" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>89</v>
       </c>
@@ -8876,7 +8847,7 @@
       </c>
       <c r="E44" s="17"/>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>366</v>
       </c>
@@ -8889,7 +8860,7 @@
       </c>
       <c r="E45" s="17"/>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>112</v>
       </c>
@@ -8917,7 +8888,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>124</v>
       </c>
@@ -8930,7 +8901,7 @@
       </c>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>125</v>
       </c>
@@ -8970,7 +8941,7 @@
         <v>119</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>444</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -8985,7 +8956,7 @@
         <v>119</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>444</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -9048,7 +9019,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>206</v>
       </c>
@@ -9076,7 +9047,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>196</v>
       </c>
@@ -9104,7 +9075,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>182</v>
       </c>
@@ -9117,7 +9088,7 @@
       </c>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>205</v>
       </c>
@@ -9130,7 +9101,7 @@
       </c>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>181</v>
       </c>
@@ -9143,7 +9114,7 @@
       </c>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>180</v>
       </c>
@@ -9156,7 +9127,7 @@
       </c>
       <c r="E64" s="17"/>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>190</v>
       </c>
@@ -9169,7 +9140,7 @@
       </c>
       <c r="E65" s="17"/>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>199</v>
       </c>
@@ -9377,7 +9348,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
         <v>262</v>
       </c>
@@ -9390,7 +9361,7 @@
       </c>
       <c r="E80" s="17"/>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
         <v>266</v>
       </c>
@@ -9534,9 +9505,7 @@
       <c r="D90" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E90" s="17" t="s">
-        <v>444</v>
-      </c>
+      <c r="E90" s="17"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
@@ -9688,7 +9657,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
         <v>324</v>
       </c>
@@ -9701,7 +9670,7 @@
       </c>
       <c r="E101" s="17"/>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>333</v>
       </c>
@@ -9714,7 +9683,7 @@
       </c>
       <c r="E102" s="17"/>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>331</v>
       </c>
@@ -9742,7 +9711,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>319</v>
       </c>
@@ -9785,7 +9754,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="16">
         <v>317</v>
       </c>
@@ -9798,7 +9767,7 @@
       </c>
       <c r="E108" s="17"/>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="15">
         <v>328</v>
       </c>
@@ -9826,7 +9795,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
         <v>330</v>
       </c>
@@ -9839,7 +9808,7 @@
       </c>
       <c r="E111" s="17"/>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
         <v>312</v>
       </c>
@@ -9867,7 +9836,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
         <v>314</v>
       </c>
@@ -9895,7 +9864,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="16">
         <v>321</v>
       </c>
@@ -9908,7 +9877,7 @@
       </c>
       <c r="E116" s="17"/>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
         <v>332</v>
       </c>
@@ -9936,7 +9905,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
         <v>310</v>
       </c>
@@ -9964,7 +9933,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="16">
         <v>75</v>
       </c>
@@ -9981,7 +9950,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
         <v>364</v>
       </c>
@@ -9996,7 +9965,7 @@
       </c>
       <c r="E122" s="17"/>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
         <v>108</v>
       </c>
@@ -10013,7 +9982,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
         <v>276</v>
       </c>
@@ -10030,7 +9999,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
         <v>98</v>
       </c>
@@ -10047,7 +10016,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="16">
         <v>343</v>
       </c>
@@ -10064,7 +10033,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="16">
         <v>385</v>
       </c>
@@ -10081,7 +10050,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
         <v>194</v>
       </c>
@@ -10098,7 +10067,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>337</v>
       </c>
@@ -10115,7 +10084,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="16">
         <v>161</v>
       </c>
@@ -10132,7 +10101,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>355</v>
       </c>
@@ -10149,7 +10118,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
         <v>374</v>
       </c>
@@ -10166,7 +10135,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>369</v>
       </c>
@@ -10183,7 +10152,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
         <v>210</v>
       </c>
@@ -10200,7 +10169,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
         <v>368</v>
       </c>
@@ -10217,7 +10186,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
         <v>2</v>
       </c>
@@ -10234,7 +10203,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
         <v>26</v>
       </c>
@@ -10251,7 +10220,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>325</v>
       </c>
@@ -10268,7 +10237,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>187</v>
       </c>
@@ -10285,7 +10254,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
         <v>10</v>
       </c>
@@ -10302,7 +10271,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
         <v>70</v>
       </c>
@@ -10319,7 +10288,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
         <v>16</v>
       </c>
@@ -10336,7 +10305,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <v>218</v>
       </c>
@@ -10353,7 +10322,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <v>22</v>
       </c>
@@ -10370,7 +10339,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
         <v>224</v>
       </c>
@@ -10387,7 +10356,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <v>172</v>
       </c>
@@ -10404,7 +10373,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="16">
         <v>109</v>
       </c>
@@ -10421,7 +10390,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="16">
         <v>59</v>
       </c>
@@ -10438,7 +10407,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <v>134</v>
       </c>
@@ -10455,7 +10424,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
         <v>120</v>
       </c>
@@ -10470,7 +10439,7 @@
       </c>
       <c r="E150" s="17"/>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
         <v>334</v>
       </c>
@@ -10487,7 +10456,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>395</v>
       </c>
@@ -10504,7 +10473,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
         <v>230</v>
       </c>
@@ -10521,7 +10490,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>241</v>
       </c>
@@ -10538,7 +10507,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
         <v>278</v>
       </c>
@@ -10555,7 +10524,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
         <v>42</v>
       </c>
@@ -10572,7 +10541,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>81</v>
       </c>
@@ -10589,7 +10558,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
         <v>306</v>
       </c>
@@ -10606,7 +10575,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
         <v>140</v>
       </c>
@@ -10623,7 +10592,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
         <v>152</v>
       </c>
@@ -10640,7 +10609,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
         <v>50</v>
       </c>
@@ -10657,7 +10626,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>339</v>
       </c>
@@ -10674,7 +10643,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
         <v>72</v>
       </c>
@@ -10691,7 +10660,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>191</v>
       </c>
@@ -10708,7 +10677,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>143</v>
       </c>
@@ -10725,7 +10694,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>51</v>
       </c>
@@ -10742,7 +10711,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>13</v>
       </c>
@@ -10759,7 +10728,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
         <v>138</v>
       </c>
@@ -10776,7 +10745,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>373</v>
       </c>
@@ -10793,7 +10762,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
         <v>118</v>
       </c>
@@ -10808,7 +10777,7 @@
       </c>
       <c r="E170" s="17"/>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>273</v>
       </c>
@@ -10825,7 +10794,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
         <v>304</v>
       </c>
@@ -10842,7 +10811,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="15">
         <v>256</v>
       </c>
@@ -10859,7 +10828,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="15">
         <v>106</v>
       </c>
@@ -10876,7 +10845,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="16">
         <v>375</v>
       </c>
@@ -10893,7 +10862,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>77</v>
       </c>
@@ -10910,7 +10879,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="15">
         <v>178</v>
       </c>
@@ -10925,7 +10894,7 @@
       </c>
       <c r="E177" s="17"/>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="15">
         <v>76</v>
       </c>
@@ -10942,7 +10911,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>121</v>
       </c>
@@ -10957,7 +10926,7 @@
       </c>
       <c r="E179" s="17"/>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="15">
         <v>144</v>
       </c>
@@ -10972,7 +10941,7 @@
       </c>
       <c r="E180" s="17"/>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="15">
         <v>156</v>
       </c>
@@ -10989,7 +10958,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>299</v>
       </c>
@@ -11006,7 +10975,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>247</v>
       </c>
@@ -11021,7 +10990,7 @@
       </c>
       <c r="E183" s="17"/>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>185</v>
       </c>
@@ -11038,7 +11007,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="15">
         <v>110</v>
       </c>
@@ -11055,7 +11024,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="15">
         <v>202</v>
       </c>
@@ -11072,7 +11041,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="15">
         <v>130</v>
       </c>
@@ -11089,7 +11058,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>231</v>
       </c>
@@ -11106,7 +11075,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="15">
         <v>350</v>
       </c>
@@ -11123,7 +11092,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
         <v>352</v>
       </c>
@@ -11140,7 +11109,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="15">
         <v>176</v>
       </c>
@@ -11157,7 +11126,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="16">
         <v>17</v>
       </c>
@@ -11174,7 +11143,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="15">
         <v>272</v>
       </c>
@@ -11191,7 +11160,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="16">
         <v>133</v>
       </c>
@@ -11206,7 +11175,7 @@
       </c>
       <c r="E194" s="17"/>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="16">
         <v>267</v>
       </c>
@@ -11223,7 +11192,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="15">
         <v>348</v>
       </c>
@@ -11238,7 +11207,7 @@
       </c>
       <c r="E196" s="17"/>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>345</v>
       </c>
@@ -11253,7 +11222,7 @@
       </c>
       <c r="E197" s="17"/>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="15">
         <v>380</v>
       </c>
@@ -11270,7 +11239,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="16">
         <v>307</v>
       </c>
@@ -11287,7 +11256,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="15">
         <v>388</v>
       </c>
@@ -11304,7 +11273,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="15">
         <v>14</v>
       </c>
@@ -11321,7 +11290,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="15">
         <v>74</v>
       </c>
@@ -11338,7 +11307,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="16">
         <v>275</v>
       </c>
@@ -11355,7 +11324,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="16">
         <v>55</v>
       </c>
@@ -11372,7 +11341,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="16">
         <v>389</v>
       </c>
@@ -11389,7 +11358,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="15">
         <v>4</v>
       </c>
@@ -11406,7 +11375,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="15">
         <v>186</v>
       </c>
@@ -11423,7 +11392,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="16">
         <v>117</v>
       </c>
@@ -11440,7 +11409,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="15">
         <v>240</v>
       </c>
@@ -11455,7 +11424,7 @@
       </c>
       <c r="E209" s="17"/>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="15">
         <v>148</v>
       </c>
@@ -11472,7 +11441,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="16">
         <v>381</v>
       </c>
@@ -11489,7 +11458,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="15">
         <v>32</v>
       </c>
@@ -11506,7 +11475,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="15">
         <v>100</v>
       </c>
@@ -11523,7 +11492,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="16">
         <v>149</v>
       </c>
@@ -11540,7 +11509,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="16">
         <v>69</v>
       </c>
@@ -11557,7 +11526,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="15">
         <v>154</v>
       </c>
@@ -11574,7 +11543,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="16">
         <v>97</v>
       </c>
@@ -11591,7 +11560,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="16">
         <v>65</v>
       </c>
@@ -11608,7 +11577,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="15">
         <v>280</v>
       </c>
@@ -11625,7 +11594,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="16">
         <v>281</v>
       </c>
@@ -11642,7 +11611,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="16">
         <v>153</v>
       </c>
@@ -11657,7 +11626,7 @@
       </c>
       <c r="E221" s="17"/>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="16">
         <v>367</v>
       </c>
@@ -11674,7 +11643,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="15">
         <v>54</v>
       </c>
@@ -11691,7 +11660,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="16">
         <v>215</v>
       </c>
@@ -11708,7 +11677,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="16">
         <v>3</v>
       </c>
@@ -11725,7 +11694,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="15">
         <v>166</v>
       </c>
@@ -11742,7 +11711,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="16">
         <v>211</v>
       </c>
@@ -11759,7 +11728,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="15">
         <v>354</v>
       </c>
@@ -11776,7 +11745,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="15">
         <v>158</v>
       </c>
@@ -11793,7 +11762,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="15">
         <v>290</v>
       </c>
@@ -11808,7 +11777,7 @@
       </c>
       <c r="E230" s="17"/>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="15">
         <v>242</v>
       </c>
@@ -11825,7 +11794,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="15">
         <v>192</v>
       </c>
@@ -11842,7 +11811,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="16">
         <v>165</v>
       </c>
@@ -11859,7 +11828,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="15">
         <v>168</v>
       </c>
@@ -11876,7 +11845,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="15">
         <v>160</v>
       </c>
@@ -11893,7 +11862,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="16">
         <v>63</v>
       </c>
@@ -11910,7 +11879,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="16">
         <v>349</v>
       </c>
@@ -11927,7 +11896,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="16">
         <v>271</v>
       </c>
@@ -11944,7 +11913,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="16">
         <v>145</v>
       </c>
@@ -11961,7 +11930,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="15">
         <v>340</v>
       </c>
@@ -11978,7 +11947,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="16">
         <v>39</v>
       </c>
@@ -11995,7 +11964,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="16">
         <v>101</v>
       </c>
@@ -12012,7 +11981,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="15">
         <v>56</v>
       </c>
@@ -12029,7 +11998,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="16">
         <v>301</v>
       </c>
@@ -12046,7 +12015,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="15">
         <v>94</v>
       </c>
@@ -12063,7 +12032,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="16">
         <v>119</v>
       </c>
@@ -12078,7 +12047,7 @@
       </c>
       <c r="E246" s="17"/>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="15">
         <v>104</v>
       </c>
@@ -12095,7 +12064,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="16">
         <v>193</v>
       </c>
@@ -12112,7 +12081,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="15">
         <v>226</v>
       </c>
@@ -12129,7 +12098,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="15">
         <v>338</v>
       </c>
@@ -12146,7 +12115,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="16">
         <v>83</v>
       </c>
@@ -12161,7 +12130,7 @@
       </c>
       <c r="E251" s="17"/>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="15">
         <v>384</v>
       </c>
@@ -12178,7 +12147,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="15">
         <v>274</v>
       </c>
@@ -12195,7 +12164,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="16">
         <v>209</v>
       </c>
@@ -12212,7 +12181,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="16">
         <v>387</v>
       </c>
@@ -12229,7 +12198,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="15">
         <v>212</v>
       </c>
@@ -12246,7 +12215,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="16">
         <v>347</v>
       </c>
@@ -12263,7 +12232,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="16">
         <v>159</v>
       </c>
@@ -12280,7 +12249,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="16">
         <v>269</v>
       </c>
@@ -12297,7 +12266,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="15">
         <v>24</v>
       </c>
@@ -12314,7 +12283,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="16">
         <v>283</v>
       </c>
@@ -12331,7 +12300,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="15">
         <v>142</v>
       </c>
@@ -12348,7 +12317,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="16">
         <v>201</v>
       </c>
@@ -12365,7 +12334,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="15">
         <v>232</v>
       </c>
@@ -12382,7 +12351,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="15">
         <v>336</v>
       </c>
@@ -12399,7 +12368,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="16">
         <v>41</v>
       </c>
@@ -12416,7 +12385,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="15">
         <v>150</v>
       </c>
@@ -12433,7 +12402,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="16">
         <v>155</v>
       </c>
@@ -12450,7 +12419,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="16">
         <v>195</v>
       </c>
@@ -12467,7 +12436,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="16">
         <v>327</v>
       </c>
@@ -12484,7 +12453,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="16">
         <v>1</v>
       </c>
@@ -12501,7 +12470,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="15">
         <v>360</v>
       </c>
@@ -12518,7 +12487,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="15">
         <v>248</v>
       </c>
@@ -12533,7 +12502,7 @@
       </c>
       <c r="E273" s="17"/>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="15">
         <v>84</v>
       </c>
@@ -12548,7 +12517,7 @@
       </c>
       <c r="E274" s="17"/>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="15">
         <v>48</v>
       </c>
@@ -12565,7 +12534,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="16">
         <v>137</v>
       </c>
@@ -12582,7 +12551,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="16">
         <v>147</v>
       </c>
@@ -12599,7 +12568,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="15">
         <v>258</v>
       </c>
@@ -12616,7 +12585,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="15">
         <v>326</v>
       </c>
@@ -12633,7 +12602,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="16">
         <v>293</v>
       </c>
@@ -12650,7 +12619,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="16">
         <v>207</v>
       </c>
@@ -12667,7 +12636,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="15">
         <v>174</v>
       </c>
@@ -12684,7 +12653,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="15">
         <v>300</v>
       </c>
@@ -12701,7 +12670,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="15">
         <v>282</v>
       </c>
@@ -12718,7 +12687,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="16">
         <v>351</v>
       </c>
@@ -12735,7 +12704,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="16">
         <v>57</v>
       </c>
@@ -12752,7 +12721,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="16">
         <v>95</v>
       </c>
@@ -12769,7 +12738,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="16">
         <v>361</v>
       </c>
@@ -12786,7 +12755,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="16">
         <v>93</v>
       </c>
@@ -12803,7 +12772,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="16">
         <v>393</v>
       </c>
@@ -12818,7 +12787,7 @@
       </c>
       <c r="E290" s="17"/>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="15">
         <v>64</v>
       </c>
@@ -12835,7 +12804,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="15">
         <v>390</v>
       </c>
@@ -12852,7 +12821,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="15">
         <v>6</v>
       </c>
@@ -12869,7 +12838,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="15">
         <v>358</v>
       </c>
@@ -12886,7 +12855,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="15">
         <v>20</v>
       </c>
@@ -12903,7 +12872,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="16">
         <v>377</v>
       </c>
@@ -12920,7 +12889,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="16"/>
       <c r="B297" s="10" t="s">
         <v>1320</v>
@@ -12933,7 +12902,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="16">
         <v>15</v>
       </c>
@@ -12950,7 +12919,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="15">
         <v>102</v>
       </c>
@@ -12967,7 +12936,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="16">
         <v>239</v>
       </c>
@@ -12984,7 +12953,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="16">
         <v>225</v>
       </c>
@@ -13001,7 +12970,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="16">
         <v>279</v>
       </c>
@@ -13018,7 +12987,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="16">
         <v>221</v>
       </c>
@@ -13035,7 +13004,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="15">
         <v>362</v>
       </c>
@@ -13052,7 +13021,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="15">
         <v>228</v>
       </c>
@@ -13069,7 +13038,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="15">
         <v>188</v>
       </c>
@@ -13086,7 +13055,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="16">
         <v>263</v>
       </c>
@@ -13103,7 +13072,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="16">
         <v>9</v>
       </c>
@@ -13120,7 +13089,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="15">
         <v>378</v>
       </c>
@@ -13137,7 +13106,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="15">
         <v>116</v>
       </c>
@@ -13152,7 +13121,7 @@
       </c>
       <c r="E310" s="17"/>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="15">
         <v>18</v>
       </c>
@@ -13169,7 +13138,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="16">
         <v>141</v>
       </c>
@@ -13186,7 +13155,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="15">
         <v>208</v>
       </c>
@@ -13203,7 +13172,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="16">
         <v>53</v>
       </c>
@@ -13220,7 +13189,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="16">
         <v>157</v>
       </c>
@@ -13237,7 +13206,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="15">
         <v>216</v>
       </c>
@@ -13254,7 +13223,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="15">
         <v>12</v>
       </c>
@@ -13271,7 +13240,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="16">
         <v>167</v>
       </c>
@@ -13288,7 +13257,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="15">
         <v>66</v>
       </c>
@@ -13305,7 +13274,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="15">
         <v>60</v>
       </c>
@@ -13322,7 +13291,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="15">
         <v>86</v>
       </c>
@@ -13339,7 +13308,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="16">
         <v>135</v>
       </c>
@@ -13354,7 +13323,7 @@
       </c>
       <c r="E322" s="17"/>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="16">
         <v>183</v>
       </c>
@@ -13371,7 +13340,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="15">
         <v>82</v>
       </c>
@@ -13386,7 +13355,7 @@
       </c>
       <c r="E324" s="17"/>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="15">
         <v>222</v>
       </c>
@@ -13403,7 +13372,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="16">
         <v>259</v>
       </c>
@@ -13420,7 +13389,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="16">
         <v>295</v>
       </c>
@@ -13437,7 +13406,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="16">
         <v>261</v>
       </c>
@@ -13454,7 +13423,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="15">
         <v>96</v>
       </c>
@@ -13471,7 +13440,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="16">
         <v>61</v>
       </c>
@@ -13488,7 +13457,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="15">
         <v>58</v>
       </c>
@@ -13505,7 +13474,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="16">
         <v>305</v>
       </c>
@@ -13522,7 +13491,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="15">
         <v>170</v>
       </c>
@@ -13539,7 +13508,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="16">
         <v>189</v>
       </c>
@@ -13556,7 +13525,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="16">
         <v>175</v>
       </c>
@@ -13573,7 +13542,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="15">
         <v>346</v>
       </c>
@@ -13590,7 +13559,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="16">
         <v>73</v>
       </c>
@@ -13607,7 +13576,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="16">
         <v>359</v>
       </c>
@@ -13624,7 +13593,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="16">
         <v>127</v>
       </c>
@@ -13641,7 +13610,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="15">
         <v>392</v>
       </c>
@@ -13656,7 +13625,7 @@
       </c>
       <c r="E340" s="17"/>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="15">
         <v>200</v>
       </c>
@@ -13673,7 +13642,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="16">
         <v>353</v>
       </c>
@@ -13690,7 +13659,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="16">
         <v>111</v>
       </c>
@@ -13707,7 +13676,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="16">
         <v>99</v>
       </c>
@@ -13724,7 +13693,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="16">
         <v>277</v>
       </c>
@@ -13739,7 +13708,7 @@
       </c>
       <c r="E345" s="17"/>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="16">
         <v>43</v>
       </c>
@@ -13756,7 +13725,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="15">
         <v>244</v>
       </c>
@@ -13773,7 +13742,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="16">
         <v>103</v>
       </c>
@@ -13790,7 +13759,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="16">
         <v>19</v>
       </c>
@@ -13807,7 +13776,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="15">
         <v>198</v>
       </c>
@@ -13824,7 +13793,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="16">
         <v>105</v>
       </c>
@@ -13841,7 +13810,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="15">
         <v>322</v>
       </c>
@@ -13858,7 +13827,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="15">
         <v>308</v>
       </c>
@@ -13875,7 +13844,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="16">
         <v>217</v>
       </c>
@@ -13892,7 +13861,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="16">
         <v>255</v>
       </c>
@@ -13909,7 +13878,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="16">
         <v>115</v>
       </c>
@@ -13924,7 +13893,7 @@
       </c>
       <c r="E356" s="17"/>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="16">
         <v>179</v>
       </c>
@@ -13939,7 +13908,7 @@
       </c>
       <c r="E357" s="17"/>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="15">
         <v>284</v>
       </c>
@@ -13956,7 +13925,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="15">
         <v>250</v>
       </c>
@@ -13973,7 +13942,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="16">
         <v>365</v>
       </c>
@@ -13990,7 +13959,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="16">
         <v>139</v>
       </c>
@@ -14007,7 +13976,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="15">
         <v>8</v>
       </c>
@@ -14024,7 +13993,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="15">
         <v>122</v>
       </c>
@@ -14039,7 +14008,7 @@
       </c>
       <c r="E363" s="17"/>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="16">
         <v>123</v>
       </c>
@@ -14054,7 +14023,7 @@
       </c>
       <c r="E364" s="17"/>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="16">
         <v>45</v>
       </c>
@@ -14069,7 +14038,7 @@
       </c>
       <c r="E365" s="17"/>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="15">
         <v>370</v>
       </c>
@@ -14086,7 +14055,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="16">
         <v>357</v>
       </c>
@@ -14101,7 +14070,7 @@
       </c>
       <c r="E367" s="17"/>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="15">
         <v>184</v>
       </c>
@@ -14118,7 +14087,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="16">
         <v>163</v>
       </c>
@@ -14135,7 +14104,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="15">
         <v>204</v>
       </c>
@@ -14152,7 +14121,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="15">
         <v>356</v>
       </c>
@@ -14167,7 +14136,7 @@
       </c>
       <c r="E371" s="17"/>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="15">
         <v>298</v>
       </c>
@@ -14184,7 +14153,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="16">
         <v>177</v>
       </c>
@@ -14201,7 +14170,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="16">
         <v>203</v>
       </c>
@@ -14218,7 +14187,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="15">
         <v>246</v>
       </c>
@@ -14235,7 +14204,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="15">
         <v>234</v>
       </c>
@@ -14252,7 +14221,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="16">
         <v>173</v>
       </c>
@@ -14269,7 +14238,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="16">
         <v>311</v>
       </c>
@@ -14286,7 +14255,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="16">
         <v>309</v>
       </c>
@@ -14303,7 +14272,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="15">
         <v>62</v>
       </c>
@@ -14320,7 +14289,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="15">
         <v>238</v>
       </c>
@@ -14337,7 +14306,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="16">
         <v>335</v>
       </c>
@@ -14354,7 +14323,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="16">
         <v>243</v>
       </c>
@@ -14371,7 +14340,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="15">
         <v>132</v>
       </c>
@@ -14388,7 +14357,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="16">
         <v>391</v>
       </c>
@@ -14405,7 +14374,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="15">
         <v>268</v>
       </c>
@@ -14422,7 +14391,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="16">
         <v>383</v>
       </c>
@@ -14439,7 +14408,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="16">
         <v>237</v>
       </c>
@@ -14454,7 +14423,7 @@
       </c>
       <c r="E388" s="17"/>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="16">
         <v>11</v>
       </c>
@@ -14471,7 +14440,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="15">
         <v>236</v>
       </c>
@@ -14488,7 +14457,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="16">
         <v>363</v>
       </c>
@@ -14505,7 +14474,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="16">
         <v>107</v>
       </c>
@@ -14522,7 +14491,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="16">
         <v>113</v>
       </c>
@@ -14539,7 +14508,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="16">
         <v>245</v>
       </c>
@@ -14554,7 +14523,7 @@
       </c>
       <c r="E394" s="17"/>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="16">
         <v>169</v>
       </c>
@@ -14571,7 +14540,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="15">
         <v>114</v>
       </c>
@@ -14588,7 +14557,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="15">
         <v>52</v>
       </c>
@@ -14605,7 +14574,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="15">
         <v>136</v>
       </c>
@@ -14622,7 +14591,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="16">
         <v>371</v>
       </c>

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EAAFA9-1499-423F-809E-69B88D0929CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -22,9 +21,9 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1326">
   <si>
     <t>OFFICE</t>
   </si>
@@ -4018,7 +4017,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4374,7 +4373,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ASUS" refreshedDate="45034.434464467595" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="396" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ASUS" refreshedDate="45034.434464467595" createdVersion="5" refreshedVersion="8" minRefreshableVersion="3" recordCount="396">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:E399" sheet="Sheet1" r:id="rId2"/>
   </cacheSource>
@@ -7227,7 +7226,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -7544,30 +7543,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A3:E399" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A3:E399" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A121:E399">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:E399" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A3:E399">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="P"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A121:E399">
     <sortCondition ref="C3:C399"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Total No." dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NAME" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="OFFICE"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Remarks" dataDxfId="1"/>
+    <tableColumn id="1" name="Total No." dataDxfId="3"/>
+    <tableColumn id="2" name="NAME" dataDxfId="2"/>
+    <tableColumn id="4" name="Column1"/>
+    <tableColumn id="3" name="OFFICE"/>
+    <tableColumn id="5" name="Remarks" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:A367" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A367" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A367">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A367" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A367"/>
+  <sortState ref="A2:A367">
     <sortCondition ref="A1:A367"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="NAME"/>
+    <tableColumn id="1" name="NAME"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7835,62 +7840,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>440</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -7906,7 +7911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>307</v>
       </c>
@@ -7914,7 +7919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -7922,7 +7927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>367</v>
       </c>
@@ -7938,7 +7943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>410</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>382</v>
       </c>
@@ -7954,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>377</v>
       </c>
@@ -7962,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>322</v>
       </c>
@@ -7970,7 +7975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -7978,7 +7983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>328</v>
       </c>
@@ -7986,7 +7991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>378</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
@@ -8002,7 +8007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>330</v>
       </c>
@@ -8010,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -8018,7 +8023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>333</v>
       </c>
@@ -8026,7 +8031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>376</v>
       </c>
@@ -8042,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
@@ -8050,7 +8055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>338</v>
       </c>
@@ -8058,7 +8063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>110</v>
       </c>
@@ -8066,7 +8071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>119</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>157</v>
       </c>
@@ -8082,7 +8087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>341</v>
       </c>
@@ -8090,7 +8095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>411</v>
       </c>
@@ -8098,7 +8103,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>203</v>
       </c>
@@ -8106,7 +8111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>213</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>344</v>
       </c>
@@ -8122,7 +8127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>416</v>
       </c>
@@ -8130,7 +8135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>412</v>
       </c>
@@ -8138,7 +8143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>406</v>
       </c>
@@ -8146,7 +8151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>368</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>369</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>372</v>
       </c>
@@ -8170,7 +8175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>405</v>
       </c>
@@ -8178,7 +8183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>413</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>414</v>
       </c>
@@ -8194,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>267</v>
       </c>
@@ -8202,7 +8207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>359</v>
       </c>
@@ -8210,7 +8215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>304</v>
       </c>
@@ -8218,7 +8223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>363</v>
       </c>
@@ -8226,7 +8231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>1324</v>
       </c>
@@ -8234,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>830</v>
       </c>
@@ -8242,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>829</v>
       </c>
@@ -8250,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>441</v>
       </c>
@@ -8264,37 +8269,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>364</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>438</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>409</v>
       </c>
@@ -8311,7 +8316,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>5</v>
       </c>
@@ -8324,7 +8329,7 @@
       </c>
       <c r="E4" s="17"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>7</v>
       </c>
@@ -8337,7 +8342,7 @@
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>23</v>
       </c>
@@ -8350,7 +8355,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>25</v>
       </c>
@@ -8363,7 +8368,7 @@
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>27</v>
       </c>
@@ -8376,7 +8381,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>21</v>
       </c>
@@ -8389,7 +8394,7 @@
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>31</v>
       </c>
@@ -8402,7 +8407,7 @@
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>29</v>
       </c>
@@ -8415,7 +8420,7 @@
       </c>
       <c r="E11" s="17"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>34</v>
       </c>
@@ -8428,7 +8433,7 @@
       </c>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>35</v>
       </c>
@@ -8441,7 +8446,7 @@
       </c>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>33</v>
       </c>
@@ -8454,7 +8459,7 @@
       </c>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>28</v>
       </c>
@@ -8467,7 +8472,7 @@
       </c>
       <c r="E15" s="17"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>30</v>
       </c>
@@ -8480,7 +8485,7 @@
       </c>
       <c r="E16" s="17"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>37</v>
       </c>
@@ -8493,7 +8498,7 @@
       </c>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>38</v>
       </c>
@@ -8506,7 +8511,7 @@
       </c>
       <c r="E18" s="17"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>253</v>
       </c>
@@ -8519,7 +8524,7 @@
       </c>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>40</v>
       </c>
@@ -8532,7 +8537,7 @@
       </c>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>36</v>
       </c>
@@ -8545,7 +8550,7 @@
       </c>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>227</v>
       </c>
@@ -8558,7 +8563,7 @@
       </c>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>341</v>
       </c>
@@ -8571,7 +8576,7 @@
       </c>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>342</v>
       </c>
@@ -8584,7 +8589,7 @@
       </c>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>229</v>
       </c>
@@ -8597,7 +8602,7 @@
       </c>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>46</v>
       </c>
@@ -8610,7 +8615,7 @@
       </c>
       <c r="E26" s="17"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>47</v>
       </c>
@@ -8623,7 +8628,7 @@
       </c>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>44</v>
       </c>
@@ -8636,7 +8641,7 @@
       </c>
       <c r="E28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>49</v>
       </c>
@@ -8650,7 +8655,7 @@
       <c r="E29" s="17"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>162</v>
       </c>
@@ -8661,11 +8666,9 @@
       <c r="D30" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>344</v>
       </c>
@@ -8678,7 +8681,7 @@
       </c>
       <c r="E31" s="17"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>68</v>
       </c>
@@ -8691,7 +8694,7 @@
       </c>
       <c r="E32" s="17"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>67</v>
       </c>
@@ -8704,7 +8707,7 @@
       </c>
       <c r="E33" s="17"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>71</v>
       </c>
@@ -8717,7 +8720,7 @@
       </c>
       <c r="E34" s="17"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>80</v>
       </c>
@@ -8728,9 +8731,11 @@
       <c r="D35" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>87</v>
       </c>
@@ -8741,9 +8746,11 @@
       <c r="D36" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>85</v>
       </c>
@@ -8756,7 +8763,7 @@
       </c>
       <c r="E37" s="17"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>91</v>
       </c>
@@ -8769,7 +8776,7 @@
       </c>
       <c r="E38" s="17"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <v>79</v>
       </c>
@@ -8780,9 +8787,11 @@
       <c r="D39" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>90</v>
       </c>
@@ -8795,7 +8804,7 @@
       </c>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>92</v>
       </c>
@@ -8808,7 +8817,7 @@
       </c>
       <c r="E41" s="17"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>88</v>
       </c>
@@ -8821,7 +8830,7 @@
       </c>
       <c r="E42" s="17"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>78</v>
       </c>
@@ -8834,7 +8843,7 @@
       </c>
       <c r="E43" s="17"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>89</v>
       </c>
@@ -8847,7 +8856,7 @@
       </c>
       <c r="E44" s="17"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>366</v>
       </c>
@@ -8860,7 +8869,7 @@
       </c>
       <c r="E45" s="17"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>112</v>
       </c>
@@ -8873,7 +8882,7 @@
       </c>
       <c r="E46" s="17"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>128</v>
       </c>
@@ -8888,7 +8897,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>124</v>
       </c>
@@ -8901,7 +8910,7 @@
       </c>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>125</v>
       </c>
@@ -8914,7 +8923,7 @@
       </c>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>129</v>
       </c>
@@ -8925,11 +8934,9 @@
       <c r="D50" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>131</v>
       </c>
@@ -8944,7 +8951,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>126</v>
       </c>
@@ -8959,7 +8966,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>164</v>
       </c>
@@ -8974,7 +8981,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>151</v>
       </c>
@@ -8989,7 +8996,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>146</v>
       </c>
@@ -9004,7 +9011,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>171</v>
       </c>
@@ -9019,7 +9026,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>206</v>
       </c>
@@ -9032,7 +9039,7 @@
       </c>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>213</v>
       </c>
@@ -9047,7 +9054,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>196</v>
       </c>
@@ -9058,9 +9065,11 @@
       <c r="D59" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E59" s="17"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>214</v>
       </c>
@@ -9071,11 +9080,9 @@
       <c r="D60" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>182</v>
       </c>
@@ -9088,7 +9095,7 @@
       </c>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>205</v>
       </c>
@@ -9101,7 +9108,7 @@
       </c>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>181</v>
       </c>
@@ -9114,7 +9121,7 @@
       </c>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>180</v>
       </c>
@@ -9127,7 +9134,7 @@
       </c>
       <c r="E64" s="17"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>190</v>
       </c>
@@ -9140,7 +9147,7 @@
       </c>
       <c r="E65" s="17"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>199</v>
       </c>
@@ -9153,7 +9160,7 @@
       </c>
       <c r="E66" s="17"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>197</v>
       </c>
@@ -9168,7 +9175,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>219</v>
       </c>
@@ -9183,7 +9190,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>223</v>
       </c>
@@ -9198,7 +9205,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>220</v>
       </c>
@@ -9209,11 +9216,9 @@
       <c r="D70" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>233</v>
       </c>
@@ -9228,7 +9233,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>235</v>
       </c>
@@ -9243,7 +9248,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>379</v>
       </c>
@@ -9254,11 +9259,9 @@
       <c r="D73" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>376</v>
       </c>
@@ -9269,11 +9272,9 @@
       <c r="D74" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>372</v>
       </c>
@@ -9284,11 +9285,9 @@
       <c r="D75" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>252</v>
       </c>
@@ -9303,7 +9302,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>249</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>251</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>264</v>
       </c>
@@ -9348,7 +9347,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>262</v>
       </c>
@@ -9361,7 +9360,7 @@
       </c>
       <c r="E80" s="17"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>266</v>
       </c>
@@ -9374,7 +9373,7 @@
       </c>
       <c r="E81" s="17"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>265</v>
       </c>
@@ -9385,11 +9384,9 @@
       <c r="D82" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="E82" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>382</v>
       </c>
@@ -9404,7 +9401,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>257</v>
       </c>
@@ -9419,7 +9416,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="15">
         <v>254</v>
       </c>
@@ -9434,7 +9431,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>260</v>
       </c>
@@ -9445,11 +9442,9 @@
       <c r="D86" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E86" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>270</v>
       </c>
@@ -9460,11 +9455,9 @@
       <c r="D87" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="E87" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>285</v>
       </c>
@@ -9479,7 +9472,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>296</v>
       </c>
@@ -9494,7 +9487,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>297</v>
       </c>
@@ -9507,7 +9500,7 @@
       </c>
       <c r="E90" s="17"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>286</v>
       </c>
@@ -9522,7 +9515,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>292</v>
       </c>
@@ -9537,7 +9530,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>294</v>
       </c>
@@ -9548,11 +9541,9 @@
       <c r="D93" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E93" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="17"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>287</v>
       </c>
@@ -9567,7 +9558,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>289</v>
       </c>
@@ -9582,7 +9573,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <v>302</v>
       </c>
@@ -9597,7 +9588,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <v>288</v>
       </c>
@@ -9612,7 +9603,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>291</v>
       </c>
@@ -9623,11 +9614,9 @@
       <c r="D98" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E98" s="17"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>303</v>
       </c>
@@ -9642,7 +9631,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>386</v>
       </c>
@@ -9657,7 +9646,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>324</v>
       </c>
@@ -9668,9 +9657,11 @@
       <c r="D101" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E101" s="17"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E101" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>333</v>
       </c>
@@ -9683,7 +9674,7 @@
       </c>
       <c r="E102" s="17"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="16">
         <v>331</v>
       </c>
@@ -9696,7 +9687,7 @@
       </c>
       <c r="E103" s="17"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="15">
         <v>316</v>
       </c>
@@ -9711,7 +9702,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="16">
         <v>319</v>
       </c>
@@ -9724,7 +9715,7 @@
       </c>
       <c r="E105" s="17"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="16">
         <v>315</v>
       </c>
@@ -9739,7 +9730,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="16">
         <v>313</v>
       </c>
@@ -9754,7 +9745,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="16">
         <v>317</v>
       </c>
@@ -9767,7 +9758,7 @@
       </c>
       <c r="E108" s="17"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>328</v>
       </c>
@@ -9780,7 +9771,7 @@
       </c>
       <c r="E109" s="17"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="16">
         <v>329</v>
       </c>
@@ -9795,7 +9786,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <v>330</v>
       </c>
@@ -9808,7 +9799,7 @@
       </c>
       <c r="E111" s="17"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>312</v>
       </c>
@@ -9821,7 +9812,7 @@
       </c>
       <c r="E112" s="17"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <v>318</v>
       </c>
@@ -9836,7 +9827,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <v>314</v>
       </c>
@@ -9849,7 +9840,7 @@
       </c>
       <c r="E114" s="17"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="16">
         <v>323</v>
       </c>
@@ -9864,7 +9855,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16">
         <v>321</v>
       </c>
@@ -9877,7 +9868,7 @@
       </c>
       <c r="E116" s="17"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15">
         <v>332</v>
       </c>
@@ -9890,7 +9881,7 @@
       </c>
       <c r="E117" s="17"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <v>320</v>
       </c>
@@ -9901,11 +9892,9 @@
       <c r="D118" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E118" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E118" s="17"/>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <v>310</v>
       </c>
@@ -9918,7 +9907,7 @@
       </c>
       <c r="E119" s="17"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <v>394</v>
       </c>
@@ -9929,11 +9918,9 @@
       <c r="D120" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E120" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E120" s="17"/>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16">
         <v>75</v>
       </c>
@@ -9950,7 +9937,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <v>364</v>
       </c>
@@ -9965,7 +9952,7 @@
       </c>
       <c r="E122" s="17"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <v>108</v>
       </c>
@@ -9982,7 +9969,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <v>276</v>
       </c>
@@ -9999,7 +9986,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15">
         <v>98</v>
       </c>
@@ -10016,7 +10003,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16">
         <v>343</v>
       </c>
@@ -10033,7 +10020,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16">
         <v>385</v>
       </c>
@@ -10050,7 +10037,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="15">
         <v>194</v>
       </c>
@@ -10067,7 +10054,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16">
         <v>337</v>
       </c>
@@ -10084,7 +10071,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16">
         <v>161</v>
       </c>
@@ -10101,7 +10088,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16">
         <v>355</v>
       </c>
@@ -10118,7 +10105,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="15">
         <v>374</v>
       </c>
@@ -10135,7 +10122,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16">
         <v>369</v>
       </c>
@@ -10152,7 +10139,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="15">
         <v>210</v>
       </c>
@@ -10169,7 +10156,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15">
         <v>368</v>
       </c>
@@ -10186,7 +10173,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15">
         <v>2</v>
       </c>
@@ -10203,7 +10190,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15">
         <v>26</v>
       </c>
@@ -10220,7 +10207,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="16">
         <v>325</v>
       </c>
@@ -10237,7 +10224,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="16">
         <v>187</v>
       </c>
@@ -10254,7 +10241,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15">
         <v>10</v>
       </c>
@@ -10271,7 +10258,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15">
         <v>70</v>
       </c>
@@ -10288,7 +10275,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15">
         <v>16</v>
       </c>
@@ -10305,7 +10292,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15">
         <v>218</v>
       </c>
@@ -10322,7 +10309,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15">
         <v>22</v>
       </c>
@@ -10339,7 +10326,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15">
         <v>224</v>
       </c>
@@ -10356,7 +10343,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15">
         <v>172</v>
       </c>
@@ -10373,7 +10360,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="16">
         <v>109</v>
       </c>
@@ -10390,7 +10377,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="16">
         <v>59</v>
       </c>
@@ -10407,7 +10394,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15">
         <v>134</v>
       </c>
@@ -10424,7 +10411,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15">
         <v>120</v>
       </c>
@@ -10439,7 +10426,7 @@
       </c>
       <c r="E150" s="17"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15">
         <v>334</v>
       </c>
@@ -10456,7 +10443,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="16">
         <v>395</v>
       </c>
@@ -10473,7 +10460,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15">
         <v>230</v>
       </c>
@@ -10490,7 +10477,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16">
         <v>241</v>
       </c>
@@ -10507,7 +10494,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15">
         <v>278</v>
       </c>
@@ -10524,7 +10511,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15">
         <v>42</v>
       </c>
@@ -10541,7 +10528,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16">
         <v>81</v>
       </c>
@@ -10558,7 +10545,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15">
         <v>306</v>
       </c>
@@ -10575,7 +10562,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15">
         <v>140</v>
       </c>
@@ -10592,7 +10579,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15">
         <v>152</v>
       </c>
@@ -10609,7 +10596,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15">
         <v>50</v>
       </c>
@@ -10626,7 +10613,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="16">
         <v>339</v>
       </c>
@@ -10643,7 +10630,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15">
         <v>72</v>
       </c>
@@ -10660,7 +10647,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="16">
         <v>191</v>
       </c>
@@ -10677,7 +10664,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="16">
         <v>143</v>
       </c>
@@ -10694,7 +10681,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="16">
         <v>51</v>
       </c>
@@ -10711,7 +10698,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="16">
         <v>13</v>
       </c>
@@ -10728,7 +10715,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15">
         <v>138</v>
       </c>
@@ -10745,7 +10732,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="16">
         <v>373</v>
       </c>
@@ -10762,7 +10749,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15">
         <v>118</v>
       </c>
@@ -10777,7 +10764,7 @@
       </c>
       <c r="E170" s="17"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16">
         <v>273</v>
       </c>
@@ -10794,7 +10781,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15">
         <v>304</v>
       </c>
@@ -10811,7 +10798,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15">
         <v>256</v>
       </c>
@@ -10828,7 +10815,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="15">
         <v>106</v>
       </c>
@@ -10845,7 +10832,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="16">
         <v>375</v>
       </c>
@@ -10862,7 +10849,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="16">
         <v>77</v>
       </c>
@@ -10879,7 +10866,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15">
         <v>178</v>
       </c>
@@ -10894,7 +10881,7 @@
       </c>
       <c r="E177" s="17"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="15">
         <v>76</v>
       </c>
@@ -10911,7 +10898,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="16">
         <v>121</v>
       </c>
@@ -10926,7 +10913,7 @@
       </c>
       <c r="E179" s="17"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="15">
         <v>144</v>
       </c>
@@ -10941,7 +10928,7 @@
       </c>
       <c r="E180" s="17"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="15">
         <v>156</v>
       </c>
@@ -10958,7 +10945,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16">
         <v>299</v>
       </c>
@@ -10975,7 +10962,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="16">
         <v>247</v>
       </c>
@@ -10990,7 +10977,7 @@
       </c>
       <c r="E183" s="17"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="16">
         <v>185</v>
       </c>
@@ -11007,7 +10994,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15">
         <v>110</v>
       </c>
@@ -11024,7 +11011,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15">
         <v>202</v>
       </c>
@@ -11041,7 +11028,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15">
         <v>130</v>
       </c>
@@ -11058,7 +11045,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="16">
         <v>231</v>
       </c>
@@ -11075,7 +11062,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15">
         <v>350</v>
       </c>
@@ -11092,7 +11079,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15">
         <v>352</v>
       </c>
@@ -11109,7 +11096,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="15">
         <v>176</v>
       </c>
@@ -11126,7 +11113,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="16">
         <v>17</v>
       </c>
@@ -11143,7 +11130,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15">
         <v>272</v>
       </c>
@@ -11160,7 +11147,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="16">
         <v>133</v>
       </c>
@@ -11175,7 +11162,7 @@
       </c>
       <c r="E194" s="17"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="16">
         <v>267</v>
       </c>
@@ -11192,7 +11179,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="15">
         <v>348</v>
       </c>
@@ -11207,7 +11194,7 @@
       </c>
       <c r="E196" s="17"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="16">
         <v>345</v>
       </c>
@@ -11222,7 +11209,7 @@
       </c>
       <c r="E197" s="17"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15">
         <v>380</v>
       </c>
@@ -11239,7 +11226,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="16">
         <v>307</v>
       </c>
@@ -11253,10 +11240,10 @@
         <v>267</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="15">
         <v>388</v>
       </c>
@@ -11273,7 +11260,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15">
         <v>14</v>
       </c>
@@ -11290,7 +11277,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15">
         <v>74</v>
       </c>
@@ -11307,7 +11294,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16">
         <v>275</v>
       </c>
@@ -11324,7 +11311,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="16">
         <v>55</v>
       </c>
@@ -11341,7 +11328,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="16">
         <v>389</v>
       </c>
@@ -11358,7 +11345,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="15">
         <v>4</v>
       </c>
@@ -11375,7 +11362,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="15">
         <v>186</v>
       </c>
@@ -11392,7 +11379,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="16">
         <v>117</v>
       </c>
@@ -11409,7 +11396,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="15">
         <v>240</v>
       </c>
@@ -11424,7 +11411,7 @@
       </c>
       <c r="E209" s="17"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="15">
         <v>148</v>
       </c>
@@ -11441,7 +11428,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16">
         <v>381</v>
       </c>
@@ -11458,7 +11445,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="15">
         <v>32</v>
       </c>
@@ -11475,7 +11462,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15">
         <v>100</v>
       </c>
@@ -11492,7 +11479,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="16">
         <v>149</v>
       </c>
@@ -11509,7 +11496,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="16">
         <v>69</v>
       </c>
@@ -11526,7 +11513,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="15">
         <v>154</v>
       </c>
@@ -11543,7 +11530,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="16">
         <v>97</v>
       </c>
@@ -11560,7 +11547,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="16">
         <v>65</v>
       </c>
@@ -11577,7 +11564,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="15">
         <v>280</v>
       </c>
@@ -11594,7 +11581,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="16">
         <v>281</v>
       </c>
@@ -11611,7 +11598,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="16">
         <v>153</v>
       </c>
@@ -11626,7 +11613,7 @@
       </c>
       <c r="E221" s="17"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="16">
         <v>367</v>
       </c>
@@ -11643,7 +11630,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="15">
         <v>54</v>
       </c>
@@ -11660,7 +11647,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="16">
         <v>215</v>
       </c>
@@ -11677,7 +11664,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="16">
         <v>3</v>
       </c>
@@ -11694,7 +11681,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="15">
         <v>166</v>
       </c>
@@ -11711,7 +11698,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="16">
         <v>211</v>
       </c>
@@ -11728,7 +11715,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="15">
         <v>354</v>
       </c>
@@ -11745,7 +11732,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="15">
         <v>158</v>
       </c>
@@ -11762,7 +11749,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="15">
         <v>290</v>
       </c>
@@ -11777,7 +11764,7 @@
       </c>
       <c r="E230" s="17"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="15">
         <v>242</v>
       </c>
@@ -11794,7 +11781,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
         <v>192</v>
       </c>
@@ -11811,7 +11798,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="16">
         <v>165</v>
       </c>
@@ -11828,7 +11815,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
         <v>168</v>
       </c>
@@ -11845,7 +11832,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
         <v>160</v>
       </c>
@@ -11862,7 +11849,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="16">
         <v>63</v>
       </c>
@@ -11879,7 +11866,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="16">
         <v>349</v>
       </c>
@@ -11896,7 +11883,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="16">
         <v>271</v>
       </c>
@@ -11913,7 +11900,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="16">
         <v>145</v>
       </c>
@@ -11930,7 +11917,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="15">
         <v>340</v>
       </c>
@@ -11947,7 +11934,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="16">
         <v>39</v>
       </c>
@@ -11964,7 +11951,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="16">
         <v>101</v>
       </c>
@@ -11981,7 +11968,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="15">
         <v>56</v>
       </c>
@@ -11998,7 +11985,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="16">
         <v>301</v>
       </c>
@@ -12015,7 +12002,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="15">
         <v>94</v>
       </c>
@@ -12032,7 +12019,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="16">
         <v>119</v>
       </c>
@@ -12047,7 +12034,7 @@
       </c>
       <c r="E246" s="17"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="15">
         <v>104</v>
       </c>
@@ -12064,7 +12051,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="16">
         <v>193</v>
       </c>
@@ -12081,7 +12068,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="15">
         <v>226</v>
       </c>
@@ -12098,7 +12085,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="15">
         <v>338</v>
       </c>
@@ -12115,7 +12102,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="16">
         <v>83</v>
       </c>
@@ -12130,7 +12117,7 @@
       </c>
       <c r="E251" s="17"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="15">
         <v>384</v>
       </c>
@@ -12147,7 +12134,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="15">
         <v>274</v>
       </c>
@@ -12164,7 +12151,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="16">
         <v>209</v>
       </c>
@@ -12181,7 +12168,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="16">
         <v>387</v>
       </c>
@@ -12198,7 +12185,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="15">
         <v>212</v>
       </c>
@@ -12215,7 +12202,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="16">
         <v>347</v>
       </c>
@@ -12232,7 +12219,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16">
         <v>159</v>
       </c>
@@ -12249,7 +12236,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="16">
         <v>269</v>
       </c>
@@ -12266,7 +12253,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="15">
         <v>24</v>
       </c>
@@ -12283,7 +12270,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="16">
         <v>283</v>
       </c>
@@ -12300,7 +12287,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="15">
         <v>142</v>
       </c>
@@ -12317,7 +12304,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="16">
         <v>201</v>
       </c>
@@ -12334,7 +12321,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="15">
         <v>232</v>
       </c>
@@ -12351,7 +12338,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="15">
         <v>336</v>
       </c>
@@ -12368,7 +12355,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="16">
         <v>41</v>
       </c>
@@ -12385,7 +12372,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="15">
         <v>150</v>
       </c>
@@ -12402,7 +12389,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="16">
         <v>155</v>
       </c>
@@ -12419,7 +12406,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="16">
         <v>195</v>
       </c>
@@ -12436,7 +12423,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="16">
         <v>327</v>
       </c>
@@ -12453,7 +12440,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="16">
         <v>1</v>
       </c>
@@ -12470,7 +12457,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="15">
         <v>360</v>
       </c>
@@ -12487,7 +12474,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="15">
         <v>248</v>
       </c>
@@ -12502,7 +12489,7 @@
       </c>
       <c r="E273" s="17"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="15">
         <v>84</v>
       </c>
@@ -12517,7 +12504,7 @@
       </c>
       <c r="E274" s="17"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="15">
         <v>48</v>
       </c>
@@ -12534,7 +12521,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="16">
         <v>137</v>
       </c>
@@ -12551,7 +12538,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="16">
         <v>147</v>
       </c>
@@ -12568,7 +12555,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="15">
         <v>258</v>
       </c>
@@ -12585,7 +12572,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="15">
         <v>326</v>
       </c>
@@ -12602,7 +12589,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="16">
         <v>293</v>
       </c>
@@ -12619,7 +12606,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="16">
         <v>207</v>
       </c>
@@ -12636,7 +12623,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="15">
         <v>174</v>
       </c>
@@ -12653,7 +12640,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="15">
         <v>300</v>
       </c>
@@ -12670,7 +12657,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="15">
         <v>282</v>
       </c>
@@ -12687,7 +12674,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="16">
         <v>351</v>
       </c>
@@ -12704,7 +12691,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="16">
         <v>57</v>
       </c>
@@ -12721,7 +12708,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="16">
         <v>95</v>
       </c>
@@ -12738,7 +12725,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="16">
         <v>361</v>
       </c>
@@ -12755,7 +12742,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="16">
         <v>93</v>
       </c>
@@ -12772,7 +12759,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="16">
         <v>393</v>
       </c>
@@ -12787,7 +12774,7 @@
       </c>
       <c r="E290" s="17"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="15">
         <v>64</v>
       </c>
@@ -12804,7 +12791,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="15">
         <v>390</v>
       </c>
@@ -12821,7 +12808,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="15">
         <v>6</v>
       </c>
@@ -12838,7 +12825,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="15">
         <v>358</v>
       </c>
@@ -12855,7 +12842,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="15">
         <v>20</v>
       </c>
@@ -12872,7 +12859,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="16">
         <v>377</v>
       </c>
@@ -12889,7 +12876,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="16"/>
       <c r="B297" s="10" t="s">
         <v>1320</v>
@@ -12902,7 +12889,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="16">
         <v>15</v>
       </c>
@@ -12919,7 +12906,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="15">
         <v>102</v>
       </c>
@@ -12936,7 +12923,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="16">
         <v>239</v>
       </c>
@@ -12953,7 +12940,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="16">
         <v>225</v>
       </c>
@@ -12970,7 +12957,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="16">
         <v>279</v>
       </c>
@@ -12987,7 +12974,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="16">
         <v>221</v>
       </c>
@@ -13004,7 +12991,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="15">
         <v>362</v>
       </c>
@@ -13021,7 +13008,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="15">
         <v>228</v>
       </c>
@@ -13038,7 +13025,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="15">
         <v>188</v>
       </c>
@@ -13055,7 +13042,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="16">
         <v>263</v>
       </c>
@@ -13072,7 +13059,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="16">
         <v>9</v>
       </c>
@@ -13089,7 +13076,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="15">
         <v>378</v>
       </c>
@@ -13106,7 +13093,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="15">
         <v>116</v>
       </c>
@@ -13121,7 +13108,7 @@
       </c>
       <c r="E310" s="17"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="15">
         <v>18</v>
       </c>
@@ -13138,7 +13125,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="16">
         <v>141</v>
       </c>
@@ -13155,7 +13142,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="15">
         <v>208</v>
       </c>
@@ -13172,7 +13159,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="16">
         <v>53</v>
       </c>
@@ -13189,7 +13176,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="16">
         <v>157</v>
       </c>
@@ -13206,7 +13193,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="15">
         <v>216</v>
       </c>
@@ -13223,7 +13210,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="15">
         <v>12</v>
       </c>
@@ -13240,7 +13227,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="16">
         <v>167</v>
       </c>
@@ -13257,7 +13244,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="15">
         <v>66</v>
       </c>
@@ -13274,7 +13261,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="15">
         <v>60</v>
       </c>
@@ -13291,7 +13278,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="15">
         <v>86</v>
       </c>
@@ -13308,7 +13295,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="16">
         <v>135</v>
       </c>
@@ -13323,7 +13310,7 @@
       </c>
       <c r="E322" s="17"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="16">
         <v>183</v>
       </c>
@@ -13340,7 +13327,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="15">
         <v>82</v>
       </c>
@@ -13355,7 +13342,7 @@
       </c>
       <c r="E324" s="17"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="15">
         <v>222</v>
       </c>
@@ -13372,7 +13359,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="16">
         <v>259</v>
       </c>
@@ -13389,7 +13376,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="16">
         <v>295</v>
       </c>
@@ -13406,7 +13393,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="16">
         <v>261</v>
       </c>
@@ -13423,7 +13410,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="15">
         <v>96</v>
       </c>
@@ -13440,7 +13427,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="16">
         <v>61</v>
       </c>
@@ -13457,7 +13444,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="15">
         <v>58</v>
       </c>
@@ -13474,7 +13461,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="16">
         <v>305</v>
       </c>
@@ -13491,7 +13478,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="15">
         <v>170</v>
       </c>
@@ -13508,7 +13495,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="16">
         <v>189</v>
       </c>
@@ -13525,7 +13512,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="16">
         <v>175</v>
       </c>
@@ -13542,7 +13529,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="15">
         <v>346</v>
       </c>
@@ -13559,7 +13546,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="16">
         <v>73</v>
       </c>
@@ -13576,7 +13563,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="16">
         <v>359</v>
       </c>
@@ -13593,7 +13580,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="16">
         <v>127</v>
       </c>
@@ -13610,7 +13597,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="15">
         <v>392</v>
       </c>
@@ -13625,7 +13612,7 @@
       </c>
       <c r="E340" s="17"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="15">
         <v>200</v>
       </c>
@@ -13642,7 +13629,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="16">
         <v>353</v>
       </c>
@@ -13659,7 +13646,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="16">
         <v>111</v>
       </c>
@@ -13676,7 +13663,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="16">
         <v>99</v>
       </c>
@@ -13693,7 +13680,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="16">
         <v>277</v>
       </c>
@@ -13708,7 +13695,7 @@
       </c>
       <c r="E345" s="17"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="16">
         <v>43</v>
       </c>
@@ -13725,7 +13712,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="15">
         <v>244</v>
       </c>
@@ -13742,7 +13729,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="16">
         <v>103</v>
       </c>
@@ -13759,7 +13746,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="16">
         <v>19</v>
       </c>
@@ -13776,7 +13763,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="15">
         <v>198</v>
       </c>
@@ -13793,7 +13780,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="16">
         <v>105</v>
       </c>
@@ -13810,7 +13797,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="15">
         <v>322</v>
       </c>
@@ -13827,7 +13814,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="15">
         <v>308</v>
       </c>
@@ -13844,7 +13831,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="16">
         <v>217</v>
       </c>
@@ -13861,7 +13848,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="16">
         <v>255</v>
       </c>
@@ -13878,7 +13865,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="16">
         <v>115</v>
       </c>
@@ -13893,7 +13880,7 @@
       </c>
       <c r="E356" s="17"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="16">
         <v>179</v>
       </c>
@@ -13908,7 +13895,7 @@
       </c>
       <c r="E357" s="17"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="15">
         <v>284</v>
       </c>
@@ -13925,7 +13912,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="15">
         <v>250</v>
       </c>
@@ -13942,7 +13929,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="16">
         <v>365</v>
       </c>
@@ -13959,7 +13946,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="16">
         <v>139</v>
       </c>
@@ -13976,7 +13963,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="15">
         <v>8</v>
       </c>
@@ -13993,7 +13980,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="15">
         <v>122</v>
       </c>
@@ -14008,7 +13995,7 @@
       </c>
       <c r="E363" s="17"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="16">
         <v>123</v>
       </c>
@@ -14023,7 +14010,7 @@
       </c>
       <c r="E364" s="17"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="16">
         <v>45</v>
       </c>
@@ -14038,7 +14025,7 @@
       </c>
       <c r="E365" s="17"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="15">
         <v>370</v>
       </c>
@@ -14055,7 +14042,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="16">
         <v>357</v>
       </c>
@@ -14070,7 +14057,7 @@
       </c>
       <c r="E367" s="17"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="15">
         <v>184</v>
       </c>
@@ -14087,7 +14074,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="16">
         <v>163</v>
       </c>
@@ -14104,7 +14091,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="15">
         <v>204</v>
       </c>
@@ -14121,7 +14108,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="15">
         <v>356</v>
       </c>
@@ -14136,7 +14123,7 @@
       </c>
       <c r="E371" s="17"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="15">
         <v>298</v>
       </c>
@@ -14153,7 +14140,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="16">
         <v>177</v>
       </c>
@@ -14170,7 +14157,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="16">
         <v>203</v>
       </c>
@@ -14187,7 +14174,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="15">
         <v>246</v>
       </c>
@@ -14204,7 +14191,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="15">
         <v>234</v>
       </c>
@@ -14221,7 +14208,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="16">
         <v>173</v>
       </c>
@@ -14238,7 +14225,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="16">
         <v>311</v>
       </c>
@@ -14255,7 +14242,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="16">
         <v>309</v>
       </c>
@@ -14272,7 +14259,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="15">
         <v>62</v>
       </c>
@@ -14289,7 +14276,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="15">
         <v>238</v>
       </c>
@@ -14306,7 +14293,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="16">
         <v>335</v>
       </c>
@@ -14323,7 +14310,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="16">
         <v>243</v>
       </c>
@@ -14340,7 +14327,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="15">
         <v>132</v>
       </c>
@@ -14357,7 +14344,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="16">
         <v>391</v>
       </c>
@@ -14374,7 +14361,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="15">
         <v>268</v>
       </c>
@@ -14391,7 +14378,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="16">
         <v>383</v>
       </c>
@@ -14408,7 +14395,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="16">
         <v>237</v>
       </c>
@@ -14423,7 +14410,7 @@
       </c>
       <c r="E388" s="17"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="16">
         <v>11</v>
       </c>
@@ -14440,7 +14427,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="15">
         <v>236</v>
       </c>
@@ -14457,7 +14444,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="16">
         <v>363</v>
       </c>
@@ -14474,7 +14461,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="16">
         <v>107</v>
       </c>
@@ -14491,7 +14478,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="16">
         <v>113</v>
       </c>
@@ -14508,7 +14495,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="16">
         <v>245</v>
       </c>
@@ -14523,7 +14510,7 @@
       </c>
       <c r="E394" s="17"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="16">
         <v>169</v>
       </c>
@@ -14540,7 +14527,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="15">
         <v>114</v>
       </c>
@@ -14557,7 +14544,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="15">
         <v>52</v>
       </c>
@@ -14574,7 +14561,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="15">
         <v>136</v>
       </c>
@@ -14591,7 +14578,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="16">
         <v>371</v>
       </c>
@@ -14630,225 +14617,225 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>799</v>
       </c>
@@ -14859,1849 +14846,1849 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A367"/>
   <sheetViews>
     <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>530</v>
       </c>
@@ -16715,19 +16702,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E278"/>
   <sheetViews>
     <sheetView topLeftCell="A253" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>831</v>
       </c>
@@ -16738,7 +16725,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>834</v>
       </c>
@@ -16749,7 +16736,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>837</v>
       </c>
@@ -16757,7 +16744,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>839</v>
       </c>
@@ -16768,7 +16755,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>841</v>
       </c>
@@ -16776,7 +16763,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>841</v>
       </c>
@@ -16787,7 +16774,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>844</v>
       </c>
@@ -16795,7 +16782,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>846</v>
       </c>
@@ -16806,7 +16793,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>849</v>
       </c>
@@ -16817,7 +16804,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>853</v>
       </c>
@@ -16828,7 +16815,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>853</v>
       </c>
@@ -16836,7 +16823,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>853</v>
       </c>
@@ -16844,7 +16831,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>853</v>
       </c>
@@ -16855,7 +16842,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>859</v>
       </c>
@@ -16866,7 +16853,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>862</v>
       </c>
@@ -16874,7 +16861,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>864</v>
       </c>
@@ -16882,7 +16869,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>866</v>
       </c>
@@ -16890,7 +16877,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>868</v>
       </c>
@@ -16898,7 +16885,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>869</v>
       </c>
@@ -16906,7 +16893,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>871</v>
       </c>
@@ -16917,7 +16904,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>874</v>
       </c>
@@ -16928,7 +16915,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>877</v>
       </c>
@@ -16939,7 +16926,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>879</v>
       </c>
@@ -16950,7 +16937,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>883</v>
       </c>
@@ -16958,7 +16945,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>885</v>
       </c>
@@ -16966,7 +16953,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>887</v>
       </c>
@@ -16977,7 +16964,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>890</v>
       </c>
@@ -16985,7 +16972,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>892</v>
       </c>
@@ -16996,7 +16983,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>895</v>
       </c>
@@ -17007,7 +16994,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>895</v>
       </c>
@@ -17015,7 +17002,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>899</v>
       </c>
@@ -17026,7 +17013,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>903</v>
       </c>
@@ -17034,7 +17021,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>905</v>
       </c>
@@ -17042,7 +17029,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>907</v>
       </c>
@@ -17050,7 +17037,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>908</v>
       </c>
@@ -17058,7 +17045,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>909</v>
       </c>
@@ -17066,7 +17053,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>909</v>
       </c>
@@ -17074,7 +17061,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>912</v>
       </c>
@@ -17085,7 +17072,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>914</v>
       </c>
@@ -17093,7 +17080,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>916</v>
       </c>
@@ -17107,7 +17094,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>919</v>
       </c>
@@ -17115,7 +17102,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>921</v>
       </c>
@@ -17126,7 +17113,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>924</v>
       </c>
@@ -17137,7 +17124,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>927</v>
       </c>
@@ -17145,7 +17132,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>929</v>
       </c>
@@ -17153,7 +17140,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>931</v>
       </c>
@@ -17161,7 +17148,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>933</v>
       </c>
@@ -17169,7 +17156,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>935</v>
       </c>
@@ -17180,7 +17167,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>938</v>
       </c>
@@ -17188,7 +17175,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>940</v>
       </c>
@@ -17199,7 +17186,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>943</v>
       </c>
@@ -17207,7 +17194,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>945</v>
       </c>
@@ -17218,7 +17205,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>947</v>
       </c>
@@ -17229,7 +17216,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>950</v>
       </c>
@@ -17237,7 +17224,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>950</v>
       </c>
@@ -17245,7 +17232,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>953</v>
       </c>
@@ -17253,7 +17240,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>955</v>
       </c>
@@ -17261,7 +17248,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>957</v>
       </c>
@@ -17269,7 +17256,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>959</v>
       </c>
@@ -17277,7 +17264,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>959</v>
       </c>
@@ -17285,7 +17272,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>962</v>
       </c>
@@ -17293,7 +17280,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>964</v>
       </c>
@@ -17301,7 +17288,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>964</v>
       </c>
@@ -17309,7 +17296,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>967</v>
       </c>
@@ -17320,7 +17307,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>968</v>
       </c>
@@ -17328,7 +17315,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>968</v>
       </c>
@@ -17336,7 +17323,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>971</v>
       </c>
@@ -17344,7 +17331,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>973</v>
       </c>
@@ -17355,7 +17342,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>973</v>
       </c>
@@ -17363,7 +17350,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>973</v>
       </c>
@@ -17371,7 +17358,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>973</v>
       </c>
@@ -17379,7 +17366,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>978</v>
       </c>
@@ -17387,7 +17374,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>980</v>
       </c>
@@ -17395,7 +17382,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>982</v>
       </c>
@@ -17403,7 +17390,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>983</v>
       </c>
@@ -17411,7 +17398,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>984</v>
       </c>
@@ -17419,7 +17406,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>986</v>
       </c>
@@ -17427,7 +17414,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>988</v>
       </c>
@@ -17435,7 +17422,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>990</v>
       </c>
@@ -17446,7 +17433,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>992</v>
       </c>
@@ -17457,7 +17444,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>993</v>
       </c>
@@ -17468,7 +17455,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>993</v>
       </c>
@@ -17479,7 +17466,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>997</v>
       </c>
@@ -17490,7 +17477,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>999</v>
       </c>
@@ -17498,7 +17485,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>1001</v>
       </c>
@@ -17509,7 +17496,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>1001</v>
       </c>
@@ -17517,7 +17504,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>1003</v>
       </c>
@@ -17525,7 +17512,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>1005</v>
       </c>
@@ -17533,7 +17520,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>1007</v>
       </c>
@@ -17541,7 +17528,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>1008</v>
       </c>
@@ -17549,7 +17536,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>1009</v>
       </c>
@@ -17557,7 +17544,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>1011</v>
       </c>
@@ -17565,7 +17552,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>1013</v>
       </c>
@@ -17573,7 +17560,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>1013</v>
       </c>
@@ -17581,7 +17568,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>1016</v>
       </c>
@@ -17589,7 +17576,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>1018</v>
       </c>
@@ -17597,7 +17584,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>1020</v>
       </c>
@@ -17608,7 +17595,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>1021</v>
       </c>
@@ -17619,7 +17606,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>1024</v>
       </c>
@@ -17627,7 +17614,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>1025</v>
       </c>
@@ -17638,7 +17625,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>1027</v>
       </c>
@@ -17646,7 +17633,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>1029</v>
       </c>
@@ -17654,7 +17641,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>1031</v>
       </c>
@@ -17662,7 +17649,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>1033</v>
       </c>
@@ -17670,7 +17657,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>1035</v>
       </c>
@@ -17678,7 +17665,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>1037</v>
       </c>
@@ -17686,7 +17673,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>1039</v>
       </c>
@@ -17694,7 +17681,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>1041</v>
       </c>
@@ -17702,7 +17689,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>1041</v>
       </c>
@@ -17713,7 +17700,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>1043</v>
       </c>
@@ -17724,7 +17711,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>1045</v>
       </c>
@@ -17732,7 +17719,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>1046</v>
       </c>
@@ -17743,7 +17730,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>1049</v>
       </c>
@@ -17751,7 +17738,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>1051</v>
       </c>
@@ -17759,7 +17746,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>1053</v>
       </c>
@@ -17770,7 +17757,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>1055</v>
       </c>
@@ -17778,7 +17765,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>1056</v>
       </c>
@@ -17786,7 +17773,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>1057</v>
       </c>
@@ -17794,7 +17781,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>1058</v>
       </c>
@@ -17802,7 +17789,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>1060</v>
       </c>
@@ -17813,7 +17800,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>1062</v>
       </c>
@@ -17821,7 +17808,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>1064</v>
       </c>
@@ -17835,7 +17822,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>1068</v>
       </c>
@@ -17846,7 +17833,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>1070</v>
       </c>
@@ -17857,7 +17844,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>1071</v>
       </c>
@@ -17868,7 +17855,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>1072</v>
       </c>
@@ -17879,7 +17866,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>946</v>
       </c>
@@ -17887,7 +17874,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>1076</v>
       </c>
@@ -17898,7 +17885,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>1079</v>
       </c>
@@ -17906,7 +17893,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>1079</v>
       </c>
@@ -17917,7 +17904,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>1082</v>
       </c>
@@ -17925,7 +17912,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>1082</v>
       </c>
@@ -17936,7 +17923,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>1085</v>
       </c>
@@ -17944,7 +17931,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>1085</v>
       </c>
@@ -17955,7 +17942,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>1089</v>
       </c>
@@ -17963,7 +17950,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>1091</v>
       </c>
@@ -17974,7 +17961,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>1092</v>
       </c>
@@ -17985,7 +17972,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>1095</v>
       </c>
@@ -17993,7 +17980,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>1096</v>
       </c>
@@ -18001,7 +17988,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>1098</v>
       </c>
@@ -18015,7 +18002,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>1100</v>
       </c>
@@ -18023,7 +18010,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>860</v>
       </c>
@@ -18031,7 +18018,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>1102</v>
       </c>
@@ -18039,7 +18026,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>1103</v>
       </c>
@@ -18050,7 +18037,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>1106</v>
       </c>
@@ -18061,7 +18048,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>1108</v>
       </c>
@@ -18069,7 +18056,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>1110</v>
       </c>
@@ -18080,7 +18067,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>1113</v>
       </c>
@@ -18088,7 +18075,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>1114</v>
       </c>
@@ -18096,7 +18083,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>1116</v>
       </c>
@@ -18107,7 +18094,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>1118</v>
       </c>
@@ -18118,7 +18105,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>1120</v>
       </c>
@@ -18126,7 +18113,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>1121</v>
       </c>
@@ -18134,7 +18121,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>1123</v>
       </c>
@@ -18142,7 +18129,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>1125</v>
       </c>
@@ -18153,7 +18140,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>1128</v>
       </c>
@@ -18164,7 +18151,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>1128</v>
       </c>
@@ -18172,7 +18159,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>1131</v>
       </c>
@@ -18183,7 +18170,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>1133</v>
       </c>
@@ -18191,7 +18178,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>1135</v>
       </c>
@@ -18199,7 +18186,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>1136</v>
       </c>
@@ -18207,7 +18194,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>1138</v>
       </c>
@@ -18218,7 +18205,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>1140</v>
       </c>
@@ -18229,7 +18216,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>1140</v>
       </c>
@@ -18240,7 +18227,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>1140</v>
       </c>
@@ -18251,7 +18238,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>1140</v>
       </c>
@@ -18262,7 +18249,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>1145</v>
       </c>
@@ -18270,7 +18257,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>1147</v>
       </c>
@@ -18278,7 +18265,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>1137</v>
       </c>
@@ -18286,7 +18273,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>1137</v>
       </c>
@@ -18297,7 +18284,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>1137</v>
       </c>
@@ -18308,7 +18295,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>1150</v>
       </c>
@@ -18319,7 +18306,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>1150</v>
       </c>
@@ -18327,7 +18314,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>1150</v>
       </c>
@@ -18338,7 +18325,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>1150</v>
       </c>
@@ -18349,7 +18336,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>1150</v>
       </c>
@@ -18360,7 +18347,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>1150</v>
       </c>
@@ -18371,7 +18358,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>1160</v>
       </c>
@@ -18382,7 +18369,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>1163</v>
       </c>
@@ -18393,7 +18380,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>1165</v>
       </c>
@@ -18404,7 +18391,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>1168</v>
       </c>
@@ -18412,7 +18399,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>1170</v>
       </c>
@@ -18420,7 +18407,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>1172</v>
       </c>
@@ -18428,7 +18415,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>1174</v>
       </c>
@@ -18439,7 +18426,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>1174</v>
       </c>
@@ -18447,7 +18434,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>1176</v>
       </c>
@@ -18458,7 +18445,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>1176</v>
       </c>
@@ -18469,7 +18456,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>1178</v>
       </c>
@@ -18480,7 +18467,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>1181</v>
       </c>
@@ -18488,7 +18475,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>1182</v>
       </c>
@@ -18499,7 +18486,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>1182</v>
       </c>
@@ -18510,7 +18497,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>1182</v>
       </c>
@@ -18521,7 +18508,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>1187</v>
       </c>
@@ -18529,7 +18516,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>1187</v>
       </c>
@@ -18540,7 +18527,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>1190</v>
       </c>
@@ -18548,7 +18535,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>1192</v>
       </c>
@@ -18556,7 +18543,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>1194</v>
       </c>
@@ -18564,7 +18551,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>1196</v>
       </c>
@@ -18572,7 +18559,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>1198</v>
       </c>
@@ -18580,7 +18567,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>1200</v>
       </c>
@@ -18591,7 +18578,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>1203</v>
       </c>
@@ -18602,7 +18589,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>1205</v>
       </c>
@@ -18610,7 +18597,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>1207</v>
       </c>
@@ -18621,7 +18608,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>1208</v>
       </c>
@@ -18629,7 +18616,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>1210</v>
       </c>
@@ -18637,7 +18624,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>1212</v>
       </c>
@@ -18645,7 +18632,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>1214</v>
       </c>
@@ -18653,7 +18640,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>1216</v>
       </c>
@@ -18661,7 +18648,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>1217</v>
       </c>
@@ -18672,7 +18659,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>1218</v>
       </c>
@@ -18680,7 +18667,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>1219</v>
       </c>
@@ -18688,7 +18675,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>1221</v>
       </c>
@@ -18699,7 +18686,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>1221</v>
       </c>
@@ -18707,7 +18694,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>1222</v>
       </c>
@@ -18715,7 +18702,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>1223</v>
       </c>
@@ -18723,7 +18710,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>1225</v>
       </c>
@@ -18731,7 +18718,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>1226</v>
       </c>
@@ -18739,7 +18726,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>1227</v>
       </c>
@@ -18747,7 +18734,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>1228</v>
       </c>
@@ -18755,7 +18742,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>1229</v>
       </c>
@@ -18763,7 +18750,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>1231</v>
       </c>
@@ -18771,7 +18758,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>1232</v>
       </c>
@@ -18779,7 +18766,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>1234</v>
       </c>
@@ -18787,7 +18774,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>1236</v>
       </c>
@@ -18798,7 +18785,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>1237</v>
       </c>
@@ -18812,7 +18799,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>1238</v>
       </c>
@@ -18820,7 +18807,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>1240</v>
       </c>
@@ -18828,7 +18815,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>1240</v>
       </c>
@@ -18836,7 +18823,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>1242</v>
       </c>
@@ -18844,7 +18831,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>1244</v>
       </c>
@@ -18852,7 +18839,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>1246</v>
       </c>
@@ -18860,7 +18847,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>1248</v>
       </c>
@@ -18871,7 +18858,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>1249</v>
       </c>
@@ -18879,7 +18866,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>1250</v>
       </c>
@@ -18890,7 +18877,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>1252</v>
       </c>
@@ -18898,7 +18885,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>1253</v>
       </c>
@@ -18906,7 +18893,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>1255</v>
       </c>
@@ -18914,7 +18901,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>1257</v>
       </c>
@@ -18922,7 +18909,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>1258</v>
       </c>
@@ -18930,7 +18917,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>1259</v>
       </c>
@@ -18938,7 +18925,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>1260</v>
       </c>
@@ -18946,7 +18933,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>1261</v>
       </c>
@@ -18957,7 +18944,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>1263</v>
       </c>
@@ -18968,7 +18955,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>1265</v>
       </c>
@@ -18979,7 +18966,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>1268</v>
       </c>
@@ -18987,7 +18974,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>1269</v>
       </c>
@@ -18995,7 +18982,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>1270</v>
       </c>
@@ -19003,7 +18990,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>1270</v>
       </c>
@@ -19011,7 +18998,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>1270</v>
       </c>
@@ -19019,7 +19006,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>1273</v>
       </c>
@@ -19027,7 +19014,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>1274</v>
       </c>
@@ -19038,7 +19025,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>1275</v>
       </c>
@@ -19046,7 +19033,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>1276</v>
       </c>
@@ -19054,7 +19041,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>1278</v>
       </c>
@@ -19065,7 +19052,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>1279</v>
       </c>
@@ -19073,7 +19060,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>1281</v>
       </c>
@@ -19081,7 +19068,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>1281</v>
       </c>
@@ -19089,7 +19076,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>1284</v>
       </c>
@@ -19097,7 +19084,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>1286</v>
       </c>
@@ -19105,7 +19092,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>1287</v>
       </c>
@@ -19116,7 +19103,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>1288</v>
       </c>
@@ -19124,7 +19111,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>1290</v>
       </c>
@@ -19132,7 +19119,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>1291</v>
       </c>
@@ -19140,7 +19127,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>1292</v>
       </c>
@@ -19148,7 +19135,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>1293</v>
       </c>
@@ -19156,7 +19143,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>1294</v>
       </c>
@@ -19164,7 +19151,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>1296</v>
       </c>
@@ -19172,7 +19159,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>1297</v>
       </c>
@@ -19180,7 +19167,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>1298</v>
       </c>
@@ -19188,7 +19175,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>1300</v>
       </c>
@@ -19196,7 +19183,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>1301</v>
       </c>
@@ -19204,7 +19191,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>1303</v>
       </c>
@@ -19212,7 +19199,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>1304</v>
       </c>
@@ -19220,7 +19207,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>1306</v>
       </c>
@@ -19231,7 +19218,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>1307</v>
       </c>
@@ -19242,7 +19229,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>1309</v>
       </c>

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{62FC1DA2-1368-484A-B39B-2398A442041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$380</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$3</definedName>
     <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$C</definedName>
-    <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.Cols" localSheetId="1" hidden="1">Sheet2!$B:$C</definedName>
     <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$380</definedName>
     <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.PrintTitles" localSheetId="0" hidden="1">Sheet1!$1:$3</definedName>
     <definedName name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$C</definedName>
@@ -32,7 +32,7 @@
     <definedName name="Z_DAD1A3A7_CF3B_4BD7_ADF9_ACE2BD7EC501_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$380</definedName>
     <definedName name="Z_F24C708B_2564_475B_AB54_56E3F7A11D69_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$380</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="ASUS - Personal View" guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="DOLE - Personal View" guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1058">
   <si>
     <t>OFFICE</t>
   </si>
@@ -3225,7 +3225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -3589,7 +3589,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CFAAA746-A136-47B8-802A-1C0A1ADEEAF8}" diskRevisions="1" revisionId="283" version="25">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2D60DAA1-C186-4DD8-85AD-EA71B7759C6D}" diskRevisions="1" revisionId="290" version="26">
   <header guid="{C3FDF1AD-6B59-44B4-8814-A9987087BA46}" dateTime="2023-06-19T09:01:15" maxSheetId="3" userName="ASUS" r:id="rId1">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -3740,6 +3740,12 @@
       <sheetId val="2"/>
     </sheetIdMap>
   </header>
+  <header guid="{2D60DAA1-C186-4DD8-85AD-EA71B7759C6D}" dateTime="2023-06-26T10:51:49" maxSheetId="3" userName="ASUS" r:id="rId26" minRId="284" maxRId="286">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -5237,6 +5243,52 @@
       <v>44743</v>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="284" sId="2">
+    <oc r="C351" t="inlineStr">
+      <is>
+        <t>P</t>
+      </is>
+    </oc>
+    <nc r="C351"/>
+  </rcc>
+  <rcc rId="285" sId="2">
+    <oc r="C363" t="inlineStr">
+      <is>
+        <t>P</t>
+      </is>
+    </oc>
+    <nc r="C363"/>
+  </rcc>
+  <rcc rId="286" sId="2">
+    <oc r="C360" t="inlineStr">
+      <is>
+        <t>P</t>
+      </is>
+    </oc>
+    <nc r="C360"/>
+  </rcc>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.Cols" hidden="1" oldHidden="1">
+    <oldFormula>Sheet2!$B:$C</oldFormula>
+  </rdn>
+  <rcv guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.PrintTitles" hidden="1" oldHidden="1">
+    <formula>Sheet1!$1:$3</formula>
+    <oldFormula>Sheet1!$1:$3</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Sheet1!$C:$C</formula>
+    <oldFormula>Sheet1!$C:$C</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="2" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet2!$A$1:$F$380</formula>
+    <oldFormula>Sheet2!$A$1:$F$380</oldFormula>
+  </rdn>
+  <rcv guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" action="add"/>
 </revisions>
 </file>
 
@@ -5700,37 +5752,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>364</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>438</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>409</v>
       </c>
@@ -5747,7 +5799,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>5</v>
       </c>
@@ -5760,7 +5812,7 @@
       </c>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>7</v>
       </c>
@@ -5773,7 +5825,7 @@
       </c>
       <c r="E5" s="29"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>23</v>
       </c>
@@ -5786,7 +5838,7 @@
       </c>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>25</v>
       </c>
@@ -5799,7 +5851,7 @@
       </c>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>27</v>
       </c>
@@ -5812,7 +5864,7 @@
       </c>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>21</v>
       </c>
@@ -5825,7 +5877,7 @@
       </c>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <v>31</v>
       </c>
@@ -5838,7 +5890,7 @@
       </c>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>29</v>
       </c>
@@ -5851,7 +5903,7 @@
       </c>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>34</v>
       </c>
@@ -5864,7 +5916,7 @@
       </c>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>35</v>
       </c>
@@ -5877,7 +5929,7 @@
       </c>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>33</v>
       </c>
@@ -5890,7 +5942,7 @@
       </c>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>28</v>
       </c>
@@ -5903,7 +5955,7 @@
       </c>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>30</v>
       </c>
@@ -5916,7 +5968,7 @@
       </c>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>37</v>
       </c>
@@ -5929,7 +5981,7 @@
       </c>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>38</v>
       </c>
@@ -5942,7 +5994,7 @@
       </c>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="30">
         <v>253</v>
       </c>
@@ -5955,7 +6007,7 @@
       </c>
       <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>40</v>
       </c>
@@ -5968,7 +6020,7 @@
       </c>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>36</v>
       </c>
@@ -5981,7 +6033,7 @@
       </c>
       <c r="E21" s="29"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>227</v>
       </c>
@@ -5994,7 +6046,7 @@
       </c>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="30">
         <v>341</v>
       </c>
@@ -6007,7 +6059,7 @@
       </c>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>342</v>
       </c>
@@ -6020,7 +6072,7 @@
       </c>
       <c r="E24" s="29"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="30">
         <v>229</v>
       </c>
@@ -6033,7 +6085,7 @@
       </c>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>46</v>
       </c>
@@ -6046,7 +6098,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="30">
         <v>47</v>
       </c>
@@ -6059,7 +6111,7 @@
       </c>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>44</v>
       </c>
@@ -6072,7 +6124,7 @@
       </c>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A29" s="30">
         <v>49</v>
       </c>
@@ -6086,7 +6138,7 @@
       <c r="E29" s="29"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>162</v>
       </c>
@@ -6099,7 +6151,7 @@
       </c>
       <c r="E30" s="29"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>344</v>
       </c>
@@ -6112,7 +6164,7 @@
       </c>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>68</v>
       </c>
@@ -6125,7 +6177,7 @@
       </c>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <v>67</v>
       </c>
@@ -6138,7 +6190,7 @@
       </c>
       <c r="E33" s="29"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>71</v>
       </c>
@@ -6151,7 +6203,7 @@
       </c>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>80</v>
       </c>
@@ -6164,7 +6216,7 @@
       </c>
       <c r="E35" s="29"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>87</v>
       </c>
@@ -6177,7 +6229,7 @@
       </c>
       <c r="E36" s="29"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>85</v>
       </c>
@@ -6190,7 +6242,7 @@
       </c>
       <c r="E37" s="29"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
         <v>91</v>
       </c>
@@ -6203,7 +6255,7 @@
       </c>
       <c r="E38" s="29"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>79</v>
       </c>
@@ -6218,7 +6270,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>90</v>
       </c>
@@ -6231,7 +6283,7 @@
       </c>
       <c r="E40" s="29"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>92</v>
       </c>
@@ -6244,7 +6296,7 @@
       </c>
       <c r="E41" s="29"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>88</v>
       </c>
@@ -6257,7 +6309,7 @@
       </c>
       <c r="E42" s="29"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="26">
         <v>78</v>
       </c>
@@ -6270,7 +6322,7 @@
       </c>
       <c r="E43" s="29"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="26">
         <v>89</v>
       </c>
@@ -6283,7 +6335,7 @@
       </c>
       <c r="E44" s="29"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="26">
         <v>366</v>
       </c>
@@ -6296,7 +6348,7 @@
       </c>
       <c r="E45" s="29"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
         <v>112</v>
       </c>
@@ -6309,7 +6361,7 @@
       </c>
       <c r="E46" s="29"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="26">
         <v>128</v>
       </c>
@@ -6322,7 +6374,7 @@
       </c>
       <c r="E47" s="29"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="26">
         <v>124</v>
       </c>
@@ -6335,7 +6387,7 @@
       </c>
       <c r="E48" s="29"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>125</v>
       </c>
@@ -6348,7 +6400,7 @@
       </c>
       <c r="E49" s="29"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="26">
         <v>129</v>
       </c>
@@ -6361,7 +6413,7 @@
       </c>
       <c r="E50" s="29"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>131</v>
       </c>
@@ -6376,7 +6428,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="26">
         <v>126</v>
       </c>
@@ -6389,7 +6441,7 @@
       </c>
       <c r="E52" s="29"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="26">
         <v>164</v>
       </c>
@@ -6404,7 +6456,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="26">
         <v>151</v>
       </c>
@@ -6419,7 +6471,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="26">
         <v>146</v>
       </c>
@@ -6434,7 +6486,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="26">
         <v>171</v>
       </c>
@@ -6449,7 +6501,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>206</v>
       </c>
@@ -6462,7 +6514,7 @@
       </c>
       <c r="E57" s="29"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>213</v>
       </c>
@@ -6477,7 +6529,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>196</v>
       </c>
@@ -6492,7 +6544,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <v>214</v>
       </c>
@@ -6505,7 +6557,7 @@
       </c>
       <c r="E60" s="29"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>182</v>
       </c>
@@ -6518,7 +6570,7 @@
       </c>
       <c r="E61" s="29"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>205</v>
       </c>
@@ -6531,7 +6583,7 @@
       </c>
       <c r="E62" s="29"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>181</v>
       </c>
@@ -6544,7 +6596,7 @@
       </c>
       <c r="E63" s="29"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="26">
         <v>180</v>
       </c>
@@ -6557,7 +6609,7 @@
       </c>
       <c r="E64" s="29"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="26">
         <v>190</v>
       </c>
@@ -6570,7 +6622,7 @@
       </c>
       <c r="E65" s="29"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="26">
         <v>199</v>
       </c>
@@ -6583,7 +6635,7 @@
       </c>
       <c r="E66" s="29"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>197</v>
       </c>
@@ -6598,7 +6650,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="26">
         <v>219</v>
       </c>
@@ -6613,7 +6665,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <v>223</v>
       </c>
@@ -6628,7 +6680,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="26">
         <v>220</v>
       </c>
@@ -6641,7 +6693,7 @@
       </c>
       <c r="E70" s="29"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="30">
         <v>233</v>
       </c>
@@ -6656,7 +6708,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="26">
         <v>235</v>
       </c>
@@ -6671,7 +6723,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="30">
         <v>379</v>
       </c>
@@ -6684,7 +6736,7 @@
       </c>
       <c r="E73" s="29"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="26">
         <v>376</v>
       </c>
@@ -6697,7 +6749,7 @@
       </c>
       <c r="E74" s="29"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="26">
         <v>372</v>
       </c>
@@ -6710,7 +6762,7 @@
       </c>
       <c r="E75" s="29"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="26">
         <v>252</v>
       </c>
@@ -6725,7 +6777,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="30">
         <v>249</v>
       </c>
@@ -6740,7 +6792,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="26">
         <v>251</v>
       </c>
@@ -6755,7 +6807,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="26">
         <v>264</v>
       </c>
@@ -6770,7 +6822,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="26">
         <v>262</v>
       </c>
@@ -6783,7 +6835,7 @@
       </c>
       <c r="E80" s="29"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="26">
         <v>266</v>
       </c>
@@ -6796,7 +6848,7 @@
       </c>
       <c r="E81" s="29"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="26">
         <v>265</v>
       </c>
@@ -6809,7 +6861,7 @@
       </c>
       <c r="E82" s="29"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="26">
         <v>382</v>
       </c>
@@ -6824,7 +6876,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="26">
         <v>257</v>
       </c>
@@ -6839,7 +6891,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="26">
         <v>254</v>
       </c>
@@ -6854,7 +6906,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>260</v>
       </c>
@@ -6867,7 +6919,7 @@
       </c>
       <c r="E86" s="29"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="26">
         <v>270</v>
       </c>
@@ -6880,7 +6932,7 @@
       </c>
       <c r="E87" s="29"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>285</v>
       </c>
@@ -6895,7 +6947,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>296</v>
       </c>
@@ -6908,7 +6960,7 @@
       </c>
       <c r="E89" s="29"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>297</v>
       </c>
@@ -6921,7 +6973,7 @@
       </c>
       <c r="E90" s="29"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>286</v>
       </c>
@@ -6936,7 +6988,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>292</v>
       </c>
@@ -6951,7 +7003,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>294</v>
       </c>
@@ -6964,7 +7016,7 @@
       </c>
       <c r="E93" s="29"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>287</v>
       </c>
@@ -6979,7 +7031,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="30">
         <v>289</v>
       </c>
@@ -6994,7 +7046,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>302</v>
       </c>
@@ -7009,7 +7061,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>288</v>
       </c>
@@ -7024,7 +7076,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>291</v>
       </c>
@@ -7037,7 +7089,7 @@
       </c>
       <c r="E98" s="29"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="30">
         <v>303</v>
       </c>
@@ -7052,7 +7104,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="26">
         <v>386</v>
       </c>
@@ -7067,7 +7119,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="26">
         <v>324</v>
       </c>
@@ -7082,7 +7134,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="26">
         <v>333</v>
       </c>
@@ -7095,7 +7147,7 @@
       </c>
       <c r="E102" s="29"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="30">
         <v>331</v>
       </c>
@@ -7108,7 +7160,7 @@
       </c>
       <c r="E103" s="29"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="26">
         <v>316</v>
       </c>
@@ -7123,7 +7175,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="30">
         <v>319</v>
       </c>
@@ -7136,7 +7188,7 @@
       </c>
       <c r="E105" s="29"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="26">
         <v>315</v>
       </c>
@@ -7151,7 +7203,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="30">
         <v>313</v>
       </c>
@@ -7166,7 +7218,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="26">
         <v>317</v>
       </c>
@@ -7179,7 +7231,7 @@
       </c>
       <c r="E108" s="29"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="26">
         <v>328</v>
       </c>
@@ -7192,7 +7244,7 @@
       </c>
       <c r="E109" s="29"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="26">
         <v>329</v>
       </c>
@@ -7207,7 +7259,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="26">
         <v>330</v>
       </c>
@@ -7220,7 +7272,7 @@
       </c>
       <c r="E111" s="29"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="26">
         <v>312</v>
       </c>
@@ -7233,7 +7285,7 @@
       </c>
       <c r="E112" s="29"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="26">
         <v>318</v>
       </c>
@@ -7248,7 +7300,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="26">
         <v>314</v>
       </c>
@@ -7261,7 +7313,7 @@
       </c>
       <c r="E114" s="29"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="30">
         <v>323</v>
       </c>
@@ -7276,7 +7328,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="26">
         <v>321</v>
       </c>
@@ -7289,7 +7341,7 @@
       </c>
       <c r="E116" s="29"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="26">
         <v>332</v>
       </c>
@@ -7302,7 +7354,7 @@
       </c>
       <c r="E117" s="29"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="26">
         <v>320</v>
       </c>
@@ -7315,7 +7367,7 @@
       </c>
       <c r="E118" s="29"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="26">
         <v>310</v>
       </c>
@@ -7328,7 +7380,7 @@
       </c>
       <c r="E119" s="29"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="26">
         <v>394</v>
       </c>
@@ -7341,7 +7393,7 @@
       </c>
       <c r="E120" s="29"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="30">
         <v>75</v>
       </c>
@@ -7358,7 +7410,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="26">
         <v>364</v>
       </c>
@@ -7373,7 +7425,7 @@
       </c>
       <c r="E122" s="29"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="26">
         <v>108</v>
       </c>
@@ -7390,7 +7442,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="26">
         <v>276</v>
       </c>
@@ -7407,7 +7459,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="26">
         <v>98</v>
       </c>
@@ -7424,7 +7476,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="26">
         <v>343</v>
       </c>
@@ -7441,7 +7493,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="30">
         <v>385</v>
       </c>
@@ -7458,7 +7510,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="26">
         <v>194</v>
       </c>
@@ -7475,7 +7527,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="30">
         <v>337</v>
       </c>
@@ -7492,7 +7544,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="26">
         <v>161</v>
       </c>
@@ -7509,7 +7561,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="30">
         <v>355</v>
       </c>
@@ -7526,7 +7578,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="26">
         <v>374</v>
       </c>
@@ -7543,7 +7595,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="30">
         <v>369</v>
       </c>
@@ -7560,7 +7612,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="26">
         <v>210</v>
       </c>
@@ -7577,7 +7629,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="26">
         <v>368</v>
       </c>
@@ -7594,7 +7646,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="26">
         <v>2</v>
       </c>
@@ -7611,7 +7663,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="26">
         <v>26</v>
       </c>
@@ -7628,7 +7680,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>325</v>
       </c>
@@ -7645,7 +7697,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="30">
         <v>187</v>
       </c>
@@ -7662,7 +7714,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>10</v>
       </c>
@@ -7679,7 +7731,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>70</v>
       </c>
@@ -7696,7 +7748,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>16</v>
       </c>
@@ -7713,7 +7765,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>218</v>
       </c>
@@ -7730,7 +7782,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="26">
         <v>22</v>
       </c>
@@ -7747,7 +7799,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="26">
         <v>224</v>
       </c>
@@ -7764,7 +7816,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="26">
         <v>172</v>
       </c>
@@ -7781,7 +7833,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="30">
         <v>109</v>
       </c>
@@ -7798,7 +7850,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="26">
         <v>59</v>
       </c>
@@ -7815,7 +7867,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="26">
         <v>134</v>
       </c>
@@ -7832,7 +7884,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="26">
         <v>120</v>
       </c>
@@ -7847,7 +7899,7 @@
       </c>
       <c r="E150" s="29"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="26">
         <v>334</v>
       </c>
@@ -7864,7 +7916,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="26">
         <v>395</v>
       </c>
@@ -7881,7 +7933,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="26">
         <v>230</v>
       </c>
@@ -7898,7 +7950,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="26">
         <v>241</v>
       </c>
@@ -7915,7 +7967,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="26">
         <v>278</v>
       </c>
@@ -7932,7 +7984,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="26">
         <v>42</v>
       </c>
@@ -7949,7 +8001,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="30">
         <v>81</v>
       </c>
@@ -7966,7 +8018,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="26">
         <v>306</v>
       </c>
@@ -7983,7 +8035,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="26">
         <v>140</v>
       </c>
@@ -8000,7 +8052,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="26">
         <v>152</v>
       </c>
@@ -8017,7 +8069,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="26">
         <v>50</v>
       </c>
@@ -8034,7 +8086,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="26">
         <v>339</v>
       </c>
@@ -8051,7 +8103,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="26">
         <v>72</v>
       </c>
@@ -8068,7 +8120,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="26">
         <v>191</v>
       </c>
@@ -8085,7 +8137,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="30">
         <v>143</v>
       </c>
@@ -8102,7 +8154,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="26">
         <v>51</v>
       </c>
@@ -8119,7 +8171,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="30">
         <v>13</v>
       </c>
@@ -8136,7 +8188,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="26">
         <v>138</v>
       </c>
@@ -8153,7 +8205,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="30">
         <v>373</v>
       </c>
@@ -8170,7 +8222,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
         <v>118</v>
       </c>
@@ -8185,7 +8237,7 @@
       </c>
       <c r="E170" s="29"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="30">
         <v>273</v>
       </c>
@@ -8202,7 +8254,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="26">
         <v>304</v>
       </c>
@@ -8219,7 +8271,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="26">
         <v>256</v>
       </c>
@@ -8236,7 +8288,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="26">
         <v>106</v>
       </c>
@@ -8253,7 +8305,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="30">
         <v>375</v>
       </c>
@@ -8270,7 +8322,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="26">
         <v>77</v>
       </c>
@@ -8287,7 +8339,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="26">
         <v>178</v>
       </c>
@@ -8302,7 +8354,7 @@
       </c>
       <c r="E177" s="29"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="26">
         <v>76</v>
       </c>
@@ -8319,7 +8371,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="30">
         <v>121</v>
       </c>
@@ -8334,7 +8386,7 @@
       </c>
       <c r="E179" s="29"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="26">
         <v>144</v>
       </c>
@@ -8349,7 +8401,7 @@
       </c>
       <c r="E180" s="29"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="26">
         <v>156</v>
       </c>
@@ -8366,7 +8418,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="26">
         <v>299</v>
       </c>
@@ -8383,7 +8435,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="30">
         <v>247</v>
       </c>
@@ -8398,7 +8450,7 @@
       </c>
       <c r="E183" s="29"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="26">
         <v>185</v>
       </c>
@@ -8415,7 +8467,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="26">
         <v>110</v>
       </c>
@@ -8432,7 +8484,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="26">
         <v>202</v>
       </c>
@@ -8449,7 +8501,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="26">
         <v>130</v>
       </c>
@@ -8466,7 +8518,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="26">
         <v>231</v>
       </c>
@@ -8483,7 +8535,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="26">
         <v>350</v>
       </c>
@@ -8500,7 +8552,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="26">
         <v>352</v>
       </c>
@@ -8517,7 +8569,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="26">
         <v>176</v>
       </c>
@@ -8534,7 +8586,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="26">
         <v>17</v>
       </c>
@@ -8551,7 +8603,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="26">
         <v>272</v>
       </c>
@@ -8568,7 +8620,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="26">
         <v>133</v>
       </c>
@@ -8583,7 +8635,7 @@
       </c>
       <c r="E194" s="29"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="30">
         <v>267</v>
       </c>
@@ -8600,7 +8652,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="26">
         <v>348</v>
       </c>
@@ -8615,7 +8667,7 @@
       </c>
       <c r="E196" s="29"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="30">
         <v>345</v>
       </c>
@@ -8630,7 +8682,7 @@
       </c>
       <c r="E197" s="29"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="26">
         <v>380</v>
       </c>
@@ -8647,7 +8699,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="30">
         <v>307</v>
       </c>
@@ -8664,7 +8716,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="26">
         <v>388</v>
       </c>
@@ -8681,7 +8733,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="26">
         <v>14</v>
       </c>
@@ -8698,7 +8750,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="26">
         <v>74</v>
       </c>
@@ -8715,7 +8767,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="30">
         <v>275</v>
       </c>
@@ -8732,7 +8784,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="26">
         <v>55</v>
       </c>
@@ -8749,7 +8801,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="30">
         <v>389</v>
       </c>
@@ -8766,7 +8818,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="26">
         <v>4</v>
       </c>
@@ -8783,7 +8835,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="26">
         <v>186</v>
       </c>
@@ -8800,7 +8852,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="26">
         <v>117</v>
       </c>
@@ -8817,7 +8869,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="26">
         <v>240</v>
       </c>
@@ -8832,7 +8884,7 @@
       </c>
       <c r="E209" s="29"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="26">
         <v>148</v>
       </c>
@@ -8849,7 +8901,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="30">
         <v>381</v>
       </c>
@@ -8866,7 +8918,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="26">
         <v>32</v>
       </c>
@@ -8883,7 +8935,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="26">
         <v>100</v>
       </c>
@@ -8900,7 +8952,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="26">
         <v>149</v>
       </c>
@@ -8917,7 +8969,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="30">
         <v>69</v>
       </c>
@@ -8934,7 +8986,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="26">
         <v>154</v>
       </c>
@@ -8951,7 +9003,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="30">
         <v>97</v>
       </c>
@@ -8968,7 +9020,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="26">
         <v>65</v>
       </c>
@@ -8985,7 +9037,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="26">
         <v>280</v>
       </c>
@@ -9002,7 +9054,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="26">
         <v>281</v>
       </c>
@@ -9019,7 +9071,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="30">
         <v>153</v>
       </c>
@@ -9034,7 +9086,7 @@
       </c>
       <c r="E221" s="29"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="26">
         <v>367</v>
       </c>
@@ -9051,7 +9103,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="26">
         <v>54</v>
       </c>
@@ -9068,7 +9120,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="26">
         <v>215</v>
       </c>
@@ -9085,7 +9137,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="30">
         <v>3</v>
       </c>
@@ -9102,7 +9154,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="26">
         <v>166</v>
       </c>
@@ -9119,7 +9171,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="30">
         <v>211</v>
       </c>
@@ -9136,7 +9188,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="26">
         <v>354</v>
       </c>
@@ -9153,7 +9205,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="26">
         <v>158</v>
       </c>
@@ -9170,7 +9222,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="26">
         <v>290</v>
       </c>
@@ -9185,7 +9237,7 @@
       </c>
       <c r="E230" s="29"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="26">
         <v>242</v>
       </c>
@@ -9202,7 +9254,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="26">
         <v>192</v>
       </c>
@@ -9219,7 +9271,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="30">
         <v>165</v>
       </c>
@@ -9236,7 +9288,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="26">
         <v>168</v>
       </c>
@@ -9253,7 +9305,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="26">
         <v>160</v>
       </c>
@@ -9270,7 +9322,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="26">
         <v>63</v>
       </c>
@@ -9287,7 +9339,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="30">
         <v>349</v>
       </c>
@@ -9304,7 +9356,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="26">
         <v>271</v>
       </c>
@@ -9321,7 +9373,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="30">
         <v>145</v>
       </c>
@@ -9338,7 +9390,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="26">
         <v>340</v>
       </c>
@@ -9355,7 +9407,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="30">
         <v>39</v>
       </c>
@@ -9372,7 +9424,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="26">
         <v>101</v>
       </c>
@@ -9389,7 +9441,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="26">
         <v>56</v>
       </c>
@@ -9406,7 +9458,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="26">
         <v>301</v>
       </c>
@@ -9423,7 +9475,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="26">
         <v>94</v>
       </c>
@@ -9440,7 +9492,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="26">
         <v>119</v>
       </c>
@@ -9455,7 +9507,7 @@
       </c>
       <c r="E246" s="29"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="26">
         <v>104</v>
       </c>
@@ -9472,7 +9524,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="26">
         <v>193</v>
       </c>
@@ -9489,7 +9541,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="26">
         <v>226</v>
       </c>
@@ -9506,7 +9558,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="26">
         <v>338</v>
       </c>
@@ -9523,7 +9575,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="30">
         <v>83</v>
       </c>
@@ -9538,7 +9590,7 @@
       </c>
       <c r="E251" s="29"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="26">
         <v>384</v>
       </c>
@@ -9555,7 +9607,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="26">
         <v>274</v>
       </c>
@@ -9572,7 +9624,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="26">
         <v>209</v>
       </c>
@@ -9589,7 +9641,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="30">
         <v>387</v>
       </c>
@@ -9606,7 +9658,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="26">
         <v>212</v>
       </c>
@@ -9623,7 +9675,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="30">
         <v>347</v>
       </c>
@@ -9640,7 +9692,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="26">
         <v>159</v>
       </c>
@@ -9657,7 +9709,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="30">
         <v>269</v>
       </c>
@@ -9674,7 +9726,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="26">
         <v>24</v>
       </c>
@@ -9691,7 +9743,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="30">
         <v>283</v>
       </c>
@@ -9708,7 +9760,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="26">
         <v>142</v>
       </c>
@@ -9725,7 +9777,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="30">
         <v>201</v>
       </c>
@@ -9742,7 +9794,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="26">
         <v>232</v>
       </c>
@@ -9759,7 +9811,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="26">
         <v>336</v>
       </c>
@@ -9776,7 +9828,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="26">
         <v>41</v>
       </c>
@@ -9793,7 +9845,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="26">
         <v>150</v>
       </c>
@@ -9810,7 +9862,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="26">
         <v>155</v>
       </c>
@@ -9827,7 +9879,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="30">
         <v>195</v>
       </c>
@@ -9844,7 +9896,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="26">
         <v>327</v>
       </c>
@@ -9861,7 +9913,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="30">
         <v>1</v>
       </c>
@@ -9878,7 +9930,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="26">
         <v>360</v>
       </c>
@@ -9895,7 +9947,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="26">
         <v>248</v>
       </c>
@@ -9910,7 +9962,7 @@
       </c>
       <c r="E273" s="29"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="26">
         <v>84</v>
       </c>
@@ -9925,7 +9977,7 @@
       </c>
       <c r="E274" s="29"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="26">
         <v>48</v>
       </c>
@@ -9942,7 +9994,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="26">
         <v>137</v>
       </c>
@@ -9959,7 +10011,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="30">
         <v>147</v>
       </c>
@@ -9976,7 +10028,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="26">
         <v>258</v>
       </c>
@@ -9993,7 +10045,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="26">
         <v>326</v>
       </c>
@@ -10010,7 +10062,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="26">
         <v>293</v>
       </c>
@@ -10027,7 +10079,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="30">
         <v>207</v>
       </c>
@@ -10044,7 +10096,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="26">
         <v>174</v>
       </c>
@@ -10061,7 +10113,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="26">
         <v>300</v>
       </c>
@@ -10078,7 +10130,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="26">
         <v>282</v>
       </c>
@@ -10095,7 +10147,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="30">
         <v>351</v>
       </c>
@@ -10112,7 +10164,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="26">
         <v>57</v>
       </c>
@@ -10129,7 +10181,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="30">
         <v>95</v>
       </c>
@@ -10146,7 +10198,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="26">
         <v>361</v>
       </c>
@@ -10163,7 +10215,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="30">
         <v>93</v>
       </c>
@@ -10180,7 +10232,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="26">
         <v>393</v>
       </c>
@@ -10195,7 +10247,7 @@
       </c>
       <c r="E290" s="29"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="26">
         <v>64</v>
       </c>
@@ -10212,7 +10264,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="26">
         <v>390</v>
       </c>
@@ -10229,7 +10281,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="26">
         <v>6</v>
       </c>
@@ -10246,7 +10298,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="26">
         <v>358</v>
       </c>
@@ -10263,7 +10315,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="26">
         <v>20</v>
       </c>
@@ -10280,7 +10332,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="26">
         <v>377</v>
       </c>
@@ -10297,7 +10349,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="30"/>
       <c r="B297" s="31" t="s">
         <v>970</v>
@@ -10310,7 +10362,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="26">
         <v>15</v>
       </c>
@@ -10327,7 +10379,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="26">
         <v>102</v>
       </c>
@@ -10344,7 +10396,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="26">
         <v>239</v>
       </c>
@@ -10361,7 +10413,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="30">
         <v>225</v>
       </c>
@@ -10378,7 +10430,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="26">
         <v>279</v>
       </c>
@@ -10395,7 +10447,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="30">
         <v>221</v>
       </c>
@@ -10412,7 +10464,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="26">
         <v>362</v>
       </c>
@@ -10429,7 +10481,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="26">
         <v>228</v>
       </c>
@@ -10446,7 +10498,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="26">
         <v>188</v>
       </c>
@@ -10463,7 +10515,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="30">
         <v>263</v>
       </c>
@@ -10480,7 +10532,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="26">
         <v>9</v>
       </c>
@@ -10497,7 +10549,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="26">
         <v>378</v>
       </c>
@@ -10514,7 +10566,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="26">
         <v>116</v>
       </c>
@@ -10529,7 +10581,7 @@
       </c>
       <c r="E310" s="29"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="26">
         <v>18</v>
       </c>
@@ -10546,7 +10598,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="26">
         <v>141</v>
       </c>
@@ -10563,7 +10615,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="26">
         <v>208</v>
       </c>
@@ -10580,7 +10632,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="26">
         <v>53</v>
       </c>
@@ -10597,7 +10649,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="30">
         <v>157</v>
       </c>
@@ -10614,7 +10666,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="26">
         <v>216</v>
       </c>
@@ -10631,7 +10683,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="26">
         <v>12</v>
       </c>
@@ -10648,7 +10700,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="26">
         <v>167</v>
       </c>
@@ -10665,7 +10717,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="26">
         <v>66</v>
       </c>
@@ -10682,7 +10734,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="26">
         <v>60</v>
       </c>
@@ -10699,7 +10751,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="26">
         <v>86</v>
       </c>
@@ -10716,7 +10768,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="26">
         <v>135</v>
       </c>
@@ -10731,7 +10783,7 @@
       </c>
       <c r="E322" s="29"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="30">
         <v>183</v>
       </c>
@@ -10748,7 +10800,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="26">
         <v>82</v>
       </c>
@@ -10763,7 +10815,7 @@
       </c>
       <c r="E324" s="29"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="26">
         <v>222</v>
       </c>
@@ -10780,7 +10832,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="26">
         <v>259</v>
       </c>
@@ -10797,7 +10849,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="30">
         <v>295</v>
       </c>
@@ -10814,7 +10866,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="26">
         <v>261</v>
       </c>
@@ -10831,7 +10883,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="26">
         <v>96</v>
       </c>
@@ -10848,7 +10900,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="26">
         <v>61</v>
       </c>
@@ -10865,7 +10917,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="26">
         <v>58</v>
       </c>
@@ -10882,7 +10934,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="26">
         <v>305</v>
       </c>
@@ -10899,7 +10951,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="26">
         <v>170</v>
       </c>
@@ -10916,7 +10968,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="26">
         <v>189</v>
       </c>
@@ -10933,7 +10985,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="30">
         <v>175</v>
       </c>
@@ -10950,7 +11002,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="26">
         <v>346</v>
       </c>
@@ -10967,7 +11019,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="30">
         <v>73</v>
       </c>
@@ -10984,7 +11036,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="26">
         <v>359</v>
       </c>
@@ -11001,7 +11053,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="30">
         <v>127</v>
       </c>
@@ -11018,7 +11070,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="26">
         <v>392</v>
       </c>
@@ -11033,7 +11085,7 @@
       </c>
       <c r="E340" s="29"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="26">
         <v>200</v>
       </c>
@@ -11050,7 +11102,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="26">
         <v>353</v>
       </c>
@@ -11067,7 +11119,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="30">
         <v>111</v>
       </c>
@@ -11084,7 +11136,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="26">
         <v>99</v>
       </c>
@@ -11101,7 +11153,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="30">
         <v>277</v>
       </c>
@@ -11116,7 +11168,7 @@
       </c>
       <c r="E345" s="29"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="26">
         <v>43</v>
       </c>
@@ -11133,7 +11185,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="26">
         <v>244</v>
       </c>
@@ -11150,7 +11202,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="26">
         <v>103</v>
       </c>
@@ -11167,7 +11219,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="30">
         <v>19</v>
       </c>
@@ -11184,7 +11236,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="26">
         <v>198</v>
       </c>
@@ -11201,7 +11253,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="30">
         <v>105</v>
       </c>
@@ -11218,7 +11270,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="26">
         <v>322</v>
       </c>
@@ -11235,7 +11287,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="26">
         <v>308</v>
       </c>
@@ -11252,7 +11304,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="26">
         <v>217</v>
       </c>
@@ -11269,7 +11321,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="30">
         <v>255</v>
       </c>
@@ -11286,7 +11338,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="26">
         <v>115</v>
       </c>
@@ -11301,7 +11353,7 @@
       </c>
       <c r="E356" s="29"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="30">
         <v>179</v>
       </c>
@@ -11316,7 +11368,7 @@
       </c>
       <c r="E357" s="29"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="26">
         <v>284</v>
       </c>
@@ -11333,7 +11385,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="26">
         <v>250</v>
       </c>
@@ -11350,7 +11402,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="26">
         <v>365</v>
       </c>
@@ -11367,7 +11419,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="30">
         <v>139</v>
       </c>
@@ -11384,7 +11436,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="26">
         <v>8</v>
       </c>
@@ -11401,7 +11453,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="26">
         <v>122</v>
       </c>
@@ -11416,7 +11468,7 @@
       </c>
       <c r="E363" s="29"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="26">
         <v>123</v>
       </c>
@@ -11431,7 +11483,7 @@
       </c>
       <c r="E364" s="29"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="30">
         <v>45</v>
       </c>
@@ -11446,7 +11498,7 @@
       </c>
       <c r="E365" s="29"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="26">
         <v>370</v>
       </c>
@@ -11463,7 +11515,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="30">
         <v>357</v>
       </c>
@@ -11478,7 +11530,7 @@
       </c>
       <c r="E367" s="29"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="26">
         <v>184</v>
       </c>
@@ -11495,7 +11547,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="30">
         <v>163</v>
       </c>
@@ -11512,7 +11564,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="26">
         <v>204</v>
       </c>
@@ -11529,7 +11581,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="26">
         <v>356</v>
       </c>
@@ -11544,7 +11596,7 @@
       </c>
       <c r="E371" s="29"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="26">
         <v>298</v>
       </c>
@@ -11561,7 +11613,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="30">
         <v>177</v>
       </c>
@@ -11578,7 +11630,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="26">
         <v>203</v>
       </c>
@@ -11595,7 +11647,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="26">
         <v>246</v>
       </c>
@@ -11612,7 +11664,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="26">
         <v>234</v>
       </c>
@@ -11629,7 +11681,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="30">
         <v>173</v>
       </c>
@@ -11646,7 +11698,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="26">
         <v>311</v>
       </c>
@@ -11663,7 +11715,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="30">
         <v>309</v>
       </c>
@@ -11680,7 +11732,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="26">
         <v>62</v>
       </c>
@@ -11697,7 +11749,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="26">
         <v>238</v>
       </c>
@@ -11714,7 +11766,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="26">
         <v>335</v>
       </c>
@@ -11731,7 +11783,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="30">
         <v>243</v>
       </c>
@@ -11748,7 +11800,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="26">
         <v>132</v>
       </c>
@@ -11765,7 +11817,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="30">
         <v>391</v>
       </c>
@@ -11782,7 +11834,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="26">
         <v>268</v>
       </c>
@@ -11799,7 +11851,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="30">
         <v>383</v>
       </c>
@@ -11816,7 +11868,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="26">
         <v>237</v>
       </c>
@@ -11831,7 +11883,7 @@
       </c>
       <c r="E388" s="29"/>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="30">
         <v>11</v>
       </c>
@@ -11848,7 +11900,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="26">
         <v>236</v>
       </c>
@@ -11865,7 +11917,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="30">
         <v>363</v>
       </c>
@@ -11882,7 +11934,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="26">
         <v>107</v>
       </c>
@@ -11899,7 +11951,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="30">
         <v>113</v>
       </c>
@@ -11916,7 +11968,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="26">
         <v>245</v>
       </c>
@@ -11931,7 +11983,7 @@
       </c>
       <c r="E394" s="29"/>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="30">
         <v>169</v>
       </c>
@@ -11948,7 +12000,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="26">
         <v>114</v>
       </c>
@@ -11965,7 +12017,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="26">
         <v>52</v>
       </c>
@@ -11982,7 +12034,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="26">
         <v>136</v>
       </c>
@@ -11999,7 +12051,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="35">
         <v>371</v>
       </c>
@@ -12047,25 +12099,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K13"/>
+      <selection activeCell="D387" sqref="D387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="16.28515625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="6" width="16.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>379</v>
       </c>
@@ -12094,7 +12147,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>508</v>
       </c>
@@ -12116,7 +12169,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>981</v>
       </c>
@@ -12134,7 +12187,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>484</v>
       </c>
@@ -12152,7 +12205,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>509</v>
       </c>
@@ -12168,7 +12221,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>605</v>
       </c>
@@ -12188,7 +12241,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>606</v>
       </c>
@@ -12208,7 +12261,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>510</v>
       </c>
@@ -12224,7 +12277,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>511</v>
       </c>
@@ -12240,7 +12293,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>607</v>
       </c>
@@ -12260,7 +12313,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>462</v>
       </c>
@@ -12276,7 +12329,7 @@
         <v>35591</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>608</v>
       </c>
@@ -12296,7 +12349,7 @@
         <v>31837</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>1004</v>
       </c>
@@ -12314,7 +12367,7 @@
         <v>35384</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>512</v>
       </c>
@@ -12328,7 +12381,7 @@
         <v>34774</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>485</v>
       </c>
@@ -12342,7 +12395,7 @@
         <v>33695</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>513</v>
       </c>
@@ -12352,7 +12405,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>982</v>
       </c>
@@ -12362,7 +12415,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>609</v>
       </c>
@@ -12372,7 +12425,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>610</v>
       </c>
@@ -12382,7 +12435,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>611</v>
       </c>
@@ -12394,7 +12447,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>450</v>
       </c>
@@ -12404,7 +12457,7 @@
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>612</v>
       </c>
@@ -12414,7 +12467,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>613</v>
       </c>
@@ -12428,7 +12481,7 @@
         <v>30118</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>615</v>
       </c>
@@ -12442,7 +12495,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>617</v>
       </c>
@@ -12452,7 +12505,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>618</v>
       </c>
@@ -12464,7 +12517,7 @@
         <v>30605</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>619</v>
       </c>
@@ -12478,7 +12531,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>621</v>
       </c>
@@ -12492,7 +12545,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>622</v>
       </c>
@@ -12502,7 +12555,7 @@
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>624</v>
       </c>
@@ -12512,7 +12565,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>625</v>
       </c>
@@ -12526,7 +12579,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>514</v>
       </c>
@@ -12538,7 +12591,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>486</v>
       </c>
@@ -12550,7 +12603,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>1005</v>
       </c>
@@ -12562,7 +12615,7 @@
         <v>34596</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>999</v>
       </c>
@@ -12572,7 +12625,7 @@
       <c r="E35" s="21"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>451</v>
       </c>
@@ -12582,7 +12635,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="18"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>515</v>
       </c>
@@ -12592,7 +12645,7 @@
       <c r="E37" s="21"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>516</v>
       </c>
@@ -12602,7 +12655,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="18"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>517</v>
       </c>
@@ -12612,7 +12665,7 @@
       <c r="E39" s="21"/>
       <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>626</v>
       </c>
@@ -12626,7 +12679,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>983</v>
       </c>
@@ -12638,7 +12691,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>627</v>
       </c>
@@ -12652,7 +12705,7 @@
         <v>34197</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>1000</v>
       </c>
@@ -12662,7 +12715,7 @@
       <c r="E43" s="21"/>
       <c r="F43" s="22"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>518</v>
       </c>
@@ -12676,7 +12729,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>629</v>
       </c>
@@ -12690,7 +12743,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>519</v>
       </c>
@@ -12704,7 +12757,7 @@
         <v>37712</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>487</v>
       </c>
@@ -12716,7 +12769,7 @@
         <v>31199</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>1006</v>
       </c>
@@ -12730,7 +12783,7 @@
         <v>35411</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>631</v>
       </c>
@@ -12744,7 +12797,7 @@
         <v>38231</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>632</v>
       </c>
@@ -12754,7 +12807,7 @@
       <c r="E50" s="17"/>
       <c r="F50" s="18"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>488</v>
       </c>
@@ -12768,7 +12821,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>1007</v>
       </c>
@@ -12778,7 +12831,7 @@
       <c r="E52" s="17"/>
       <c r="F52" s="18"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>452</v>
       </c>
@@ -12792,7 +12845,7 @@
         <v>37970</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>984</v>
       </c>
@@ -12802,7 +12855,7 @@
       <c r="E54" s="17"/>
       <c r="F54" s="18"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>633</v>
       </c>
@@ -12812,7 +12865,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>520</v>
       </c>
@@ -12824,7 +12877,7 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>489</v>
       </c>
@@ -12838,7 +12891,7 @@
         <v>35207</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>1008</v>
       </c>
@@ -12850,7 +12903,7 @@
         <v>33483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>634</v>
       </c>
@@ -12864,7 +12917,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>985</v>
       </c>
@@ -12874,7 +12927,7 @@
       <c r="E60" s="17"/>
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>635</v>
       </c>
@@ -12886,7 +12939,7 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>636</v>
       </c>
@@ -12896,7 +12949,7 @@
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>1009</v>
       </c>
@@ -12906,7 +12959,7 @@
       <c r="E63" s="21"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>521</v>
       </c>
@@ -12916,7 +12969,7 @@
       <c r="E64" s="17"/>
       <c r="F64" s="18"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>637</v>
       </c>
@@ -12930,7 +12983,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>638</v>
       </c>
@@ -12940,7 +12993,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="18"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>490</v>
       </c>
@@ -12952,7 +13005,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>639</v>
       </c>
@@ -12966,7 +13019,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>640</v>
       </c>
@@ -12976,7 +13029,7 @@
       <c r="E69" s="21"/>
       <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>522</v>
       </c>
@@ -12988,7 +13041,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>641</v>
       </c>
@@ -13000,7 +13053,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>642</v>
       </c>
@@ -13014,7 +13067,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
         <v>644</v>
       </c>
@@ -13030,7 +13083,7 @@
         <v>38384</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>455</v>
       </c>
@@ -13040,7 +13093,7 @@
       <c r="E74" s="17"/>
       <c r="F74" s="18"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>523</v>
       </c>
@@ -13054,7 +13107,7 @@
         <v>36089</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>524</v>
       </c>
@@ -13064,7 +13117,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="18"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>647</v>
       </c>
@@ -13078,7 +13131,7 @@
         <v>35606</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>648</v>
       </c>
@@ -13088,7 +13141,7 @@
       <c r="E78" s="17"/>
       <c r="F78" s="18"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>491</v>
       </c>
@@ -13100,7 +13153,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>649</v>
       </c>
@@ -13110,7 +13163,7 @@
       <c r="E80" s="17"/>
       <c r="F80" s="18"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
         <v>525</v>
       </c>
@@ -13120,7 +13173,7 @@
       <c r="E81" s="21"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>492</v>
       </c>
@@ -13136,7 +13189,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
         <v>1001</v>
       </c>
@@ -13148,7 +13201,7 @@
         <v>36978</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>526</v>
       </c>
@@ -13160,7 +13213,7 @@
         <v>30242</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>651</v>
       </c>
@@ -13174,7 +13227,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>527</v>
       </c>
@@ -13188,7 +13241,7 @@
         <v>33580</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>652</v>
       </c>
@@ -13198,7 +13251,7 @@
       <c r="E87" s="21"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>653</v>
       </c>
@@ -13212,7 +13265,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>528</v>
       </c>
@@ -13222,7 +13275,7 @@
       <c r="E89" s="21"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>529</v>
       </c>
@@ -13232,7 +13285,7 @@
       <c r="E90" s="17"/>
       <c r="F90" s="18"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>986</v>
       </c>
@@ -13244,7 +13297,7 @@
       </c>
       <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>456</v>
       </c>
@@ -13254,7 +13307,7 @@
       <c r="E92" s="17"/>
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>530</v>
       </c>
@@ -13264,7 +13317,7 @@
       <c r="E93" s="21"/>
       <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>531</v>
       </c>
@@ -13274,7 +13327,7 @@
       <c r="E94" s="17"/>
       <c r="F94" s="18"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>654</v>
       </c>
@@ -13290,7 +13343,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>655</v>
       </c>
@@ -13304,7 +13357,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>656</v>
       </c>
@@ -13318,7 +13371,7 @@
         <v>35674</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>532</v>
       </c>
@@ -13328,7 +13381,7 @@
       <c r="E98" s="17"/>
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>493</v>
       </c>
@@ -13338,7 +13391,7 @@
       <c r="E99" s="21"/>
       <c r="F99" s="22"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>533</v>
       </c>
@@ -13348,7 +13401,7 @@
       <c r="E100" s="17"/>
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>1010</v>
       </c>
@@ -13358,7 +13411,7 @@
       <c r="E101" s="21"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>657</v>
       </c>
@@ -13370,7 +13423,7 @@
         <v>32356</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>534</v>
       </c>
@@ -13380,7 +13433,7 @@
       <c r="E103" s="21"/>
       <c r="F103" s="22"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>658</v>
       </c>
@@ -13392,7 +13445,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>535</v>
       </c>
@@ -13402,7 +13455,7 @@
       <c r="E105" s="21"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>536</v>
       </c>
@@ -13416,7 +13469,7 @@
         <v>35384</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
         <v>537</v>
       </c>
@@ -13426,7 +13479,7 @@
       <c r="E107" s="21"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>659</v>
       </c>
@@ -13440,7 +13493,7 @@
         <v>34778</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
         <v>1011</v>
       </c>
@@ -13450,7 +13503,7 @@
       <c r="E109" s="21"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>1012</v>
       </c>
@@ -13460,7 +13513,7 @@
       <c r="E110" s="17"/>
       <c r="F110" s="18"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
         <v>769</v>
       </c>
@@ -13474,7 +13527,7 @@
         <v>37827</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>538</v>
       </c>
@@ -13488,7 +13541,7 @@
         <v>36965</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
         <v>494</v>
       </c>
@@ -13500,7 +13553,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>660</v>
       </c>
@@ -13514,7 +13567,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
         <v>661</v>
       </c>
@@ -13524,7 +13577,7 @@
       <c r="E115" s="21"/>
       <c r="F115" s="22"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>662</v>
       </c>
@@ -13538,7 +13591,7 @@
         <v>35697</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>663</v>
       </c>
@@ -13552,7 +13605,7 @@
         <v>36362</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>664</v>
       </c>
@@ -13566,7 +13619,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>539</v>
       </c>
@@ -13580,7 +13633,7 @@
         <v>33086</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>987</v>
       </c>
@@ -13594,7 +13647,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
         <v>540</v>
       </c>
@@ -13604,7 +13657,7 @@
       <c r="E121" s="21"/>
       <c r="F121" s="22"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>541</v>
       </c>
@@ -13614,7 +13667,7 @@
       <c r="E122" s="17"/>
       <c r="F122" s="18"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
         <v>988</v>
       </c>
@@ -13628,7 +13681,7 @@
         <v>36832</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>666</v>
       </c>
@@ -13642,7 +13695,7 @@
         <v>36833</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
         <v>667</v>
       </c>
@@ -13652,7 +13705,7 @@
       <c r="E125" s="21"/>
       <c r="F125" s="22"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>495</v>
       </c>
@@ -13666,7 +13719,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>668</v>
       </c>
@@ -13676,7 +13729,7 @@
       <c r="E127" s="21"/>
       <c r="F127" s="22"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>542</v>
       </c>
@@ -13686,7 +13739,7 @@
       <c r="E128" s="17"/>
       <c r="F128" s="18"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>671</v>
       </c>
@@ -13696,7 +13749,7 @@
       <c r="E129" s="21"/>
       <c r="F129" s="22"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>672</v>
       </c>
@@ -13710,7 +13763,7 @@
         <v>34228</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>673</v>
       </c>
@@ -13724,7 +13777,7 @@
         <v>35697</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>674</v>
       </c>
@@ -13734,7 +13787,7 @@
       <c r="E132" s="17"/>
       <c r="F132" s="18"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
         <v>1002</v>
       </c>
@@ -13746,7 +13799,7 @@
         <v>32706</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
         <v>543</v>
       </c>
@@ -13756,7 +13809,7 @@
       <c r="E134" s="17"/>
       <c r="F134" s="18"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
         <v>544</v>
       </c>
@@ -13770,7 +13823,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>458</v>
       </c>
@@ -13780,7 +13833,7 @@
       <c r="E136" s="17"/>
       <c r="F136" s="18"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19" t="s">
         <v>545</v>
       </c>
@@ -13790,7 +13843,7 @@
       <c r="E137" s="21"/>
       <c r="F137" s="22"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
         <v>459</v>
       </c>
@@ -13800,7 +13853,7 @@
       <c r="E138" s="17"/>
       <c r="F138" s="18"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
         <v>546</v>
       </c>
@@ -13810,7 +13863,7 @@
       <c r="E139" s="21"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>675</v>
       </c>
@@ -13824,7 +13877,7 @@
         <v>38063</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="19" t="s">
         <v>547</v>
       </c>
@@ -13834,7 +13887,7 @@
       <c r="E141" s="21"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>676</v>
       </c>
@@ -13850,7 +13903,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>677</v>
       </c>
@@ -13864,7 +13917,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>548</v>
       </c>
@@ -13874,7 +13927,7 @@
       <c r="E144" s="17"/>
       <c r="F144" s="18"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>678</v>
       </c>
@@ -13886,7 +13939,7 @@
         <v>30560</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>679</v>
       </c>
@@ -13900,7 +13953,7 @@
         <v>35096</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="19" t="s">
         <v>549</v>
       </c>
@@ -13910,7 +13963,7 @@
       <c r="E147" s="21"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>680</v>
       </c>
@@ -13920,7 +13973,7 @@
       <c r="E148" s="17"/>
       <c r="F148" s="18"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="19" t="s">
         <v>681</v>
       </c>
@@ -13930,7 +13983,7 @@
       <c r="E149" s="21"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>682</v>
       </c>
@@ -13944,7 +13997,7 @@
         <v>34774</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
         <v>550</v>
       </c>
@@ -13958,7 +14011,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>683</v>
       </c>
@@ -13970,7 +14023,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="19" t="s">
         <v>464</v>
       </c>
@@ -13982,7 +14035,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>685</v>
       </c>
@@ -13994,7 +14047,7 @@
         <v>34619</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19" t="s">
         <v>461</v>
       </c>
@@ -14004,7 +14057,7 @@
       <c r="E155" s="21"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>442</v>
       </c>
@@ -14014,7 +14067,7 @@
       <c r="E156" s="17"/>
       <c r="F156" s="18"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="19" t="s">
         <v>551</v>
       </c>
@@ -14024,7 +14077,7 @@
       <c r="E157" s="21"/>
       <c r="F157" s="22"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>686</v>
       </c>
@@ -14038,7 +14091,7 @@
         <v>29602</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="19" t="s">
         <v>465</v>
       </c>
@@ -14050,7 +14103,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>1013</v>
       </c>
@@ -14060,7 +14113,7 @@
       <c r="E160" s="17"/>
       <c r="F160" s="18"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="19" t="s">
         <v>552</v>
       </c>
@@ -14070,7 +14123,7 @@
       <c r="E161" s="21"/>
       <c r="F161" s="22"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>596</v>
       </c>
@@ -14086,7 +14139,7 @@
         <v>34645</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="19" t="s">
         <v>989</v>
       </c>
@@ -14096,7 +14149,7 @@
       <c r="E163" s="21"/>
       <c r="F163" s="22"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
         <v>466</v>
       </c>
@@ -14106,7 +14159,7 @@
       <c r="E164" s="17"/>
       <c r="F164" s="18"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
         <v>553</v>
       </c>
@@ -14116,7 +14169,7 @@
       <c r="E165" s="21"/>
       <c r="F165" s="22"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>554</v>
       </c>
@@ -14126,7 +14179,7 @@
       <c r="E166" s="17"/>
       <c r="F166" s="18"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="19" t="s">
         <v>555</v>
       </c>
@@ -14136,7 +14189,7 @@
       <c r="E167" s="21"/>
       <c r="F167" s="22"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
         <v>689</v>
       </c>
@@ -14148,7 +14201,7 @@
         <v>32964</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="19" t="s">
         <v>990</v>
       </c>
@@ -14158,7 +14211,7 @@
       <c r="E169" s="21"/>
       <c r="F169" s="22"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>690</v>
       </c>
@@ -14168,7 +14221,7 @@
       <c r="E170" s="17"/>
       <c r="F170" s="18"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="19" t="s">
         <v>691</v>
       </c>
@@ -14178,7 +14231,7 @@
       <c r="E171" s="21"/>
       <c r="F171" s="22"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>692</v>
       </c>
@@ -14192,7 +14245,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="19" t="s">
         <v>693</v>
       </c>
@@ -14202,7 +14255,7 @@
       <c r="E173" s="21"/>
       <c r="F173" s="22"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>694</v>
       </c>
@@ -14212,7 +14265,7 @@
       <c r="E174" s="17"/>
       <c r="F174" s="18"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19" t="s">
         <v>695</v>
       </c>
@@ -14224,7 +14277,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>556</v>
       </c>
@@ -14234,7 +14287,7 @@
       <c r="E176" s="17"/>
       <c r="F176" s="18"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="19" t="s">
         <v>443</v>
       </c>
@@ -14244,7 +14297,7 @@
       <c r="E177" s="21"/>
       <c r="F177" s="22"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>696</v>
       </c>
@@ -14258,7 +14311,7 @@
         <v>34774</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="19" t="s">
         <v>557</v>
       </c>
@@ -14268,7 +14321,7 @@
       <c r="E179" s="21"/>
       <c r="F179" s="22"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>697</v>
       </c>
@@ -14278,7 +14331,7 @@
       <c r="E180" s="17"/>
       <c r="F180" s="18"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="19" t="s">
         <v>558</v>
       </c>
@@ -14292,7 +14345,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>698</v>
       </c>
@@ -14308,7 +14361,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19" t="s">
         <v>699</v>
       </c>
@@ -14322,7 +14375,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>559</v>
       </c>
@@ -14336,7 +14389,7 @@
         <v>35384</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
         <v>560</v>
       </c>
@@ -14346,7 +14399,7 @@
       <c r="E185" s="21"/>
       <c r="F185" s="22"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>700</v>
       </c>
@@ -14362,7 +14415,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="19" t="s">
         <v>701</v>
       </c>
@@ -14376,7 +14429,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>702</v>
       </c>
@@ -14386,7 +14439,7 @@
       <c r="E188" s="17"/>
       <c r="F188" s="18"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19" t="s">
         <v>703</v>
       </c>
@@ -14398,7 +14451,7 @@
         <v>32356</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>704</v>
       </c>
@@ -14410,7 +14463,7 @@
         <v>35248</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="19" t="s">
         <v>991</v>
       </c>
@@ -14420,7 +14473,7 @@
       <c r="E191" s="21"/>
       <c r="F191" s="22"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>992</v>
       </c>
@@ -14430,7 +14483,7 @@
       <c r="E192" s="17"/>
       <c r="F192" s="18"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="19" t="s">
         <v>1014</v>
       </c>
@@ -14442,7 +14495,7 @@
         <v>40210</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>993</v>
       </c>
@@ -14456,7 +14509,7 @@
         <v>32325</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="19" t="s">
         <v>705</v>
       </c>
@@ -14466,7 +14519,7 @@
       <c r="E195" s="21"/>
       <c r="F195" s="22"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>561</v>
       </c>
@@ -14476,7 +14529,7 @@
       <c r="E196" s="17"/>
       <c r="F196" s="18"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="19" t="s">
         <v>562</v>
       </c>
@@ -14486,7 +14539,7 @@
       <c r="E197" s="21"/>
       <c r="F197" s="22"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>563</v>
       </c>
@@ -14496,7 +14549,7 @@
       <c r="E198" s="17"/>
       <c r="F198" s="18"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="19" t="s">
         <v>564</v>
       </c>
@@ -14510,7 +14563,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>565</v>
       </c>
@@ -14520,7 +14573,7 @@
       <c r="E200" s="17"/>
       <c r="F200" s="18"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19" t="s">
         <v>566</v>
       </c>
@@ -14530,7 +14583,7 @@
       <c r="E201" s="21"/>
       <c r="F201" s="22"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
         <v>444</v>
       </c>
@@ -14540,7 +14593,7 @@
       <c r="E202" s="17"/>
       <c r="F202" s="18"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="19" t="s">
         <v>567</v>
       </c>
@@ -14554,7 +14607,7 @@
         <v>34513</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
         <v>467</v>
       </c>
@@ -14568,7 +14621,7 @@
         <v>34416</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="19" t="s">
         <v>708</v>
       </c>
@@ -14580,7 +14633,7 @@
         <v>31639</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>709</v>
       </c>
@@ -14594,7 +14647,7 @@
         <v>36965</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
         <v>710</v>
       </c>
@@ -14606,7 +14659,7 @@
         <v>36486</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>711</v>
       </c>
@@ -14622,7 +14675,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="19" t="s">
         <v>712</v>
       </c>
@@ -14634,7 +14687,7 @@
         <v>32433</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
         <v>568</v>
       </c>
@@ -14644,7 +14697,7 @@
       <c r="E210" s="17"/>
       <c r="F210" s="18"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
         <v>713</v>
       </c>
@@ -14654,7 +14707,7 @@
       <c r="E211" s="21"/>
       <c r="F211" s="22"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>1015</v>
       </c>
@@ -14664,7 +14717,7 @@
       <c r="E212" s="17"/>
       <c r="F212" s="18"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
         <v>714</v>
       </c>
@@ -14678,7 +14731,7 @@
         <v>36833</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>715</v>
       </c>
@@ -14688,7 +14741,7 @@
       <c r="E214" s="17"/>
       <c r="F214" s="18"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="19" t="s">
         <v>716</v>
       </c>
@@ -14698,7 +14751,7 @@
       <c r="E215" s="21"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>717</v>
       </c>
@@ -14712,7 +14765,7 @@
         <v>40467</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="19" t="s">
         <v>718</v>
       </c>
@@ -14726,7 +14779,7 @@
         <v>35207</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>719</v>
       </c>
@@ -14736,7 +14789,7 @@
       <c r="E218" s="17"/>
       <c r="F218" s="18"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="19" t="s">
         <v>994</v>
       </c>
@@ -14746,7 +14799,7 @@
       <c r="E219" s="21"/>
       <c r="F219" s="22"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>720</v>
       </c>
@@ -14756,7 +14809,7 @@
       <c r="E220" s="17"/>
       <c r="F220" s="18"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="19" t="s">
         <v>721</v>
       </c>
@@ -14766,7 +14819,7 @@
       <c r="E221" s="21"/>
       <c r="F221" s="22"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>722</v>
       </c>
@@ -14782,7 +14835,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="19" t="s">
         <v>468</v>
       </c>
@@ -14794,7 +14847,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>569</v>
       </c>
@@ -14804,7 +14857,7 @@
       <c r="E224" s="17"/>
       <c r="F224" s="18"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="19" t="s">
         <v>570</v>
       </c>
@@ -14814,7 +14867,7 @@
       <c r="E225" s="21"/>
       <c r="F225" s="22"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>469</v>
       </c>
@@ -14824,7 +14877,7 @@
       <c r="E226" s="17"/>
       <c r="F226" s="18"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="19" t="s">
         <v>571</v>
       </c>
@@ -14838,7 +14891,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
         <v>725</v>
       </c>
@@ -14852,7 +14905,7 @@
         <v>35241</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
         <v>470</v>
       </c>
@@ -14862,7 +14915,7 @@
       <c r="E229" s="21"/>
       <c r="F229" s="22"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>572</v>
       </c>
@@ -14872,7 +14925,7 @@
       <c r="E230" s="17"/>
       <c r="F230" s="18"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="19" t="s">
         <v>726</v>
       </c>
@@ -14882,7 +14935,7 @@
       <c r="E231" s="21"/>
       <c r="F231" s="22"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>727</v>
       </c>
@@ -14898,7 +14951,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="19" t="s">
         <v>573</v>
       </c>
@@ -14908,7 +14961,7 @@
       <c r="E233" s="21"/>
       <c r="F233" s="22"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
         <v>728</v>
       </c>
@@ -14922,7 +14975,7 @@
         <v>34641</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="19" t="s">
         <v>729</v>
       </c>
@@ -14936,7 +14989,7 @@
         <v>34641</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
         <v>730</v>
       </c>
@@ -14946,7 +14999,7 @@
       <c r="E236" s="17"/>
       <c r="F236" s="18"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="19" t="s">
         <v>574</v>
       </c>
@@ -14960,7 +15013,7 @@
         <v>36248</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
         <v>575</v>
       </c>
@@ -14970,7 +15023,7 @@
       <c r="E238" s="17"/>
       <c r="F238" s="18"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="19" t="s">
         <v>732</v>
       </c>
@@ -14980,7 +15033,7 @@
       <c r="E239" s="21"/>
       <c r="F239" s="22"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
         <v>471</v>
       </c>
@@ -14992,7 +15045,7 @@
         <v>34589</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="19" t="s">
         <v>576</v>
       </c>
@@ -15004,7 +15057,7 @@
         <v>34778</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
         <v>733</v>
       </c>
@@ -15018,7 +15071,7 @@
         <v>35957</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="19" t="s">
         <v>445</v>
       </c>
@@ -15034,7 +15087,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
         <v>577</v>
       </c>
@@ -15048,7 +15101,7 @@
         <v>40182</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="19" t="s">
         <v>734</v>
       </c>
@@ -15060,7 +15113,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>578</v>
       </c>
@@ -15072,7 +15125,7 @@
         <v>31625</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="19" t="s">
         <v>579</v>
       </c>
@@ -15082,7 +15135,7 @@
       <c r="E247" s="21"/>
       <c r="F247" s="22"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>995</v>
       </c>
@@ -15092,7 +15145,7 @@
       <c r="E248" s="17"/>
       <c r="F248" s="18"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="19" t="s">
         <v>580</v>
       </c>
@@ -15102,7 +15155,7 @@
       <c r="E249" s="21"/>
       <c r="F249" s="22"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>735</v>
       </c>
@@ -15112,7 +15165,7 @@
       <c r="E250" s="17"/>
       <c r="F250" s="18"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="19" t="s">
         <v>736</v>
       </c>
@@ -15126,7 +15179,7 @@
         <v>35609</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
         <v>472</v>
       </c>
@@ -15136,7 +15189,7 @@
       <c r="E252" s="17"/>
       <c r="F252" s="18"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="19" t="s">
         <v>737</v>
       </c>
@@ -15146,7 +15199,7 @@
       <c r="E253" s="21"/>
       <c r="F253" s="22"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>581</v>
       </c>
@@ -15156,7 +15209,7 @@
       <c r="E254" s="17"/>
       <c r="F254" s="18"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="19" t="s">
         <v>738</v>
       </c>
@@ -15170,7 +15223,7 @@
         <v>36965</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="15" t="s">
         <v>582</v>
       </c>
@@ -15184,7 +15237,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="19" t="s">
         <v>1016</v>
       </c>
@@ -15198,7 +15251,7 @@
         <v>33086</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="15" t="s">
         <v>1017</v>
       </c>
@@ -15208,7 +15261,7 @@
       <c r="E258" s="17"/>
       <c r="F258" s="18"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="19" t="s">
         <v>473</v>
       </c>
@@ -15222,7 +15275,7 @@
         <v>37928</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="s">
         <v>739</v>
       </c>
@@ -15236,7 +15289,7 @@
         <v>35385</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="19" t="s">
         <v>583</v>
       </c>
@@ -15246,7 +15299,7 @@
       <c r="E261" s="21"/>
       <c r="F261" s="22"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="15" t="s">
         <v>740</v>
       </c>
@@ -15260,7 +15313,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="19" t="s">
         <v>741</v>
       </c>
@@ -15270,7 +15323,7 @@
       <c r="E263" s="21"/>
       <c r="F263" s="22"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="15" t="s">
         <v>1018</v>
       </c>
@@ -15280,7 +15333,7 @@
       <c r="E264" s="17"/>
       <c r="F264" s="18"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="19" t="s">
         <v>742</v>
       </c>
@@ -15296,7 +15349,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="15" t="s">
         <v>996</v>
       </c>
@@ -15306,7 +15359,7 @@
       <c r="E266" s="17"/>
       <c r="F266" s="18"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="19" t="s">
         <v>743</v>
       </c>
@@ -15316,7 +15369,7 @@
       <c r="E267" s="21"/>
       <c r="F267" s="22"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="15" t="s">
         <v>1019</v>
       </c>
@@ -15330,7 +15383,7 @@
         <v>36815</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="19" t="s">
         <v>584</v>
       </c>
@@ -15340,7 +15393,7 @@
       <c r="E269" s="21"/>
       <c r="F269" s="22"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="15" t="s">
         <v>474</v>
       </c>
@@ -15354,7 +15407,7 @@
         <v>37811</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
         <v>585</v>
       </c>
@@ -15364,7 +15417,7 @@
       <c r="E271" s="21"/>
       <c r="F271" s="22"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>745</v>
       </c>
@@ -15378,7 +15431,7 @@
         <v>36965</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="19" t="s">
         <v>475</v>
       </c>
@@ -15390,7 +15443,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="15" t="s">
         <v>746</v>
       </c>
@@ -15400,7 +15453,7 @@
       <c r="E274" s="17"/>
       <c r="F274" s="18"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="19" t="s">
         <v>747</v>
       </c>
@@ -15410,7 +15463,7 @@
       <c r="E275" s="21"/>
       <c r="F275" s="22"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="15" t="s">
         <v>997</v>
       </c>
@@ -15426,7 +15479,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="19" t="s">
         <v>586</v>
       </c>
@@ -15436,7 +15489,7 @@
       <c r="E277" s="21"/>
       <c r="F277" s="22"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="15" t="s">
         <v>476</v>
       </c>
@@ -15448,7 +15501,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="19" t="s">
         <v>587</v>
       </c>
@@ -15458,7 +15511,7 @@
       <c r="E279" s="21"/>
       <c r="F279" s="22"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="15" t="s">
         <v>749</v>
       </c>
@@ -15468,7 +15521,7 @@
       <c r="E280" s="17"/>
       <c r="F280" s="18"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="19" t="s">
         <v>1020</v>
       </c>
@@ -15482,7 +15535,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="15" t="s">
         <v>477</v>
       </c>
@@ -15494,7 +15547,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="19" t="s">
         <v>750</v>
       </c>
@@ -15506,7 +15559,7 @@
         <v>32433</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="15" t="s">
         <v>751</v>
       </c>
@@ -15518,7 +15571,7 @@
         <v>29783</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="19" t="s">
         <v>588</v>
       </c>
@@ -15528,7 +15581,7 @@
       <c r="E285" s="21"/>
       <c r="F285" s="22"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="15" t="s">
         <v>478</v>
       </c>
@@ -15540,7 +15593,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="19" t="s">
         <v>752</v>
       </c>
@@ -15550,7 +15603,7 @@
       <c r="E287" s="21"/>
       <c r="F287" s="22"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="15" t="s">
         <v>754</v>
       </c>
@@ -15560,7 +15613,7 @@
       <c r="E288" s="17"/>
       <c r="F288" s="18"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="19" t="s">
         <v>446</v>
       </c>
@@ -15570,7 +15623,7 @@
       <c r="E289" s="21"/>
       <c r="F289" s="22"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="15" t="s">
         <v>589</v>
       </c>
@@ -15580,7 +15633,7 @@
       <c r="E290" s="17"/>
       <c r="F290" s="18"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="19" t="s">
         <v>1021</v>
       </c>
@@ -15590,7 +15643,7 @@
       <c r="E291" s="21"/>
       <c r="F291" s="22"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="15" t="s">
         <v>998</v>
       </c>
@@ -15600,7 +15653,7 @@
       <c r="E292" s="17"/>
       <c r="F292" s="18"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="19" t="s">
         <v>590</v>
       </c>
@@ -15610,7 +15663,7 @@
       <c r="E293" s="21"/>
       <c r="F293" s="22"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="15" t="s">
         <v>755</v>
       </c>
@@ -15620,7 +15673,7 @@
       <c r="E294" s="17"/>
       <c r="F294" s="18"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="19" t="s">
         <v>756</v>
       </c>
@@ -15632,7 +15685,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
         <v>591</v>
       </c>
@@ -15644,7 +15697,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="19" t="s">
         <v>757</v>
       </c>
@@ -15654,7 +15707,7 @@
       <c r="E297" s="21"/>
       <c r="F297" s="22"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="15" t="s">
         <v>758</v>
       </c>
@@ -15668,7 +15721,7 @@
         <v>35875</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="19" t="s">
         <v>1022</v>
       </c>
@@ -15682,7 +15735,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="15" t="s">
         <v>759</v>
       </c>
@@ -15692,7 +15745,7 @@
       <c r="E300" s="17"/>
       <c r="F300" s="18"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="19" t="s">
         <v>760</v>
       </c>
@@ -15702,7 +15755,7 @@
       <c r="E301" s="21"/>
       <c r="F301" s="22"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="15" t="s">
         <v>978</v>
       </c>
@@ -15712,7 +15765,7 @@
       <c r="E302" s="17"/>
       <c r="F302" s="18"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="19" t="s">
         <v>761</v>
       </c>
@@ -15722,7 +15775,7 @@
       <c r="E303" s="21"/>
       <c r="F303" s="22"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="15" t="s">
         <v>979</v>
       </c>
@@ -15734,7 +15787,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="19" t="s">
         <v>479</v>
       </c>
@@ -15748,7 +15801,7 @@
       </c>
       <c r="F305" s="22"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="15" t="s">
         <v>1023</v>
       </c>
@@ -15758,7 +15811,7 @@
       <c r="E306" s="17"/>
       <c r="F306" s="18"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="19" t="s">
         <v>762</v>
       </c>
@@ -15770,7 +15823,7 @@
         <v>39937</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="15" t="s">
         <v>592</v>
       </c>
@@ -15780,7 +15833,7 @@
       <c r="E308" s="17"/>
       <c r="F308" s="18"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="19" t="s">
         <v>763</v>
       </c>
@@ -15796,7 +15849,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="15" t="s">
         <v>593</v>
       </c>
@@ -15806,7 +15859,7 @@
       <c r="E310" s="17"/>
       <c r="F310" s="18"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="19" t="s">
         <v>1024</v>
       </c>
@@ -15820,7 +15873,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="15" t="s">
         <v>980</v>
       </c>
@@ -15832,7 +15885,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="19" t="s">
         <v>594</v>
       </c>
@@ -15842,7 +15895,7 @@
       <c r="E313" s="21"/>
       <c r="F313" s="22"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="15" t="s">
         <v>595</v>
       </c>
@@ -15852,7 +15905,7 @@
       <c r="E314" s="17"/>
       <c r="F314" s="18"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="19" t="s">
         <v>496</v>
       </c>
@@ -15862,7 +15915,7 @@
       <c r="E315" s="21"/>
       <c r="F315" s="22"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="15" t="s">
         <v>497</v>
       </c>
@@ -15872,7 +15925,7 @@
       <c r="E316" s="17"/>
       <c r="F316" s="18"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="19" t="s">
         <v>480</v>
       </c>
@@ -15882,7 +15935,7 @@
       <c r="E317" s="21"/>
       <c r="F317" s="22"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="15" t="s">
         <v>498</v>
       </c>
@@ -15896,7 +15949,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="19" t="s">
         <v>499</v>
       </c>
@@ -15906,7 +15959,7 @@
       <c r="E319" s="21"/>
       <c r="F319" s="22"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="15" t="s">
         <v>447</v>
       </c>
@@ -15916,7 +15969,7 @@
       <c r="E320" s="17"/>
       <c r="F320" s="18"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="19" t="s">
         <v>764</v>
       </c>
@@ -15930,7 +15983,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="15" t="s">
         <v>500</v>
       </c>
@@ -15940,7 +15993,7 @@
       <c r="E322" s="17"/>
       <c r="F322" s="18"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="19" t="s">
         <v>765</v>
       </c>
@@ -15954,7 +16007,7 @@
         <v>30165</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="15" t="s">
         <v>481</v>
       </c>
@@ -15964,7 +16017,7 @@
       <c r="E324" s="17"/>
       <c r="F324" s="18"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="19" t="s">
         <v>501</v>
       </c>
@@ -15974,7 +16027,7 @@
       <c r="E325" s="21"/>
       <c r="F325" s="22"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="15" t="s">
         <v>766</v>
       </c>
@@ -15986,7 +16039,7 @@
         <v>31376</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="19" t="s">
         <v>767</v>
       </c>
@@ -15996,7 +16049,7 @@
       <c r="E327" s="21"/>
       <c r="F327" s="22"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="15" t="s">
         <v>502</v>
       </c>
@@ -16006,7 +16059,7 @@
       <c r="E328" s="17"/>
       <c r="F328" s="18"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="19" t="s">
         <v>768</v>
       </c>
@@ -16016,7 +16069,7 @@
       <c r="E329" s="21"/>
       <c r="F329" s="22"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="15" t="s">
         <v>503</v>
       </c>
@@ -16026,7 +16079,7 @@
       <c r="E330" s="17"/>
       <c r="F330" s="18"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="19" t="s">
         <v>504</v>
       </c>
@@ -16036,7 +16089,7 @@
       <c r="E331" s="21"/>
       <c r="F331" s="22"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="15" t="s">
         <v>598</v>
       </c>
@@ -16048,7 +16101,7 @@
         <v>33483</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="19" t="s">
         <v>505</v>
       </c>
@@ -16062,7 +16115,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="15" t="s">
         <v>448</v>
       </c>
@@ -16072,7 +16125,7 @@
       <c r="E334" s="17"/>
       <c r="F334" s="18"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="19" t="s">
         <v>506</v>
       </c>
@@ -16084,7 +16137,7 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="15" t="s">
         <v>599</v>
       </c>
@@ -16096,7 +16149,7 @@
         <v>38504</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="19" t="s">
         <v>482</v>
       </c>
@@ -16108,7 +16161,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="15" t="s">
         <v>483</v>
       </c>
@@ -16120,7 +16173,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="19" t="s">
         <v>600</v>
       </c>
@@ -16136,7 +16189,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="15" t="s">
         <v>601</v>
       </c>
@@ -16146,7 +16199,7 @@
       <c r="E340" s="17"/>
       <c r="F340" s="18"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="19" t="s">
         <v>507</v>
       </c>
@@ -16160,7 +16213,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="15" t="s">
         <v>1003</v>
       </c>
@@ -16170,7 +16223,7 @@
       <c r="E342" s="17"/>
       <c r="F342" s="18"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="19" t="s">
         <v>614</v>
       </c>
@@ -16182,7 +16235,7 @@
       <c r="E343" s="21"/>
       <c r="F343" s="22"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="15" t="s">
         <v>616</v>
       </c>
@@ -16194,7 +16247,7 @@
       <c r="E344" s="17"/>
       <c r="F344" s="18"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="19" t="s">
         <v>620</v>
       </c>
@@ -16206,7 +16259,7 @@
       <c r="E345" s="21"/>
       <c r="F345" s="22"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="15" t="s">
         <v>623</v>
       </c>
@@ -16218,7 +16271,7 @@
       <c r="E346" s="17"/>
       <c r="F346" s="18"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="19" t="s">
         <v>628</v>
       </c>
@@ -16230,7 +16283,7 @@
       <c r="E347" s="21"/>
       <c r="F347" s="22"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="15" t="s">
         <v>630</v>
       </c>
@@ -16246,7 +16299,7 @@
         <v>35217</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="19" t="s">
         <v>453</v>
       </c>
@@ -16258,7 +16311,7 @@
       <c r="E349" s="21"/>
       <c r="F349" s="22"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="15" t="s">
         <v>454</v>
       </c>
@@ -16270,14 +16323,12 @@
       <c r="E350" s="17"/>
       <c r="F350" s="18"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="19" t="s">
         <v>643</v>
       </c>
       <c r="B351" s="20"/>
-      <c r="C351" s="20" t="s">
-        <v>441</v>
-      </c>
+      <c r="C351" s="20"/>
       <c r="D351" s="21" t="s">
         <v>1051</v>
       </c>
@@ -16286,7 +16337,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="15" t="s">
         <v>645</v>
       </c>
@@ -16298,7 +16349,7 @@
       <c r="E352" s="17"/>
       <c r="F352" s="18"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="19" t="s">
         <v>646</v>
       </c>
@@ -16310,7 +16361,7 @@
       <c r="E353" s="21"/>
       <c r="F353" s="22"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="15" t="s">
         <v>650</v>
       </c>
@@ -16322,7 +16373,7 @@
       <c r="E354" s="17"/>
       <c r="F354" s="18"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="19" t="s">
         <v>1026</v>
       </c>
@@ -16334,7 +16385,7 @@
       <c r="E355" s="21"/>
       <c r="F355" s="22"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="15" t="s">
         <v>457</v>
       </c>
@@ -16346,7 +16397,7 @@
       <c r="E356" s="17"/>
       <c r="F356" s="18"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="19" t="s">
         <v>463</v>
       </c>
@@ -16358,7 +16409,7 @@
       <c r="E357" s="21"/>
       <c r="F357" s="22"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="15" t="s">
         <v>1028</v>
       </c>
@@ -16370,7 +16421,7 @@
       <c r="E358" s="17"/>
       <c r="F358" s="18"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="19" t="s">
         <v>665</v>
       </c>
@@ -16382,19 +16433,17 @@
       <c r="E359" s="21"/>
       <c r="F359" s="22"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="15" t="s">
         <v>669</v>
       </c>
       <c r="B360" s="16"/>
-      <c r="C360" s="16" t="s">
-        <v>441</v>
-      </c>
+      <c r="C360" s="16"/>
       <c r="D360" s="17"/>
       <c r="E360" s="17"/>
       <c r="F360" s="18"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="19" t="s">
         <v>670</v>
       </c>
@@ -16408,7 +16457,7 @@
         <v>36815</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="15" t="s">
         <v>460</v>
       </c>
@@ -16424,14 +16473,12 @@
         <v>35207</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="19" t="s">
         <v>684</v>
       </c>
       <c r="B363" s="20"/>
-      <c r="C363" s="20" t="s">
-        <v>441</v>
-      </c>
+      <c r="C363" s="20"/>
       <c r="D363" s="21" t="s">
         <v>1048</v>
       </c>
@@ -16440,7 +16487,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="15" t="s">
         <v>687</v>
       </c>
@@ -16454,7 +16501,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="19" t="s">
         <v>688</v>
       </c>
@@ -16466,7 +16513,7 @@
       <c r="E365" s="21"/>
       <c r="F365" s="22"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="15" t="s">
         <v>706</v>
       </c>
@@ -16478,7 +16525,7 @@
       <c r="E366" s="17"/>
       <c r="F366" s="18"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="19" t="s">
         <v>707</v>
       </c>
@@ -16490,7 +16537,7 @@
       <c r="E367" s="21"/>
       <c r="F367" s="22"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="15" t="s">
         <v>723</v>
       </c>
@@ -16502,7 +16549,7 @@
       <c r="E368" s="17"/>
       <c r="F368" s="18"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="19" t="s">
         <v>1029</v>
       </c>
@@ -16514,7 +16561,7 @@
       <c r="E369" s="21"/>
       <c r="F369" s="22"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="15" t="s">
         <v>724</v>
       </c>
@@ -16530,7 +16577,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="19" t="s">
         <v>731</v>
       </c>
@@ -16542,7 +16589,7 @@
       <c r="E371" s="21"/>
       <c r="F371" s="22"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="15" t="s">
         <v>744</v>
       </c>
@@ -16554,7 +16601,7 @@
       <c r="E372" s="17"/>
       <c r="F372" s="18"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="19" t="s">
         <v>748</v>
       </c>
@@ -16566,7 +16613,7 @@
       <c r="E373" s="21"/>
       <c r="F373" s="22"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="15" t="s">
         <v>753</v>
       </c>
@@ -16578,7 +16625,7 @@
       <c r="E374" s="17"/>
       <c r="F374" s="18"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="19" t="s">
         <v>1025</v>
       </c>
@@ -16590,7 +16637,7 @@
       <c r="E375" s="21"/>
       <c r="F375" s="22"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="15" t="s">
         <v>597</v>
       </c>
@@ -16602,7 +16649,7 @@
       <c r="E376" s="17"/>
       <c r="F376" s="18"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="19" t="s">
         <v>449</v>
       </c>
@@ -16614,7 +16661,7 @@
       <c r="E377" s="21"/>
       <c r="F377" s="22"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="15" t="s">
         <v>602</v>
       </c>
@@ -16626,7 +16673,7 @@
       <c r="E378" s="17"/>
       <c r="F378" s="18"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="19" t="s">
         <v>603</v>
       </c>
@@ -16638,7 +16685,7 @@
       <c r="E379" s="21"/>
       <c r="F379" s="22"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="15" t="s">
         <v>604</v>
       </c>
@@ -16654,7 +16701,7 @@
         <v>32003</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="11"/>
       <c r="B381" s="23"/>
       <c r="C381" s="23"/>
@@ -16666,25 +16713,26 @@
   <protectedRanges>
     <protectedRange sqref="D2:K381" name="Range1"/>
   </protectedRanges>
-  <autoFilter ref="A1:F380"/>
+  <autoFilter ref="A1:F380" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="GATPANDAN, DOLORES"/>
+        <filter val="GATPANDAN, NENITA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" filter="1" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="E384" sqref="E384"/>
+    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" showAutoFilter="1">
+      <selection activeCell="F4" sqref="F4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="A1:F380">
-        <filterColumn colId="0">
-          <filters>
-            <filter val="ESTRANGCO, MERCY"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="A1:F380" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
     </customSheetView>
     <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" showAutoFilter="1" hiddenColumns="1">
       <selection activeCell="D381" sqref="D381"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-      <autoFilter ref="A1:F380"/>
+      <autoFilter ref="A1:F380" xr:uid="{3F7F52B5-7E52-41F6-9F83-DF8141451C70}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A2:C381">

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{62FC1DA2-1368-484A-B39B-2398A442041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{FB4F4FA1-470F-44D2-A187-31EEF54C6898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="DOLE - Personal View" guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
     <customWorkbookView name="ASUS - Personal View" guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="DOLE - Personal View" guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5486,7 +5486,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -5755,8 +5755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="I9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12073,12 +12073,12 @@
     <protectedRange sqref="E4:E398" name="Range1"/>
   </protectedRanges>
   <customSheetViews>
-    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" showPageBreaks="1" hiddenColumns="1">
+    <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" hiddenColumns="1">
       <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
       <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" hiddenColumns="1">
+    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" showPageBreaks="1" hiddenColumns="1">
       <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
       <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
@@ -12100,11 +12100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D387" sqref="D387"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12147,7 +12146,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>508</v>
       </c>
@@ -12169,7 +12168,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>981</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>484</v>
       </c>
@@ -12205,7 +12204,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>509</v>
       </c>
@@ -12221,7 +12220,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>605</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>606</v>
       </c>
@@ -12261,7 +12260,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>510</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>511</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>607</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>462</v>
       </c>
@@ -12329,7 +12328,7 @@
         <v>35591</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>608</v>
       </c>
@@ -12349,7 +12348,7 @@
         <v>31837</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>1004</v>
       </c>
@@ -12367,7 +12366,7 @@
         <v>35384</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>512</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>34774</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>485</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>33695</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>513</v>
       </c>
@@ -12405,7 +12404,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>982</v>
       </c>
@@ -12415,7 +12414,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>609</v>
       </c>
@@ -12425,7 +12424,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>610</v>
       </c>
@@ -12435,7 +12434,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="22"/>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>611</v>
       </c>
@@ -12447,7 +12446,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>450</v>
       </c>
@@ -12457,7 +12456,7 @@
       <c r="E21" s="21"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>612</v>
       </c>
@@ -12467,7 +12466,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>613</v>
       </c>
@@ -12481,7 +12480,7 @@
         <v>30118</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>615</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>617</v>
       </c>
@@ -12505,7 +12504,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>618</v>
       </c>
@@ -12517,7 +12516,7 @@
         <v>30605</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>619</v>
       </c>
@@ -12531,7 +12530,7 @@
         <v>35584</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>621</v>
       </c>
@@ -12545,7 +12544,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>622</v>
       </c>
@@ -12555,7 +12554,7 @@
       <c r="E29" s="21"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>624</v>
       </c>
@@ -12565,7 +12564,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>625</v>
       </c>
@@ -12579,7 +12578,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>514</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>486</v>
       </c>
@@ -12603,7 +12602,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>1005</v>
       </c>
@@ -12615,7 +12614,7 @@
         <v>34596</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>999</v>
       </c>
@@ -12625,7 +12624,7 @@
       <c r="E35" s="21"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>451</v>
       </c>
@@ -12635,7 +12634,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="18"/>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>515</v>
       </c>
@@ -12645,7 +12644,7 @@
       <c r="E37" s="21"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>516</v>
       </c>
@@ -12655,7 +12654,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="18"/>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>517</v>
       </c>
@@ -12665,7 +12664,7 @@
       <c r="E39" s="21"/>
       <c r="F39" s="22"/>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>626</v>
       </c>
@@ -12679,7 +12678,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>983</v>
       </c>
@@ -12691,7 +12690,7 @@
         <v>44820</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>627</v>
       </c>
@@ -12705,7 +12704,7 @@
         <v>34197</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>1000</v>
       </c>
@@ -12715,7 +12714,7 @@
       <c r="E43" s="21"/>
       <c r="F43" s="22"/>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>518</v>
       </c>
@@ -12729,7 +12728,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>629</v>
       </c>
@@ -12743,7 +12742,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>519</v>
       </c>
@@ -12757,7 +12756,7 @@
         <v>37712</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>487</v>
       </c>
@@ -12769,7 +12768,7 @@
         <v>31199</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>1006</v>
       </c>
@@ -12783,7 +12782,7 @@
         <v>35411</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>631</v>
       </c>
@@ -12797,7 +12796,7 @@
         <v>38231</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>632</v>
       </c>
@@ -12807,7 +12806,7 @@
       <c r="E50" s="17"/>
       <c r="F50" s="18"/>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>488</v>
       </c>
@@ -12821,7 +12820,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>1007</v>
       </c>
@@ -12831,7 +12830,7 @@
       <c r="E52" s="17"/>
       <c r="F52" s="18"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>452</v>
       </c>
@@ -12845,7 +12844,7 @@
         <v>37970</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>984</v>
       </c>
@@ -12855,7 +12854,7 @@
       <c r="E54" s="17"/>
       <c r="F54" s="18"/>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>633</v>
       </c>
@@ -12865,7 +12864,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="22"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>520</v>
       </c>
@@ -12877,7 +12876,7 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>489</v>
       </c>
@@ -12891,7 +12890,7 @@
         <v>35207</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>1008</v>
       </c>
@@ -12903,7 +12902,7 @@
         <v>33483</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>634</v>
       </c>
@@ -12917,7 +12916,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>985</v>
       </c>
@@ -12927,7 +12926,7 @@
       <c r="E60" s="17"/>
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>635</v>
       </c>
@@ -12939,7 +12938,7 @@
         <v>34662</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>636</v>
       </c>
@@ -12949,7 +12948,7 @@
       <c r="E62" s="17"/>
       <c r="F62" s="18"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>1009</v>
       </c>
@@ -12959,7 +12958,7 @@
       <c r="E63" s="21"/>
       <c r="F63" s="22"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>521</v>
       </c>
@@ -12969,7 +12968,7 @@
       <c r="E64" s="17"/>
       <c r="F64" s="18"/>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>637</v>
       </c>
@@ -12983,7 +12982,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>638</v>
       </c>
@@ -12993,7 +12992,7 @@
       <c r="E66" s="17"/>
       <c r="F66" s="18"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>490</v>
       </c>
@@ -13005,7 +13004,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>639</v>
       </c>
@@ -13019,7 +13018,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>640</v>
       </c>
@@ -13029,7 +13028,7 @@
       <c r="E69" s="21"/>
       <c r="F69" s="22"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>522</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>641</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>642</v>
       </c>
@@ -13067,7 +13066,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
         <v>644</v>
       </c>
@@ -13083,7 +13082,7 @@
         <v>38384</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>455</v>
       </c>
@@ -13093,7 +13092,7 @@
       <c r="E74" s="17"/>
       <c r="F74" s="18"/>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>523</v>
       </c>
@@ -13107,7 +13106,7 @@
         <v>36089</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>524</v>
       </c>
@@ -13117,7 +13116,7 @@
       <c r="E76" s="17"/>
       <c r="F76" s="18"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>647</v>
       </c>
@@ -13131,7 +13130,7 @@
         <v>35606</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>648</v>
       </c>
@@ -13141,7 +13140,7 @@
       <c r="E78" s="17"/>
       <c r="F78" s="18"/>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>491</v>
       </c>
@@ -13153,7 +13152,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>649</v>
       </c>
@@ -13163,7 +13162,7 @@
       <c r="E80" s="17"/>
       <c r="F80" s="18"/>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
         <v>525</v>
       </c>
@@ -13173,7 +13172,7 @@
       <c r="E81" s="21"/>
       <c r="F81" s="22"/>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
         <v>492</v>
       </c>
@@ -13189,7 +13188,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
         <v>1001</v>
       </c>
@@ -13201,7 +13200,7 @@
         <v>36978</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>526</v>
       </c>
@@ -13213,7 +13212,7 @@
         <v>30242</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>651</v>
       </c>
@@ -13227,7 +13226,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>527</v>
       </c>
@@ -13241,7 +13240,7 @@
         <v>33580</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
         <v>652</v>
       </c>
@@ -13251,7 +13250,7 @@
       <c r="E87" s="21"/>
       <c r="F87" s="22"/>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>653</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
         <v>528</v>
       </c>
@@ -13275,7 +13274,7 @@
       <c r="E89" s="21"/>
       <c r="F89" s="22"/>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
         <v>529</v>
       </c>
@@ -13285,7 +13284,7 @@
       <c r="E90" s="17"/>
       <c r="F90" s="18"/>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
         <v>986</v>
       </c>
@@ -13297,7 +13296,7 @@
       </c>
       <c r="F91" s="22"/>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>456</v>
       </c>
@@ -13307,7 +13306,7 @@
       <c r="E92" s="17"/>
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>530</v>
       </c>
@@ -13317,7 +13316,7 @@
       <c r="E93" s="21"/>
       <c r="F93" s="22"/>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>531</v>
       </c>
@@ -13327,7 +13326,7 @@
       <c r="E94" s="17"/>
       <c r="F94" s="18"/>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>654</v>
       </c>
@@ -13343,7 +13342,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>655</v>
       </c>
@@ -13357,7 +13356,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
         <v>656</v>
       </c>
@@ -13371,7 +13370,7 @@
         <v>35674</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>532</v>
       </c>
@@ -13381,7 +13380,7 @@
       <c r="E98" s="17"/>
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>493</v>
       </c>
@@ -13391,7 +13390,7 @@
       <c r="E99" s="21"/>
       <c r="F99" s="22"/>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>533</v>
       </c>
@@ -13401,7 +13400,7 @@
       <c r="E100" s="17"/>
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
         <v>1010</v>
       </c>
@@ -13411,7 +13410,7 @@
       <c r="E101" s="21"/>
       <c r="F101" s="22"/>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
         <v>657</v>
       </c>
@@ -13423,7 +13422,7 @@
         <v>32356</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
         <v>534</v>
       </c>
@@ -13433,7 +13432,7 @@
       <c r="E103" s="21"/>
       <c r="F103" s="22"/>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
         <v>658</v>
       </c>
@@ -13445,7 +13444,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
         <v>535</v>
       </c>
@@ -13455,7 +13454,7 @@
       <c r="E105" s="21"/>
       <c r="F105" s="22"/>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
         <v>536</v>
       </c>
@@ -13469,7 +13468,7 @@
         <v>35384</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
         <v>537</v>
       </c>
@@ -13479,7 +13478,7 @@
       <c r="E107" s="21"/>
       <c r="F107" s="22"/>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
         <v>659</v>
       </c>
@@ -13493,7 +13492,7 @@
         <v>34778</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
         <v>1011</v>
       </c>
@@ -13503,7 +13502,7 @@
       <c r="E109" s="21"/>
       <c r="F109" s="22"/>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
         <v>1012</v>
       </c>
@@ -13513,7 +13512,7 @@
       <c r="E110" s="17"/>
       <c r="F110" s="18"/>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
         <v>769</v>
       </c>
@@ -13527,7 +13526,7 @@
         <v>37827</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
         <v>538</v>
       </c>
@@ -13541,7 +13540,7 @@
         <v>36965</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
         <v>494</v>
       </c>
@@ -13553,7 +13552,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
         <v>660</v>
       </c>
@@ -13567,7 +13566,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
         <v>661</v>
       </c>
@@ -13577,7 +13576,7 @@
       <c r="E115" s="21"/>
       <c r="F115" s="22"/>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
         <v>662</v>
       </c>
@@ -13591,7 +13590,7 @@
         <v>35697</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
         <v>663</v>
       </c>
@@ -13605,7 +13604,7 @@
         <v>36362</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
         <v>664</v>
       </c>
@@ -13619,7 +13618,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>539</v>
       </c>
@@ -13633,7 +13632,7 @@
         <v>33086</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
         <v>987</v>
       </c>
@@ -13647,7 +13646,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
         <v>540</v>
       </c>
@@ -13657,7 +13656,7 @@
       <c r="E121" s="21"/>
       <c r="F121" s="22"/>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="15" t="s">
         <v>541</v>
       </c>
@@ -13667,7 +13666,7 @@
       <c r="E122" s="17"/>
       <c r="F122" s="18"/>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
         <v>988</v>
       </c>
@@ -13681,7 +13680,7 @@
         <v>36832</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="15" t="s">
         <v>666</v>
       </c>
@@ -13695,7 +13694,7 @@
         <v>36833</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
         <v>667</v>
       </c>
@@ -13705,7 +13704,7 @@
       <c r="E125" s="21"/>
       <c r="F125" s="22"/>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="15" t="s">
         <v>495</v>
       </c>
@@ -13719,7 +13718,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>668</v>
       </c>
@@ -13729,7 +13728,7 @@
       <c r="E127" s="21"/>
       <c r="F127" s="22"/>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="15" t="s">
         <v>542</v>
       </c>
@@ -13739,7 +13738,7 @@
       <c r="E128" s="17"/>
       <c r="F128" s="18"/>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
         <v>671</v>
       </c>
@@ -13749,7 +13748,7 @@
       <c r="E129" s="21"/>
       <c r="F129" s="22"/>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="15" t="s">
         <v>672</v>
       </c>
@@ -13763,7 +13762,7 @@
         <v>34228</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
         <v>673</v>
       </c>
@@ -13777,7 +13776,7 @@
         <v>35697</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="s">
         <v>674</v>
       </c>
@@ -13787,7 +13786,7 @@
       <c r="E132" s="17"/>
       <c r="F132" s="18"/>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
         <v>1002</v>
       </c>
@@ -13799,7 +13798,7 @@
         <v>32706</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="15" t="s">
         <v>543</v>
       </c>
@@ -13809,7 +13808,7 @@
       <c r="E134" s="17"/>
       <c r="F134" s="18"/>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
         <v>544</v>
       </c>
@@ -13823,7 +13822,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="s">
         <v>458</v>
       </c>
@@ -13833,7 +13832,7 @@
       <c r="E136" s="17"/>
       <c r="F136" s="18"/>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="19" t="s">
         <v>545</v>
       </c>
@@ -13843,7 +13842,7 @@
       <c r="E137" s="21"/>
       <c r="F137" s="22"/>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="s">
         <v>459</v>
       </c>
@@ -13853,7 +13852,7 @@
       <c r="E138" s="17"/>
       <c r="F138" s="18"/>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
         <v>546</v>
       </c>
@@ -13863,7 +13862,7 @@
       <c r="E139" s="21"/>
       <c r="F139" s="22"/>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="15" t="s">
         <v>675</v>
       </c>
@@ -13877,7 +13876,7 @@
         <v>38063</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="19" t="s">
         <v>547</v>
       </c>
@@ -13887,7 +13886,7 @@
       <c r="E141" s="21"/>
       <c r="F141" s="22"/>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="15" t="s">
         <v>676</v>
       </c>
@@ -13903,7 +13902,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
         <v>677</v>
       </c>
@@ -13917,7 +13916,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>548</v>
       </c>
@@ -13927,7 +13926,7 @@
       <c r="E144" s="17"/>
       <c r="F144" s="18"/>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
         <v>678</v>
       </c>
@@ -13939,7 +13938,7 @@
         <v>30560</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="15" t="s">
         <v>679</v>
       </c>
@@ -13953,7 +13952,7 @@
         <v>35096</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="19" t="s">
         <v>549</v>
       </c>
@@ -13963,7 +13962,7 @@
       <c r="E147" s="21"/>
       <c r="F147" s="22"/>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="15" t="s">
         <v>680</v>
       </c>
@@ -13973,7 +13972,7 @@
       <c r="E148" s="17"/>
       <c r="F148" s="18"/>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="19" t="s">
         <v>681</v>
       </c>
@@ -13983,7 +13982,7 @@
       <c r="E149" s="21"/>
       <c r="F149" s="22"/>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="s">
         <v>682</v>
       </c>
@@ -13997,7 +13996,7 @@
         <v>34774</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
         <v>550</v>
       </c>
@@ -14011,7 +14010,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="s">
         <v>683</v>
       </c>
@@ -14035,7 +14034,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="s">
         <v>685</v>
       </c>
@@ -14047,7 +14046,7 @@
         <v>34619</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="19" t="s">
         <v>461</v>
       </c>
@@ -14057,7 +14056,7 @@
       <c r="E155" s="21"/>
       <c r="F155" s="22"/>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="s">
         <v>442</v>
       </c>
@@ -14067,7 +14066,7 @@
       <c r="E156" s="17"/>
       <c r="F156" s="18"/>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="19" t="s">
         <v>551</v>
       </c>
@@ -14077,7 +14076,7 @@
       <c r="E157" s="21"/>
       <c r="F157" s="22"/>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="s">
         <v>686</v>
       </c>
@@ -14091,7 +14090,7 @@
         <v>29602</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="19" t="s">
         <v>465</v>
       </c>
@@ -14103,7 +14102,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="15" t="s">
         <v>1013</v>
       </c>
@@ -14113,7 +14112,7 @@
       <c r="E160" s="17"/>
       <c r="F160" s="18"/>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="19" t="s">
         <v>552</v>
       </c>
@@ -14123,7 +14122,7 @@
       <c r="E161" s="21"/>
       <c r="F161" s="22"/>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="15" t="s">
         <v>596</v>
       </c>
@@ -14139,7 +14138,7 @@
         <v>34645</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="19" t="s">
         <v>989</v>
       </c>
@@ -14149,7 +14148,7 @@
       <c r="E163" s="21"/>
       <c r="F163" s="22"/>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="s">
         <v>466</v>
       </c>
@@ -14159,7 +14158,7 @@
       <c r="E164" s="17"/>
       <c r="F164" s="18"/>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
         <v>553</v>
       </c>
@@ -14169,7 +14168,7 @@
       <c r="E165" s="21"/>
       <c r="F165" s="22"/>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="15" t="s">
         <v>554</v>
       </c>
@@ -14179,7 +14178,7 @@
       <c r="E166" s="17"/>
       <c r="F166" s="18"/>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="19" t="s">
         <v>555</v>
       </c>
@@ -14189,7 +14188,7 @@
       <c r="E167" s="21"/>
       <c r="F167" s="22"/>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="15" t="s">
         <v>689</v>
       </c>
@@ -14201,7 +14200,7 @@
         <v>32964</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="19" t="s">
         <v>990</v>
       </c>
@@ -14211,7 +14210,7 @@
       <c r="E169" s="21"/>
       <c r="F169" s="22"/>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="s">
         <v>690</v>
       </c>
@@ -14221,7 +14220,7 @@
       <c r="E170" s="17"/>
       <c r="F170" s="18"/>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="19" t="s">
         <v>691</v>
       </c>
@@ -14231,7 +14230,7 @@
       <c r="E171" s="21"/>
       <c r="F171" s="22"/>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="15" t="s">
         <v>692</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>35807</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="19" t="s">
         <v>693</v>
       </c>
@@ -14255,7 +14254,7 @@
       <c r="E173" s="21"/>
       <c r="F173" s="22"/>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="15" t="s">
         <v>694</v>
       </c>
@@ -14265,7 +14264,7 @@
       <c r="E174" s="17"/>
       <c r="F174" s="18"/>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="19" t="s">
         <v>695</v>
       </c>
@@ -14277,7 +14276,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>556</v>
       </c>
@@ -14287,7 +14286,7 @@
       <c r="E176" s="17"/>
       <c r="F176" s="18"/>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="19" t="s">
         <v>443</v>
       </c>
@@ -14297,7 +14296,7 @@
       <c r="E177" s="21"/>
       <c r="F177" s="22"/>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>696</v>
       </c>
@@ -14311,7 +14310,7 @@
         <v>34774</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="19" t="s">
         <v>557</v>
       </c>
@@ -14321,7 +14320,7 @@
       <c r="E179" s="21"/>
       <c r="F179" s="22"/>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>697</v>
       </c>
@@ -14331,7 +14330,7 @@
       <c r="E180" s="17"/>
       <c r="F180" s="18"/>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="19" t="s">
         <v>558</v>
       </c>
@@ -14345,7 +14344,7 @@
         <v>36069</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>698</v>
       </c>
@@ -14361,7 +14360,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="19" t="s">
         <v>699</v>
       </c>
@@ -14375,7 +14374,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="15" t="s">
         <v>559</v>
       </c>
@@ -14389,7 +14388,7 @@
         <v>35384</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
         <v>560</v>
       </c>
@@ -14399,7 +14398,7 @@
       <c r="E185" s="21"/>
       <c r="F185" s="22"/>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="s">
         <v>700</v>
       </c>
@@ -14415,7 +14414,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="19" t="s">
         <v>701</v>
       </c>
@@ -14429,7 +14428,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="15" t="s">
         <v>702</v>
       </c>
@@ -14439,7 +14438,7 @@
       <c r="E188" s="17"/>
       <c r="F188" s="18"/>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="19" t="s">
         <v>703</v>
       </c>
@@ -14451,7 +14450,7 @@
         <v>32356</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="15" t="s">
         <v>704</v>
       </c>
@@ -14463,7 +14462,7 @@
         <v>35248</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="19" t="s">
         <v>991</v>
       </c>
@@ -14473,7 +14472,7 @@
       <c r="E191" s="21"/>
       <c r="F191" s="22"/>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="s">
         <v>992</v>
       </c>
@@ -14483,7 +14482,7 @@
       <c r="E192" s="17"/>
       <c r="F192" s="18"/>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="19" t="s">
         <v>1014</v>
       </c>
@@ -14495,7 +14494,7 @@
         <v>40210</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>993</v>
       </c>
@@ -14509,7 +14508,7 @@
         <v>32325</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="19" t="s">
         <v>705</v>
       </c>
@@ -14519,7 +14518,7 @@
       <c r="E195" s="21"/>
       <c r="F195" s="22"/>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="15" t="s">
         <v>561</v>
       </c>
@@ -14529,7 +14528,7 @@
       <c r="E196" s="17"/>
       <c r="F196" s="18"/>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="19" t="s">
         <v>562</v>
       </c>
@@ -14539,7 +14538,7 @@
       <c r="E197" s="21"/>
       <c r="F197" s="22"/>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="15" t="s">
         <v>563</v>
       </c>
@@ -14549,7 +14548,7 @@
       <c r="E198" s="17"/>
       <c r="F198" s="18"/>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="19" t="s">
         <v>564</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="15" t="s">
         <v>565</v>
       </c>
@@ -14573,7 +14572,7 @@
       <c r="E200" s="17"/>
       <c r="F200" s="18"/>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="19" t="s">
         <v>566</v>
       </c>
@@ -14583,7 +14582,7 @@
       <c r="E201" s="21"/>
       <c r="F201" s="22"/>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="15" t="s">
         <v>444</v>
       </c>
@@ -14593,7 +14592,7 @@
       <c r="E202" s="17"/>
       <c r="F202" s="18"/>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="19" t="s">
         <v>567</v>
       </c>
@@ -14607,7 +14606,7 @@
         <v>34513</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="15" t="s">
         <v>467</v>
       </c>
@@ -14621,7 +14620,7 @@
         <v>34416</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="19" t="s">
         <v>708</v>
       </c>
@@ -14633,7 +14632,7 @@
         <v>31639</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>709</v>
       </c>
@@ -14647,7 +14646,7 @@
         <v>36965</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
         <v>710</v>
       </c>
@@ -14659,7 +14658,7 @@
         <v>36486</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="s">
         <v>711</v>
       </c>
@@ -14675,7 +14674,7 @@
         <v>35870</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="19" t="s">
         <v>712</v>
       </c>
@@ -14687,7 +14686,7 @@
         <v>32433</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="15" t="s">
         <v>568</v>
       </c>
@@ -14697,7 +14696,7 @@
       <c r="E210" s="17"/>
       <c r="F210" s="18"/>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
         <v>713</v>
       </c>
@@ -14707,7 +14706,7 @@
       <c r="E211" s="21"/>
       <c r="F211" s="22"/>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>1015</v>
       </c>
@@ -14717,7 +14716,7 @@
       <c r="E212" s="17"/>
       <c r="F212" s="18"/>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
         <v>714</v>
       </c>
@@ -14731,7 +14730,7 @@
         <v>36833</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>715</v>
       </c>
@@ -14741,7 +14740,7 @@
       <c r="E214" s="17"/>
       <c r="F214" s="18"/>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="19" t="s">
         <v>716</v>
       </c>
@@ -14751,7 +14750,7 @@
       <c r="E215" s="21"/>
       <c r="F215" s="22"/>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>717</v>
       </c>
@@ -14765,7 +14764,7 @@
         <v>40467</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="19" t="s">
         <v>718</v>
       </c>
@@ -14779,7 +14778,7 @@
         <v>35207</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>719</v>
       </c>
@@ -14789,7 +14788,7 @@
       <c r="E218" s="17"/>
       <c r="F218" s="18"/>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="19" t="s">
         <v>994</v>
       </c>
@@ -14799,7 +14798,7 @@
       <c r="E219" s="21"/>
       <c r="F219" s="22"/>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>720</v>
       </c>
@@ -14809,7 +14808,7 @@
       <c r="E220" s="17"/>
       <c r="F220" s="18"/>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="19" t="s">
         <v>721</v>
       </c>
@@ -14819,7 +14818,7 @@
       <c r="E221" s="21"/>
       <c r="F221" s="22"/>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>722</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="19" t="s">
         <v>468</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>569</v>
       </c>
@@ -14857,7 +14856,7 @@
       <c r="E224" s="17"/>
       <c r="F224" s="18"/>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="19" t="s">
         <v>570</v>
       </c>
@@ -14867,7 +14866,7 @@
       <c r="E225" s="21"/>
       <c r="F225" s="22"/>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>469</v>
       </c>
@@ -14877,7 +14876,7 @@
       <c r="E226" s="17"/>
       <c r="F226" s="18"/>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="19" t="s">
         <v>571</v>
       </c>
@@ -14891,7 +14890,7 @@
         <v>35879</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
         <v>725</v>
       </c>
@@ -14905,7 +14904,7 @@
         <v>35241</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="19" t="s">
         <v>470</v>
       </c>
@@ -14915,7 +14914,7 @@
       <c r="E229" s="21"/>
       <c r="F229" s="22"/>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>572</v>
       </c>
@@ -14925,7 +14924,7 @@
       <c r="E230" s="17"/>
       <c r="F230" s="18"/>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="19" t="s">
         <v>726</v>
       </c>
@@ -14935,7 +14934,7 @@
       <c r="E231" s="21"/>
       <c r="F231" s="22"/>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="15" t="s">
         <v>727</v>
       </c>
@@ -14951,7 +14950,7 @@
         <v>44028</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="19" t="s">
         <v>573</v>
       </c>
@@ -14961,7 +14960,7 @@
       <c r="E233" s="21"/>
       <c r="F233" s="22"/>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
         <v>728</v>
       </c>
@@ -14975,7 +14974,7 @@
         <v>34641</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="19" t="s">
         <v>729</v>
       </c>
@@ -14989,7 +14988,7 @@
         <v>34641</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
         <v>730</v>
       </c>
@@ -14999,7 +14998,7 @@
       <c r="E236" s="17"/>
       <c r="F236" s="18"/>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="19" t="s">
         <v>574</v>
       </c>
@@ -15013,7 +15012,7 @@
         <v>36248</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
         <v>575</v>
       </c>
@@ -15023,7 +15022,7 @@
       <c r="E238" s="17"/>
       <c r="F238" s="18"/>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="19" t="s">
         <v>732</v>
       </c>
@@ -15033,7 +15032,7 @@
       <c r="E239" s="21"/>
       <c r="F239" s="22"/>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
         <v>471</v>
       </c>
@@ -15045,7 +15044,7 @@
         <v>34589</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="19" t="s">
         <v>576</v>
       </c>
@@ -15057,7 +15056,7 @@
         <v>34778</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
         <v>733</v>
       </c>
@@ -15071,7 +15070,7 @@
         <v>35957</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="19" t="s">
         <v>445</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
         <v>577</v>
       </c>
@@ -15101,7 +15100,7 @@
         <v>40182</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="19" t="s">
         <v>734</v>
       </c>
@@ -15113,7 +15112,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>578</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>31625</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="19" t="s">
         <v>579</v>
       </c>
@@ -15135,7 +15134,7 @@
       <c r="E247" s="21"/>
       <c r="F247" s="22"/>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>995</v>
       </c>
@@ -15145,7 +15144,7 @@
       <c r="E248" s="17"/>
       <c r="F248" s="18"/>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="19" t="s">
         <v>580</v>
       </c>
@@ -15155,7 +15154,7 @@
       <c r="E249" s="21"/>
       <c r="F249" s="22"/>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>735</v>
       </c>
@@ -15165,7 +15164,7 @@
       <c r="E250" s="17"/>
       <c r="F250" s="18"/>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="19" t="s">
         <v>736</v>
       </c>
@@ -15179,7 +15178,7 @@
         <v>35609</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
         <v>472</v>
       </c>
@@ -15189,7 +15188,7 @@
       <c r="E252" s="17"/>
       <c r="F252" s="18"/>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="19" t="s">
         <v>737</v>
       </c>
@@ -15199,7 +15198,7 @@
       <c r="E253" s="21"/>
       <c r="F253" s="22"/>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>581</v>
       </c>
@@ -15209,7 +15208,7 @@
       <c r="E254" s="17"/>
       <c r="F254" s="18"/>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="19" t="s">
         <v>738</v>
       </c>
@@ -15223,7 +15222,7 @@
         <v>36965</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="15" t="s">
         <v>582</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="19" t="s">
         <v>1016</v>
       </c>
@@ -15251,7 +15250,7 @@
         <v>33086</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="15" t="s">
         <v>1017</v>
       </c>
@@ -15261,7 +15260,7 @@
       <c r="E258" s="17"/>
       <c r="F258" s="18"/>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="19" t="s">
         <v>473</v>
       </c>
@@ -15275,7 +15274,7 @@
         <v>37928</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="s">
         <v>739</v>
       </c>
@@ -15289,7 +15288,7 @@
         <v>35385</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="19" t="s">
         <v>583</v>
       </c>
@@ -15299,7 +15298,7 @@
       <c r="E261" s="21"/>
       <c r="F261" s="22"/>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="15" t="s">
         <v>740</v>
       </c>
@@ -15313,7 +15312,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="19" t="s">
         <v>741</v>
       </c>
@@ -15323,7 +15322,7 @@
       <c r="E263" s="21"/>
       <c r="F263" s="22"/>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="15" t="s">
         <v>1018</v>
       </c>
@@ -15333,7 +15332,7 @@
       <c r="E264" s="17"/>
       <c r="F264" s="18"/>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="19" t="s">
         <v>742</v>
       </c>
@@ -15349,7 +15348,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="15" t="s">
         <v>996</v>
       </c>
@@ -15359,7 +15358,7 @@
       <c r="E266" s="17"/>
       <c r="F266" s="18"/>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="19" t="s">
         <v>743</v>
       </c>
@@ -15369,7 +15368,7 @@
       <c r="E267" s="21"/>
       <c r="F267" s="22"/>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="15" t="s">
         <v>1019</v>
       </c>
@@ -15383,7 +15382,7 @@
         <v>36815</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="19" t="s">
         <v>584</v>
       </c>
@@ -15393,7 +15392,7 @@
       <c r="E269" s="21"/>
       <c r="F269" s="22"/>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="15" t="s">
         <v>474</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>37811</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="19" t="s">
         <v>585</v>
       </c>
@@ -15417,7 +15416,7 @@
       <c r="E271" s="21"/>
       <c r="F271" s="22"/>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>745</v>
       </c>
@@ -15431,7 +15430,7 @@
         <v>36965</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="19" t="s">
         <v>475</v>
       </c>
@@ -15443,7 +15442,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="15" t="s">
         <v>746</v>
       </c>
@@ -15453,7 +15452,7 @@
       <c r="E274" s="17"/>
       <c r="F274" s="18"/>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="19" t="s">
         <v>747</v>
       </c>
@@ -15463,7 +15462,7 @@
       <c r="E275" s="21"/>
       <c r="F275" s="22"/>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="15" t="s">
         <v>997</v>
       </c>
@@ -15479,7 +15478,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="19" t="s">
         <v>586</v>
       </c>
@@ -15489,7 +15488,7 @@
       <c r="E277" s="21"/>
       <c r="F277" s="22"/>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="15" t="s">
         <v>476</v>
       </c>
@@ -15501,7 +15500,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="19" t="s">
         <v>587</v>
       </c>
@@ -15511,7 +15510,7 @@
       <c r="E279" s="21"/>
       <c r="F279" s="22"/>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="15" t="s">
         <v>749</v>
       </c>
@@ -15521,7 +15520,7 @@
       <c r="E280" s="17"/>
       <c r="F280" s="18"/>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="19" t="s">
         <v>1020</v>
       </c>
@@ -15535,7 +15534,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="15" t="s">
         <v>477</v>
       </c>
@@ -15547,7 +15546,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="19" t="s">
         <v>750</v>
       </c>
@@ -15559,7 +15558,7 @@
         <v>32433</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="15" t="s">
         <v>751</v>
       </c>
@@ -15571,7 +15570,7 @@
         <v>29783</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="19" t="s">
         <v>588</v>
       </c>
@@ -15581,7 +15580,7 @@
       <c r="E285" s="21"/>
       <c r="F285" s="22"/>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="15" t="s">
         <v>478</v>
       </c>
@@ -15593,7 +15592,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="19" t="s">
         <v>752</v>
       </c>
@@ -15603,7 +15602,7 @@
       <c r="E287" s="21"/>
       <c r="F287" s="22"/>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="15" t="s">
         <v>754</v>
       </c>
@@ -15613,7 +15612,7 @@
       <c r="E288" s="17"/>
       <c r="F288" s="18"/>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="19" t="s">
         <v>446</v>
       </c>
@@ -15623,7 +15622,7 @@
       <c r="E289" s="21"/>
       <c r="F289" s="22"/>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="15" t="s">
         <v>589</v>
       </c>
@@ -15633,7 +15632,7 @@
       <c r="E290" s="17"/>
       <c r="F290" s="18"/>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="19" t="s">
         <v>1021</v>
       </c>
@@ -15643,7 +15642,7 @@
       <c r="E291" s="21"/>
       <c r="F291" s="22"/>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="15" t="s">
         <v>998</v>
       </c>
@@ -15653,7 +15652,7 @@
       <c r="E292" s="17"/>
       <c r="F292" s="18"/>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="19" t="s">
         <v>590</v>
       </c>
@@ -15663,7 +15662,7 @@
       <c r="E293" s="21"/>
       <c r="F293" s="22"/>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="15" t="s">
         <v>755</v>
       </c>
@@ -15673,7 +15672,7 @@
       <c r="E294" s="17"/>
       <c r="F294" s="18"/>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="19" t="s">
         <v>756</v>
       </c>
@@ -15685,7 +15684,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="15" t="s">
         <v>591</v>
       </c>
@@ -15697,7 +15696,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="19" t="s">
         <v>757</v>
       </c>
@@ -15707,7 +15706,7 @@
       <c r="E297" s="21"/>
       <c r="F297" s="22"/>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="15" t="s">
         <v>758</v>
       </c>
@@ -15721,7 +15720,7 @@
         <v>35875</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="19" t="s">
         <v>1022</v>
       </c>
@@ -15735,7 +15734,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="15" t="s">
         <v>759</v>
       </c>
@@ -15745,7 +15744,7 @@
       <c r="E300" s="17"/>
       <c r="F300" s="18"/>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="19" t="s">
         <v>760</v>
       </c>
@@ -15755,7 +15754,7 @@
       <c r="E301" s="21"/>
       <c r="F301" s="22"/>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="15" t="s">
         <v>978</v>
       </c>
@@ -15765,7 +15764,7 @@
       <c r="E302" s="17"/>
       <c r="F302" s="18"/>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="19" t="s">
         <v>761</v>
       </c>
@@ -15775,7 +15774,7 @@
       <c r="E303" s="21"/>
       <c r="F303" s="22"/>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="15" t="s">
         <v>979</v>
       </c>
@@ -15787,7 +15786,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="19" t="s">
         <v>479</v>
       </c>
@@ -15801,7 +15800,7 @@
       </c>
       <c r="F305" s="22"/>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="15" t="s">
         <v>1023</v>
       </c>
@@ -15811,7 +15810,7 @@
       <c r="E306" s="17"/>
       <c r="F306" s="18"/>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="19" t="s">
         <v>762</v>
       </c>
@@ -15823,7 +15822,7 @@
         <v>39937</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="15" t="s">
         <v>592</v>
       </c>
@@ -15833,7 +15832,7 @@
       <c r="E308" s="17"/>
       <c r="F308" s="18"/>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="19" t="s">
         <v>763</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="15" t="s">
         <v>593</v>
       </c>
@@ -15859,7 +15858,7 @@
       <c r="E310" s="17"/>
       <c r="F310" s="18"/>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="19" t="s">
         <v>1024</v>
       </c>
@@ -15873,7 +15872,7 @@
         <v>36332</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="15" t="s">
         <v>980</v>
       </c>
@@ -15885,7 +15884,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="19" t="s">
         <v>594</v>
       </c>
@@ -15895,7 +15894,7 @@
       <c r="E313" s="21"/>
       <c r="F313" s="22"/>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="15" t="s">
         <v>595</v>
       </c>
@@ -15905,7 +15904,7 @@
       <c r="E314" s="17"/>
       <c r="F314" s="18"/>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="19" t="s">
         <v>496</v>
       </c>
@@ -15915,7 +15914,7 @@
       <c r="E315" s="21"/>
       <c r="F315" s="22"/>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="15" t="s">
         <v>497</v>
       </c>
@@ -15925,7 +15924,7 @@
       <c r="E316" s="17"/>
       <c r="F316" s="18"/>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="19" t="s">
         <v>480</v>
       </c>
@@ -15935,7 +15934,7 @@
       <c r="E317" s="21"/>
       <c r="F317" s="22"/>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="15" t="s">
         <v>498</v>
       </c>
@@ -15949,7 +15948,7 @@
         <v>39965</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="19" t="s">
         <v>499</v>
       </c>
@@ -15959,7 +15958,7 @@
       <c r="E319" s="21"/>
       <c r="F319" s="22"/>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="15" t="s">
         <v>447</v>
       </c>
@@ -15969,7 +15968,7 @@
       <c r="E320" s="17"/>
       <c r="F320" s="18"/>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="19" t="s">
         <v>764</v>
       </c>
@@ -15983,7 +15982,7 @@
         <v>41354</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="15" t="s">
         <v>500</v>
       </c>
@@ -15993,7 +15992,7 @@
       <c r="E322" s="17"/>
       <c r="F322" s="18"/>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="19" t="s">
         <v>765</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>30165</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="15" t="s">
         <v>481</v>
       </c>
@@ -16017,7 +16016,7 @@
       <c r="E324" s="17"/>
       <c r="F324" s="18"/>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="19" t="s">
         <v>501</v>
       </c>
@@ -16027,7 +16026,7 @@
       <c r="E325" s="21"/>
       <c r="F325" s="22"/>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="15" t="s">
         <v>766</v>
       </c>
@@ -16039,7 +16038,7 @@
         <v>31376</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="19" t="s">
         <v>767</v>
       </c>
@@ -16049,7 +16048,7 @@
       <c r="E327" s="21"/>
       <c r="F327" s="22"/>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="15" t="s">
         <v>502</v>
       </c>
@@ -16059,7 +16058,7 @@
       <c r="E328" s="17"/>
       <c r="F328" s="18"/>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="19" t="s">
         <v>768</v>
       </c>
@@ -16069,7 +16068,7 @@
       <c r="E329" s="21"/>
       <c r="F329" s="22"/>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="15" t="s">
         <v>503</v>
       </c>
@@ -16079,7 +16078,7 @@
       <c r="E330" s="17"/>
       <c r="F330" s="18"/>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="19" t="s">
         <v>504</v>
       </c>
@@ -16089,7 +16088,7 @@
       <c r="E331" s="21"/>
       <c r="F331" s="22"/>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="15" t="s">
         <v>598</v>
       </c>
@@ -16101,7 +16100,7 @@
         <v>33483</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="19" t="s">
         <v>505</v>
       </c>
@@ -16115,7 +16114,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="15" t="s">
         <v>448</v>
       </c>
@@ -16125,7 +16124,7 @@
       <c r="E334" s="17"/>
       <c r="F334" s="18"/>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="19" t="s">
         <v>506</v>
       </c>
@@ -16137,7 +16136,7 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="15" t="s">
         <v>599</v>
       </c>
@@ -16149,7 +16148,7 @@
         <v>38504</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="19" t="s">
         <v>482</v>
       </c>
@@ -16161,7 +16160,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="15" t="s">
         <v>483</v>
       </c>
@@ -16173,7 +16172,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="19" t="s">
         <v>600</v>
       </c>
@@ -16189,7 +16188,7 @@
         <v>44743</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="15" t="s">
         <v>601</v>
       </c>
@@ -16199,7 +16198,7 @@
       <c r="E340" s="17"/>
       <c r="F340" s="18"/>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="19" t="s">
         <v>507</v>
       </c>
@@ -16213,7 +16212,7 @@
         <v>39493</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="15" t="s">
         <v>1003</v>
       </c>
@@ -16223,7 +16222,7 @@
       <c r="E342" s="17"/>
       <c r="F342" s="18"/>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="19" t="s">
         <v>614</v>
       </c>
@@ -16235,7 +16234,7 @@
       <c r="E343" s="21"/>
       <c r="F343" s="22"/>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="15" t="s">
         <v>616</v>
       </c>
@@ -16247,7 +16246,7 @@
       <c r="E344" s="17"/>
       <c r="F344" s="18"/>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="19" t="s">
         <v>620</v>
       </c>
@@ -16259,7 +16258,7 @@
       <c r="E345" s="21"/>
       <c r="F345" s="22"/>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="15" t="s">
         <v>623</v>
       </c>
@@ -16271,7 +16270,7 @@
       <c r="E346" s="17"/>
       <c r="F346" s="18"/>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="19" t="s">
         <v>628</v>
       </c>
@@ -16283,7 +16282,7 @@
       <c r="E347" s="21"/>
       <c r="F347" s="22"/>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="15" t="s">
         <v>630</v>
       </c>
@@ -16299,7 +16298,7 @@
         <v>35217</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="19" t="s">
         <v>453</v>
       </c>
@@ -16311,7 +16310,7 @@
       <c r="E349" s="21"/>
       <c r="F349" s="22"/>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="15" t="s">
         <v>454</v>
       </c>
@@ -16323,7 +16322,7 @@
       <c r="E350" s="17"/>
       <c r="F350" s="18"/>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="19" t="s">
         <v>643</v>
       </c>
@@ -16337,7 +16336,7 @@
         <v>34151</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="15" t="s">
         <v>645</v>
       </c>
@@ -16349,7 +16348,7 @@
       <c r="E352" s="17"/>
       <c r="F352" s="18"/>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="19" t="s">
         <v>646</v>
       </c>
@@ -16361,7 +16360,7 @@
       <c r="E353" s="21"/>
       <c r="F353" s="22"/>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="15" t="s">
         <v>650</v>
       </c>
@@ -16373,7 +16372,7 @@
       <c r="E354" s="17"/>
       <c r="F354" s="18"/>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="19" t="s">
         <v>1026</v>
       </c>
@@ -16385,7 +16384,7 @@
       <c r="E355" s="21"/>
       <c r="F355" s="22"/>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="15" t="s">
         <v>457</v>
       </c>
@@ -16397,7 +16396,7 @@
       <c r="E356" s="17"/>
       <c r="F356" s="18"/>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="19" t="s">
         <v>463</v>
       </c>
@@ -16409,7 +16408,7 @@
       <c r="E357" s="21"/>
       <c r="F357" s="22"/>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="15" t="s">
         <v>1028</v>
       </c>
@@ -16421,7 +16420,7 @@
       <c r="E358" s="17"/>
       <c r="F358" s="18"/>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="19" t="s">
         <v>665</v>
       </c>
@@ -16433,7 +16432,7 @@
       <c r="E359" s="21"/>
       <c r="F359" s="22"/>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="15" t="s">
         <v>669</v>
       </c>
@@ -16443,7 +16442,7 @@
       <c r="E360" s="17"/>
       <c r="F360" s="18"/>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="19" t="s">
         <v>670</v>
       </c>
@@ -16457,7 +16456,7 @@
         <v>36815</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="15" t="s">
         <v>460</v>
       </c>
@@ -16487,7 +16486,7 @@
         <v>41323</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="15" t="s">
         <v>687</v>
       </c>
@@ -16501,7 +16500,7 @@
         <v>43252</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="19" t="s">
         <v>688</v>
       </c>
@@ -16513,7 +16512,7 @@
       <c r="E365" s="21"/>
       <c r="F365" s="22"/>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="15" t="s">
         <v>706</v>
       </c>
@@ -16525,7 +16524,7 @@
       <c r="E366" s="17"/>
       <c r="F366" s="18"/>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="19" t="s">
         <v>707</v>
       </c>
@@ -16537,7 +16536,7 @@
       <c r="E367" s="21"/>
       <c r="F367" s="22"/>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="15" t="s">
         <v>723</v>
       </c>
@@ -16549,7 +16548,7 @@
       <c r="E368" s="17"/>
       <c r="F368" s="18"/>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="19" t="s">
         <v>1029</v>
       </c>
@@ -16561,7 +16560,7 @@
       <c r="E369" s="21"/>
       <c r="F369" s="22"/>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="15" t="s">
         <v>724</v>
       </c>
@@ -16577,7 +16576,7 @@
         <v>35611</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="19" t="s">
         <v>731</v>
       </c>
@@ -16589,7 +16588,7 @@
       <c r="E371" s="21"/>
       <c r="F371" s="22"/>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="15" t="s">
         <v>744</v>
       </c>
@@ -16601,7 +16600,7 @@
       <c r="E372" s="17"/>
       <c r="F372" s="18"/>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="19" t="s">
         <v>748</v>
       </c>
@@ -16613,7 +16612,7 @@
       <c r="E373" s="21"/>
       <c r="F373" s="22"/>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="15" t="s">
         <v>753</v>
       </c>
@@ -16625,7 +16624,7 @@
       <c r="E374" s="17"/>
       <c r="F374" s="18"/>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="19" t="s">
         <v>1025</v>
       </c>
@@ -16637,7 +16636,7 @@
       <c r="E375" s="21"/>
       <c r="F375" s="22"/>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="15" t="s">
         <v>597</v>
       </c>
@@ -16649,7 +16648,7 @@
       <c r="E376" s="17"/>
       <c r="F376" s="18"/>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="19" t="s">
         <v>449</v>
       </c>
@@ -16661,7 +16660,7 @@
       <c r="E377" s="21"/>
       <c r="F377" s="22"/>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="15" t="s">
         <v>602</v>
       </c>
@@ -16673,7 +16672,7 @@
       <c r="E378" s="17"/>
       <c r="F378" s="18"/>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="19" t="s">
         <v>603</v>
       </c>
@@ -16685,7 +16684,7 @@
       <c r="E379" s="21"/>
       <c r="F379" s="22"/>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="15" t="s">
         <v>604</v>
       </c>
@@ -16713,26 +16712,19 @@
   <protectedRanges>
     <protectedRange sqref="D2:K381" name="Range1"/>
   </protectedRanges>
-  <autoFilter ref="A1:F380" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="GATPANDAN, DOLORES"/>
-        <filter val="GATPANDAN, NENITA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F380" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
+    <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" showAutoFilter="1" hiddenColumns="1">
+      <selection activeCell="D381" sqref="D381"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+      <autoFilter ref="A1:F380" xr:uid="{AFB66EEA-7897-4F03-9ADE-12257D2C1818}"/>
+    </customSheetView>
     <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" showAutoFilter="1">
       <selection activeCell="F4" sqref="F4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="A1:F380" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-    </customSheetView>
-    <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="D381" sqref="D381"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-      <autoFilter ref="A1:F380" xr:uid="{3F7F52B5-7E52-41F6-9F83-DF8141451C70}"/>
+      <autoFilter ref="A1:F380" xr:uid="{26796D80-2D29-4535-8F76-0725D07E6026}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A2:C381">

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -5944,9 +5944,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{C0D5222B-9F19-46B9-94D5-8D015D1359B6}" name="ASUS" id="-937881564" dateTime="2023-07-06T14:37:38"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{230A5A60-9C39-4B60-8D96-CB255CE495D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{76939DE3-1F31-410A-BB48-FAD6A7ADDC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$391</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$3</definedName>
     <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$C</definedName>
-    <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$380</definedName>
+    <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$3:$E$3</definedName>
+    <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$391</definedName>
     <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.PrintTitles" localSheetId="0" hidden="1">Sheet1!$1:$3</definedName>
     <definedName name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$C</definedName>
     <definedName name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" localSheetId="1" hidden="1">Sheet2!$B:$C</definedName>
@@ -35,8 +36,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="ASUS - Personal View" guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="DOLE - Personal View" guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="ASUS - Personal View" guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1060">
   <si>
     <t>OFFICE</t>
   </si>
@@ -3235,7 +3236,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -3422,7 +3423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3479,38 +3480,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3556,182 +3550,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C0D5222B-9F19-46B9-94D5-8D015D1359B6}" diskRevisions="1" revisionId="326" version="30">
-  <header guid="{C3FDF1AD-6B59-44B4-8814-A9987087BA46}" dateTime="2023-06-19T09:01:15" maxSheetId="3" userName="ASUS" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1895F97D-E37D-4C66-88FC-8FDB1A9EE45D}" dateTime="2023-06-19T09:13:29" maxSheetId="3" userName="ASUS" r:id="rId2" minRId="1" maxRId="4">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{52DB5C76-DDB1-4424-85E6-C9766EE8FC80}" dateTime="2023-06-19T09:14:01" maxSheetId="3" userName="DOLE" r:id="rId3">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B59FD90E-084B-4D7F-97BF-5153508103A4}" dateTime="2023-06-19T09:16:04" maxSheetId="3" userName="ASUS" r:id="rId4" minRId="8" maxRId="9">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BE6F3ABD-52DD-4F76-BB69-2CE7F5538306}" dateTime="2023-06-19T09:16:38" maxSheetId="3" userName="ASUS" r:id="rId5" minRId="10">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6BF60DBE-19B6-455F-B535-383C938B3743}" dateTime="2023-06-19T11:12:05" maxSheetId="3" userName="ASUS" r:id="rId6" minRId="11" maxRId="17">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5EFF097F-13DA-41F8-B82E-A45E47790856}" dateTime="2023-06-19T11:23:24" maxSheetId="3" userName="ASUS" r:id="rId7" minRId="18" maxRId="19">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{64AAB055-A3DD-4B0C-B405-8818FD1B1A00}" dateTime="2023-06-19T14:48:08" maxSheetId="3" userName="ASUS" r:id="rId8" minRId="20" maxRId="28">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B8F21F35-5326-4868-97EB-05C883A7F226}" dateTime="2023-06-19T14:48:30" maxSheetId="3" userName="DOLE" r:id="rId9" minRId="33" maxRId="37">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A9617097-0D00-40C5-B9AC-037AACF5BEF4}" dateTime="2023-06-19T14:49:19" maxSheetId="3" userName="DOLE" r:id="rId10" minRId="38" maxRId="39">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{ECCEF2A1-AA9A-4EAE-AFC8-8928AFA49278}" dateTime="2023-06-19T14:54:31" maxSheetId="3" userName="ASUS" r:id="rId11" minRId="40" maxRId="53">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{ACBF2B80-D1F4-44A6-A150-40CC5D9262BA}" dateTime="2023-06-19T14:55:02" maxSheetId="3" userName="ASUS" r:id="rId12" minRId="54">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E35529C2-BE12-4C50-9246-B35182427B42}" dateTime="2023-06-19T14:56:38" maxSheetId="3" userName="DOLE" r:id="rId13" minRId="55" maxRId="64">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D6D51EBA-E874-4618-A2E2-9771DF7A8185}" dateTime="2023-06-19T15:01:25" maxSheetId="3" userName="ASUS" r:id="rId14" minRId="65" maxRId="68">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9B1C155F-0062-431A-AA11-ED846CFF9E65}" dateTime="2023-06-19T15:01:58" maxSheetId="3" userName="DOLE" r:id="rId15" minRId="69" maxRId="73">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6714CD05-5FBC-4FA8-B9D7-DD12B0655ABA}" dateTime="2023-06-19T15:02:31" maxSheetId="3" userName="ASUS" r:id="rId16" minRId="74">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{122A2C8D-AF49-4549-9452-02AACC65E778}" dateTime="2023-06-19T15:55:45" maxSheetId="3" userName="ASUS" r:id="rId17" minRId="75" maxRId="76">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E74F09A5-9556-47CF-BE9A-2490B0F59331}" dateTime="2023-06-19T15:56:03" maxSheetId="3" userName="DOLE" r:id="rId18" minRId="77" maxRId="98">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{795E0DA5-D6C5-4527-ACD9-F8353DD1544A}" dateTime="2023-06-19T16:13:18" maxSheetId="3" userName="DOLE" r:id="rId19" minRId="99" maxRId="130">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{41559334-6BF8-4BC9-B967-0AA02621B1A2}" dateTime="2023-06-19T16:25:23" maxSheetId="3" userName="DOLE" r:id="rId20" minRId="135" maxRId="159">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{414FA7A0-598A-4339-BD1E-3CA7ACEA20E3}" dateTime="2023-06-19T16:41:20" maxSheetId="3" userName="DOLE" r:id="rId21" minRId="164" maxRId="181">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9BC5D5FA-B5E6-4E8D-BDF8-196BE5B5A6ED}" dateTime="2023-06-19T17:58:08" maxSheetId="3" userName="ASUS" r:id="rId22" minRId="182" maxRId="184">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{64F28865-84E3-4DA8-9D84-23F155D32AF9}" dateTime="2023-06-20T08:45:00" maxSheetId="3" userName="DOLE" r:id="rId23" minRId="185" maxRId="189">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6CFD5B36-B6A5-4D6C-8E23-3EE845473449}" dateTime="2023-06-20T09:20:20" maxSheetId="3" userName="DOLE" r:id="rId24" minRId="190" maxRId="202">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CFAAA746-A136-47B8-802A-1C0A1ADEEAF8}" dateTime="2023-06-20T10:23:25" maxSheetId="3" userName="DOLE" r:id="rId25" minRId="203" maxRId="283">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2D60DAA1-C186-4DD8-85AD-EA71B7759C6D}" dateTime="2023-06-26T10:51:49" maxSheetId="3" userName="ASUS" r:id="rId26" minRId="284" maxRId="286">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4B14550C-663C-4BFE-A1E9-F130F3007D46}" dateTime="2023-07-04T15:21:16" maxSheetId="3" userName="ASUS" r:id="rId27" minRId="291" maxRId="298">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FB3E489B-02D8-4B11-BCCF-819F22F4A509}" dateTime="2023-07-06T15:24:12" maxSheetId="3" userName="ASUS" r:id="rId28" minRId="299" maxRId="317">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{67F647C2-80F2-4FCD-A410-00F65C7BE4B5}" dateTime="2023-07-06T15:25:11" maxSheetId="3" userName="ASUS" r:id="rId29" minRId="318" maxRId="322">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C0D5222B-9F19-46B9-94D5-8D015D1359B6}" dateTime="2023-07-06T16:01:18" maxSheetId="3" userName="ASUS" r:id="rId30" minRId="323" maxRId="326">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5E99A82C-77A5-4B9A-ACDE-F67CC77D1DD8}" diskRevisions="1" revisionId="341" version="31">
+  <header guid="{5E99A82C-77A5-4B9A-ACDE-F67CC77D1DD8}" dateTime="2023-08-07T16:33:48" maxSheetId="3" userName="ASUS" r:id="rId31" minRId="327" maxRId="337">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -3741,2157 +3561,98 @@
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="38" sId="2" numFmtId="19">
-    <nc r="E126">
-      <v>43710</v>
-    </nc>
-  </rcc>
-  <rcc rId="39" sId="2" numFmtId="19">
-    <nc r="F126">
-      <v>44743</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="40" sId="2" numFmtId="19">
-    <nc r="E151">
-      <v>34631</v>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="2" numFmtId="19">
-    <nc r="F151">
-      <v>35807</v>
-    </nc>
-  </rcc>
-  <rcc rId="42" sId="2" numFmtId="19">
-    <nc r="D162">
-      <v>30230</v>
-    </nc>
-  </rcc>
-  <rcc rId="43" sId="2" numFmtId="19">
-    <nc r="E162">
-      <v>33560</v>
-    </nc>
-  </rcc>
-  <rcc rId="44" sId="2" numFmtId="19">
-    <nc r="F162">
-      <v>34645</v>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="2" numFmtId="19">
-    <nc r="E10">
-      <v>34335</v>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="2" numFmtId="19">
-    <nc r="F10">
-      <v>35957</v>
-    </nc>
-  </rcc>
-  <rcc rId="47" sId="2" numFmtId="19">
-    <nc r="E42">
-      <v>33679</v>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="2" numFmtId="19">
-    <nc r="F42">
-      <v>34197</v>
-    </nc>
-  </rcc>
-  <rcc rId="49" sId="2" numFmtId="19">
-    <nc r="F61">
-      <v>34662</v>
-    </nc>
-  </rcc>
-  <rcc rId="50" sId="2" numFmtId="19">
-    <nc r="F41">
-      <v>44820</v>
-    </nc>
-  </rcc>
-  <rcc rId="51" sId="2" numFmtId="19">
-    <nc r="E68">
-      <v>34758</v>
-    </nc>
-  </rcc>
-  <rcc rId="52" sId="2" numFmtId="19">
-    <nc r="F68">
-      <v>35947</v>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="2" numFmtId="19">
-    <nc r="F70">
-      <v>44743</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="54" sId="2" numFmtId="19">
-    <nc r="F71">
-      <v>42186</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="55" sId="2" numFmtId="19">
-    <nc r="F154">
-      <v>34619</v>
-    </nc>
-  </rcc>
-  <rcc rId="56" sId="2" numFmtId="19">
-    <nc r="E204">
-      <v>33878</v>
-    </nc>
-  </rcc>
-  <rcc rId="57" sId="2" numFmtId="19">
-    <nc r="F204">
-      <v>34416</v>
-    </nc>
-  </rcc>
-  <rcc rId="58" sId="2" numFmtId="19">
-    <nc r="F240">
-      <v>34589</v>
-    </nc>
-  </rcc>
-  <rcc rId="59" sId="2" numFmtId="19">
-    <nc r="E244">
-      <v>36395</v>
-    </nc>
-  </rcc>
-  <rcc rId="60" sId="2" numFmtId="19">
-    <nc r="F244">
-      <v>40182</v>
-    </nc>
-  </rcc>
-  <rcc rId="61" sId="2" numFmtId="19">
-    <nc r="E256">
-      <v>24740</v>
-    </nc>
-  </rcc>
-  <rcc rId="62" sId="2" numFmtId="19">
-    <nc r="F256">
-      <v>41323</v>
-    </nc>
-  </rcc>
-  <rcc rId="63" sId="2" numFmtId="19">
-    <nc r="D259">
-      <v>37022</v>
-    </nc>
-  </rcc>
-  <rcc rId="64" sId="2" numFmtId="19">
-    <nc r="F259">
-      <v>37928</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="65" sId="2" numFmtId="19">
-    <nc r="E85">
-      <v>33924</v>
-    </nc>
-  </rcc>
-  <rcc rId="66" sId="2" numFmtId="19">
-    <nc r="F85">
-      <v>35947</v>
-    </nc>
-  </rcc>
-  <rcc rId="67" sId="2" numFmtId="19">
-    <nc r="E187">
-      <v>35591</v>
-    </nc>
-  </rcc>
-  <rcc rId="68" sId="2" numFmtId="19">
-    <nc r="F209">
-      <v>32433</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="69" sId="2" numFmtId="19">
-    <nc r="E40">
-      <v>36327</v>
-    </nc>
-  </rcc>
-  <rcc rId="70" sId="2" numFmtId="19">
-    <nc r="F40">
-      <v>41323</v>
-    </nc>
-  </rcc>
-  <rcc rId="71" sId="2" numFmtId="19">
-    <nc r="D77">
-      <v>34121</v>
-    </nc>
-  </rcc>
-  <rcc rId="72" sId="2" numFmtId="19">
-    <nc r="F77">
-      <v>35606</v>
-    </nc>
-  </rcc>
-  <rcc rId="73" sId="2" numFmtId="19">
-    <nc r="F83">
-      <v>36978</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="74" sId="2" numFmtId="19">
-    <nc r="F245">
-      <v>32767</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="75" sId="2" numFmtId="19">
-    <nc r="F246">
-      <v>31625</v>
-    </nc>
-  </rcc>
-  <rcc rId="76" sId="2" numFmtId="19">
-    <nc r="E380">
-      <v>31607</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="77" sId="2" numFmtId="19">
-    <nc r="F152">
-      <v>39965</v>
-    </nc>
-  </rcc>
-  <rcc rId="78" sId="2" numFmtId="19">
-    <nc r="D182">
-      <v>43633</v>
-    </nc>
-  </rcc>
-  <rcc rId="79" sId="2" numFmtId="19">
-    <nc r="E182">
-      <v>43709</v>
-    </nc>
-  </rcc>
-  <rcc rId="80" sId="2" numFmtId="19">
-    <nc r="F182">
-      <v>44743</v>
-    </nc>
-  </rcc>
-  <rcc rId="81" sId="2" numFmtId="19">
-    <nc r="D257">
-      <v>32325</v>
-    </nc>
-  </rcc>
-  <rcc rId="82" sId="2" numFmtId="19">
-    <nc r="F257">
-      <v>33086</v>
-    </nc>
-  </rcc>
-  <rcc rId="83" sId="2" numFmtId="19">
-    <nc r="F336">
-      <v>38504</v>
-    </nc>
-  </rcc>
-  <rcc rId="84" sId="2" numFmtId="19">
-    <nc r="E15">
-      <v>33543</v>
-    </nc>
-  </rcc>
-  <rcc rId="85" sId="2" numFmtId="19">
-    <nc r="F15">
-      <v>33695</v>
-    </nc>
-  </rcc>
-  <rcc rId="86" sId="2" numFmtId="19">
-    <nc r="F133">
-      <v>32706</v>
-    </nc>
-  </rcc>
-  <rcc rId="87" sId="2" numFmtId="19">
-    <nc r="E216">
-      <v>34895</v>
-    </nc>
-  </rcc>
-  <rcc rId="88" sId="2" numFmtId="19">
-    <nc r="F216">
-      <v>40467</v>
-    </nc>
-  </rcc>
-  <rcc rId="89" sId="2" numFmtId="19">
-    <nc r="D305">
-      <v>37088</v>
-    </nc>
-  </rcc>
-  <rcc rId="90" sId="2" numFmtId="19">
-    <nc r="E305">
-      <v>37515</v>
-    </nc>
-  </rcc>
-  <rcc rId="91" sId="2" numFmtId="19">
-    <nc r="E272">
-      <v>36543</v>
-    </nc>
-  </rcc>
-  <rcc rId="92" sId="2" numFmtId="19">
-    <nc r="F272">
-      <v>36965</v>
-    </nc>
-  </rcc>
-  <rcc rId="93" sId="2" numFmtId="19">
-    <nc r="F312">
-      <v>44880</v>
-    </nc>
-  </rcc>
-  <rcc rId="94" sId="2" numFmtId="19">
-    <nc r="F84">
-      <v>30242</v>
-    </nc>
-  </rcc>
-  <rcc rId="95" sId="2" numFmtId="19">
-    <nc r="E86">
-      <v>33560</v>
-    </nc>
-  </rcc>
-  <rcc rId="96" sId="2" numFmtId="19">
-    <nc r="F86">
-      <v>33580</v>
-    </nc>
-  </rcc>
-  <rcc rId="97" sId="2" numFmtId="19">
-    <nc r="E203">
-      <v>34288</v>
-    </nc>
-  </rcc>
-  <rcc rId="98" sId="2" numFmtId="19">
-    <nc r="F203">
-      <v>34513</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="99" sId="2" numFmtId="19">
-    <nc r="F4">
-      <v>42614</v>
-    </nc>
-  </rcc>
-  <rcc rId="100" sId="2" numFmtId="19">
-    <nc r="F33">
-      <v>43647</v>
-    </nc>
-  </rcc>
-  <rcc rId="101" sId="2">
-    <nc r="H3" t="inlineStr">
-      <is>
-        <t xml:space="preserve">ASUNCION, YORANDYL ANNLABARDA </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="102" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K3">
-      <v>44837</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="103" sId="2">
-    <nc r="H4" t="inlineStr">
-      <is>
-        <t>BOHULANO, MARY ANNE JOY BELANGEL</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="104" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K4">
-      <v>44837</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="105" sId="2" numFmtId="19">
-    <nc r="F67">
-      <v>42614</v>
-    </nc>
-  </rcc>
-  <rcc rId="106" sId="2">
-    <nc r="H5" t="inlineStr">
-      <is>
-        <t>CARURUCAN, GLAIZA SARDINOLA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="107" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K5">
-      <v>44837</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="108" sId="2" numFmtId="19">
-    <nc r="F79">
-      <v>43647</v>
-    </nc>
-  </rcc>
-  <rcc rId="109" sId="2" numFmtId="19">
-    <nc r="F104">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rcc rId="110" sId="2">
-    <nc r="H6" t="inlineStr">
-      <is>
-        <t>DE GUZMAN, MAYETTE DANO</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="111" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K6">
-      <v>44837</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="112" sId="2">
-    <nc r="H7" t="inlineStr">
-      <is>
-        <t>DE VILLA, MARITES DINGLASAN</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="113" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K7">
-      <v>44837</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="114" sId="2" numFmtId="19">
-    <nc r="F113">
-      <v>42614</v>
-    </nc>
-  </rcc>
-  <rcc rId="115" sId="2" numFmtId="19">
-    <nc r="F153">
-      <v>42614</v>
-    </nc>
-  </rcc>
-  <rcc rId="116" sId="2" numFmtId="19">
-    <nc r="F159">
-      <v>42614</v>
-    </nc>
-  </rcc>
-  <rcc rId="117" sId="2" numFmtId="19">
-    <nc r="F223">
-      <v>42614</v>
-    </nc>
-  </rcc>
-  <rcc rId="118" sId="2" numFmtId="19">
-    <nc r="F273">
-      <v>43647</v>
-    </nc>
-  </rcc>
-  <rcc rId="119" sId="2">
-    <nc r="H8" t="inlineStr">
-      <is>
-        <t>MEJIA, MENERIZA MIRANDA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="120" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K8">
-      <v>44837</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="121" sId="2" numFmtId="19">
-    <nc r="F278">
-      <v>43647</v>
-    </nc>
-  </rcc>
-  <rcc rId="122" sId="2" numFmtId="19">
-    <nc r="F282">
-      <v>42614</v>
-    </nc>
-  </rcc>
-  <rcc rId="123" sId="2" numFmtId="19">
-    <nc r="F286">
-      <v>42614</v>
-    </nc>
-  </rcc>
-  <rcc rId="124" sId="2">
-    <nc r="H9" t="inlineStr">
-      <is>
-        <t>PERMISON, VICTORIA MORILLO</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="125" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K9">
-      <v>44837</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="126" sId="2" numFmtId="19">
-    <nc r="F304">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rcc rId="127" sId="2">
-    <nc r="H10" t="inlineStr">
-      <is>
-        <t>RODRIGUEZ, BABY JING MENDOZA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="128" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K10">
-      <v>44837</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="129" sId="2" numFmtId="19">
-    <nc r="F338">
-      <v>43647</v>
-    </nc>
-  </rcc>
-  <rcc rId="130" sId="2" numFmtId="19">
-    <nc r="F337">
-      <v>42614</v>
-    </nc>
-  </rcc>
-  <rcv guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Sheet1!$1:$3</formula>
-    <oldFormula>Sheet1!$1:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Sheet1!$C:$C</formula>
-    <oldFormula>Sheet1!$C:$C</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Sheet2!$B:$C</formula>
-    <oldFormula>Sheet2!$B:$C</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet2!$A$1:$F$380</formula>
-  </rdn>
-  <rcv guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="2" numFmtId="19">
-    <oc r="F23">
-      <v>37257</v>
-    </oc>
-    <nc r="F23">
-      <v>30118</v>
-    </nc>
-  </rcc>
-  <rcc rId="2" sId="2" numFmtId="19">
-    <nc r="E23">
-      <v>29535</v>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="E65">
-      <v>33619</v>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-  <rcc rId="4" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="F65">
-      <v>34151</v>
-    </nc>
-    <odxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </odxf>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="135" sId="2" numFmtId="19">
-    <nc r="E27">
-      <v>34641</v>
-    </nc>
-  </rcc>
-  <rcc rId="136" sId="2" numFmtId="19">
-    <nc r="F27">
-      <v>35584</v>
-    </nc>
-  </rcc>
-  <rcc rId="137" sId="2" numFmtId="19">
-    <nc r="E51">
-      <v>33644</v>
-    </nc>
-  </rcc>
-  <rcc rId="138" sId="2" numFmtId="19">
-    <nc r="F51">
-      <v>35870</v>
-    </nc>
-  </rcc>
-  <rcc rId="139" sId="2" numFmtId="19">
-    <nc r="E96">
-      <v>35599</v>
-    </nc>
-  </rcc>
-  <rcc rId="140" sId="2" numFmtId="19">
-    <nc r="F96">
-      <v>42948</v>
-    </nc>
-  </rcc>
-  <rcc rId="141" sId="2" numFmtId="19">
-    <nc r="E97">
-      <v>35128</v>
-    </nc>
-  </rcc>
-  <rcc rId="142" sId="2" numFmtId="19">
-    <nc r="F97">
-      <v>35674</v>
-    </nc>
-  </rcc>
-  <rcc rId="143" sId="2" numFmtId="19">
-    <nc r="E116">
-      <v>34592</v>
-    </nc>
-  </rcc>
-  <rcc rId="144" sId="2" numFmtId="19">
-    <nc r="F116">
-      <v>35697</v>
-    </nc>
-  </rcc>
-  <rcc rId="145" sId="2" numFmtId="19">
-    <nc r="D119">
-      <v>32419</v>
-    </nc>
-  </rcc>
-  <rcc rId="146" sId="2" numFmtId="19">
-    <nc r="F119">
-      <v>33086</v>
-    </nc>
-  </rcc>
-  <rcc rId="147" sId="2" numFmtId="19">
-    <nc r="F145">
-      <v>30560</v>
-    </nc>
-  </rcc>
-  <rcc rId="148" sId="2">
-    <nc r="D208" t="inlineStr">
-      <is>
-        <t>.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="149" sId="2" numFmtId="19">
-    <nc r="E208">
-      <v>34001</v>
-    </nc>
-  </rcc>
-  <rcc rId="150" sId="2" numFmtId="19">
-    <nc r="F208">
-      <v>35870</v>
-    </nc>
-  </rcc>
-  <rcc rId="151" sId="2" numFmtId="19">
-    <nc r="F241">
-      <v>34778</v>
-    </nc>
-  </rcc>
-  <rcc rId="152" sId="2" numFmtId="19">
-    <nc r="D260" t="inlineStr">
-      <is>
-        <t>3/1/1994 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="153" sId="2" numFmtId="19">
-    <nc r="F260">
-      <v>35385</v>
-    </nc>
-  </rcc>
-  <rcc rId="154" sId="2" numFmtId="19">
-    <nc r="D268" t="inlineStr">
-      <is>
-        <t>3/16/1995 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="155" sId="2" numFmtId="19">
-    <nc r="F268">
-      <v>36815</v>
-    </nc>
-  </rcc>
-  <rcc rId="156" sId="2" numFmtId="19">
-    <nc r="E299">
-      <v>33848</v>
-    </nc>
-  </rcc>
-  <rcc rId="157" sId="2" numFmtId="19">
-    <nc r="F299">
-      <v>35611</v>
-    </nc>
-  </rcc>
-  <rcc rId="158" sId="2" numFmtId="19">
-    <nc r="F323">
-      <v>30165</v>
-    </nc>
-  </rcc>
-  <rcc rId="159" sId="2" numFmtId="19">
-    <nc r="D323" t="inlineStr">
-      <is>
-        <t>1/6/1992 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Sheet1!$1:$3</formula>
-    <oldFormula>Sheet1!$1:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Sheet1!$C:$C</formula>
-    <oldFormula>Sheet1!$C:$C</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Sheet2!$B:$C</formula>
-    <oldFormula>Sheet2!$B:$C</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet2!$A$1:$F$380</formula>
-    <oldFormula>Sheet2!$A$1:$F$380</oldFormula>
-  </rdn>
-  <rcv guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="164" sId="2" numFmtId="19">
-    <nc r="F190">
-      <v>35248</v>
-    </nc>
-  </rcc>
-  <rcc rId="165" sId="2" numFmtId="19">
-    <nc r="F206">
-      <v>36965</v>
-    </nc>
-  </rcc>
-  <rcc rId="166" sId="2">
-    <nc r="D206" t="inlineStr">
-      <is>
-        <t>6/10/1999 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="167" sId="2" numFmtId="19">
-    <nc r="E227">
-      <v>34071</v>
-    </nc>
-  </rcc>
-  <rcc rId="168" sId="2" numFmtId="19">
-    <nc r="F227">
-      <v>35879</v>
-    </nc>
-  </rcc>
-  <rcc rId="169" sId="2" numFmtId="19">
-    <nc r="E6">
-      <v>33560</v>
-    </nc>
-  </rcc>
-  <rcc rId="170" sId="2" numFmtId="19">
-    <nc r="F6">
-      <v>34151</v>
-    </nc>
-  </rcc>
-  <rcc rId="171" sId="2" numFmtId="19">
-    <nc r="E120">
-      <v>33619</v>
-    </nc>
-  </rcc>
-  <rcc rId="172" sId="2" numFmtId="19">
-    <nc r="F120">
-      <v>34151</v>
-    </nc>
-  </rcc>
-  <rcc rId="173" sId="2" numFmtId="19">
-    <nc r="D158">
-      <v>29284</v>
-    </nc>
-  </rcc>
-  <rcc rId="174" sId="2" numFmtId="19">
-    <nc r="F158">
-      <v>29602</v>
-    </nc>
-  </rcc>
-  <rcc rId="175" sId="2" numFmtId="19">
-    <nc r="F205">
-      <v>31639</v>
-    </nc>
-  </rcc>
-  <rcc rId="176" sId="2" numFmtId="19">
-    <nc r="F207">
-      <v>36486</v>
-    </nc>
-  </rcc>
-  <rcc rId="177" sId="2" numFmtId="19">
-    <nc r="E255">
-      <v>35450</v>
-    </nc>
-  </rcc>
-  <rcc rId="178" sId="2" numFmtId="19">
-    <nc r="F255">
-      <v>36965</v>
-    </nc>
-  </rcc>
-  <rcc rId="179" sId="2" numFmtId="19">
-    <nc r="D276">
-      <v>39178</v>
-    </nc>
-  </rcc>
-  <rcc rId="180" sId="2" numFmtId="19">
-    <nc r="E276">
-      <v>39448</v>
-    </nc>
-  </rcc>
-  <rcc rId="181" sId="2" numFmtId="19">
-    <nc r="F276">
-      <v>41323</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="182" sId="2" numFmtId="19">
-    <nc r="E7">
-      <v>34592</v>
-    </nc>
-  </rcc>
-  <rcc rId="183" sId="2" numFmtId="19">
-    <nc r="F7">
-      <v>35506</v>
-    </nc>
-  </rcc>
-  <rcc rId="184" sId="2" numFmtId="19">
-    <nc r="E91">
-      <v>35436</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="185" sId="2" numFmtId="19">
-    <nc r="F3">
-      <v>43789</v>
-    </nc>
-  </rcc>
-  <rcc rId="186" sId="2" numFmtId="19">
-    <nc r="E117">
-      <v>35597</v>
-    </nc>
-  </rcc>
-  <rcc rId="187" sId="2" numFmtId="19">
-    <nc r="F117">
-      <v>36362</v>
-    </nc>
-  </rcc>
-  <rcc rId="188" sId="2" numFmtId="19">
-    <nc r="F295">
-      <v>43665</v>
-    </nc>
-  </rcc>
-  <rcc rId="189" sId="2" numFmtId="19">
-    <nc r="F335">
-      <v>42709</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="190" sId="2" numFmtId="19">
-    <nc r="D12" t="inlineStr">
-      <is>
-        <t>6/16/1997 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="191" sId="2" numFmtId="19">
-    <nc r="F12">
-      <v>36332</v>
-    </nc>
-  </rcc>
-  <rcc rId="192" sId="2" numFmtId="19">
-    <nc r="D82">
-      <v>37104</v>
-    </nc>
-  </rcc>
-  <rcc rId="193" sId="2" numFmtId="19">
-    <nc r="E82">
-      <v>38018</v>
-    </nc>
-  </rcc>
-  <rcc rId="194" sId="2" numFmtId="19">
-    <nc r="F82">
-      <v>39965</v>
-    </nc>
-  </rcc>
-  <rcc rId="195" sId="2" numFmtId="19">
-    <nc r="D111" t="inlineStr">
-      <is>
-        <t>8/23/1999 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="196" sId="2" numFmtId="19">
-    <nc r="F111">
-      <v>37827</v>
-    </nc>
-  </rcc>
-  <rcc rId="197" sId="2" numFmtId="19">
-    <nc r="D363" t="inlineStr">
-      <is>
-        <t>8/2/1999 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="198" sId="2" numFmtId="19">
-    <oc r="F363">
-      <v>36374</v>
-    </oc>
-    <nc r="F363">
-      <v>41323</v>
-    </nc>
-  </rcc>
-  <rcc rId="199" sId="2" numFmtId="19">
-    <nc r="D270" t="inlineStr">
-      <is>
-        <t>1/24/2000 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="200" sId="2" numFmtId="19">
-    <nc r="F270">
-      <v>37811</v>
-    </nc>
-  </rcc>
-  <rcc rId="201" sId="2" numFmtId="19">
-    <nc r="E311">
-      <v>33619</v>
-    </nc>
-  </rcc>
-  <rcc rId="202" sId="2" numFmtId="19">
-    <nc r="F311">
-      <v>36332</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="203" sId="2" numFmtId="19">
-    <nc r="E14">
-      <v>34659</v>
-    </nc>
-  </rcc>
-  <rcc rId="204" sId="2" numFmtId="19">
-    <nc r="F14">
-      <v>34774</v>
-    </nc>
-  </rcc>
-  <rcc rId="205" sId="2" numFmtId="19">
-    <nc r="E31">
-      <v>33619</v>
-    </nc>
-  </rcc>
-  <rcc rId="206" sId="2" numFmtId="19">
-    <nc r="F31">
-      <v>35611</v>
-    </nc>
-  </rcc>
-  <rcc rId="207" sId="2" numFmtId="19">
-    <nc r="F32">
-      <v>43773</v>
-    </nc>
-  </rcc>
-  <rcc rId="208" sId="2" numFmtId="19">
-    <nc r="E348">
-      <v>34624</v>
-    </nc>
-  </rcc>
-  <rcc rId="209" sId="2" numFmtId="19">
-    <nc r="F348">
-      <v>35217</v>
-    </nc>
-  </rcc>
-  <rcc rId="210" sId="2" numFmtId="19">
-    <nc r="D46" t="inlineStr">
-      <is>
-        <t>3/26/2001 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="211" sId="2" numFmtId="19">
-    <oc r="E46">
-      <v>35765</v>
-    </oc>
-    <nc r="E46"/>
-  </rcc>
-  <rcc rId="212" sId="2" numFmtId="19">
-    <oc r="F46">
-      <v>36321</v>
-    </oc>
-    <nc r="F46">
-      <v>37712</v>
-    </nc>
-  </rcc>
-  <rcc rId="213" sId="2" numFmtId="19">
-    <nc r="E44">
-      <v>35233</v>
-    </nc>
-  </rcc>
-  <rcc rId="214" sId="2" numFmtId="19">
-    <nc r="F44">
-      <v>35807</v>
-    </nc>
-  </rcc>
-  <rcc rId="215" sId="2" numFmtId="19">
-    <nc r="F56">
-      <v>42086</v>
-    </nc>
-  </rcc>
-  <rcc rId="216" sId="2" numFmtId="19">
-    <nc r="D351" t="inlineStr">
-      <is>
-        <t>1/16/1992 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="217" sId="2" numFmtId="19">
-    <oc r="F351">
-      <v>33786</v>
-    </oc>
-    <nc r="F351">
-      <v>34151</v>
-    </nc>
-  </rcc>
-  <rcc rId="218" sId="2">
-    <nc r="H11" t="inlineStr">
-      <is>
-        <t>CASTILLO EDGARDO</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="219" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K11">
-      <v>35591</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="220" sId="2" numFmtId="19">
-    <nc r="E75">
-      <v>34610</v>
-    </nc>
-  </rcc>
-  <rcc rId="221" sId="2" numFmtId="19">
-    <nc r="F75">
-      <v>36089</v>
-    </nc>
-  </rcc>
-  <rcc rId="222" sId="2">
-    <nc r="H12" t="inlineStr">
-      <is>
-        <t>DE CASTRO, CELSO P.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="223" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K12">
-      <v>31837</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="224" sId="2" numFmtId="19">
-    <nc r="E106">
-      <v>34610</v>
-    </nc>
-  </rcc>
-  <rcc rId="225" sId="2" numFmtId="19">
-    <nc r="F106">
-      <v>35384</v>
-    </nc>
-  </rcc>
-  <rcc rId="226" sId="2" numFmtId="19">
-    <nc r="E112">
-      <v>35627</v>
-    </nc>
-  </rcc>
-  <rcc rId="227" sId="2" numFmtId="19">
-    <nc r="F112">
-      <v>36965</v>
-    </nc>
-  </rcc>
-  <rcc rId="228" sId="2" numFmtId="19">
-    <nc r="E114">
-      <v>34611</v>
-    </nc>
-  </rcc>
-  <rcc rId="229" sId="2" numFmtId="19">
-    <nc r="F114">
-      <v>35947</v>
-    </nc>
-  </rcc>
-  <rcc rId="230" sId="2" numFmtId="19">
-    <nc r="E123">
-      <v>34709</v>
-    </nc>
-  </rcc>
-  <rcc rId="231" sId="2" numFmtId="19">
-    <nc r="F123">
-      <v>36832</v>
-    </nc>
-  </rcc>
-  <rcc rId="232" sId="2" numFmtId="19">
-    <nc r="E131">
-      <v>34666</v>
-    </nc>
-  </rcc>
-  <rcc rId="233" sId="2" numFmtId="19">
-    <nc r="F131">
-      <v>35697</v>
-    </nc>
-  </rcc>
-  <rcc rId="234" sId="2" numFmtId="19">
-    <nc r="E135">
-      <v>35233</v>
-    </nc>
-  </rcc>
-  <rcc rId="235" sId="2" numFmtId="19">
-    <nc r="F135">
-      <v>36332</v>
-    </nc>
-  </rcc>
-  <rcc rId="236" sId="2" numFmtId="19">
-    <nc r="D142">
-      <v>43252</v>
-    </nc>
-  </rcc>
-  <rcc rId="237" sId="2" numFmtId="19">
-    <nc r="E142">
-      <v>43647</v>
-    </nc>
-  </rcc>
-  <rcc rId="238" sId="2" numFmtId="19">
-    <nc r="F142">
-      <v>44743</v>
-    </nc>
-  </rcc>
-  <rcc rId="239" sId="2" numFmtId="19">
-    <nc r="D143" t="inlineStr">
-      <is>
-        <t>1/16/1992 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="240" sId="2" numFmtId="19">
-    <nc r="F143">
-      <v>34151</v>
-    </nc>
-  </rcc>
-  <rcc rId="241" sId="2" numFmtId="19">
-    <nc r="E146">
-      <v>34366</v>
-    </nc>
-  </rcc>
-  <rcc rId="242" sId="2" numFmtId="19">
-    <nc r="F146">
-      <v>35096</v>
-    </nc>
-  </rcc>
-  <rcc rId="243" sId="2" numFmtId="19">
-    <nc r="E150">
-      <v>34582</v>
-    </nc>
-  </rcc>
-  <rcc rId="244" sId="2" numFmtId="19">
-    <nc r="F150">
-      <v>34774</v>
-    </nc>
-  </rcc>
-  <rcc rId="245" sId="2" numFmtId="19">
-    <nc r="E172">
-      <v>34669</v>
-    </nc>
-  </rcc>
-  <rcc rId="246" sId="2" numFmtId="19">
-    <nc r="F172">
-      <v>35807</v>
-    </nc>
-  </rcc>
-  <rcc rId="247" sId="2" numFmtId="19">
-    <nc r="E178">
-      <v>34516</v>
-    </nc>
-  </rcc>
-  <rcc rId="248" sId="2" numFmtId="19">
-    <nc r="F178">
-      <v>34774</v>
-    </nc>
-  </rcc>
-  <rcc rId="249" sId="2" numFmtId="19">
-    <nc r="E183">
-      <v>35159</v>
-    </nc>
-  </rcc>
-  <rcc rId="250" sId="2" numFmtId="19">
-    <nc r="F183">
-      <v>36332</v>
-    </nc>
-  </rcc>
-  <rcc rId="251" sId="2" numFmtId="19">
-    <nc r="E184">
-      <v>34690</v>
-    </nc>
-  </rcc>
-  <rcc rId="252" sId="2" numFmtId="19">
-    <nc r="F184">
-      <v>35384</v>
-    </nc>
-  </rcc>
-  <rcc rId="253" sId="2" numFmtId="19">
-    <nc r="F193">
-      <v>40210</v>
-    </nc>
-  </rcc>
-  <rcc rId="254" sId="2" numFmtId="19">
-    <nc r="D194" t="inlineStr">
-      <is>
-        <t>6/18/1984 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="255" sId="2" numFmtId="19">
-    <nc r="F194">
-      <v>32325</v>
-    </nc>
-  </rcc>
-  <rcc rId="256" sId="2" numFmtId="19">
-    <nc r="E199">
-      <v>37378</v>
-    </nc>
-  </rcc>
-  <rcc rId="257" sId="2" numFmtId="19">
-    <nc r="F199">
-      <v>39965</v>
-    </nc>
-  </rcc>
-  <rcc rId="258" sId="2" numFmtId="19">
-    <nc r="E235">
-      <v>34516</v>
-    </nc>
-  </rcc>
-  <rcc rId="259" sId="2" numFmtId="19">
-    <nc r="F235">
-      <v>34641</v>
-    </nc>
-  </rcc>
-  <rcc rId="260" sId="2" numFmtId="19">
-    <nc r="D243">
-      <v>43633</v>
-    </nc>
-  </rcc>
-  <rcc rId="261" sId="2" numFmtId="19">
-    <nc r="E243">
-      <v>43710</v>
-    </nc>
-  </rcc>
-  <rcc rId="262" sId="2" numFmtId="19">
-    <nc r="F243">
-      <v>44621</v>
-    </nc>
-  </rcc>
-  <rcc rId="263" sId="2">
-    <nc r="H13" t="inlineStr">
-      <is>
-        <t>MONREAL, GREGORIO</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="264" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="K13">
-      <v>35384</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="265" sId="2" numFmtId="19">
-    <nc r="E262">
-      <v>44013</v>
-    </nc>
-  </rcc>
-  <rcc rId="266" sId="2" numFmtId="19">
-    <nc r="F262">
-      <v>44743</v>
-    </nc>
-  </rcc>
-  <rcc rId="267" sId="2">
-    <nc r="D265" t="inlineStr">
-      <is>
-        <t>3/16/1999 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="268" sId="2" numFmtId="19">
-    <nc r="E265">
-      <v>36708</v>
-    </nc>
-  </rcc>
-  <rcc rId="269" sId="2" numFmtId="19">
-    <nc r="F265">
-      <v>41730</v>
-    </nc>
-  </rcc>
-  <rcc rId="270" sId="2" numFmtId="19">
-    <nc r="E237">
-      <v>35992</v>
-    </nc>
-  </rcc>
-  <rcc rId="271" sId="2" numFmtId="19">
-    <nc r="F237">
-      <v>36248</v>
-    </nc>
-  </rcc>
-  <rcc rId="272" sId="2" numFmtId="19">
-    <nc r="F296">
-      <v>44256</v>
-    </nc>
-  </rcc>
-  <rcc rId="273" sId="2" numFmtId="19">
-    <nc r="D309">
-      <v>36395</v>
-    </nc>
-  </rcc>
-  <rcc rId="274" sId="2" numFmtId="19">
-    <nc r="E309">
-      <v>36465</v>
-    </nc>
-  </rcc>
-  <rcc rId="275" sId="2" numFmtId="19">
-    <nc r="F309">
-      <v>39965</v>
-    </nc>
-  </rcc>
-  <rcc rId="276" sId="2" numFmtId="19">
-    <nc r="D318" t="inlineStr">
-      <is>
-        <t>1/16/2001 - DAILY</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="277" sId="2" numFmtId="19">
-    <nc r="F318">
-      <v>39965</v>
-    </nc>
-  </rcc>
-  <rcc rId="278" sId="2" numFmtId="19">
-    <nc r="E341">
-      <v>39084</v>
-    </nc>
-  </rcc>
-  <rcc rId="279" sId="2" numFmtId="19">
-    <nc r="F341">
-      <v>39493</v>
-    </nc>
-  </rcc>
-  <rcc rId="280" sId="2" numFmtId="19">
-    <nc r="F326">
-      <v>31376</v>
-    </nc>
-  </rcc>
-  <rcc rId="281" sId="2" numFmtId="19">
-    <nc r="D339">
-      <v>43633</v>
-    </nc>
-  </rcc>
-  <rcc rId="282" sId="2" numFmtId="19">
-    <nc r="E339">
-      <v>43709</v>
-    </nc>
-  </rcc>
-  <rcc rId="283" sId="2" numFmtId="19">
-    <nc r="F339">
-      <v>44743</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="284" sId="2">
-    <oc r="C351" t="inlineStr">
+  <rcc rId="327" sId="2">
+    <oc r="C346" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C351"/>
+    <nc r="C346"/>
   </rcc>
-  <rcc rId="285" sId="2">
-    <oc r="C363" t="inlineStr">
+  <rcc rId="328" sId="2">
+    <oc r="C349" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C363"/>
+    <nc r="C349"/>
   </rcc>
-  <rcc rId="286" sId="2">
-    <oc r="C360" t="inlineStr">
+  <rcc rId="329" sId="2">
+    <oc r="C352" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C360"/>
+    <nc r="C352"/>
   </rcc>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.Cols" hidden="1" oldHidden="1">
-    <oldFormula>Sheet2!$B:$C</oldFormula>
-  </rdn>
-  <rcv guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Sheet1!$1:$3</formula>
-    <oldFormula>Sheet1!$1:$3</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Sheet1!$C:$C</formula>
-    <oldFormula>Sheet1!$C:$C</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet2!$A$1:$F$380</formula>
-    <oldFormula>Sheet2!$A$1:$F$380</oldFormula>
-  </rdn>
-  <rcv guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="291" sId="2">
-    <oc r="C380" t="inlineStr">
+  <rcc rId="330" sId="2">
+    <oc r="C354" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C380"/>
+    <nc r="C354"/>
   </rcc>
-  <rcc rId="292" sId="2">
-    <oc r="C344" t="inlineStr">
+  <rcc rId="331" sId="2">
+    <oc r="C358" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C344"/>
+    <nc r="C358"/>
   </rcc>
-  <rcc rId="293" sId="2">
-    <oc r="C376" t="inlineStr">
+  <rcc rId="332" sId="2">
+    <oc r="C359" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C376"/>
+    <nc r="C359"/>
   </rcc>
-  <rcc rId="294" sId="2">
-    <oc r="C374" t="inlineStr">
+  <rcc rId="333" sId="2">
+    <oc r="C364" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C374"/>
+    <nc r="C364"/>
   </rcc>
-  <rcc rId="295" sId="2">
-    <oc r="C347" t="inlineStr">
+  <rcc rId="334" sId="2">
+    <oc r="C365" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C347"/>
+    <nc r="C365"/>
   </rcc>
-  <rcc rId="296" sId="2">
-    <oc r="C343" t="inlineStr">
+  <rcc rId="335" sId="2">
+    <oc r="C367" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C343"/>
+    <nc r="C367"/>
   </rcc>
-  <rcc rId="297" sId="2">
-    <oc r="C379" t="inlineStr">
+  <rcc rId="336" sId="2">
+    <oc r="C375" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C379"/>
+    <nc r="C375" t="inlineStr">
+      <is>
+        <t>p</t>
+      </is>
+    </nc>
   </rcc>
-  <rcc rId="298" sId="2">
-    <oc r="C362" t="inlineStr">
+  <rcc rId="337" sId="2">
+    <oc r="C378" t="inlineStr">
       <is>
         <t>P</t>
       </is>
     </oc>
-    <nc r="C362"/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="299" sId="2">
-    <oc r="C345" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C345"/>
-  </rcc>
-  <rcc rId="300" sId="2">
-    <oc r="C370" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C370"/>
-  </rcc>
-  <rcc rId="301" sId="2">
-    <oc r="C371" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C371"/>
-  </rcc>
-  <rcc rId="302" sId="2">
-    <nc r="A381" t="inlineStr">
-      <is>
-        <t xml:space="preserve">ASUNCION, YORANDYL ANNLABARDA </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="303" sId="2">
-    <nc r="A382" t="inlineStr">
-      <is>
-        <t>BOHULANO, MARY ANNE JOY BELANGEL</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="304" sId="2">
-    <nc r="A383" t="inlineStr">
-      <is>
-        <t>CARURUCAN, GLAIZA SARDINOLA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="305" sId="2">
-    <nc r="A384" t="inlineStr">
-      <is>
-        <t>DE GUZMAN, MAYETTE DANO</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="306" sId="2">
-    <nc r="A385" t="inlineStr">
-      <is>
-        <t>DE VILLA, MARITES DINGLASAN</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="307" sId="2">
-    <nc r="A386" t="inlineStr">
-      <is>
-        <t>MEJIA, MENERIZA MIRANDA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="308" sId="2">
-    <nc r="A387" t="inlineStr">
-      <is>
-        <t>PERMISON, VICTORIA MORILLO</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="309" sId="2">
-    <nc r="A388" t="inlineStr">
-      <is>
-        <t>RODRIGUEZ, BABY JING MENDOZA</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="A1:F388">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A1:A388" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A1:F1" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="F1:F388" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A388:F388" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A1:F388">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="310" sId="2" numFmtId="19">
-    <nc r="F381">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rcc rId="311" sId="2">
-    <nc r="F382">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rcc rId="312" sId="2">
-    <nc r="F383">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rcc rId="313" sId="2">
-    <nc r="F384">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rcc rId="314" sId="2">
-    <nc r="F385">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rcc rId="315" sId="2">
-    <nc r="F386">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rcc rId="316" sId="2">
-    <nc r="F387">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rcc rId="317" sId="2">
-    <nc r="F388">
-      <v>44837</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="F381:F388">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="318" sId="2">
-    <nc r="A389" t="inlineStr">
-      <is>
-        <t>AMON CLARISSA MAY M.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="319" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="B389">
-      <v>43633</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="2" sqref="C389" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="D389" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="general" vertical="bottom"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A389" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="F389" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A389:F389" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A389:F389">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="320" sId="2" numFmtId="19">
-    <nc r="D389">
-      <v>43633</v>
-    </nc>
-  </rcc>
-  <rcc rId="321" sId="2">
-    <nc r="E389">
-      <v>43710</v>
-    </nc>
-  </rcc>
-  <rcc rId="322" sId="2">
-    <nc r="F389">
-      <v>44743</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="D389:F389">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Sheet1!$1:$3</formula>
-  </rdn>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Sheet1!$C:$C</formula>
-  </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Sheet2!$B:$C</formula>
-  </rdn>
-  <rcv guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="323" sId="2" xfDxf="1" dxf="1">
-    <nc r="A390" t="inlineStr">
-      <is>
-        <t>PASAPORTE, MARY JOSEPHINE</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="324" sId="2" xfDxf="1" dxf="1">
-    <nc r="A391" t="inlineStr">
-      <is>
-        <t>CAPUNO, DANIELLE VINCE</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="A390:A391" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="F390:F391" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A391:F391" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="A390:F391">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="325" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="F391">
-      <v>44942</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="326" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="F390">
-      <v>44858</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="8" sId="2" numFmtId="19">
-    <nc r="E108">
-      <v>34645</v>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="2" numFmtId="19">
-    <nc r="F108">
-      <v>34778</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="10" sId="2" numFmtId="19">
-    <nc r="F168">
-      <v>32964</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="11" sId="2">
-    <nc r="E228" t="inlineStr">
-      <is>
-        <t>2/193</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="2" numFmtId="19">
-    <nc r="F228">
-      <v>35241</v>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="2" numFmtId="19">
-    <nc r="E251">
-      <v>34624</v>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="2" numFmtId="19">
-    <nc r="F251">
-      <v>35609</v>
-    </nc>
-  </rcc>
-  <rcc rId="15" sId="2" numFmtId="19">
-    <nc r="F284">
-      <v>29783</v>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="2" numFmtId="19">
-    <nc r="E281">
-      <v>39356</v>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="2" numFmtId="19">
-    <nc r="F281">
-      <v>45006</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="18" sId="2" numFmtId="19">
-    <nc r="E321">
-      <v>36357</v>
-    </nc>
-  </rcc>
-  <rcc rId="19" sId="2" numFmtId="19">
-    <nc r="F321">
-      <v>41354</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="20" sId="2" numFmtId="19">
-    <nc r="E186">
-      <v>39539</v>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="2" numFmtId="19">
-    <nc r="D186">
-      <v>37382</v>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="2" numFmtId="19">
-    <nc r="F186">
-      <v>39965</v>
-    </nc>
-  </rcc>
-  <rcc rId="23" sId="2" numFmtId="19">
-    <nc r="F53">
-      <v>37970</v>
-    </nc>
-  </rcc>
-  <rcc rId="24" sId="2" numFmtId="19">
-    <nc r="D53">
-      <v>36587</v>
-    </nc>
-  </rcc>
-  <rcc rId="25" sId="2" numFmtId="19">
-    <nc r="F48">
-      <v>35411</v>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="2" numFmtId="19">
-    <nc r="D48">
-      <v>34586</v>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="2" numFmtId="19">
-    <nc r="E140">
-      <v>36105</v>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="2" numFmtId="19">
-    <nc r="F140">
-      <v>38063</v>
-    </nc>
+    <nc r="C378"/>
   </rcc>
   <rcv guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" action="delete"/>
   <rdn rId="0" localSheetId="1" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.PrintTitles" hidden="1" oldHidden="1">
@@ -5902,48 +3663,18 @@
     <formula>Sheet1!$C:$C</formula>
     <oldFormula>Sheet1!$C:$C</oldFormula>
   </rdn>
-  <rdn rId="0" localSheetId="2" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.Cols" hidden="1" oldHidden="1">
-    <formula>Sheet2!$B:$C</formula>
-    <oldFormula>Sheet2!$B:$C</oldFormula>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Sheet1!$A$3:$E$3</formula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet2!$A$1:$F$380</formula>
+    <formula>Sheet2!$A$1:$F$391</formula>
+    <oldFormula>Sheet2!$A$1:$F$380</oldFormula>
   </rdn>
   <rcv guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="33" sId="2" numFmtId="19">
-    <nc r="F34">
-      <v>34596</v>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="2" numFmtId="19">
-    <nc r="F47">
-      <v>31199</v>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="2" numFmtId="19">
-    <nc r="D57">
-      <v>34774</v>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="2" numFmtId="19">
-    <nc r="F57">
-      <v>35207</v>
-    </nc>
-  </rcc>
-  <rcc rId="37" sId="2" numFmtId="19">
-    <nc r="F58">
-      <v>33483</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -6212,32 +3943,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -12529,14 +10260,13 @@
   <protectedRanges>
     <protectedRange sqref="E4:E398" name="Range1"/>
   </protectedRanges>
-  <autoFilter ref="A3:E3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" hiddenColumns="1">
+    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" showPageBreaks="1" hiddenColumns="1" topLeftCell="A16">
       <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
       <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" showPageBreaks="1" hiddenColumns="1">
+    <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" hiddenColumns="1">
       <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
       <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
@@ -12560,38 +10290,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="49.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="6" width="16.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" customWidth="1"/>
+    <col min="8" max="8" width="34.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>975</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>976</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>977</v>
       </c>
       <c r="I1" t="s">
@@ -12605,14 +10335,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="H2" t="s">
         <v>1031</v>
       </c>
@@ -12627,14 +10357,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>981</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27">
         <v>43789</v>
       </c>
       <c r="H3" t="s">
@@ -12645,14 +10375,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27">
         <v>42614</v>
       </c>
       <c r="H4" t="s">
@@ -12663,14 +10393,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
       <c r="H5" t="s">
         <v>1035</v>
       </c>
@@ -12679,16 +10409,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27">
         <v>33560</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="27">
         <v>34151</v>
       </c>
       <c r="H6" t="s">
@@ -12699,16 +10429,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27">
         <v>34592</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <v>35506</v>
       </c>
       <c r="H7" t="s">
@@ -12719,14 +10449,14 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="H8" t="s">
         <v>1038</v>
       </c>
@@ -12735,14 +10465,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="H9" t="s">
         <v>1039</v>
       </c>
@@ -12751,16 +10481,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27">
         <v>34335</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>35957</v>
       </c>
       <c r="H10" t="s">
@@ -12771,14 +10501,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
       <c r="H11" t="s">
         <v>1052</v>
       </c>
@@ -12787,16 +10517,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27" t="s">
         <v>1046</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29">
+      <c r="E12" s="27"/>
+      <c r="F12" s="27">
         <v>36332</v>
       </c>
       <c r="H12" t="s">
@@ -12807,14 +10537,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="25" t="s">
         <v>1004</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27">
         <v>30299</v>
       </c>
       <c r="H13" t="s">
@@ -12825,4452 +10555,4432 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27">
         <v>34659</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="27">
         <v>34774</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29">
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27">
         <v>33543</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="27">
         <v>33695</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="25" t="s">
         <v>982</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27">
         <v>43832</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="25" t="s">
         <v>613</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27">
         <v>29535</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="27">
         <v>30118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27">
         <v>33560</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="27">
         <v>34151</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="25" t="s">
         <v>617</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27">
         <v>30605</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27">
         <v>34641</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="27">
         <v>35584</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27">
         <v>33893</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="27">
         <v>34151</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="25" t="s">
         <v>622</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="25" t="s">
         <v>624</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="25" t="s">
         <v>625</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27">
         <v>33619</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="27">
         <v>35611</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27">
         <v>43773</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27">
         <v>43647</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="25" t="s">
         <v>1005</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27">
         <v>34596</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="25" t="s">
         <v>999</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="25" t="s">
         <v>626</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27">
         <v>36327</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="27">
         <v>41323</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="25" t="s">
         <v>983</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27">
         <v>44820</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+      <c r="A42" s="25" t="s">
         <v>627</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27">
         <v>33679</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="27">
         <v>34197</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="25" t="s">
         <v>1000</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29">
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27">
         <v>35233</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="27">
         <v>35807</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27">
         <v>35459</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="27">
         <v>35870</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+      <c r="A46" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27" t="s">
         <v>1050</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29">
+      <c r="E46" s="27"/>
+      <c r="F46" s="27">
         <v>37712</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29">
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27">
         <v>31199</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="25" t="s">
         <v>1006</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27">
         <v>34586</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29">
+      <c r="E48" s="27"/>
+      <c r="F48" s="27">
         <v>35411</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="25" t="s">
         <v>631</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29">
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27">
         <v>37088</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29">
+      <c r="E49" s="27"/>
+      <c r="F49" s="27">
         <v>38231</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27">
         <v>33644</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="27">
         <v>35870</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="25" t="s">
         <v>1007</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27">
         <v>36587</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29">
+      <c r="E53" s="27"/>
+      <c r="F53" s="27">
         <v>37970</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="25" t="s">
         <v>984</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27">
         <v>42086</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29">
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27">
         <v>34774</v>
       </c>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29">
+      <c r="E57" s="27"/>
+      <c r="F57" s="27">
         <v>35207</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="25" t="s">
         <v>1008</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29">
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27">
         <v>33483</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>634</v>
       </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27">
         <v>41792</v>
       </c>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29">
+      <c r="E59" s="27"/>
+      <c r="F59" s="27">
         <v>42552</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="25" t="s">
         <v>985</v>
       </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="25" t="s">
         <v>635</v>
       </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29">
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27">
         <v>34662</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="25" t="s">
         <v>636</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="25" t="s">
         <v>1009</v>
       </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29">
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27">
         <v>33619</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F65" s="27">
         <v>34151</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="25" t="s">
         <v>638</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29">
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27">
         <v>42614</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="25" t="s">
         <v>639</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29">
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27">
         <v>34758</v>
       </c>
-      <c r="F68" s="29">
+      <c r="F68" s="27">
         <v>35947</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="25" t="s">
         <v>640</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29">
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27">
         <v>44743</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="25" t="s">
         <v>641</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29">
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27">
         <v>42186</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="25" t="s">
         <v>642</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29">
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27">
         <v>33560</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="27">
         <v>42795</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="25" t="s">
         <v>644</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="29">
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="27">
         <v>36966</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="27">
         <v>37500</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="27">
         <v>38384</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29">
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27">
         <v>34610</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="27">
         <v>36089</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="29"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="29">
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="27">
         <v>34121</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29">
+      <c r="E77" s="27"/>
+      <c r="F77" s="27">
         <v>35606</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29">
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27">
         <v>43647</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29">
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="27">
         <v>37104</v>
       </c>
-      <c r="E82" s="29">
+      <c r="E82" s="27">
         <v>38018</v>
       </c>
-      <c r="F82" s="29">
+      <c r="F82" s="27">
         <v>39965</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="25" t="s">
         <v>1001</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29">
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27">
         <v>36978</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29">
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27">
         <v>30242</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29">
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27">
         <v>33924</v>
       </c>
-      <c r="F85" s="29">
+      <c r="F85" s="27">
         <v>35947</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29">
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27">
         <v>33560</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86" s="27">
         <v>33580</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29">
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27">
         <v>35982</v>
       </c>
-      <c r="F88" s="29">
+      <c r="F88" s="27">
         <v>43709</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="27" t="s">
+      <c r="A90" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="25" t="s">
         <v>986</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29">
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27">
         <v>35436</v>
       </c>
-      <c r="F91" s="29"/>
+      <c r="F91" s="27"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="27" t="s">
+      <c r="A95" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="29">
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="27">
         <v>42871</v>
       </c>
-      <c r="E95" s="29">
+      <c r="E95" s="27">
         <v>43647</v>
       </c>
-      <c r="F95" s="29">
+      <c r="F95" s="27">
         <v>44743</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29">
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27">
         <v>35599</v>
       </c>
-      <c r="F96" s="29">
+      <c r="F96" s="27">
         <v>42948</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29">
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27">
         <v>35128</v>
       </c>
-      <c r="F97" s="29">
+      <c r="F97" s="27">
         <v>35674</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="27" t="s">
+      <c r="A99" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="29"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="27" t="s">
+      <c r="A100" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="29"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="27" t="s">
+      <c r="A101" s="25" t="s">
         <v>1010</v>
       </c>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="27" t="s">
+      <c r="A102" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29">
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27">
         <v>32356</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="27" t="s">
+      <c r="A103" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="27" t="s">
+      <c r="A104" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29">
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27">
         <v>44837</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="27" t="s">
+      <c r="A106" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29">
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27">
         <v>34610</v>
       </c>
-      <c r="F106" s="29">
+      <c r="F106" s="27">
         <v>35384</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="29"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="29"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="27" t="s">
+      <c r="A108" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29">
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27">
         <v>34645</v>
       </c>
-      <c r="F108" s="29">
+      <c r="F108" s="27">
         <v>34778</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="25" t="s">
         <v>1011</v>
       </c>
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="27" t="s">
+      <c r="A110" s="25" t="s">
         <v>1012</v>
       </c>
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="27" t="s">
+      <c r="A111" s="25" t="s">
         <v>769</v>
       </c>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="29" t="s">
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="27" t="s">
         <v>1047</v>
       </c>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29">
+      <c r="E111" s="27"/>
+      <c r="F111" s="27">
         <v>37827</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="27" t="s">
+      <c r="A112" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29">
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27">
         <v>35627</v>
       </c>
-      <c r="F112" s="29">
+      <c r="F112" s="27">
         <v>36965</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="27" t="s">
+      <c r="A113" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29">
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27">
         <v>42614</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="27" t="s">
+      <c r="A114" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29">
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27">
         <v>34611</v>
       </c>
-      <c r="F114" s="29">
+      <c r="F114" s="27">
         <v>35947</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="27" t="s">
+      <c r="A115" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="29"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="27"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="27" t="s">
+      <c r="A116" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29">
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="27">
         <v>34592</v>
       </c>
-      <c r="F116" s="29">
+      <c r="F116" s="27">
         <v>35697</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="B117" s="28"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="29">
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="27"/>
+      <c r="E117" s="27">
         <v>35597</v>
       </c>
-      <c r="F117" s="29">
+      <c r="F117" s="27">
         <v>36362</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="27" t="s">
+      <c r="A118" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29">
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27">
         <v>35597</v>
       </c>
-      <c r="F118" s="29">
+      <c r="F118" s="27">
         <v>36332</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="27" t="s">
+      <c r="A119" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="29">
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="27">
         <v>32419</v>
       </c>
-      <c r="E119" s="29"/>
-      <c r="F119" s="29">
+      <c r="E119" s="27"/>
+      <c r="F119" s="27">
         <v>33086</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="27" t="s">
+      <c r="A120" s="25" t="s">
         <v>987</v>
       </c>
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="29"/>
-      <c r="E120" s="29">
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="27">
         <v>33619</v>
       </c>
-      <c r="F120" s="29">
+      <c r="F120" s="27">
         <v>34151</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="27" t="s">
+      <c r="A121" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="29"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="27" t="s">
+      <c r="A123" s="25" t="s">
         <v>988</v>
       </c>
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="29"/>
-      <c r="E123" s="29">
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27">
         <v>34709</v>
       </c>
-      <c r="F123" s="29">
+      <c r="F123" s="27">
         <v>36832</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="27" t="s">
+      <c r="A124" s="25" t="s">
         <v>666</v>
       </c>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29">
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27">
         <v>35765</v>
       </c>
-      <c r="F124" s="29">
+      <c r="F124" s="27">
         <v>36833</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="27" t="s">
+      <c r="A125" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="27"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="27" t="s">
+      <c r="A126" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29">
+      <c r="B126" s="26"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="27"/>
+      <c r="E126" s="27">
         <v>43710</v>
       </c>
-      <c r="F126" s="29">
+      <c r="F126" s="27">
         <v>44743</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="27" t="s">
+      <c r="A127" s="25" t="s">
         <v>668</v>
       </c>
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="29"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="29"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="27" t="s">
+      <c r="A128" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="29"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="27" t="s">
+      <c r="A129" s="25" t="s">
         <v>671</v>
       </c>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="27" t="s">
+      <c r="A130" s="25" t="s">
         <v>672</v>
       </c>
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="29">
+      <c r="B130" s="26"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27">
         <v>34205</v>
       </c>
-      <c r="F130" s="29">
+      <c r="F130" s="27">
         <v>34228</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="27" t="s">
+      <c r="A131" s="25" t="s">
         <v>673</v>
       </c>
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="29"/>
-      <c r="E131" s="29">
+      <c r="B131" s="26"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27">
         <v>34666</v>
       </c>
-      <c r="F131" s="29">
+      <c r="F131" s="27">
         <v>35697</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="27" t="s">
+      <c r="A132" s="25" t="s">
         <v>674</v>
       </c>
-      <c r="B132" s="28"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="29"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="27" t="s">
+      <c r="A133" s="25" t="s">
         <v>1002</v>
       </c>
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="29"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="29">
+      <c r="B133" s="26"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27">
         <v>32706</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="29"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="29"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="27" t="s">
+      <c r="A135" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29">
+      <c r="B135" s="26"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="27">
         <v>35233</v>
       </c>
-      <c r="F135" s="29">
+      <c r="F135" s="27">
         <v>36332</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="27"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="25" t="s">
         <v>545</v>
       </c>
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="27"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="27" t="s">
+      <c r="A139" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="27" t="s">
+      <c r="A140" s="25" t="s">
         <v>675</v>
       </c>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="29"/>
-      <c r="E140" s="29">
+      <c r="B140" s="26"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27">
         <v>36105</v>
       </c>
-      <c r="F140" s="29">
+      <c r="F140" s="27">
         <v>38063</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="27" t="s">
+      <c r="A141" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="27"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="27" t="s">
+      <c r="A142" s="25" t="s">
         <v>676</v>
       </c>
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="29">
+      <c r="B142" s="26"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="27">
         <v>43252</v>
       </c>
-      <c r="E142" s="29">
+      <c r="E142" s="27">
         <v>43647</v>
       </c>
-      <c r="F142" s="29">
+      <c r="F142" s="27">
         <v>44743</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="25" t="s">
         <v>677</v>
       </c>
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="29" t="s">
+      <c r="B143" s="26"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="27" t="s">
         <v>1051</v>
       </c>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29">
+      <c r="E143" s="27"/>
+      <c r="F143" s="27">
         <v>34151</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="27" t="s">
+      <c r="A144" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="29"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="29"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="27"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="25" t="s">
         <v>678</v>
       </c>
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="29"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="29">
+      <c r="B145" s="26"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27">
         <v>30560</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="25" t="s">
         <v>679</v>
       </c>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="29"/>
-      <c r="E146" s="29">
+      <c r="B146" s="26"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27">
         <v>34366</v>
       </c>
-      <c r="F146" s="29">
+      <c r="F146" s="27">
         <v>35096</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="29"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="29"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="25" t="s">
         <v>680</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="27"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="27" t="s">
+      <c r="A149" s="25" t="s">
         <v>681</v>
       </c>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="29"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="29"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="27" t="s">
+      <c r="A150" s="25" t="s">
         <v>682</v>
       </c>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="29"/>
-      <c r="E150" s="29">
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27">
         <v>34582</v>
       </c>
-      <c r="F150" s="29">
+      <c r="F150" s="27">
         <v>34774</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="27" t="s">
+      <c r="A151" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="B151" s="28"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="29"/>
-      <c r="E151" s="29">
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="27"/>
+      <c r="E151" s="27">
         <v>34631</v>
       </c>
-      <c r="F151" s="29">
+      <c r="F151" s="27">
         <v>35807</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="27" t="s">
+      <c r="A152" s="25" t="s">
         <v>683</v>
       </c>
-      <c r="B152" s="28"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29">
+      <c r="B152" s="26"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="27"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27">
         <v>39965</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="27" t="s">
+      <c r="A153" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B153" s="28"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29">
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27">
         <v>42614</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="27" t="s">
+      <c r="A154" s="25" t="s">
         <v>685</v>
       </c>
-      <c r="B154" s="28"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29">
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27">
         <v>34619</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="27" t="s">
+      <c r="A155" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="29"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="27" t="s">
+      <c r="A156" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="B156" s="28"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="27" t="s">
+      <c r="A157" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="29"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="27" t="s">
+      <c r="A158" s="25" t="s">
         <v>686</v>
       </c>
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="29">
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="27">
         <v>29284</v>
       </c>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29">
+      <c r="E158" s="27"/>
+      <c r="F158" s="27">
         <v>29602</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="27" t="s">
+      <c r="A159" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="B159" s="28"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29">
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27">
         <v>42614</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="27" t="s">
+      <c r="A160" s="25" t="s">
         <v>1013</v>
       </c>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="27" t="s">
+      <c r="A161" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="29"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="29"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="27" t="s">
+      <c r="A162" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="29">
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="27">
         <v>30230</v>
       </c>
-      <c r="E162" s="29">
+      <c r="E162" s="27">
         <v>33560</v>
       </c>
-      <c r="F162" s="29">
+      <c r="F162" s="27">
         <v>34645</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="27" t="s">
+      <c r="A163" s="25" t="s">
         <v>989</v>
       </c>
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="27" t="s">
+      <c r="A164" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="B164" s="28"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="29"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="27" t="s">
+      <c r="A165" s="25" t="s">
         <v>553</v>
       </c>
-      <c r="B165" s="28"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="27" t="s">
+      <c r="A166" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="29"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="29"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="27" t="s">
+      <c r="A167" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="27" t="s">
+      <c r="A168" s="25" t="s">
         <v>689</v>
       </c>
-      <c r="B168" s="28"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="29"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="29">
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27">
         <v>32964</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="27" t="s">
+      <c r="A169" s="25" t="s">
         <v>990</v>
       </c>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="29"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="29"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="27" t="s">
+      <c r="A170" s="25" t="s">
         <v>690</v>
       </c>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="29"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="29"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="27" t="s">
+      <c r="A171" s="25" t="s">
         <v>691</v>
       </c>
-      <c r="B171" s="28"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="29"/>
-      <c r="E171" s="29"/>
-      <c r="F171" s="29"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="27" t="s">
+      <c r="A172" s="25" t="s">
         <v>692</v>
       </c>
-      <c r="B172" s="28"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="29"/>
-      <c r="E172" s="29">
+      <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27">
         <v>34669</v>
       </c>
-      <c r="F172" s="29">
+      <c r="F172" s="27">
         <v>35807</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="27" t="s">
+      <c r="A173" s="25" t="s">
         <v>693</v>
       </c>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="29"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="27" t="s">
+      <c r="A174" s="25" t="s">
         <v>694</v>
       </c>
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="29"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="27" t="s">
+      <c r="A175" s="25" t="s">
         <v>695</v>
       </c>
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="29">
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27">
         <v>37900</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="27" t="s">
+      <c r="A176" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="29"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="27" t="s">
+      <c r="A178" s="25" t="s">
         <v>696</v>
       </c>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="29"/>
-      <c r="E178" s="29">
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27">
         <v>34516</v>
       </c>
-      <c r="F178" s="29">
+      <c r="F178" s="27">
         <v>34774</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="29"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="27" t="s">
+      <c r="A180" s="25" t="s">
         <v>697</v>
       </c>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="29"/>
-      <c r="E180" s="29"/>
-      <c r="F180" s="29"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="27" t="s">
+      <c r="A181" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="29"/>
-      <c r="E181" s="29">
+      <c r="B181" s="26"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27">
         <v>34417</v>
       </c>
-      <c r="F181" s="29">
+      <c r="F181" s="27">
         <v>36069</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="27" t="s">
+      <c r="A182" s="25" t="s">
         <v>698</v>
       </c>
-      <c r="B182" s="28"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="29">
+      <c r="B182" s="26"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="27">
         <v>43633</v>
       </c>
-      <c r="E182" s="29">
+      <c r="E182" s="27">
         <v>43709</v>
       </c>
-      <c r="F182" s="29">
+      <c r="F182" s="27">
         <v>44743</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="27" t="s">
+      <c r="A183" s="25" t="s">
         <v>699</v>
       </c>
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="29"/>
-      <c r="E183" s="29">
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27">
         <v>35159</v>
       </c>
-      <c r="F183" s="29">
+      <c r="F183" s="27">
         <v>36332</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="27" t="s">
+      <c r="A184" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="B184" s="28"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="29"/>
-      <c r="E184" s="29">
+      <c r="B184" s="26"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27">
         <v>34690</v>
       </c>
-      <c r="F184" s="29">
+      <c r="F184" s="27">
         <v>35384</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="27" t="s">
+      <c r="A185" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="B185" s="28"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="29"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="27" t="s">
+      <c r="A186" s="25" t="s">
         <v>700</v>
       </c>
-      <c r="B186" s="28"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="29">
+      <c r="B186" s="26"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="27">
         <v>37382</v>
       </c>
-      <c r="E186" s="29">
+      <c r="E186" s="27">
         <v>39539</v>
       </c>
-      <c r="F186" s="29">
+      <c r="F186" s="27">
         <v>39965</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="27" t="s">
+      <c r="A187" s="25" t="s">
         <v>701</v>
       </c>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="29"/>
-      <c r="E187" s="29">
+      <c r="B187" s="26"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27">
         <v>35591</v>
       </c>
-      <c r="F187" s="29">
+      <c r="F187" s="27">
         <v>36332</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="27" t="s">
+      <c r="A188" s="25" t="s">
         <v>702</v>
       </c>
-      <c r="B188" s="28"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="29"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="27" t="s">
+      <c r="A189" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="B189" s="28"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="29">
+      <c r="B189" s="26"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27">
         <v>32356</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="27" t="s">
+      <c r="A190" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="B190" s="28"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="29"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="29">
+      <c r="B190" s="26"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27">
         <v>35248</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="27" t="s">
+      <c r="A191" s="25" t="s">
         <v>991</v>
       </c>
-      <c r="B191" s="28"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="29"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="27" t="s">
+      <c r="A192" s="25" t="s">
         <v>992</v>
       </c>
-      <c r="B192" s="28"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="29"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="27" t="s">
+      <c r="A193" s="25" t="s">
         <v>1014</v>
       </c>
-      <c r="B193" s="28"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="29"/>
-      <c r="F193" s="29">
+      <c r="B193" s="26"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27">
         <v>40210</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="27" t="s">
+      <c r="A194" s="25" t="s">
         <v>993</v>
       </c>
-      <c r="B194" s="28"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="29" t="s">
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="27" t="s">
         <v>1054</v>
       </c>
-      <c r="E194" s="29"/>
-      <c r="F194" s="29">
+      <c r="E194" s="27"/>
+      <c r="F194" s="27">
         <v>32325</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="27" t="s">
+      <c r="A195" s="25" t="s">
         <v>705</v>
       </c>
-      <c r="B195" s="28"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="29"/>
-      <c r="E195" s="29"/>
-      <c r="F195" s="29"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="27" t="s">
+      <c r="A196" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="B196" s="28"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="29"/>
-      <c r="E196" s="29"/>
-      <c r="F196" s="29"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="27"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="27" t="s">
+      <c r="A197" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="B197" s="28"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="29"/>
-      <c r="E197" s="29"/>
-      <c r="F197" s="29"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="27"/>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="27" t="s">
+      <c r="A198" s="25" t="s">
         <v>563</v>
       </c>
-      <c r="B198" s="28"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="29"/>
-      <c r="E198" s="29"/>
-      <c r="F198" s="29"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="27"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="27" t="s">
+      <c r="A199" s="25" t="s">
         <v>564</v>
       </c>
-      <c r="B199" s="28"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="29"/>
-      <c r="E199" s="29">
+      <c r="B199" s="26"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27">
         <v>37378</v>
       </c>
-      <c r="F199" s="29">
+      <c r="F199" s="27">
         <v>39965</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="27" t="s">
+      <c r="A200" s="25" t="s">
         <v>565</v>
       </c>
-      <c r="B200" s="28"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="29"/>
-      <c r="E200" s="29"/>
-      <c r="F200" s="29"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="27"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="27"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="27" t="s">
+      <c r="A201" s="25" t="s">
         <v>566</v>
       </c>
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29"/>
-      <c r="F201" s="29"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="27"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="27"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="27" t="s">
+      <c r="A202" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="B202" s="28"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="29"/>
-      <c r="E202" s="29"/>
-      <c r="F202" s="29"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="27"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="27"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="27" t="s">
+      <c r="A203" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="B203" s="28"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29">
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="27"/>
+      <c r="E203" s="27">
         <v>34288</v>
       </c>
-      <c r="F203" s="29">
+      <c r="F203" s="27">
         <v>34513</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="27" t="s">
+      <c r="A204" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="B204" s="28"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="29"/>
-      <c r="E204" s="29">
+      <c r="B204" s="26"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27">
         <v>33878</v>
       </c>
-      <c r="F204" s="29">
+      <c r="F204" s="27">
         <v>34416</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="27" t="s">
+      <c r="A205" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="B205" s="28"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="29"/>
-      <c r="E205" s="29"/>
-      <c r="F205" s="29">
+      <c r="B205" s="26"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27">
         <v>31639</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="27" t="s">
+      <c r="A206" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="B206" s="28"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="29" t="s">
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="27" t="s">
         <v>1045</v>
       </c>
-      <c r="E206" s="29"/>
-      <c r="F206" s="29">
+      <c r="E206" s="27"/>
+      <c r="F206" s="27">
         <v>36965</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="27" t="s">
+      <c r="A207" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="B207" s="28"/>
-      <c r="C207" s="28"/>
-      <c r="D207" s="29"/>
-      <c r="E207" s="29"/>
-      <c r="F207" s="29">
+      <c r="B207" s="26"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27">
         <v>36486</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="27" t="s">
+      <c r="A208" s="25" t="s">
         <v>711</v>
       </c>
-      <c r="B208" s="28"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="29" t="s">
+      <c r="B208" s="26"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="27" t="s">
         <v>1041</v>
       </c>
-      <c r="E208" s="29">
+      <c r="E208" s="27">
         <v>34001</v>
       </c>
-      <c r="F208" s="29">
+      <c r="F208" s="27">
         <v>35870</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="27" t="s">
+      <c r="A209" s="25" t="s">
         <v>712</v>
       </c>
-      <c r="B209" s="28"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="29"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="29">
+      <c r="B209" s="26"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27">
         <v>32433</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="27" t="s">
+      <c r="A210" s="25" t="s">
         <v>568</v>
       </c>
-      <c r="B210" s="28"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="29"/>
-      <c r="E210" s="29"/>
-      <c r="F210" s="29"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="27" t="s">
+      <c r="A211" s="25" t="s">
         <v>713</v>
       </c>
-      <c r="B211" s="28"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="29"/>
-      <c r="E211" s="29"/>
-      <c r="F211" s="29"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="27" t="s">
+      <c r="A212" s="25" t="s">
         <v>1015</v>
       </c>
-      <c r="B212" s="28"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="29"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="29"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="27" t="s">
+      <c r="A213" s="25" t="s">
         <v>714</v>
       </c>
-      <c r="B213" s="28"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="29"/>
-      <c r="E213" s="29">
+      <c r="B213" s="26"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27">
         <v>35880</v>
       </c>
-      <c r="F213" s="29">
+      <c r="F213" s="27">
         <v>36833</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="27" t="s">
+      <c r="A214" s="25" t="s">
         <v>715</v>
       </c>
-      <c r="B214" s="28"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="29"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="29"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="27" t="s">
+      <c r="A215" s="25" t="s">
         <v>716</v>
       </c>
-      <c r="B215" s="28"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="29"/>
-      <c r="E215" s="29"/>
-      <c r="F215" s="29"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="27" t="s">
+      <c r="A216" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="B216" s="28"/>
-      <c r="C216" s="28"/>
-      <c r="D216" s="29"/>
-      <c r="E216" s="29">
+      <c r="B216" s="26"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27">
         <v>34895</v>
       </c>
-      <c r="F216" s="29">
+      <c r="F216" s="27">
         <v>40467</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="27" t="s">
+      <c r="A217" s="25" t="s">
         <v>718</v>
       </c>
-      <c r="B217" s="28"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="29"/>
-      <c r="E217" s="29">
+      <c r="B217" s="26"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27">
         <v>34659</v>
       </c>
-      <c r="F217" s="29">
+      <c r="F217" s="27">
         <v>35207</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="27" t="s">
+      <c r="A218" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="B218" s="28"/>
-      <c r="C218" s="28"/>
-      <c r="D218" s="29"/>
-      <c r="E218" s="29"/>
-      <c r="F218" s="29"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="27"/>
+      <c r="E218" s="27"/>
+      <c r="F218" s="27"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="27" t="s">
+      <c r="A219" s="25" t="s">
         <v>994</v>
       </c>
-      <c r="B219" s="28"/>
-      <c r="C219" s="28"/>
-      <c r="D219" s="29"/>
-      <c r="E219" s="29"/>
-      <c r="F219" s="29"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="27"/>
+      <c r="E219" s="27"/>
+      <c r="F219" s="27"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="27" t="s">
+      <c r="A220" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="B220" s="28"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="29"/>
-      <c r="E220" s="29"/>
-      <c r="F220" s="29"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="26"/>
+      <c r="D220" s="27"/>
+      <c r="E220" s="27"/>
+      <c r="F220" s="27"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="27" t="s">
+      <c r="A221" s="25" t="s">
         <v>721</v>
       </c>
-      <c r="B221" s="28"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="29"/>
-      <c r="E221" s="29"/>
-      <c r="F221" s="29"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="27"/>
+      <c r="E221" s="27"/>
+      <c r="F221" s="27"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="27" t="s">
+      <c r="A222" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="B222" s="28"/>
-      <c r="C222" s="28"/>
-      <c r="D222" s="29">
+      <c r="B222" s="26"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="27">
         <v>43542</v>
       </c>
-      <c r="E222" s="29">
+      <c r="E222" s="27">
         <v>43709</v>
       </c>
-      <c r="F222" s="29">
+      <c r="F222" s="27">
         <v>44743</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="27" t="s">
+      <c r="A223" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="B223" s="28"/>
-      <c r="C223" s="28"/>
-      <c r="D223" s="29"/>
-      <c r="E223" s="29"/>
-      <c r="F223" s="29">
+      <c r="B223" s="26"/>
+      <c r="C223" s="26"/>
+      <c r="D223" s="27"/>
+      <c r="E223" s="27"/>
+      <c r="F223" s="27">
         <v>42614</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="27" t="s">
+      <c r="A224" s="25" t="s">
         <v>569</v>
       </c>
-      <c r="B224" s="28"/>
-      <c r="C224" s="28"/>
-      <c r="D224" s="29"/>
-      <c r="E224" s="29"/>
-      <c r="F224" s="29"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="26"/>
+      <c r="D224" s="27"/>
+      <c r="E224" s="27"/>
+      <c r="F224" s="27"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="27" t="s">
+      <c r="A225" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="B225" s="28"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="29"/>
-      <c r="E225" s="29"/>
-      <c r="F225" s="29"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="27"/>
+      <c r="E225" s="27"/>
+      <c r="F225" s="27"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="27" t="s">
+      <c r="A226" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="B226" s="28"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="29"/>
-      <c r="E226" s="29"/>
-      <c r="F226" s="29"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="27" t="s">
+      <c r="A227" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="B227" s="28"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="29"/>
-      <c r="E227" s="29">
+      <c r="B227" s="26"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="27"/>
+      <c r="E227" s="27">
         <v>34071</v>
       </c>
-      <c r="F227" s="29">
+      <c r="F227" s="27">
         <v>35879</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="27" t="s">
+      <c r="A228" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="B228" s="28"/>
-      <c r="C228" s="28"/>
-      <c r="D228" s="29"/>
-      <c r="E228" s="29" t="s">
+      <c r="B228" s="26"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="27"/>
+      <c r="E228" s="27" t="s">
         <v>1032</v>
       </c>
-      <c r="F228" s="29">
+      <c r="F228" s="27">
         <v>35241</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="27" t="s">
+      <c r="A229" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="B229" s="28"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="29"/>
-      <c r="E229" s="29"/>
-      <c r="F229" s="29"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="27"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="27"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="27" t="s">
+      <c r="A230" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="B230" s="28"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="29"/>
-      <c r="E230" s="29"/>
-      <c r="F230" s="29"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="27"/>
+      <c r="E230" s="27"/>
+      <c r="F230" s="27"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="27" t="s">
+      <c r="A231" s="25" t="s">
         <v>726</v>
       </c>
-      <c r="B231" s="28"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="29"/>
-      <c r="E231" s="29"/>
-      <c r="F231" s="29"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="27"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="27" t="s">
+      <c r="A232" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="B232" s="28"/>
-      <c r="C232" s="28"/>
-      <c r="D232" s="29">
+      <c r="B232" s="26"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="27">
         <v>41106</v>
       </c>
-      <c r="E232" s="29">
+      <c r="E232" s="27">
         <v>42186</v>
       </c>
-      <c r="F232" s="29">
+      <c r="F232" s="27">
         <v>44028</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="27" t="s">
+      <c r="A233" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="B233" s="28"/>
-      <c r="C233" s="28"/>
-      <c r="D233" s="29"/>
-      <c r="E233" s="29"/>
-      <c r="F233" s="29"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="27"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="27"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="27" t="s">
+      <c r="A234" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="B234" s="28"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="29"/>
-      <c r="E234" s="29">
+      <c r="B234" s="26"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="27"/>
+      <c r="E234" s="27">
         <v>34584</v>
       </c>
-      <c r="F234" s="29">
+      <c r="F234" s="27">
         <v>34641</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="27" t="s">
+      <c r="A235" s="25" t="s">
         <v>729</v>
       </c>
-      <c r="B235" s="28"/>
-      <c r="C235" s="28"/>
-      <c r="D235" s="29"/>
-      <c r="E235" s="29">
+      <c r="B235" s="26"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="27"/>
+      <c r="E235" s="27">
         <v>34516</v>
       </c>
-      <c r="F235" s="29">
+      <c r="F235" s="27">
         <v>34641</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="27" t="s">
+      <c r="A236" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="B236" s="28"/>
-      <c r="C236" s="28"/>
-      <c r="D236" s="29"/>
-      <c r="E236" s="29"/>
-      <c r="F236" s="29"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="27"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="27"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="27" t="s">
+      <c r="A237" s="25" t="s">
         <v>574</v>
       </c>
-      <c r="B237" s="28"/>
-      <c r="C237" s="28"/>
-      <c r="D237" s="29"/>
-      <c r="E237" s="29">
+      <c r="B237" s="26"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27">
         <v>35992</v>
       </c>
-      <c r="F237" s="29">
+      <c r="F237" s="27">
         <v>36248</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="27" t="s">
+      <c r="A238" s="25" t="s">
         <v>575</v>
       </c>
-      <c r="B238" s="28"/>
-      <c r="C238" s="28"/>
-      <c r="D238" s="29"/>
-      <c r="E238" s="29"/>
-      <c r="F238" s="29"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="27"/>
+      <c r="E238" s="27"/>
+      <c r="F238" s="27"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="27" t="s">
+      <c r="A239" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="B239" s="28"/>
-      <c r="C239" s="28"/>
-      <c r="D239" s="29"/>
-      <c r="E239" s="29"/>
-      <c r="F239" s="29"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="27"/>
+      <c r="E239" s="27"/>
+      <c r="F239" s="27"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="27" t="s">
+      <c r="A240" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="B240" s="28"/>
-      <c r="C240" s="28"/>
-      <c r="D240" s="29"/>
-      <c r="E240" s="29"/>
-      <c r="F240" s="29">
+      <c r="B240" s="26"/>
+      <c r="C240" s="26"/>
+      <c r="D240" s="27"/>
+      <c r="E240" s="27"/>
+      <c r="F240" s="27">
         <v>34589</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="27" t="s">
+      <c r="A241" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="B241" s="28"/>
-      <c r="C241" s="28"/>
-      <c r="D241" s="29"/>
-      <c r="E241" s="29"/>
-      <c r="F241" s="29">
+      <c r="B241" s="26"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="27"/>
+      <c r="E241" s="27"/>
+      <c r="F241" s="27">
         <v>34778</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="27" t="s">
+      <c r="A242" s="25" t="s">
         <v>733</v>
       </c>
-      <c r="B242" s="28"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="29" t="s">
+      <c r="B242" s="26"/>
+      <c r="C242" s="26"/>
+      <c r="D242" s="27" t="s">
         <v>1030</v>
       </c>
-      <c r="E242" s="29"/>
-      <c r="F242" s="29">
+      <c r="E242" s="27"/>
+      <c r="F242" s="27">
         <v>35957</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="27" t="s">
+      <c r="A243" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="B243" s="28"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="29">
+      <c r="B243" s="26"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="27">
         <v>43633</v>
       </c>
-      <c r="E243" s="29">
+      <c r="E243" s="27">
         <v>43710</v>
       </c>
-      <c r="F243" s="29">
+      <c r="F243" s="27">
         <v>44621</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="27" t="s">
+      <c r="A244" s="25" t="s">
         <v>577</v>
       </c>
-      <c r="B244" s="28"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="29"/>
-      <c r="E244" s="29">
+      <c r="B244" s="26"/>
+      <c r="C244" s="26"/>
+      <c r="D244" s="27"/>
+      <c r="E244" s="27">
         <v>36395</v>
       </c>
-      <c r="F244" s="29">
+      <c r="F244" s="27">
         <v>40182</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="27" t="s">
+      <c r="A245" s="25" t="s">
         <v>734</v>
       </c>
-      <c r="B245" s="28"/>
-      <c r="C245" s="28"/>
-      <c r="D245" s="29"/>
-      <c r="E245" s="29"/>
-      <c r="F245" s="29">
+      <c r="B245" s="26"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="27"/>
+      <c r="E245" s="27"/>
+      <c r="F245" s="27">
         <v>32767</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="27" t="s">
+      <c r="A246" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="B246" s="28"/>
-      <c r="C246" s="28"/>
-      <c r="D246" s="29"/>
-      <c r="E246" s="29"/>
-      <c r="F246" s="29">
+      <c r="B246" s="26"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="27"/>
+      <c r="E246" s="27"/>
+      <c r="F246" s="27">
         <v>31625</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="27" t="s">
+      <c r="A247" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="B247" s="28"/>
-      <c r="C247" s="28"/>
-      <c r="D247" s="29"/>
-      <c r="E247" s="29"/>
-      <c r="F247" s="29"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="26"/>
+      <c r="D247" s="27"/>
+      <c r="E247" s="27"/>
+      <c r="F247" s="27"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="27" t="s">
+      <c r="A248" s="25" t="s">
         <v>995</v>
       </c>
-      <c r="B248" s="28"/>
-      <c r="C248" s="28"/>
-      <c r="D248" s="29"/>
-      <c r="E248" s="29"/>
-      <c r="F248" s="29"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="27"/>
+      <c r="E248" s="27"/>
+      <c r="F248" s="27"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="27" t="s">
+      <c r="A249" s="25" t="s">
         <v>580</v>
       </c>
-      <c r="B249" s="28"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="29"/>
-      <c r="E249" s="29"/>
-      <c r="F249" s="29"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="26"/>
+      <c r="D249" s="27"/>
+      <c r="E249" s="27"/>
+      <c r="F249" s="27"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="27" t="s">
+      <c r="A250" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="B250" s="28"/>
-      <c r="C250" s="28"/>
-      <c r="D250" s="29"/>
-      <c r="E250" s="29"/>
-      <c r="F250" s="29"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="26"/>
+      <c r="D250" s="27"/>
+      <c r="E250" s="27"/>
+      <c r="F250" s="27"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="27" t="s">
+      <c r="A251" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="B251" s="28"/>
-      <c r="C251" s="28"/>
-      <c r="D251" s="29"/>
-      <c r="E251" s="29">
+      <c r="B251" s="26"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="27"/>
+      <c r="E251" s="27">
         <v>34624</v>
       </c>
-      <c r="F251" s="29">
+      <c r="F251" s="27">
         <v>35609</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="27" t="s">
+      <c r="A252" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="B252" s="28"/>
-      <c r="C252" s="28"/>
-      <c r="D252" s="29"/>
-      <c r="E252" s="29"/>
-      <c r="F252" s="29"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="27"/>
+      <c r="E252" s="27"/>
+      <c r="F252" s="27"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="27" t="s">
+      <c r="A253" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="B253" s="28"/>
-      <c r="C253" s="28"/>
-      <c r="D253" s="29"/>
-      <c r="E253" s="29"/>
-      <c r="F253" s="29"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="27"/>
+      <c r="E253" s="27"/>
+      <c r="F253" s="27"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="27" t="s">
+      <c r="A254" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="B254" s="28"/>
-      <c r="C254" s="28"/>
-      <c r="D254" s="29"/>
-      <c r="E254" s="29"/>
-      <c r="F254" s="29"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="26"/>
+      <c r="D254" s="27"/>
+      <c r="E254" s="27"/>
+      <c r="F254" s="27"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="27" t="s">
+      <c r="A255" s="25" t="s">
         <v>738</v>
       </c>
-      <c r="B255" s="28"/>
-      <c r="C255" s="28"/>
-      <c r="D255" s="29"/>
-      <c r="E255" s="29">
+      <c r="B255" s="26"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="27"/>
+      <c r="E255" s="27">
         <v>35450</v>
       </c>
-      <c r="F255" s="29">
+      <c r="F255" s="27">
         <v>36965</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="27" t="s">
+      <c r="A256" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="B256" s="28"/>
-      <c r="C256" s="28"/>
-      <c r="D256" s="29"/>
-      <c r="E256" s="29">
+      <c r="B256" s="26"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="27"/>
+      <c r="E256" s="27">
         <v>24740</v>
       </c>
-      <c r="F256" s="29">
+      <c r="F256" s="27">
         <v>41323</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="27" t="s">
+      <c r="A257" s="25" t="s">
         <v>1016</v>
       </c>
-      <c r="B257" s="28"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="29">
+      <c r="B257" s="26"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="27">
         <v>32325</v>
       </c>
-      <c r="E257" s="29"/>
-      <c r="F257" s="29">
+      <c r="E257" s="27"/>
+      <c r="F257" s="27">
         <v>33086</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="27" t="s">
+      <c r="A258" s="25" t="s">
         <v>1017</v>
       </c>
-      <c r="B258" s="28"/>
-      <c r="C258" s="28"/>
-      <c r="D258" s="29"/>
-      <c r="E258" s="29"/>
-      <c r="F258" s="29"/>
+      <c r="B258" s="26"/>
+      <c r="C258" s="26"/>
+      <c r="D258" s="27"/>
+      <c r="E258" s="27"/>
+      <c r="F258" s="27"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="27" t="s">
+      <c r="A259" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="B259" s="28"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="29">
+      <c r="B259" s="26"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="27">
         <v>37022</v>
       </c>
-      <c r="E259" s="29"/>
-      <c r="F259" s="29">
+      <c r="E259" s="27"/>
+      <c r="F259" s="27">
         <v>37928</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="27" t="s">
+      <c r="A260" s="25" t="s">
         <v>739</v>
       </c>
-      <c r="B260" s="28"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="29" t="s">
+      <c r="B260" s="26"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="27" t="s">
         <v>1042</v>
       </c>
-      <c r="E260" s="29"/>
-      <c r="F260" s="29">
+      <c r="E260" s="27"/>
+      <c r="F260" s="27">
         <v>35385</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="27" t="s">
+      <c r="A261" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="B261" s="28"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="29"/>
-      <c r="E261" s="29"/>
-      <c r="F261" s="29"/>
+      <c r="B261" s="26"/>
+      <c r="C261" s="26"/>
+      <c r="D261" s="27"/>
+      <c r="E261" s="27"/>
+      <c r="F261" s="27"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="27" t="s">
+      <c r="A262" s="25" t="s">
         <v>740</v>
       </c>
-      <c r="B262" s="28"/>
-      <c r="C262" s="28"/>
-      <c r="D262" s="29"/>
-      <c r="E262" s="29">
+      <c r="B262" s="26"/>
+      <c r="C262" s="26"/>
+      <c r="D262" s="27"/>
+      <c r="E262" s="27">
         <v>44013</v>
       </c>
-      <c r="F262" s="29">
+      <c r="F262" s="27">
         <v>44743</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="27" t="s">
+      <c r="A263" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="B263" s="28"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="29"/>
-      <c r="E263" s="29"/>
-      <c r="F263" s="29"/>
+      <c r="B263" s="26"/>
+      <c r="C263" s="26"/>
+      <c r="D263" s="27"/>
+      <c r="E263" s="27"/>
+      <c r="F263" s="27"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="27" t="s">
+      <c r="A264" s="25" t="s">
         <v>1018</v>
       </c>
-      <c r="B264" s="28"/>
-      <c r="C264" s="28"/>
-      <c r="D264" s="29"/>
-      <c r="E264" s="29"/>
-      <c r="F264" s="29"/>
+      <c r="B264" s="26"/>
+      <c r="C264" s="26"/>
+      <c r="D264" s="27"/>
+      <c r="E264" s="27"/>
+      <c r="F264" s="27"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="27" t="s">
+      <c r="A265" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="B265" s="28"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="29" t="s">
+      <c r="B265" s="26"/>
+      <c r="C265" s="26"/>
+      <c r="D265" s="27" t="s">
         <v>1056</v>
       </c>
-      <c r="E265" s="29">
+      <c r="E265" s="27">
         <v>36708</v>
       </c>
-      <c r="F265" s="29">
+      <c r="F265" s="27">
         <v>41730</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="27" t="s">
+      <c r="A266" s="25" t="s">
         <v>996</v>
       </c>
-      <c r="B266" s="28"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="29"/>
-      <c r="E266" s="29"/>
-      <c r="F266" s="29"/>
+      <c r="B266" s="26"/>
+      <c r="C266" s="26"/>
+      <c r="D266" s="27"/>
+      <c r="E266" s="27"/>
+      <c r="F266" s="27"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="27" t="s">
+      <c r="A267" s="25" t="s">
         <v>743</v>
       </c>
-      <c r="B267" s="28"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="29"/>
-      <c r="E267" s="29"/>
-      <c r="F267" s="29"/>
+      <c r="B267" s="26"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="27"/>
+      <c r="E267" s="27"/>
+      <c r="F267" s="27"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="27" t="s">
+      <c r="A268" s="25" t="s">
         <v>1019</v>
       </c>
-      <c r="B268" s="28"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="29" t="s">
+      <c r="B268" s="26"/>
+      <c r="C268" s="26"/>
+      <c r="D268" s="27" t="s">
         <v>1043</v>
       </c>
-      <c r="E268" s="29"/>
-      <c r="F268" s="29">
+      <c r="E268" s="27"/>
+      <c r="F268" s="27">
         <v>36815</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="27" t="s">
+      <c r="A269" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="B269" s="28"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="29"/>
-      <c r="E269" s="29"/>
-      <c r="F269" s="29"/>
+      <c r="B269" s="26"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="27"/>
+      <c r="E269" s="27"/>
+      <c r="F269" s="27"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="27" t="s">
+      <c r="A270" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="B270" s="28"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="29" t="s">
+      <c r="B270" s="26"/>
+      <c r="C270" s="26"/>
+      <c r="D270" s="27" t="s">
         <v>1049</v>
       </c>
-      <c r="E270" s="29"/>
-      <c r="F270" s="29">
+      <c r="E270" s="27"/>
+      <c r="F270" s="27">
         <v>37811</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="27" t="s">
+      <c r="A271" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="B271" s="28"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="29"/>
-      <c r="E271" s="29"/>
-      <c r="F271" s="29"/>
+      <c r="B271" s="26"/>
+      <c r="C271" s="26"/>
+      <c r="D271" s="27"/>
+      <c r="E271" s="27"/>
+      <c r="F271" s="27"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="27" t="s">
+      <c r="A272" s="25" t="s">
         <v>745</v>
       </c>
-      <c r="B272" s="28"/>
-      <c r="C272" s="28"/>
-      <c r="D272" s="29"/>
-      <c r="E272" s="29">
+      <c r="B272" s="26"/>
+      <c r="C272" s="26"/>
+      <c r="D272" s="27"/>
+      <c r="E272" s="27">
         <v>36543</v>
       </c>
-      <c r="F272" s="29">
+      <c r="F272" s="27">
         <v>36965</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="27" t="s">
+      <c r="A273" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="B273" s="28"/>
-      <c r="C273" s="28"/>
-      <c r="D273" s="29"/>
-      <c r="E273" s="29"/>
-      <c r="F273" s="29">
+      <c r="B273" s="26"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="27"/>
+      <c r="E273" s="27"/>
+      <c r="F273" s="27">
         <v>43647</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="27" t="s">
+      <c r="A274" s="25" t="s">
         <v>746</v>
       </c>
-      <c r="B274" s="28"/>
-      <c r="C274" s="28"/>
-      <c r="D274" s="29"/>
-      <c r="E274" s="29"/>
-      <c r="F274" s="29"/>
+      <c r="B274" s="26"/>
+      <c r="C274" s="26"/>
+      <c r="D274" s="27"/>
+      <c r="E274" s="27"/>
+      <c r="F274" s="27"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="27" t="s">
+      <c r="A275" s="25" t="s">
         <v>747</v>
       </c>
-      <c r="B275" s="28"/>
-      <c r="C275" s="28"/>
-      <c r="D275" s="29"/>
-      <c r="E275" s="29"/>
-      <c r="F275" s="29"/>
+      <c r="B275" s="26"/>
+      <c r="C275" s="26"/>
+      <c r="D275" s="27"/>
+      <c r="E275" s="27"/>
+      <c r="F275" s="27"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="27" t="s">
+      <c r="A276" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="B276" s="28"/>
-      <c r="C276" s="28"/>
-      <c r="D276" s="29">
+      <c r="B276" s="26"/>
+      <c r="C276" s="26"/>
+      <c r="D276" s="27">
         <v>39178</v>
       </c>
-      <c r="E276" s="29">
+      <c r="E276" s="27">
         <v>39448</v>
       </c>
-      <c r="F276" s="29">
+      <c r="F276" s="27">
         <v>41323</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="27" t="s">
+      <c r="A277" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="B277" s="28"/>
-      <c r="C277" s="28"/>
-      <c r="D277" s="29"/>
-      <c r="E277" s="29"/>
-      <c r="F277" s="29"/>
+      <c r="B277" s="26"/>
+      <c r="C277" s="26"/>
+      <c r="D277" s="27"/>
+      <c r="E277" s="27"/>
+      <c r="F277" s="27"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="27" t="s">
+      <c r="A278" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="B278" s="28"/>
-      <c r="C278" s="28"/>
-      <c r="D278" s="29"/>
-      <c r="E278" s="29"/>
-      <c r="F278" s="29">
+      <c r="B278" s="26"/>
+      <c r="C278" s="26"/>
+      <c r="D278" s="27"/>
+      <c r="E278" s="27"/>
+      <c r="F278" s="27">
         <v>43647</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="27" t="s">
+      <c r="A279" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="B279" s="28"/>
-      <c r="C279" s="28"/>
-      <c r="D279" s="29"/>
-      <c r="E279" s="29"/>
-      <c r="F279" s="29"/>
+      <c r="B279" s="26"/>
+      <c r="C279" s="26"/>
+      <c r="D279" s="27"/>
+      <c r="E279" s="27"/>
+      <c r="F279" s="27"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="27" t="s">
+      <c r="A280" s="25" t="s">
         <v>749</v>
       </c>
-      <c r="B280" s="28"/>
-      <c r="C280" s="28"/>
-      <c r="D280" s="29"/>
-      <c r="E280" s="29"/>
-      <c r="F280" s="29"/>
+      <c r="B280" s="26"/>
+      <c r="C280" s="26"/>
+      <c r="D280" s="27"/>
+      <c r="E280" s="27"/>
+      <c r="F280" s="27"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="27" t="s">
+      <c r="A281" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="B281" s="28"/>
-      <c r="C281" s="28"/>
-      <c r="D281" s="29"/>
-      <c r="E281" s="29">
+      <c r="B281" s="26"/>
+      <c r="C281" s="26"/>
+      <c r="D281" s="27"/>
+      <c r="E281" s="27">
         <v>39356</v>
       </c>
-      <c r="F281" s="29">
+      <c r="F281" s="27">
         <v>45006</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="27" t="s">
+      <c r="A282" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="B282" s="28"/>
-      <c r="C282" s="28"/>
-      <c r="D282" s="29"/>
-      <c r="E282" s="29"/>
-      <c r="F282" s="29">
+      <c r="B282" s="26"/>
+      <c r="C282" s="26"/>
+      <c r="D282" s="27"/>
+      <c r="E282" s="27"/>
+      <c r="F282" s="27">
         <v>42614</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="27" t="s">
+      <c r="A283" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="B283" s="28"/>
-      <c r="C283" s="28"/>
-      <c r="D283" s="29"/>
-      <c r="E283" s="29"/>
-      <c r="F283" s="29">
+      <c r="B283" s="26"/>
+      <c r="C283" s="26"/>
+      <c r="D283" s="27"/>
+      <c r="E283" s="27"/>
+      <c r="F283" s="27">
         <v>32433</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="27" t="s">
+      <c r="A284" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="B284" s="28"/>
-      <c r="C284" s="28"/>
-      <c r="D284" s="29"/>
-      <c r="E284" s="29"/>
-      <c r="F284" s="29">
+      <c r="B284" s="26"/>
+      <c r="C284" s="26"/>
+      <c r="D284" s="27"/>
+      <c r="E284" s="27"/>
+      <c r="F284" s="27">
         <v>29783</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="27" t="s">
+      <c r="A285" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="B285" s="28"/>
-      <c r="C285" s="28"/>
-      <c r="D285" s="29"/>
-      <c r="E285" s="29"/>
-      <c r="F285" s="29"/>
+      <c r="B285" s="26"/>
+      <c r="C285" s="26"/>
+      <c r="D285" s="27"/>
+      <c r="E285" s="27"/>
+      <c r="F285" s="27"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="27" t="s">
+      <c r="A286" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="B286" s="28"/>
-      <c r="C286" s="28"/>
-      <c r="D286" s="29"/>
-      <c r="E286" s="29"/>
-      <c r="F286" s="29">
+      <c r="B286" s="26"/>
+      <c r="C286" s="26"/>
+      <c r="D286" s="27"/>
+      <c r="E286" s="27"/>
+      <c r="F286" s="27">
         <v>42614</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="27" t="s">
+      <c r="A287" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="B287" s="28"/>
-      <c r="C287" s="28"/>
-      <c r="D287" s="29"/>
-      <c r="E287" s="29"/>
-      <c r="F287" s="29"/>
+      <c r="B287" s="26"/>
+      <c r="C287" s="26"/>
+      <c r="D287" s="27"/>
+      <c r="E287" s="27"/>
+      <c r="F287" s="27"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="27" t="s">
+      <c r="A288" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="B288" s="28"/>
-      <c r="C288" s="28"/>
-      <c r="D288" s="29"/>
-      <c r="E288" s="29"/>
-      <c r="F288" s="29"/>
+      <c r="B288" s="26"/>
+      <c r="C288" s="26"/>
+      <c r="D288" s="27"/>
+      <c r="E288" s="27"/>
+      <c r="F288" s="27"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="27" t="s">
+      <c r="A289" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="B289" s="28"/>
-      <c r="C289" s="28"/>
-      <c r="D289" s="29"/>
-      <c r="E289" s="29"/>
-      <c r="F289" s="29"/>
+      <c r="B289" s="26"/>
+      <c r="C289" s="26"/>
+      <c r="D289" s="27"/>
+      <c r="E289" s="27"/>
+      <c r="F289" s="27"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="27" t="s">
+      <c r="A290" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="B290" s="28"/>
-      <c r="C290" s="28"/>
-      <c r="D290" s="29"/>
-      <c r="E290" s="29"/>
-      <c r="F290" s="29"/>
+      <c r="B290" s="26"/>
+      <c r="C290" s="26"/>
+      <c r="D290" s="27"/>
+      <c r="E290" s="27"/>
+      <c r="F290" s="27"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="27" t="s">
+      <c r="A291" s="25" t="s">
         <v>1021</v>
       </c>
-      <c r="B291" s="28"/>
-      <c r="C291" s="28"/>
-      <c r="D291" s="29"/>
-      <c r="E291" s="29"/>
-      <c r="F291" s="29"/>
+      <c r="B291" s="26"/>
+      <c r="C291" s="26"/>
+      <c r="D291" s="27"/>
+      <c r="E291" s="27"/>
+      <c r="F291" s="27"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="27" t="s">
+      <c r="A292" s="25" t="s">
         <v>998</v>
       </c>
-      <c r="B292" s="28"/>
-      <c r="C292" s="28"/>
-      <c r="D292" s="29"/>
-      <c r="E292" s="29"/>
-      <c r="F292" s="29"/>
+      <c r="B292" s="26"/>
+      <c r="C292" s="26"/>
+      <c r="D292" s="27"/>
+      <c r="E292" s="27"/>
+      <c r="F292" s="27"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="27" t="s">
+      <c r="A293" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="B293" s="28"/>
-      <c r="C293" s="28"/>
-      <c r="D293" s="29"/>
-      <c r="E293" s="29"/>
-      <c r="F293" s="29"/>
+      <c r="B293" s="26"/>
+      <c r="C293" s="26"/>
+      <c r="D293" s="27"/>
+      <c r="E293" s="27"/>
+      <c r="F293" s="27"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="27" t="s">
+      <c r="A294" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="B294" s="28"/>
-      <c r="C294" s="28"/>
-      <c r="D294" s="29"/>
-      <c r="E294" s="29"/>
-      <c r="F294" s="29"/>
+      <c r="B294" s="26"/>
+      <c r="C294" s="26"/>
+      <c r="D294" s="27"/>
+      <c r="E294" s="27"/>
+      <c r="F294" s="27"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="27" t="s">
+      <c r="A295" s="25" t="s">
         <v>756</v>
       </c>
-      <c r="B295" s="28"/>
-      <c r="C295" s="28"/>
-      <c r="D295" s="29"/>
-      <c r="E295" s="29"/>
-      <c r="F295" s="29">
+      <c r="B295" s="26"/>
+      <c r="C295" s="26"/>
+      <c r="D295" s="27"/>
+      <c r="E295" s="27"/>
+      <c r="F295" s="27">
         <v>43665</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="27" t="s">
+      <c r="A296" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="B296" s="28"/>
-      <c r="C296" s="28"/>
-      <c r="D296" s="29"/>
-      <c r="E296" s="29"/>
-      <c r="F296" s="29">
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
+      <c r="D296" s="27"/>
+      <c r="E296" s="27"/>
+      <c r="F296" s="27">
         <v>44256</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="27" t="s">
+      <c r="A297" s="25" t="s">
         <v>757</v>
       </c>
-      <c r="B297" s="28"/>
-      <c r="C297" s="28"/>
-      <c r="D297" s="29"/>
-      <c r="E297" s="29"/>
-      <c r="F297" s="29"/>
+      <c r="B297" s="26"/>
+      <c r="C297" s="26"/>
+      <c r="D297" s="27"/>
+      <c r="E297" s="27"/>
+      <c r="F297" s="27"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="27" t="s">
+      <c r="A298" s="25" t="s">
         <v>758</v>
       </c>
-      <c r="B298" s="28"/>
-      <c r="C298" s="28"/>
-      <c r="D298" s="29"/>
-      <c r="E298" s="29">
+      <c r="B298" s="26"/>
+      <c r="C298" s="26"/>
+      <c r="D298" s="27"/>
+      <c r="E298" s="27">
         <v>34417</v>
       </c>
-      <c r="F298" s="29">
+      <c r="F298" s="27">
         <v>35875</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="27" t="s">
+      <c r="A299" s="25" t="s">
         <v>1022</v>
       </c>
-      <c r="B299" s="28"/>
-      <c r="C299" s="28"/>
-      <c r="D299" s="29"/>
-      <c r="E299" s="29">
+      <c r="B299" s="26"/>
+      <c r="C299" s="26"/>
+      <c r="D299" s="27"/>
+      <c r="E299" s="27">
         <v>33848</v>
       </c>
-      <c r="F299" s="29">
+      <c r="F299" s="27">
         <v>35611</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="27" t="s">
+      <c r="A300" s="25" t="s">
         <v>759</v>
       </c>
-      <c r="B300" s="28"/>
-      <c r="C300" s="28"/>
-      <c r="D300" s="29"/>
-      <c r="E300" s="29"/>
-      <c r="F300" s="29"/>
+      <c r="B300" s="26"/>
+      <c r="C300" s="26"/>
+      <c r="D300" s="27"/>
+      <c r="E300" s="27"/>
+      <c r="F300" s="27"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="27" t="s">
+      <c r="A301" s="25" t="s">
         <v>760</v>
       </c>
-      <c r="B301" s="28"/>
-      <c r="C301" s="28"/>
-      <c r="D301" s="29"/>
-      <c r="E301" s="29"/>
-      <c r="F301" s="29"/>
+      <c r="B301" s="26"/>
+      <c r="C301" s="26"/>
+      <c r="D301" s="27"/>
+      <c r="E301" s="27"/>
+      <c r="F301" s="27"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="27" t="s">
+      <c r="A302" s="25" t="s">
         <v>978</v>
       </c>
-      <c r="B302" s="28"/>
-      <c r="C302" s="28"/>
-      <c r="D302" s="29"/>
-      <c r="E302" s="29"/>
-      <c r="F302" s="29"/>
+      <c r="B302" s="26"/>
+      <c r="C302" s="26"/>
+      <c r="D302" s="27"/>
+      <c r="E302" s="27"/>
+      <c r="F302" s="27"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="27" t="s">
+      <c r="A303" s="25" t="s">
         <v>761</v>
       </c>
-      <c r="B303" s="28"/>
-      <c r="C303" s="28"/>
-      <c r="D303" s="29"/>
-      <c r="E303" s="29"/>
-      <c r="F303" s="29"/>
+      <c r="B303" s="26"/>
+      <c r="C303" s="26"/>
+      <c r="D303" s="27"/>
+      <c r="E303" s="27"/>
+      <c r="F303" s="27"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="27" t="s">
+      <c r="A304" s="25" t="s">
         <v>979</v>
       </c>
-      <c r="B304" s="28"/>
-      <c r="C304" s="28"/>
-      <c r="D304" s="29"/>
-      <c r="E304" s="29"/>
-      <c r="F304" s="29">
+      <c r="B304" s="26"/>
+      <c r="C304" s="26"/>
+      <c r="D304" s="27"/>
+      <c r="E304" s="27"/>
+      <c r="F304" s="27">
         <v>44837</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="27" t="s">
+      <c r="A305" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="B305" s="28"/>
-      <c r="C305" s="28"/>
-      <c r="D305" s="29">
+      <c r="B305" s="26"/>
+      <c r="C305" s="26"/>
+      <c r="D305" s="27">
         <v>37088</v>
       </c>
-      <c r="E305" s="29">
+      <c r="E305" s="27">
         <v>37515</v>
       </c>
-      <c r="F305" s="29"/>
+      <c r="F305" s="27"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="27" t="s">
+      <c r="A306" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="B306" s="28"/>
-      <c r="C306" s="28"/>
-      <c r="D306" s="29"/>
-      <c r="E306" s="29"/>
-      <c r="F306" s="29"/>
+      <c r="B306" s="26"/>
+      <c r="C306" s="26"/>
+      <c r="D306" s="27"/>
+      <c r="E306" s="27"/>
+      <c r="F306" s="27"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="27" t="s">
+      <c r="A307" s="25" t="s">
         <v>762</v>
       </c>
-      <c r="B307" s="28"/>
-      <c r="C307" s="28"/>
-      <c r="D307" s="29"/>
-      <c r="E307" s="29"/>
-      <c r="F307" s="29">
+      <c r="B307" s="26"/>
+      <c r="C307" s="26"/>
+      <c r="D307" s="27"/>
+      <c r="E307" s="27"/>
+      <c r="F307" s="27">
         <v>39937</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="27" t="s">
+      <c r="A308" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="B308" s="28"/>
-      <c r="C308" s="28"/>
-      <c r="D308" s="29"/>
-      <c r="E308" s="29"/>
-      <c r="F308" s="29"/>
+      <c r="B308" s="26"/>
+      <c r="C308" s="26"/>
+      <c r="D308" s="27"/>
+      <c r="E308" s="27"/>
+      <c r="F308" s="27"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="27" t="s">
+      <c r="A309" s="25" t="s">
         <v>763</v>
       </c>
-      <c r="B309" s="28"/>
-      <c r="C309" s="28"/>
-      <c r="D309" s="29">
+      <c r="B309" s="26"/>
+      <c r="C309" s="26"/>
+      <c r="D309" s="27">
         <v>36395</v>
       </c>
-      <c r="E309" s="29">
+      <c r="E309" s="27">
         <v>36465</v>
       </c>
-      <c r="F309" s="29">
+      <c r="F309" s="27">
         <v>39965</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="27" t="s">
+      <c r="A310" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="B310" s="28"/>
-      <c r="C310" s="28"/>
-      <c r="D310" s="29"/>
-      <c r="E310" s="29"/>
-      <c r="F310" s="29"/>
+      <c r="B310" s="26"/>
+      <c r="C310" s="26"/>
+      <c r="D310" s="27"/>
+      <c r="E310" s="27"/>
+      <c r="F310" s="27"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="27" t="s">
+      <c r="A311" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="B311" s="28"/>
-      <c r="C311" s="28"/>
-      <c r="D311" s="29"/>
-      <c r="E311" s="29">
+      <c r="B311" s="26"/>
+      <c r="C311" s="26"/>
+      <c r="D311" s="27"/>
+      <c r="E311" s="27">
         <v>33619</v>
       </c>
-      <c r="F311" s="29">
+      <c r="F311" s="27">
         <v>36332</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="27" t="s">
+      <c r="A312" s="25" t="s">
         <v>980</v>
       </c>
-      <c r="B312" s="28"/>
-      <c r="C312" s="28"/>
-      <c r="D312" s="29"/>
-      <c r="E312" s="29"/>
-      <c r="F312" s="29">
+      <c r="B312" s="26"/>
+      <c r="C312" s="26"/>
+      <c r="D312" s="27"/>
+      <c r="E312" s="27"/>
+      <c r="F312" s="27">
         <v>44880</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="27" t="s">
+      <c r="A313" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="B313" s="28"/>
-      <c r="C313" s="28"/>
-      <c r="D313" s="29"/>
-      <c r="E313" s="29"/>
-      <c r="F313" s="29"/>
+      <c r="B313" s="26"/>
+      <c r="C313" s="26"/>
+      <c r="D313" s="27"/>
+      <c r="E313" s="27"/>
+      <c r="F313" s="27"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="27" t="s">
+      <c r="A314" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="B314" s="28"/>
-      <c r="C314" s="28"/>
-      <c r="D314" s="29"/>
-      <c r="E314" s="29"/>
-      <c r="F314" s="29"/>
+      <c r="B314" s="26"/>
+      <c r="C314" s="26"/>
+      <c r="D314" s="27"/>
+      <c r="E314" s="27"/>
+      <c r="F314" s="27"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="27" t="s">
+      <c r="A315" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="B315" s="28"/>
-      <c r="C315" s="28"/>
-      <c r="D315" s="29"/>
-      <c r="E315" s="29"/>
-      <c r="F315" s="29"/>
+      <c r="B315" s="26"/>
+      <c r="C315" s="26"/>
+      <c r="D315" s="27"/>
+      <c r="E315" s="27"/>
+      <c r="F315" s="27"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="27" t="s">
+      <c r="A316" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="B316" s="28"/>
-      <c r="C316" s="28"/>
-      <c r="D316" s="29"/>
-      <c r="E316" s="29"/>
-      <c r="F316" s="29"/>
+      <c r="B316" s="26"/>
+      <c r="C316" s="26"/>
+      <c r="D316" s="27"/>
+      <c r="E316" s="27"/>
+      <c r="F316" s="27"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="27" t="s">
+      <c r="A317" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="B317" s="28"/>
-      <c r="C317" s="28"/>
-      <c r="D317" s="29"/>
-      <c r="E317" s="29"/>
-      <c r="F317" s="29"/>
+      <c r="B317" s="26"/>
+      <c r="C317" s="26"/>
+      <c r="D317" s="27"/>
+      <c r="E317" s="27"/>
+      <c r="F317" s="27"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="27" t="s">
+      <c r="A318" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="B318" s="28"/>
-      <c r="C318" s="28"/>
-      <c r="D318" s="29" t="s">
+      <c r="B318" s="26"/>
+      <c r="C318" s="26"/>
+      <c r="D318" s="27" t="s">
         <v>1057</v>
       </c>
-      <c r="E318" s="29"/>
-      <c r="F318" s="29">
+      <c r="E318" s="27"/>
+      <c r="F318" s="27">
         <v>39965</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="27" t="s">
+      <c r="A319" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="B319" s="28"/>
-      <c r="C319" s="28"/>
-      <c r="D319" s="29"/>
-      <c r="E319" s="29"/>
-      <c r="F319" s="29"/>
+      <c r="B319" s="26"/>
+      <c r="C319" s="26"/>
+      <c r="D319" s="27"/>
+      <c r="E319" s="27"/>
+      <c r="F319" s="27"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="27" t="s">
+      <c r="A320" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="B320" s="28"/>
-      <c r="C320" s="28"/>
-      <c r="D320" s="29"/>
-      <c r="E320" s="29"/>
-      <c r="F320" s="29"/>
+      <c r="B320" s="26"/>
+      <c r="C320" s="26"/>
+      <c r="D320" s="27"/>
+      <c r="E320" s="27"/>
+      <c r="F320" s="27"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" s="27" t="s">
+      <c r="A321" s="25" t="s">
         <v>764</v>
       </c>
-      <c r="B321" s="28"/>
-      <c r="C321" s="28"/>
-      <c r="D321" s="29"/>
-      <c r="E321" s="29">
+      <c r="B321" s="26"/>
+      <c r="C321" s="26"/>
+      <c r="D321" s="27"/>
+      <c r="E321" s="27">
         <v>36357</v>
       </c>
-      <c r="F321" s="29">
+      <c r="F321" s="27">
         <v>41354</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="27" t="s">
+      <c r="A322" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="B322" s="28"/>
-      <c r="C322" s="28"/>
-      <c r="D322" s="29"/>
-      <c r="E322" s="29"/>
-      <c r="F322" s="29"/>
+      <c r="B322" s="26"/>
+      <c r="C322" s="26"/>
+      <c r="D322" s="27"/>
+      <c r="E322" s="27"/>
+      <c r="F322" s="27"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="27" t="s">
+      <c r="A323" s="25" t="s">
         <v>765</v>
       </c>
-      <c r="B323" s="28"/>
-      <c r="C323" s="28"/>
-      <c r="D323" s="29" t="s">
+      <c r="B323" s="26"/>
+      <c r="C323" s="26"/>
+      <c r="D323" s="27" t="s">
         <v>1044</v>
       </c>
-      <c r="E323" s="29"/>
-      <c r="F323" s="29">
+      <c r="E323" s="27"/>
+      <c r="F323" s="27">
         <v>30165</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="27" t="s">
+      <c r="A324" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="B324" s="28"/>
-      <c r="C324" s="28"/>
-      <c r="D324" s="29"/>
-      <c r="E324" s="29"/>
-      <c r="F324" s="29"/>
+      <c r="B324" s="26"/>
+      <c r="C324" s="26"/>
+      <c r="D324" s="27"/>
+      <c r="E324" s="27"/>
+      <c r="F324" s="27"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" s="27" t="s">
+      <c r="A325" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="B325" s="28"/>
-      <c r="C325" s="28"/>
-      <c r="D325" s="29"/>
-      <c r="E325" s="29"/>
-      <c r="F325" s="29"/>
+      <c r="B325" s="26"/>
+      <c r="C325" s="26"/>
+      <c r="D325" s="27"/>
+      <c r="E325" s="27"/>
+      <c r="F325" s="27"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="27" t="s">
+      <c r="A326" s="25" t="s">
         <v>766</v>
       </c>
-      <c r="B326" s="28"/>
-      <c r="C326" s="28"/>
-      <c r="D326" s="29"/>
-      <c r="E326" s="29"/>
-      <c r="F326" s="29">
+      <c r="B326" s="26"/>
+      <c r="C326" s="26"/>
+      <c r="D326" s="27"/>
+      <c r="E326" s="27"/>
+      <c r="F326" s="27">
         <v>31376</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" s="27" t="s">
+      <c r="A327" s="25" t="s">
         <v>767</v>
       </c>
-      <c r="B327" s="28"/>
-      <c r="C327" s="28"/>
-      <c r="D327" s="29"/>
-      <c r="E327" s="29"/>
-      <c r="F327" s="29"/>
+      <c r="B327" s="26"/>
+      <c r="C327" s="26"/>
+      <c r="D327" s="27"/>
+      <c r="E327" s="27"/>
+      <c r="F327" s="27"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="27" t="s">
+      <c r="A328" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="B328" s="28"/>
-      <c r="C328" s="28"/>
-      <c r="D328" s="29"/>
-      <c r="E328" s="29"/>
-      <c r="F328" s="29"/>
+      <c r="B328" s="26"/>
+      <c r="C328" s="26"/>
+      <c r="D328" s="27"/>
+      <c r="E328" s="27"/>
+      <c r="F328" s="27"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A329" s="27" t="s">
+      <c r="A329" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="B329" s="28"/>
-      <c r="C329" s="28"/>
-      <c r="D329" s="29"/>
-      <c r="E329" s="29"/>
-      <c r="F329" s="29"/>
+      <c r="B329" s="26"/>
+      <c r="C329" s="26"/>
+      <c r="D329" s="27"/>
+      <c r="E329" s="27"/>
+      <c r="F329" s="27"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="27" t="s">
+      <c r="A330" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="B330" s="28"/>
-      <c r="C330" s="28"/>
-      <c r="D330" s="29"/>
-      <c r="E330" s="29"/>
-      <c r="F330" s="29"/>
+      <c r="B330" s="26"/>
+      <c r="C330" s="26"/>
+      <c r="D330" s="27"/>
+      <c r="E330" s="27"/>
+      <c r="F330" s="27"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331" s="27" t="s">
+      <c r="A331" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="B331" s="28"/>
-      <c r="C331" s="28"/>
-      <c r="D331" s="29"/>
-      <c r="E331" s="29"/>
-      <c r="F331" s="29"/>
+      <c r="B331" s="26"/>
+      <c r="C331" s="26"/>
+      <c r="D331" s="27"/>
+      <c r="E331" s="27"/>
+      <c r="F331" s="27"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" s="27" t="s">
+      <c r="A332" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="B332" s="28"/>
-      <c r="C332" s="28"/>
-      <c r="D332" s="29"/>
-      <c r="E332" s="29"/>
-      <c r="F332" s="29">
+      <c r="B332" s="26"/>
+      <c r="C332" s="26"/>
+      <c r="D332" s="27"/>
+      <c r="E332" s="27"/>
+      <c r="F332" s="27">
         <v>33483</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="27" t="s">
+      <c r="A333" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="B333" s="28"/>
-      <c r="C333" s="28"/>
-      <c r="D333" s="29"/>
-      <c r="E333" s="29">
+      <c r="B333" s="26"/>
+      <c r="C333" s="26"/>
+      <c r="D333" s="27"/>
+      <c r="E333" s="27">
         <v>34121</v>
       </c>
-      <c r="F333" s="29">
+      <c r="F333" s="27">
         <v>35611</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="27" t="s">
+      <c r="A334" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="B334" s="28"/>
-      <c r="C334" s="28"/>
-      <c r="D334" s="29"/>
-      <c r="E334" s="29"/>
-      <c r="F334" s="29"/>
+      <c r="B334" s="26"/>
+      <c r="C334" s="26"/>
+      <c r="D334" s="27"/>
+      <c r="E334" s="27"/>
+      <c r="F334" s="27"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" s="27" t="s">
+      <c r="A335" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="B335" s="28"/>
-      <c r="C335" s="28"/>
-      <c r="D335" s="29"/>
-      <c r="E335" s="29"/>
-      <c r="F335" s="29">
+      <c r="B335" s="26"/>
+      <c r="C335" s="26"/>
+      <c r="D335" s="27"/>
+      <c r="E335" s="27"/>
+      <c r="F335" s="27">
         <v>42709</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="27" t="s">
+      <c r="A336" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="B336" s="28"/>
-      <c r="C336" s="28"/>
-      <c r="D336" s="29"/>
-      <c r="E336" s="29"/>
-      <c r="F336" s="29">
+      <c r="B336" s="26"/>
+      <c r="C336" s="26"/>
+      <c r="D336" s="27"/>
+      <c r="E336" s="27"/>
+      <c r="F336" s="27">
         <v>38504</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A337" s="27" t="s">
+      <c r="A337" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="B337" s="28"/>
-      <c r="C337" s="28"/>
-      <c r="D337" s="29"/>
-      <c r="E337" s="29"/>
-      <c r="F337" s="29">
+      <c r="B337" s="26"/>
+      <c r="C337" s="26"/>
+      <c r="D337" s="27"/>
+      <c r="E337" s="27"/>
+      <c r="F337" s="27">
         <v>42614</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="27" t="s">
+      <c r="A338" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="B338" s="28"/>
-      <c r="C338" s="28"/>
-      <c r="D338" s="29"/>
-      <c r="E338" s="29"/>
-      <c r="F338" s="29">
+      <c r="B338" s="26"/>
+      <c r="C338" s="26"/>
+      <c r="D338" s="27"/>
+      <c r="E338" s="27"/>
+      <c r="F338" s="27">
         <v>43647</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A339" s="27" t="s">
+      <c r="A339" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="B339" s="28"/>
-      <c r="C339" s="28"/>
-      <c r="D339" s="29">
+      <c r="B339" s="26"/>
+      <c r="C339" s="26"/>
+      <c r="D339" s="27">
         <v>43633</v>
       </c>
-      <c r="E339" s="29">
+      <c r="E339" s="27">
         <v>43709</v>
       </c>
-      <c r="F339" s="29">
+      <c r="F339" s="27">
         <v>44743</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="27" t="s">
+      <c r="A340" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="B340" s="28"/>
-      <c r="C340" s="28"/>
-      <c r="D340" s="29"/>
-      <c r="E340" s="29"/>
-      <c r="F340" s="29"/>
+      <c r="B340" s="26"/>
+      <c r="C340" s="26"/>
+      <c r="D340" s="27"/>
+      <c r="E340" s="27"/>
+      <c r="F340" s="27"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A341" s="27" t="s">
+      <c r="A341" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="B341" s="28"/>
-      <c r="C341" s="28"/>
-      <c r="D341" s="29"/>
-      <c r="E341" s="29">
+      <c r="B341" s="26"/>
+      <c r="C341" s="26"/>
+      <c r="D341" s="27"/>
+      <c r="E341" s="27">
         <v>39084</v>
       </c>
-      <c r="F341" s="29">
+      <c r="F341" s="27">
         <v>39493</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="27" t="s">
+      <c r="A342" s="25" t="s">
         <v>1003</v>
       </c>
-      <c r="B342" s="28"/>
-      <c r="C342" s="28"/>
-      <c r="D342" s="29"/>
-      <c r="E342" s="29"/>
-      <c r="F342" s="29"/>
+      <c r="B342" s="26"/>
+      <c r="C342" s="26"/>
+      <c r="D342" s="27"/>
+      <c r="E342" s="27"/>
+      <c r="F342" s="27"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A343" s="27" t="s">
+      <c r="A343" s="25" t="s">
         <v>614</v>
       </c>
-      <c r="B343" s="28"/>
-      <c r="C343" s="28"/>
-      <c r="D343" s="29"/>
-      <c r="E343" s="29"/>
-      <c r="F343" s="29"/>
+      <c r="B343" s="26"/>
+      <c r="C343" s="26"/>
+      <c r="D343" s="27"/>
+      <c r="E343" s="27"/>
+      <c r="F343" s="27"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" s="27" t="s">
+      <c r="A344" s="25" t="s">
         <v>616</v>
       </c>
-      <c r="B344" s="28"/>
-      <c r="C344" s="28"/>
-      <c r="D344" s="29"/>
-      <c r="E344" s="29"/>
-      <c r="F344" s="29"/>
+      <c r="B344" s="26"/>
+      <c r="C344" s="26"/>
+      <c r="D344" s="27"/>
+      <c r="E344" s="27"/>
+      <c r="F344" s="27"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A345" s="27" t="s">
+      <c r="A345" s="25" t="s">
         <v>620</v>
       </c>
-      <c r="B345" s="28"/>
-      <c r="C345" s="28"/>
-      <c r="D345" s="29"/>
-      <c r="E345" s="29"/>
-      <c r="F345" s="29"/>
+      <c r="B345" s="26"/>
+      <c r="C345" s="26"/>
+      <c r="D345" s="27"/>
+      <c r="E345" s="27"/>
+      <c r="F345" s="27"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A346" s="27" t="s">
+      <c r="A346" s="25" t="s">
         <v>623</v>
       </c>
-      <c r="B346" s="28"/>
-      <c r="C346" s="28" t="s">
+      <c r="B346" s="26"/>
+      <c r="C346" s="26"/>
+      <c r="D346" s="27"/>
+      <c r="E346" s="27"/>
+      <c r="F346" s="27"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="B347" s="26"/>
+      <c r="C347" s="26"/>
+      <c r="D347" s="27"/>
+      <c r="E347" s="27"/>
+      <c r="F347" s="27"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B348" s="26"/>
+      <c r="C348" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D346" s="29"/>
-      <c r="E346" s="29"/>
-      <c r="F346" s="29"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A347" s="27" t="s">
-        <v>628</v>
-      </c>
-      <c r="B347" s="28"/>
-      <c r="C347" s="28"/>
-      <c r="D347" s="29"/>
-      <c r="E347" s="29"/>
-      <c r="F347" s="29"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="27" t="s">
-        <v>630</v>
-      </c>
-      <c r="B348" s="28"/>
-      <c r="C348" s="28" t="s">
+      <c r="D348" s="27"/>
+      <c r="E348" s="27">
+        <v>34624</v>
+      </c>
+      <c r="F348" s="27">
+        <v>35217</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="B349" s="26"/>
+      <c r="C349" s="26"/>
+      <c r="D349" s="27"/>
+      <c r="E349" s="27"/>
+      <c r="F349" s="27"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B350" s="26"/>
+      <c r="C350" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D348" s="29"/>
-      <c r="E348" s="29">
-        <v>34624</v>
-      </c>
-      <c r="F348" s="29">
-        <v>35217</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A349" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="B349" s="28"/>
-      <c r="C349" s="28" t="s">
+      <c r="D350" s="27"/>
+      <c r="E350" s="27"/>
+      <c r="F350" s="27"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="25" t="s">
+        <v>643</v>
+      </c>
+      <c r="B351" s="26"/>
+      <c r="C351" s="26"/>
+      <c r="D351" s="27" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E351" s="27"/>
+      <c r="F351" s="27">
+        <v>34151</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="B352" s="26"/>
+      <c r="C352" s="26"/>
+      <c r="D352" s="27"/>
+      <c r="E352" s="27"/>
+      <c r="F352" s="27"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="25" t="s">
+        <v>646</v>
+      </c>
+      <c r="B353" s="26"/>
+      <c r="C353" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D349" s="29"/>
-      <c r="E349" s="29"/>
-      <c r="F349" s="29"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A350" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="B350" s="28"/>
-      <c r="C350" s="28" t="s">
+      <c r="D353" s="27"/>
+      <c r="E353" s="27"/>
+      <c r="F353" s="27"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="25" t="s">
+        <v>650</v>
+      </c>
+      <c r="B354" s="26"/>
+      <c r="C354" s="26"/>
+      <c r="D354" s="27"/>
+      <c r="E354" s="27"/>
+      <c r="F354" s="27"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="25" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B355" s="26"/>
+      <c r="C355" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D350" s="29"/>
-      <c r="E350" s="29"/>
-      <c r="F350" s="29"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A351" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="B351" s="28"/>
-      <c r="C351" s="28"/>
-      <c r="D351" s="29" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E351" s="29"/>
-      <c r="F351" s="29">
-        <v>34151</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A352" s="27" t="s">
-        <v>645</v>
-      </c>
-      <c r="B352" s="28"/>
-      <c r="C352" s="28" t="s">
+      <c r="D355" s="27"/>
+      <c r="E355" s="27"/>
+      <c r="F355" s="27"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B356" s="26"/>
+      <c r="C356" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D352" s="29"/>
-      <c r="E352" s="29"/>
-      <c r="F352" s="29"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A353" s="27" t="s">
-        <v>646</v>
-      </c>
-      <c r="B353" s="28"/>
-      <c r="C353" s="28" t="s">
+      <c r="D356" s="27"/>
+      <c r="E356" s="27"/>
+      <c r="F356" s="27"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="B357" s="26"/>
+      <c r="C357" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D353" s="29"/>
-      <c r="E353" s="29"/>
-      <c r="F353" s="29"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="27" t="s">
-        <v>650</v>
-      </c>
-      <c r="B354" s="28"/>
-      <c r="C354" s="28" t="s">
+      <c r="D357" s="27"/>
+      <c r="E357" s="27"/>
+      <c r="F357" s="27"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B358" s="26"/>
+      <c r="C358" s="26"/>
+      <c r="D358" s="27"/>
+      <c r="E358" s="27"/>
+      <c r="F358" s="27"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="B359" s="26"/>
+      <c r="C359" s="26"/>
+      <c r="D359" s="27"/>
+      <c r="E359" s="27"/>
+      <c r="F359" s="27"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="B360" s="26"/>
+      <c r="C360" s="26"/>
+      <c r="D360" s="27"/>
+      <c r="E360" s="27"/>
+      <c r="F360" s="27"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="B361" s="26"/>
+      <c r="C361" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D354" s="29"/>
-      <c r="E354" s="29"/>
-      <c r="F354" s="29"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A355" s="27" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B355" s="28"/>
-      <c r="C355" s="28" t="s">
+      <c r="D361" s="27"/>
+      <c r="E361" s="27"/>
+      <c r="F361" s="27">
+        <v>36815</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="B362" s="26"/>
+      <c r="C362" s="26"/>
+      <c r="D362" s="27"/>
+      <c r="E362" s="27">
+        <v>34665</v>
+      </c>
+      <c r="F362" s="27">
+        <v>35207</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="B363" s="26"/>
+      <c r="C363" s="26"/>
+      <c r="D363" s="27" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E363" s="27"/>
+      <c r="F363" s="27">
+        <v>41323</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="B364" s="26"/>
+      <c r="C364" s="26"/>
+      <c r="D364" s="27"/>
+      <c r="E364" s="27"/>
+      <c r="F364" s="27">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="B365" s="26"/>
+      <c r="C365" s="26"/>
+      <c r="D365" s="27"/>
+      <c r="E365" s="27"/>
+      <c r="F365" s="27"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="B366" s="26"/>
+      <c r="C366" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D355" s="29"/>
-      <c r="E355" s="29"/>
-      <c r="F355" s="29"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A356" s="27" t="s">
-        <v>457</v>
-      </c>
-      <c r="B356" s="28"/>
-      <c r="C356" s="28" t="s">
+      <c r="D366" s="27"/>
+      <c r="E366" s="27"/>
+      <c r="F366" s="27"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="B367" s="26"/>
+      <c r="C367" s="26"/>
+      <c r="D367" s="27"/>
+      <c r="E367" s="27"/>
+      <c r="F367" s="27"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="B368" s="26"/>
+      <c r="C368" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D356" s="29"/>
-      <c r="E356" s="29"/>
-      <c r="F356" s="29"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="B357" s="28"/>
-      <c r="C357" s="28" t="s">
+      <c r="D368" s="27"/>
+      <c r="E368" s="27"/>
+      <c r="F368" s="27"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="25" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B369" s="26"/>
+      <c r="C369" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D357" s="29"/>
-      <c r="E357" s="29"/>
-      <c r="F357" s="29"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="27" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B358" s="28"/>
-      <c r="C358" s="28" t="s">
+      <c r="D369" s="27"/>
+      <c r="E369" s="27"/>
+      <c r="F369" s="27"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="B370" s="26"/>
+      <c r="C370" s="26"/>
+      <c r="D370" s="27"/>
+      <c r="E370" s="27">
+        <v>35226</v>
+      </c>
+      <c r="F370" s="27">
+        <v>35611</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="B371" s="26"/>
+      <c r="C371" s="26"/>
+      <c r="D371" s="27"/>
+      <c r="E371" s="27"/>
+      <c r="F371" s="27"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="B372" s="26"/>
+      <c r="C372" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D358" s="29"/>
-      <c r="E358" s="29"/>
-      <c r="F358" s="29"/>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A359" s="27" t="s">
-        <v>665</v>
-      </c>
-      <c r="B359" s="28"/>
-      <c r="C359" s="28" t="s">
+      <c r="D372" s="27"/>
+      <c r="E372" s="27"/>
+      <c r="F372" s="27"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="B373" s="26"/>
+      <c r="C373" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D359" s="29"/>
-      <c r="E359" s="29"/>
-      <c r="F359" s="29"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" s="27" t="s">
-        <v>669</v>
-      </c>
-      <c r="B360" s="28"/>
-      <c r="C360" s="28"/>
-      <c r="D360" s="29"/>
-      <c r="E360" s="29"/>
-      <c r="F360" s="29"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="27" t="s">
-        <v>670</v>
-      </c>
-      <c r="B361" s="28"/>
-      <c r="C361" s="28" t="s">
+      <c r="D373" s="27"/>
+      <c r="E373" s="27"/>
+      <c r="F373" s="27"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="B374" s="26"/>
+      <c r="C374" s="26"/>
+      <c r="D374" s="27"/>
+      <c r="E374" s="27"/>
+      <c r="F374" s="27"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B375" s="26"/>
+      <c r="C375" s="26" t="s">
+        <v>974</v>
+      </c>
+      <c r="D375" s="27"/>
+      <c r="E375" s="27"/>
+      <c r="F375" s="27"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B376" s="26"/>
+      <c r="C376" s="26"/>
+      <c r="D376" s="27"/>
+      <c r="E376" s="27"/>
+      <c r="F376" s="27"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="B377" s="26"/>
+      <c r="C377" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="D361" s="29"/>
-      <c r="E361" s="29"/>
-      <c r="F361" s="29">
-        <v>36815</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="B362" s="28"/>
-      <c r="C362" s="28"/>
-      <c r="D362" s="29"/>
-      <c r="E362" s="29">
-        <v>34665</v>
-      </c>
-      <c r="F362" s="29">
-        <v>35207</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="27" t="s">
-        <v>684</v>
-      </c>
-      <c r="B363" s="28"/>
-      <c r="C363" s="28"/>
-      <c r="D363" s="29" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E363" s="29"/>
-      <c r="F363" s="29">
-        <v>41323</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" s="27" t="s">
-        <v>687</v>
-      </c>
-      <c r="B364" s="28"/>
-      <c r="C364" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D364" s="29"/>
-      <c r="E364" s="29"/>
-      <c r="F364" s="29">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" s="27" t="s">
-        <v>688</v>
-      </c>
-      <c r="B365" s="28"/>
-      <c r="C365" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D365" s="29"/>
-      <c r="E365" s="29"/>
-      <c r="F365" s="29"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="27" t="s">
-        <v>706</v>
-      </c>
-      <c r="B366" s="28"/>
-      <c r="C366" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D366" s="29"/>
-      <c r="E366" s="29"/>
-      <c r="F366" s="29"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="B367" s="28"/>
-      <c r="C367" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D367" s="29"/>
-      <c r="E367" s="29"/>
-      <c r="F367" s="29"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="27" t="s">
-        <v>723</v>
-      </c>
-      <c r="B368" s="28"/>
-      <c r="C368" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D368" s="29"/>
-      <c r="E368" s="29"/>
-      <c r="F368" s="29"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="27" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B369" s="28"/>
-      <c r="C369" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D369" s="29"/>
-      <c r="E369" s="29"/>
-      <c r="F369" s="29"/>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A370" s="27" t="s">
-        <v>724</v>
-      </c>
-      <c r="B370" s="28"/>
-      <c r="C370" s="28"/>
-      <c r="D370" s="29"/>
-      <c r="E370" s="29">
-        <v>35226</v>
-      </c>
-      <c r="F370" s="29">
-        <v>35611</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A371" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="B371" s="28"/>
-      <c r="C371" s="28"/>
-      <c r="D371" s="29"/>
-      <c r="E371" s="29"/>
-      <c r="F371" s="29"/>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A372" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="B372" s="28"/>
-      <c r="C372" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D372" s="29"/>
-      <c r="E372" s="29"/>
-      <c r="F372" s="29"/>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A373" s="27" t="s">
-        <v>748</v>
-      </c>
-      <c r="B373" s="28"/>
-      <c r="C373" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D373" s="29"/>
-      <c r="E373" s="29"/>
-      <c r="F373" s="29"/>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A374" s="27" t="s">
-        <v>753</v>
-      </c>
-      <c r="B374" s="28"/>
-      <c r="C374" s="28"/>
-      <c r="D374" s="29"/>
-      <c r="E374" s="29"/>
-      <c r="F374" s="29"/>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A375" s="27" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B375" s="28"/>
-      <c r="C375" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D375" s="29"/>
-      <c r="E375" s="29"/>
-      <c r="F375" s="29"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="B376" s="28"/>
-      <c r="C376" s="28"/>
-      <c r="D376" s="29"/>
-      <c r="E376" s="29"/>
-      <c r="F376" s="29"/>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A377" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="B377" s="28"/>
-      <c r="C377" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D377" s="29"/>
-      <c r="E377" s="29"/>
-      <c r="F377" s="29"/>
+      <c r="D377" s="27"/>
+      <c r="E377" s="27"/>
+      <c r="F377" s="27"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A378" s="27" t="s">
+      <c r="A378" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="B378" s="28"/>
-      <c r="C378" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="D378" s="29"/>
-      <c r="E378" s="29"/>
-      <c r="F378" s="29"/>
+      <c r="B378" s="26"/>
+      <c r="C378" s="26"/>
+      <c r="D378" s="27"/>
+      <c r="E378" s="27"/>
+      <c r="F378" s="27"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" s="27" t="s">
+      <c r="A379" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="B379" s="28"/>
-      <c r="C379" s="28"/>
-      <c r="D379" s="29"/>
-      <c r="E379" s="29"/>
-      <c r="F379" s="29"/>
+      <c r="B379" s="26"/>
+      <c r="C379" s="26"/>
+      <c r="D379" s="27"/>
+      <c r="E379" s="27"/>
+      <c r="F379" s="27"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A380" s="27" t="s">
+      <c r="A380" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="B380" s="28"/>
-      <c r="C380" s="28"/>
-      <c r="D380" s="29"/>
-      <c r="E380" s="29">
+      <c r="B380" s="26"/>
+      <c r="C380" s="26"/>
+      <c r="D380" s="27"/>
+      <c r="E380" s="27">
         <v>31607</v>
       </c>
-      <c r="F380" s="29">
+      <c r="F380" s="27">
         <v>32003</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A381" s="27" t="s">
+      <c r="A381" s="25" t="s">
         <v>1033</v>
       </c>
-      <c r="B381" s="28"/>
-      <c r="C381" s="28"/>
-      <c r="D381" s="29"/>
-      <c r="E381" s="29"/>
-      <c r="F381" s="31">
+      <c r="B381" s="26"/>
+      <c r="C381" s="26"/>
+      <c r="D381" s="27"/>
+      <c r="E381" s="27"/>
+      <c r="F381" s="29">
         <v>44837</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="27" t="s">
+      <c r="A382" s="25" t="s">
         <v>1034</v>
       </c>
-      <c r="B382" s="27"/>
-      <c r="C382" s="27"/>
-      <c r="D382" s="30"/>
-      <c r="E382" s="30"/>
-      <c r="F382" s="31">
+      <c r="B382" s="25"/>
+      <c r="C382" s="25"/>
+      <c r="D382" s="28"/>
+      <c r="E382" s="28"/>
+      <c r="F382" s="29">
         <v>44837</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A383" s="27" t="s">
+      <c r="A383" s="25" t="s">
         <v>1035</v>
       </c>
-      <c r="B383" s="27"/>
-      <c r="C383" s="27"/>
-      <c r="D383" s="30"/>
-      <c r="E383" s="30"/>
-      <c r="F383" s="31">
+      <c r="B383" s="25"/>
+      <c r="C383" s="25"/>
+      <c r="D383" s="28"/>
+      <c r="E383" s="28"/>
+      <c r="F383" s="29">
         <v>44837</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A384" s="27" t="s">
+      <c r="A384" s="25" t="s">
         <v>1036</v>
       </c>
-      <c r="B384" s="27"/>
-      <c r="C384" s="27"/>
-      <c r="D384" s="30"/>
-      <c r="E384" s="30"/>
-      <c r="F384" s="31">
+      <c r="B384" s="25"/>
+      <c r="C384" s="25"/>
+      <c r="D384" s="28"/>
+      <c r="E384" s="28"/>
+      <c r="F384" s="29">
         <v>44837</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A385" s="27" t="s">
+      <c r="A385" s="25" t="s">
         <v>1037</v>
       </c>
-      <c r="B385" s="27"/>
-      <c r="C385" s="27"/>
-      <c r="D385" s="30"/>
-      <c r="E385" s="30"/>
-      <c r="F385" s="31">
+      <c r="B385" s="25"/>
+      <c r="C385" s="25"/>
+      <c r="D385" s="28"/>
+      <c r="E385" s="28"/>
+      <c r="F385" s="29">
         <v>44837</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A386" s="27" t="s">
+      <c r="A386" s="25" t="s">
         <v>1038</v>
       </c>
-      <c r="B386" s="27"/>
-      <c r="C386" s="27"/>
-      <c r="D386" s="30"/>
-      <c r="E386" s="30"/>
-      <c r="F386" s="31">
+      <c r="B386" s="25"/>
+      <c r="C386" s="25"/>
+      <c r="D386" s="28"/>
+      <c r="E386" s="28"/>
+      <c r="F386" s="29">
         <v>44837</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" s="27" t="s">
+      <c r="A387" s="25" t="s">
         <v>1039</v>
       </c>
-      <c r="B387" s="27"/>
-      <c r="C387" s="27"/>
-      <c r="D387" s="30"/>
-      <c r="E387" s="30"/>
-      <c r="F387" s="31">
+      <c r="B387" s="25"/>
+      <c r="C387" s="25"/>
+      <c r="D387" s="28"/>
+      <c r="E387" s="28"/>
+      <c r="F387" s="29">
         <v>44837</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="27" t="s">
+      <c r="A388" s="25" t="s">
         <v>1040</v>
       </c>
-      <c r="B388" s="27"/>
-      <c r="C388" s="27"/>
-      <c r="D388" s="30"/>
-      <c r="E388" s="30"/>
-      <c r="F388" s="31">
+      <c r="B388" s="25"/>
+      <c r="C388" s="25"/>
+      <c r="D388" s="28"/>
+      <c r="E388" s="28"/>
+      <c r="F388" s="29">
         <v>44837</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="32" t="s">
+      <c r="A389" s="25" t="s">
         <v>1031</v>
       </c>
-      <c r="B389" s="33">
+      <c r="B389" s="30">
         <v>43633</v>
       </c>
-      <c r="C389" s="33"/>
-      <c r="D389" s="35">
+      <c r="C389" s="30"/>
+      <c r="D389" s="31">
         <v>43633</v>
       </c>
-      <c r="E389" s="36">
+      <c r="E389" s="29">
         <v>43710</v>
       </c>
-      <c r="F389" s="36">
+      <c r="F389" s="29">
         <v>44743</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="32" t="s">
+      <c r="A390" s="25" t="s">
         <v>1058</v>
       </c>
-      <c r="B390" s="32"/>
-      <c r="C390" s="32"/>
-      <c r="D390" s="34"/>
-      <c r="E390" s="34"/>
-      <c r="F390" s="37">
+      <c r="B390" s="25"/>
+      <c r="C390" s="25"/>
+      <c r="D390" s="28"/>
+      <c r="E390" s="28"/>
+      <c r="F390" s="32">
         <v>44858</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A391" s="32" t="s">
+      <c r="A391" s="25" t="s">
         <v>1059</v>
       </c>
-      <c r="B391" s="32"/>
-      <c r="C391" s="32"/>
-      <c r="D391" s="34"/>
-      <c r="E391" s="34"/>
-      <c r="F391" s="37">
+      <c r="B391" s="25"/>
+      <c r="C391" s="25"/>
+      <c r="D391" s="28"/>
+      <c r="E391" s="28"/>
+      <c r="F391" s="32">
         <v>44942</v>
       </c>
     </row>
@@ -17280,17 +14990,23 @@
   </protectedRanges>
   <autoFilter ref="A1:F391" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
+    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" filter="1" showAutoFilter="1">
+      <selection activeCell="D364" sqref="D364"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+      <autoFilter ref="A1:F391" xr:uid="{00000000-0009-0000-0000-000001000000}">
+        <filterColumn colId="2">
+          <customFilters>
+            <customFilter operator="notEqual" val=" "/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" showAutoFilter="1" hiddenColumns="1">
       <selection activeCell="D381" sqref="D381"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="A1:F380" xr:uid="{1BDACB95-8796-4C7C-BFCB-5E084026E90C}"/>
-    </customSheetView>
-    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" showAutoFilter="1">
-      <selection activeCell="F4" sqref="F4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-      <autoFilter ref="A1:F380" xr:uid="{05DA9E90-AC67-4B06-9F58-1194A960C70F}"/>
+      <autoFilter ref="A1:F380" xr:uid="{E96DEDC7-F979-4526-97B4-3F4F7ED4C769}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A2:C381">

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\MASTER FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{76939DE3-1F31-410A-BB48-FAD6A7ADDC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{4B05B40C-1ED6-43EE-986E-E073F82767D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,16 +17,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$E$399</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$391</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$3</definedName>
     <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$C</definedName>
-    <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$3:$E$3</definedName>
+    <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$3:$E$399</definedName>
     <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$391</definedName>
     <definedName name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.PrintTitles" localSheetId="0" hidden="1">Sheet1!$1:$3</definedName>
     <definedName name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$C:$C</definedName>
     <definedName name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.Cols" localSheetId="1" hidden="1">Sheet2!$B:$C</definedName>
-    <definedName name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$380</definedName>
+    <definedName name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$3:$E$3</definedName>
+    <definedName name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$391</definedName>
     <definedName name="Z_2BCCDE80_E09A_4D8D_B6B6_16DDAA1350C0_.wvu.PrintTitles" localSheetId="0" hidden="1">Sheet1!$1:$3</definedName>
     <definedName name="Z_83B9DE06_EFF7_4144_A848_E89CCE2D143E_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$380</definedName>
     <definedName name="Z_B470E9E2_8078_4818_B02D_602B3A29775C_.wvu.FilterData" localSheetId="1" hidden="1">Sheet2!$A$1:$F$380</definedName>
@@ -37,7 +38,7 @@
   <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="ASUS - Personal View" guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="DOLE - Personal View" guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="DOLE - Personal View" guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3480,9 +3481,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3500,6 +3498,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3550,8 +3551,20 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5E99A82C-77A5-4B9A-ACDE-F67CC77D1DD8}" diskRevisions="1" revisionId="341" version="31">
-  <header guid="{5E99A82C-77A5-4B9A-ACDE-F67CC77D1DD8}" dateTime="2023-08-07T16:33:48" maxSheetId="3" userName="ASUS" r:id="rId31" minRId="327" maxRId="337">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ECC1B6B1-AC24-490F-946E-45AD7B4188C6}" diskRevisions="1" revisionId="351" version="35">
+  <header guid="{EBE33C03-8163-4A55-83AB-82301281AF58}" dateTime="2023-09-27T14:08:22" maxSheetId="3" userName="ASUS" r:id="rId33" minRId="347">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F827594B-8573-46E7-B91C-60C5F4B2673E}" dateTime="2023-09-27T14:13:37" maxSheetId="3" userName="ASUS" r:id="rId34">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ECC1B6B1-AC24-490F-946E-45AD7B4188C6}" dateTime="2023-09-27T14:48:42" maxSheetId="3" userName="ASUS" r:id="rId35">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -3562,98 +3575,16 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="327" sId="2">
-    <oc r="C346" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C346"/>
-  </rcc>
-  <rcc rId="328" sId="2">
-    <oc r="C349" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C349"/>
-  </rcc>
-  <rcc rId="329" sId="2">
-    <oc r="C352" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C352"/>
-  </rcc>
-  <rcc rId="330" sId="2">
-    <oc r="C354" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C354"/>
-  </rcc>
-  <rcc rId="331" sId="2">
-    <oc r="C358" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C358"/>
-  </rcc>
-  <rcc rId="332" sId="2">
-    <oc r="C359" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C359"/>
-  </rcc>
-  <rcc rId="333" sId="2">
-    <oc r="C364" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C364"/>
-  </rcc>
-  <rcc rId="334" sId="2">
-    <oc r="C365" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C365"/>
-  </rcc>
-  <rcc rId="335" sId="2">
-    <oc r="C367" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C367"/>
-  </rcc>
-  <rcc rId="336" sId="2">
-    <oc r="C375" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C375" t="inlineStr">
-      <is>
-        <t>p</t>
-      </is>
+  <rcc rId="347" sId="2" numFmtId="19">
+    <nc r="F81">
+      <v>35947</v>
     </nc>
   </rcc>
-  <rcc rId="337" sId="2">
-    <oc r="C378" t="inlineStr">
-      <is>
-        <t>P</t>
-      </is>
-    </oc>
-    <nc r="C378"/>
-  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcv guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" action="delete"/>
   <rdn rId="0" localSheetId="1" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.PrintTitles" hidden="1" oldHidden="1">
     <formula>Sheet1!$1:$3</formula>
@@ -3664,17 +3595,30 @@
     <oldFormula>Sheet1!$C:$C</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="1" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>Sheet1!$A$3:$E$3</formula>
+    <formula>Sheet1!$A$3:$E$399</formula>
+    <oldFormula>Sheet1!$A$3:$E$3</oldFormula>
   </rdn>
   <rdn rId="0" localSheetId="2" customView="1" name="Z_0720371A_3F32_478A_9C76_851AFF5D4573_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>Sheet2!$A$1:$F$391</formula>
-    <oldFormula>Sheet2!$A$1:$F$380</oldFormula>
+    <oldFormula>Sheet2!$A$1:$F$391</oldFormula>
   </rdn>
   <rcv guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="A1:F1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -3950,7 +3894,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
@@ -10266,7 +10210,7 @@
       <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
       <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" hiddenColumns="1">
+    <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" showPageBreaks="1" hiddenColumns="1">
       <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
       <pageSetup paperSize="10000" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
@@ -10291,7 +10235,7 @@
   <dimension ref="A1:K391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10300,28 +10244,29 @@
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="6" width="16.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="32" t="s">
         <v>1027</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="32" t="s">
         <v>975</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="32" t="s">
         <v>976</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="32" t="s">
         <v>977</v>
       </c>
       <c r="I1" t="s">
@@ -10335,14 +10280,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="H2" t="s">
         <v>1031</v>
       </c>
@@ -10357,14 +10302,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26">
         <v>43789</v>
       </c>
       <c r="H3" t="s">
@@ -10375,14 +10320,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>42614</v>
       </c>
       <c r="H4" t="s">
@@ -10393,14 +10338,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
       <c r="H5" t="s">
         <v>1035</v>
       </c>
@@ -10409,16 +10354,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26">
         <v>33560</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>34151</v>
       </c>
       <c r="H6" t="s">
@@ -10429,16 +10374,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26">
         <v>34592</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>35506</v>
       </c>
       <c r="H7" t="s">
@@ -10449,14 +10394,14 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="H8" t="s">
         <v>1038</v>
       </c>
@@ -10465,14 +10410,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="H9" t="s">
         <v>1039</v>
       </c>
@@ -10481,16 +10426,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26">
         <v>34335</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>35957</v>
       </c>
       <c r="H10" t="s">
@@ -10501,14 +10446,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="H11" t="s">
         <v>1052</v>
       </c>
@@ -10517,16 +10462,16 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26" t="s">
         <v>1046</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26">
         <v>36332</v>
       </c>
       <c r="H12" t="s">
@@ -10537,14 +10482,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>1004</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26">
         <v>30299</v>
       </c>
       <c r="H13" t="s">
@@ -10555,4432 +10500,4434 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26">
         <v>34659</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <v>34774</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26">
         <v>33543</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <v>33695</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>982</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>610</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26">
         <v>43832</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>613</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26">
         <v>29535</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="26">
         <v>30118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26">
         <v>33560</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="26">
         <v>34151</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>618</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26">
         <v>30605</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>619</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26">
         <v>34641</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="26">
         <v>35584</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26">
         <v>33893</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="26">
         <v>34151</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26">
         <v>33619</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="26">
         <v>35611</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26">
         <v>43773</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26">
         <v>43647</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>1005</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26">
         <v>34596</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>999</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26">
         <v>36327</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="26">
         <v>41323</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>983</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26">
         <v>44820</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26">
         <v>33679</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="26">
         <v>34197</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>1000</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26">
         <v>35233</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="26">
         <v>35807</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26">
         <v>35459</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="26">
         <v>35870</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26" t="s">
         <v>1050</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27">
+      <c r="E46" s="26"/>
+      <c r="F46" s="26">
         <v>37712</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26">
         <v>31199</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>1006</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26">
         <v>34586</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27">
+      <c r="E48" s="26"/>
+      <c r="F48" s="26">
         <v>35411</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26">
         <v>37088</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27">
+      <c r="E49" s="26"/>
+      <c r="F49" s="26">
         <v>38231</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27">
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26">
         <v>33644</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="26">
         <v>35870</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>1007</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27">
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26">
         <v>36587</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27">
+      <c r="E53" s="26"/>
+      <c r="F53" s="26">
         <v>37970</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="24" t="s">
         <v>984</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27">
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26">
         <v>42086</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26">
         <v>34774</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27">
+      <c r="E57" s="26"/>
+      <c r="F57" s="26">
         <v>35207</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="24" t="s">
         <v>1008</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26">
         <v>33483</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26">
         <v>41792</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27">
+      <c r="E59" s="26"/>
+      <c r="F59" s="26">
         <v>42552</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="24" t="s">
         <v>985</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26">
         <v>34662</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="24" t="s">
         <v>1009</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="24" t="s">
         <v>637</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27">
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26">
         <v>33619</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="26">
         <v>34151</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26">
         <v>42614</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26">
         <v>34758</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F68" s="26">
         <v>35947</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27">
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26">
         <v>44743</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27">
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26">
         <v>42186</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27">
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26">
         <v>33560</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F72" s="26">
         <v>42795</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27">
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="26">
         <v>36966</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E73" s="26">
         <v>37500</v>
       </c>
-      <c r="F73" s="27">
+      <c r="F73" s="26">
         <v>38384</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="24" t="s">
         <v>455</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27">
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26">
         <v>34610</v>
       </c>
-      <c r="F75" s="27">
+      <c r="F75" s="26">
         <v>36089</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27">
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="26">
         <v>34121</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27">
+      <c r="E77" s="26"/>
+      <c r="F77" s="26">
         <v>35606</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27">
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26">
         <v>43647</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26">
+        <v>35947</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27">
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26">
         <v>37104</v>
       </c>
-      <c r="E82" s="27">
+      <c r="E82" s="26">
         <v>38018</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F82" s="26">
         <v>39965</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="24" t="s">
         <v>1001</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27">
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26">
         <v>36978</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27">
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26">
         <v>30242</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="24" t="s">
         <v>651</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27">
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26">
         <v>33924</v>
       </c>
-      <c r="F85" s="27">
+      <c r="F85" s="26">
         <v>35947</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27">
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26">
         <v>33560</v>
       </c>
-      <c r="F86" s="27">
+      <c r="F86" s="26">
         <v>33580</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="24" t="s">
         <v>652</v>
       </c>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27">
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26">
         <v>35982</v>
       </c>
-      <c r="F88" s="27">
+      <c r="F88" s="26">
         <v>43709</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="24" t="s">
         <v>986</v>
       </c>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27">
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26">
         <v>35436</v>
       </c>
-      <c r="F91" s="27"/>
+      <c r="F91" s="26"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="24" t="s">
         <v>654</v>
       </c>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="27">
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="26">
         <v>42871</v>
       </c>
-      <c r="E95" s="27">
+      <c r="E95" s="26">
         <v>43647</v>
       </c>
-      <c r="F95" s="27">
+      <c r="F95" s="26">
         <v>44743</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27">
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26">
         <v>35599</v>
       </c>
-      <c r="F96" s="27">
+      <c r="F96" s="26">
         <v>42948</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27">
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26">
         <v>35128</v>
       </c>
-      <c r="F97" s="27">
+      <c r="F97" s="26">
         <v>35674</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="24" t="s">
         <v>1010</v>
       </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27">
+      <c r="B102" s="25"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26">
         <v>32356</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27">
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26">
         <v>44837</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27">
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26">
         <v>34610</v>
       </c>
-      <c r="F106" s="27">
+      <c r="F106" s="26">
         <v>35384</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27">
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26">
         <v>34645</v>
       </c>
-      <c r="F108" s="27">
+      <c r="F108" s="26">
         <v>34778</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="24" t="s">
         <v>1012</v>
       </c>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="24" t="s">
         <v>769</v>
       </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="27" t="s">
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="26" t="s">
         <v>1047</v>
       </c>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27">
+      <c r="E111" s="26"/>
+      <c r="F111" s="26">
         <v>37827</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27">
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26">
         <v>35627</v>
       </c>
-      <c r="F112" s="27">
+      <c r="F112" s="26">
         <v>36965</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27">
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26">
         <v>42614</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="24" t="s">
         <v>660</v>
       </c>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27">
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26">
         <v>34611</v>
       </c>
-      <c r="F114" s="27">
+      <c r="F114" s="26">
         <v>35947</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="24" t="s">
         <v>662</v>
       </c>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27">
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26">
         <v>34592</v>
       </c>
-      <c r="F116" s="27">
+      <c r="F116" s="26">
         <v>35697</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27">
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26">
         <v>35597</v>
       </c>
-      <c r="F117" s="27">
+      <c r="F117" s="26">
         <v>36362</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27">
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26">
         <v>35597</v>
       </c>
-      <c r="F118" s="27">
+      <c r="F118" s="26">
         <v>36332</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="27">
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="26">
         <v>32419</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27">
+      <c r="E119" s="26"/>
+      <c r="F119" s="26">
         <v>33086</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="24" t="s">
         <v>987</v>
       </c>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27">
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26">
         <v>33619</v>
       </c>
-      <c r="F120" s="27">
+      <c r="F120" s="26">
         <v>34151</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="24" t="s">
         <v>988</v>
       </c>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27">
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26">
         <v>34709</v>
       </c>
-      <c r="F123" s="27">
+      <c r="F123" s="26">
         <v>36832</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27">
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26">
         <v>35765</v>
       </c>
-      <c r="F124" s="27">
+      <c r="F124" s="26">
         <v>36833</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="24" t="s">
         <v>667</v>
       </c>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27">
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26">
         <v>43710</v>
       </c>
-      <c r="F126" s="27">
+      <c r="F126" s="26">
         <v>44743</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="25" t="s">
+      <c r="A130" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27">
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26">
         <v>34205</v>
       </c>
-      <c r="F130" s="27">
+      <c r="F130" s="26">
         <v>34228</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="24" t="s">
         <v>673</v>
       </c>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27">
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26">
         <v>34666</v>
       </c>
-      <c r="F131" s="27">
+      <c r="F131" s="26">
         <v>35697</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="24" t="s">
         <v>674</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="24" t="s">
         <v>1002</v>
       </c>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27">
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
+      <c r="F133" s="26">
         <v>32706</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="25" t="s">
+      <c r="A134" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
+      <c r="F134" s="26"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27">
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26">
         <v>35233</v>
       </c>
-      <c r="F135" s="27">
+      <c r="F135" s="26">
         <v>36332</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
+      <c r="F136" s="26"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
+      <c r="F137" s="26"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="25" t="s">
+      <c r="A140" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27">
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26">
         <v>36105</v>
       </c>
-      <c r="F140" s="27">
+      <c r="F140" s="26">
         <v>38063</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="25" t="s">
+      <c r="A141" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="27">
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="26">
         <v>43252</v>
       </c>
-      <c r="E142" s="27">
+      <c r="E142" s="26">
         <v>43647</v>
       </c>
-      <c r="F142" s="27">
+      <c r="F142" s="26">
         <v>44743</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="27" t="s">
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="26" t="s">
         <v>1051</v>
       </c>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27">
+      <c r="E143" s="26"/>
+      <c r="F143" s="26">
         <v>34151</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="24" t="s">
         <v>678</v>
       </c>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27">
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
+      <c r="F145" s="26">
         <v>30560</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="25" t="s">
+      <c r="A146" s="24" t="s">
         <v>679</v>
       </c>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27">
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26">
         <v>34366</v>
       </c>
-      <c r="F146" s="27">
+      <c r="F146" s="26">
         <v>35096</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="B147" s="26"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="26"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="24" t="s">
         <v>681</v>
       </c>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
+      <c r="F149" s="26"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="24" t="s">
         <v>682</v>
       </c>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="27"/>
-      <c r="E150" s="27">
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26">
         <v>34582</v>
       </c>
-      <c r="F150" s="27">
+      <c r="F150" s="26">
         <v>34774</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="27"/>
-      <c r="E151" s="27">
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26">
         <v>34631</v>
       </c>
-      <c r="F151" s="27">
+      <c r="F151" s="26">
         <v>35807</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="25" t="s">
+      <c r="A152" s="24" t="s">
         <v>683</v>
       </c>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="27"/>
-      <c r="E152" s="27"/>
-      <c r="F152" s="27">
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
+      <c r="F152" s="26">
         <v>39965</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27">
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
+      <c r="F153" s="26">
         <v>42614</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="24" t="s">
         <v>685</v>
       </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27">
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
+      <c r="F154" s="26">
         <v>34619</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
+      <c r="F156" s="26"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="25" t="s">
+      <c r="A157" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
+      <c r="F157" s="26"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="24" t="s">
         <v>686</v>
       </c>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="27">
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="26">
         <v>29284</v>
       </c>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27">
+      <c r="E158" s="26"/>
+      <c r="F158" s="26">
         <v>29602</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27">
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
+      <c r="F159" s="26">
         <v>42614</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="24" t="s">
         <v>1013</v>
       </c>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
+      <c r="F161" s="26"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="27">
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="26">
         <v>30230</v>
       </c>
-      <c r="E162" s="27">
+      <c r="E162" s="26">
         <v>33560</v>
       </c>
-      <c r="F162" s="27">
+      <c r="F162" s="26">
         <v>34645</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="24" t="s">
         <v>989</v>
       </c>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
+      <c r="F163" s="26"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
+      <c r="F164" s="26"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="25" t="s">
+      <c r="A165" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
+      <c r="F165" s="26"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="27"/>
-      <c r="E166" s="27"/>
-      <c r="F166" s="27"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="26"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="25" t="s">
+      <c r="A167" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="27"/>
-      <c r="E167" s="27"/>
-      <c r="F167" s="27"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
+      <c r="F167" s="26"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="24" t="s">
         <v>689</v>
       </c>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="27"/>
-      <c r="E168" s="27"/>
-      <c r="F168" s="27">
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
+      <c r="F168" s="26">
         <v>32964</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="24" t="s">
         <v>990</v>
       </c>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="27"/>
-      <c r="E169" s="27"/>
-      <c r="F169" s="27"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
+      <c r="F169" s="26"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="24" t="s">
         <v>690</v>
       </c>
-      <c r="B170" s="26"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="27"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
+      <c r="F170" s="26"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="24" t="s">
         <v>691</v>
       </c>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="27"/>
-      <c r="E171" s="27"/>
-      <c r="F171" s="27"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
+      <c r="F171" s="26"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="24" t="s">
         <v>692</v>
       </c>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="27"/>
-      <c r="E172" s="27">
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26">
         <v>34669</v>
       </c>
-      <c r="F172" s="27">
+      <c r="F172" s="26">
         <v>35807</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="24" t="s">
         <v>693</v>
       </c>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="27"/>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="26"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="24" t="s">
         <v>694</v>
       </c>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="27"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
+      <c r="F174" s="26"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27">
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
+      <c r="F175" s="26">
         <v>37900</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="27"/>
-      <c r="E176" s="27"/>
-      <c r="F176" s="27"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="27"/>
-      <c r="E177" s="27"/>
-      <c r="F177" s="27"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
+      <c r="F177" s="26"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="24" t="s">
         <v>696</v>
       </c>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="27"/>
-      <c r="E178" s="27">
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26">
         <v>34516</v>
       </c>
-      <c r="F178" s="27">
+      <c r="F178" s="26">
         <v>34774</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="27"/>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
+      <c r="F179" s="26"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="24" t="s">
         <v>697</v>
       </c>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
+      <c r="F180" s="26"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="B181" s="26"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27">
+      <c r="B181" s="25"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26">
         <v>34417</v>
       </c>
-      <c r="F181" s="27">
+      <c r="F181" s="26">
         <v>36069</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="25" t="s">
+      <c r="A182" s="24" t="s">
         <v>698</v>
       </c>
-      <c r="B182" s="26"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="27">
+      <c r="B182" s="25"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="26">
         <v>43633</v>
       </c>
-      <c r="E182" s="27">
+      <c r="E182" s="26">
         <v>43709</v>
       </c>
-      <c r="F182" s="27">
+      <c r="F182" s="26">
         <v>44743</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="24" t="s">
         <v>699</v>
       </c>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27">
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26">
         <v>35159</v>
       </c>
-      <c r="F183" s="27">
+      <c r="F183" s="26">
         <v>36332</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="25" t="s">
+      <c r="A184" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27">
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26">
         <v>34690</v>
       </c>
-      <c r="F184" s="27">
+      <c r="F184" s="26">
         <v>35384</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="B185" s="26"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
+      <c r="F185" s="26"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="24" t="s">
         <v>700</v>
       </c>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="27">
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="26">
         <v>37382</v>
       </c>
-      <c r="E186" s="27">
+      <c r="E186" s="26">
         <v>39539</v>
       </c>
-      <c r="F186" s="27">
+      <c r="F186" s="26">
         <v>39965</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="25" t="s">
+      <c r="A187" s="24" t="s">
         <v>701</v>
       </c>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27">
+      <c r="B187" s="25"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26">
         <v>35591</v>
       </c>
-      <c r="F187" s="27">
+      <c r="F187" s="26">
         <v>36332</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="25" t="s">
+      <c r="A188" s="24" t="s">
         <v>702</v>
       </c>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="26"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="24" t="s">
         <v>703</v>
       </c>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27">
+      <c r="B189" s="25"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
+      <c r="F189" s="26">
         <v>32356</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="24" t="s">
         <v>704</v>
       </c>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27">
+      <c r="B190" s="25"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="26">
         <v>35248</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="24" t="s">
         <v>991</v>
       </c>
-      <c r="B191" s="26"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="27"/>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
+      <c r="F191" s="26"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="24" t="s">
         <v>992</v>
       </c>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="27"/>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
+      <c r="F192" s="26"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="24" t="s">
         <v>1014</v>
       </c>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="27"/>
-      <c r="E193" s="27"/>
-      <c r="F193" s="27">
+      <c r="B193" s="25"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="26">
         <v>40210</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="25" t="s">
+      <c r="A194" s="24" t="s">
         <v>993</v>
       </c>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="27" t="s">
+      <c r="B194" s="25"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="26" t="s">
         <v>1054</v>
       </c>
-      <c r="E194" s="27"/>
-      <c r="F194" s="27">
+      <c r="E194" s="26"/>
+      <c r="F194" s="26">
         <v>32325</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="25" t="s">
+      <c r="A195" s="24" t="s">
         <v>705</v>
       </c>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="26"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
+      <c r="F196" s="26"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="B197" s="26"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="27"/>
-      <c r="E197" s="27"/>
-      <c r="F197" s="27"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="26"/>
+      <c r="F197" s="26"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="27"/>
-      <c r="E198" s="27"/>
-      <c r="F198" s="27"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
+      <c r="F198" s="26"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="25" t="s">
+      <c r="A199" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="B199" s="26"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="27"/>
-      <c r="E199" s="27">
+      <c r="B199" s="25"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="26">
         <v>37378</v>
       </c>
-      <c r="F199" s="27">
+      <c r="F199" s="26">
         <v>39965</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="25" t="s">
+      <c r="A200" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="27"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="27"/>
-      <c r="E201" s="27"/>
-      <c r="F201" s="27"/>
+      <c r="B201" s="25"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
+      <c r="F201" s="26"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="27"/>
-      <c r="E202" s="27"/>
-      <c r="F202" s="27"/>
+      <c r="B202" s="25"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
+      <c r="F202" s="26"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="27"/>
-      <c r="E203" s="27">
+      <c r="B203" s="25"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26">
         <v>34288</v>
       </c>
-      <c r="F203" s="27">
+      <c r="F203" s="26">
         <v>34513</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="25" t="s">
+      <c r="A204" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="27"/>
-      <c r="E204" s="27">
+      <c r="B204" s="25"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26">
         <v>33878</v>
       </c>
-      <c r="F204" s="27">
+      <c r="F204" s="26">
         <v>34416</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="25" t="s">
+      <c r="A205" s="24" t="s">
         <v>708</v>
       </c>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="27"/>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27">
+      <c r="B205" s="25"/>
+      <c r="C205" s="25"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
+      <c r="F205" s="26">
         <v>31639</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="24" t="s">
         <v>709</v>
       </c>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="27" t="s">
+      <c r="B206" s="25"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="26" t="s">
         <v>1045</v>
       </c>
-      <c r="E206" s="27"/>
-      <c r="F206" s="27">
+      <c r="E206" s="26"/>
+      <c r="F206" s="26">
         <v>36965</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="24" t="s">
         <v>710</v>
       </c>
-      <c r="B207" s="26"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="27"/>
-      <c r="E207" s="27"/>
-      <c r="F207" s="27">
+      <c r="B207" s="25"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
+      <c r="F207" s="26">
         <v>36486</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="24" t="s">
         <v>711</v>
       </c>
-      <c r="B208" s="26"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="27" t="s">
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="26" t="s">
         <v>1041</v>
       </c>
-      <c r="E208" s="27">
+      <c r="E208" s="26">
         <v>34001</v>
       </c>
-      <c r="F208" s="27">
+      <c r="F208" s="26">
         <v>35870</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="24" t="s">
         <v>712</v>
       </c>
-      <c r="B209" s="26"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="27"/>
-      <c r="E209" s="27"/>
-      <c r="F209" s="27">
+      <c r="B209" s="25"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
+      <c r="F209" s="26">
         <v>32433</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="25" t="s">
+      <c r="A210" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="B210" s="26"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="27"/>
-      <c r="E210" s="27"/>
-      <c r="F210" s="27"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
+      <c r="F210" s="26"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="25" t="s">
+      <c r="A211" s="24" t="s">
         <v>713</v>
       </c>
-      <c r="B211" s="26"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="27"/>
-      <c r="E211" s="27"/>
-      <c r="F211" s="27"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
+      <c r="F211" s="26"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="25" t="s">
+      <c r="A212" s="24" t="s">
         <v>1015</v>
       </c>
-      <c r="B212" s="26"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="27"/>
-      <c r="E212" s="27"/>
-      <c r="F212" s="27"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
+      <c r="F212" s="26"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="25" t="s">
+      <c r="A213" s="24" t="s">
         <v>714</v>
       </c>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="27"/>
-      <c r="E213" s="27">
+      <c r="B213" s="25"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26">
         <v>35880</v>
       </c>
-      <c r="F213" s="27">
+      <c r="F213" s="26">
         <v>36833</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="25" t="s">
+      <c r="A214" s="24" t="s">
         <v>715</v>
       </c>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="27"/>
-      <c r="E214" s="27"/>
-      <c r="F214" s="27"/>
+      <c r="B214" s="25"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
+      <c r="F214" s="26"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="25" t="s">
+      <c r="A215" s="24" t="s">
         <v>716</v>
       </c>
-      <c r="B215" s="26"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="27"/>
-      <c r="E215" s="27"/>
-      <c r="F215" s="27"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
+      <c r="F215" s="26"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="25" t="s">
+      <c r="A216" s="24" t="s">
         <v>717</v>
       </c>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="27"/>
-      <c r="E216" s="27">
+      <c r="B216" s="25"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26">
         <v>34895</v>
       </c>
-      <c r="F216" s="27">
+      <c r="F216" s="26">
         <v>40467</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="25" t="s">
+      <c r="A217" s="24" t="s">
         <v>718</v>
       </c>
-      <c r="B217" s="26"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="27">
+      <c r="B217" s="25"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26">
         <v>34659</v>
       </c>
-      <c r="F217" s="27">
+      <c r="F217" s="26">
         <v>35207</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="25" t="s">
+      <c r="A218" s="24" t="s">
         <v>719</v>
       </c>
-      <c r="B218" s="26"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="27"/>
-      <c r="E218" s="27"/>
-      <c r="F218" s="27"/>
+      <c r="B218" s="25"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
+      <c r="F218" s="26"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="25" t="s">
+      <c r="A219" s="24" t="s">
         <v>994</v>
       </c>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="27"/>
-      <c r="E219" s="27"/>
-      <c r="F219" s="27"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="26"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="25" t="s">
+      <c r="A220" s="24" t="s">
         <v>720</v>
       </c>
-      <c r="B220" s="26"/>
-      <c r="C220" s="26"/>
-      <c r="D220" s="27"/>
-      <c r="E220" s="27"/>
-      <c r="F220" s="27"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
+      <c r="F220" s="26"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="25" t="s">
+      <c r="A221" s="24" t="s">
         <v>721</v>
       </c>
-      <c r="B221" s="26"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="27"/>
-      <c r="E221" s="27"/>
-      <c r="F221" s="27"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="26"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="25" t="s">
+      <c r="A222" s="24" t="s">
         <v>722</v>
       </c>
-      <c r="B222" s="26"/>
-      <c r="C222" s="26"/>
-      <c r="D222" s="27">
+      <c r="B222" s="25"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="26">
         <v>43542</v>
       </c>
-      <c r="E222" s="27">
+      <c r="E222" s="26">
         <v>43709</v>
       </c>
-      <c r="F222" s="27">
+      <c r="F222" s="26">
         <v>44743</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="25" t="s">
+      <c r="A223" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="27"/>
-      <c r="E223" s="27"/>
-      <c r="F223" s="27">
+      <c r="B223" s="25"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="26"/>
+      <c r="F223" s="26">
         <v>42614</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="25" t="s">
+      <c r="A224" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="B224" s="26"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="27"/>
-      <c r="E224" s="27"/>
-      <c r="F224" s="27"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="26"/>
+      <c r="F224" s="26"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="25" t="s">
+      <c r="A225" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="27"/>
-      <c r="E225" s="27"/>
-      <c r="F225" s="27"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
+      <c r="F225" s="26"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="25" t="s">
+      <c r="A226" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="27"/>
-      <c r="E226" s="27"/>
-      <c r="F226" s="27"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
+      <c r="F226" s="26"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="25" t="s">
+      <c r="A227" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="27"/>
-      <c r="E227" s="27">
+      <c r="B227" s="25"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="26">
         <v>34071</v>
       </c>
-      <c r="F227" s="27">
+      <c r="F227" s="26">
         <v>35879</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="25" t="s">
+      <c r="A228" s="24" t="s">
         <v>725</v>
       </c>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="27"/>
-      <c r="E228" s="27" t="s">
+      <c r="B228" s="25"/>
+      <c r="C228" s="25"/>
+      <c r="D228" s="26"/>
+      <c r="E228" s="26" t="s">
         <v>1032</v>
       </c>
-      <c r="F228" s="27">
+      <c r="F228" s="26">
         <v>35241</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="25" t="s">
+      <c r="A229" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="27"/>
-      <c r="E229" s="27"/>
-      <c r="F229" s="27"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
+      <c r="F229" s="26"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="25" t="s">
+      <c r="A230" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="B230" s="26"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="27"/>
-      <c r="E230" s="27"/>
-      <c r="F230" s="27"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="25"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
+      <c r="F230" s="26"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="25" t="s">
+      <c r="A231" s="24" t="s">
         <v>726</v>
       </c>
-      <c r="B231" s="26"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="27"/>
-      <c r="E231" s="27"/>
-      <c r="F231" s="27"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
+      <c r="F231" s="26"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="25" t="s">
+      <c r="A232" s="24" t="s">
         <v>727</v>
       </c>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="27">
+      <c r="B232" s="25"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="26">
         <v>41106</v>
       </c>
-      <c r="E232" s="27">
+      <c r="E232" s="26">
         <v>42186</v>
       </c>
-      <c r="F232" s="27">
+      <c r="F232" s="26">
         <v>44028</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="25" t="s">
+      <c r="A233" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="27"/>
-      <c r="E233" s="27"/>
-      <c r="F233" s="27"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="25"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
+      <c r="F233" s="26"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="25" t="s">
+      <c r="A234" s="24" t="s">
         <v>728</v>
       </c>
-      <c r="B234" s="26"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="27"/>
-      <c r="E234" s="27">
+      <c r="B234" s="25"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26">
         <v>34584</v>
       </c>
-      <c r="F234" s="27">
+      <c r="F234" s="26">
         <v>34641</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="25" t="s">
+      <c r="A235" s="24" t="s">
         <v>729</v>
       </c>
-      <c r="B235" s="26"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="27"/>
-      <c r="E235" s="27">
+      <c r="B235" s="25"/>
+      <c r="C235" s="25"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="26">
         <v>34516</v>
       </c>
-      <c r="F235" s="27">
+      <c r="F235" s="26">
         <v>34641</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="25" t="s">
+      <c r="A236" s="24" t="s">
         <v>730</v>
       </c>
-      <c r="B236" s="26"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="27"/>
-      <c r="E236" s="27"/>
-      <c r="F236" s="27"/>
+      <c r="B236" s="25"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="26"/>
+      <c r="F236" s="26"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="25" t="s">
+      <c r="A237" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="B237" s="26"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="27"/>
-      <c r="E237" s="27">
+      <c r="B237" s="25"/>
+      <c r="C237" s="25"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="26">
         <v>35992</v>
       </c>
-      <c r="F237" s="27">
+      <c r="F237" s="26">
         <v>36248</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="25" t="s">
+      <c r="A238" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="27"/>
-      <c r="F238" s="27"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="26"/>
+      <c r="E238" s="26"/>
+      <c r="F238" s="26"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="25" t="s">
+      <c r="A239" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="B239" s="26"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="27"/>
-      <c r="E239" s="27"/>
-      <c r="F239" s="27"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
+      <c r="F239" s="26"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="25" t="s">
+      <c r="A240" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="27"/>
-      <c r="E240" s="27"/>
-      <c r="F240" s="27">
+      <c r="B240" s="25"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
+      <c r="F240" s="26">
         <v>34589</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="25" t="s">
+      <c r="A241" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="B241" s="26"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="27"/>
-      <c r="E241" s="27"/>
-      <c r="F241" s="27">
+      <c r="B241" s="25"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
+      <c r="F241" s="26">
         <v>34778</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="25" t="s">
+      <c r="A242" s="24" t="s">
         <v>733</v>
       </c>
-      <c r="B242" s="26"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="27" t="s">
+      <c r="B242" s="25"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="26" t="s">
         <v>1030</v>
       </c>
-      <c r="E242" s="27"/>
-      <c r="F242" s="27">
+      <c r="E242" s="26"/>
+      <c r="F242" s="26">
         <v>35957</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="25" t="s">
+      <c r="A243" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="B243" s="26"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="27">
+      <c r="B243" s="25"/>
+      <c r="C243" s="25"/>
+      <c r="D243" s="26">
         <v>43633</v>
       </c>
-      <c r="E243" s="27">
+      <c r="E243" s="26">
         <v>43710</v>
       </c>
-      <c r="F243" s="27">
+      <c r="F243" s="26">
         <v>44621</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="25" t="s">
+      <c r="A244" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="B244" s="26"/>
-      <c r="C244" s="26"/>
-      <c r="D244" s="27"/>
-      <c r="E244" s="27">
+      <c r="B244" s="25"/>
+      <c r="C244" s="25"/>
+      <c r="D244" s="26"/>
+      <c r="E244" s="26">
         <v>36395</v>
       </c>
-      <c r="F244" s="27">
+      <c r="F244" s="26">
         <v>40182</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="25" t="s">
+      <c r="A245" s="24" t="s">
         <v>734</v>
       </c>
-      <c r="B245" s="26"/>
-      <c r="C245" s="26"/>
-      <c r="D245" s="27"/>
-      <c r="E245" s="27"/>
-      <c r="F245" s="27">
+      <c r="B245" s="25"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
+      <c r="F245" s="26">
         <v>32767</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="25" t="s">
+      <c r="A246" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="B246" s="26"/>
-      <c r="C246" s="26"/>
-      <c r="D246" s="27"/>
-      <c r="E246" s="27"/>
-      <c r="F246" s="27">
+      <c r="B246" s="25"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
+      <c r="F246" s="26">
         <v>31625</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="25" t="s">
+      <c r="A247" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="B247" s="26"/>
-      <c r="C247" s="26"/>
-      <c r="D247" s="27"/>
-      <c r="E247" s="27"/>
-      <c r="F247" s="27"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="25"/>
+      <c r="D247" s="26"/>
+      <c r="E247" s="26"/>
+      <c r="F247" s="26"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="25" t="s">
+      <c r="A248" s="24" t="s">
         <v>995</v>
       </c>
-      <c r="B248" s="26"/>
-      <c r="C248" s="26"/>
-      <c r="D248" s="27"/>
-      <c r="E248" s="27"/>
-      <c r="F248" s="27"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="26"/>
+      <c r="E248" s="26"/>
+      <c r="F248" s="26"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="25" t="s">
+      <c r="A249" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="B249" s="26"/>
-      <c r="C249" s="26"/>
-      <c r="D249" s="27"/>
-      <c r="E249" s="27"/>
-      <c r="F249" s="27"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="25"/>
+      <c r="D249" s="26"/>
+      <c r="E249" s="26"/>
+      <c r="F249" s="26"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="25" t="s">
+      <c r="A250" s="24" t="s">
         <v>735</v>
       </c>
-      <c r="B250" s="26"/>
-      <c r="C250" s="26"/>
-      <c r="D250" s="27"/>
-      <c r="E250" s="27"/>
-      <c r="F250" s="27"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="26"/>
+      <c r="E250" s="26"/>
+      <c r="F250" s="26"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="25" t="s">
+      <c r="A251" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="B251" s="26"/>
-      <c r="C251" s="26"/>
-      <c r="D251" s="27"/>
-      <c r="E251" s="27">
+      <c r="B251" s="25"/>
+      <c r="C251" s="25"/>
+      <c r="D251" s="26"/>
+      <c r="E251" s="26">
         <v>34624</v>
       </c>
-      <c r="F251" s="27">
+      <c r="F251" s="26">
         <v>35609</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="25" t="s">
+      <c r="A252" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="B252" s="26"/>
-      <c r="C252" s="26"/>
-      <c r="D252" s="27"/>
-      <c r="E252" s="27"/>
-      <c r="F252" s="27"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="25"/>
+      <c r="D252" s="26"/>
+      <c r="E252" s="26"/>
+      <c r="F252" s="26"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="25" t="s">
+      <c r="A253" s="24" t="s">
         <v>737</v>
       </c>
-      <c r="B253" s="26"/>
-      <c r="C253" s="26"/>
-      <c r="D253" s="27"/>
-      <c r="E253" s="27"/>
-      <c r="F253" s="27"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="25"/>
+      <c r="D253" s="26"/>
+      <c r="E253" s="26"/>
+      <c r="F253" s="26"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="25" t="s">
+      <c r="A254" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="B254" s="26"/>
-      <c r="C254" s="26"/>
-      <c r="D254" s="27"/>
-      <c r="E254" s="27"/>
-      <c r="F254" s="27"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="25"/>
+      <c r="D254" s="26"/>
+      <c r="E254" s="26"/>
+      <c r="F254" s="26"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="25" t="s">
+      <c r="A255" s="24" t="s">
         <v>738</v>
       </c>
-      <c r="B255" s="26"/>
-      <c r="C255" s="26"/>
-      <c r="D255" s="27"/>
-      <c r="E255" s="27">
+      <c r="B255" s="25"/>
+      <c r="C255" s="25"/>
+      <c r="D255" s="26"/>
+      <c r="E255" s="26">
         <v>35450</v>
       </c>
-      <c r="F255" s="27">
+      <c r="F255" s="26">
         <v>36965</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="25" t="s">
+      <c r="A256" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="B256" s="26"/>
-      <c r="C256" s="26"/>
-      <c r="D256" s="27"/>
-      <c r="E256" s="27">
+      <c r="B256" s="25"/>
+      <c r="C256" s="25"/>
+      <c r="D256" s="26"/>
+      <c r="E256" s="26">
         <v>24740</v>
       </c>
-      <c r="F256" s="27">
+      <c r="F256" s="26">
         <v>41323</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="25" t="s">
+      <c r="A257" s="24" t="s">
         <v>1016</v>
       </c>
-      <c r="B257" s="26"/>
-      <c r="C257" s="26"/>
-      <c r="D257" s="27">
+      <c r="B257" s="25"/>
+      <c r="C257" s="25"/>
+      <c r="D257" s="26">
         <v>32325</v>
       </c>
-      <c r="E257" s="27"/>
-      <c r="F257" s="27">
+      <c r="E257" s="26"/>
+      <c r="F257" s="26">
         <v>33086</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="25" t="s">
+      <c r="A258" s="24" t="s">
         <v>1017</v>
       </c>
-      <c r="B258" s="26"/>
-      <c r="C258" s="26"/>
-      <c r="D258" s="27"/>
-      <c r="E258" s="27"/>
-      <c r="F258" s="27"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="25"/>
+      <c r="D258" s="26"/>
+      <c r="E258" s="26"/>
+      <c r="F258" s="26"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="25" t="s">
+      <c r="A259" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="B259" s="26"/>
-      <c r="C259" s="26"/>
-      <c r="D259" s="27">
+      <c r="B259" s="25"/>
+      <c r="C259" s="25"/>
+      <c r="D259" s="26">
         <v>37022</v>
       </c>
-      <c r="E259" s="27"/>
-      <c r="F259" s="27">
+      <c r="E259" s="26"/>
+      <c r="F259" s="26">
         <v>37928</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="25" t="s">
+      <c r="A260" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="B260" s="26"/>
-      <c r="C260" s="26"/>
-      <c r="D260" s="27" t="s">
+      <c r="B260" s="25"/>
+      <c r="C260" s="25"/>
+      <c r="D260" s="26" t="s">
         <v>1042</v>
       </c>
-      <c r="E260" s="27"/>
-      <c r="F260" s="27">
+      <c r="E260" s="26"/>
+      <c r="F260" s="26">
         <v>35385</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="25" t="s">
+      <c r="A261" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="B261" s="26"/>
-      <c r="C261" s="26"/>
-      <c r="D261" s="27"/>
-      <c r="E261" s="27"/>
-      <c r="F261" s="27"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="25"/>
+      <c r="D261" s="26"/>
+      <c r="E261" s="26"/>
+      <c r="F261" s="26"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="25" t="s">
+      <c r="A262" s="24" t="s">
         <v>740</v>
       </c>
-      <c r="B262" s="26"/>
-      <c r="C262" s="26"/>
-      <c r="D262" s="27"/>
-      <c r="E262" s="27">
+      <c r="B262" s="25"/>
+      <c r="C262" s="25"/>
+      <c r="D262" s="26"/>
+      <c r="E262" s="26">
         <v>44013</v>
       </c>
-      <c r="F262" s="27">
+      <c r="F262" s="26">
         <v>44743</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="25" t="s">
+      <c r="A263" s="24" t="s">
         <v>741</v>
       </c>
-      <c r="B263" s="26"/>
-      <c r="C263" s="26"/>
-      <c r="D263" s="27"/>
-      <c r="E263" s="27"/>
-      <c r="F263" s="27"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="26"/>
+      <c r="E263" s="26"/>
+      <c r="F263" s="26"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="25" t="s">
+      <c r="A264" s="24" t="s">
         <v>1018</v>
       </c>
-      <c r="B264" s="26"/>
-      <c r="C264" s="26"/>
-      <c r="D264" s="27"/>
-      <c r="E264" s="27"/>
-      <c r="F264" s="27"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="25"/>
+      <c r="D264" s="26"/>
+      <c r="E264" s="26"/>
+      <c r="F264" s="26"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="25" t="s">
+      <c r="A265" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="B265" s="26"/>
-      <c r="C265" s="26"/>
-      <c r="D265" s="27" t="s">
+      <c r="B265" s="25"/>
+      <c r="C265" s="25"/>
+      <c r="D265" s="26" t="s">
         <v>1056</v>
       </c>
-      <c r="E265" s="27">
+      <c r="E265" s="26">
         <v>36708</v>
       </c>
-      <c r="F265" s="27">
+      <c r="F265" s="26">
         <v>41730</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="25" t="s">
+      <c r="A266" s="24" t="s">
         <v>996</v>
       </c>
-      <c r="B266" s="26"/>
-      <c r="C266" s="26"/>
-      <c r="D266" s="27"/>
-      <c r="E266" s="27"/>
-      <c r="F266" s="27"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="25"/>
+      <c r="D266" s="26"/>
+      <c r="E266" s="26"/>
+      <c r="F266" s="26"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="25" t="s">
+      <c r="A267" s="24" t="s">
         <v>743</v>
       </c>
-      <c r="B267" s="26"/>
-      <c r="C267" s="26"/>
-      <c r="D267" s="27"/>
-      <c r="E267" s="27"/>
-      <c r="F267" s="27"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="25"/>
+      <c r="D267" s="26"/>
+      <c r="E267" s="26"/>
+      <c r="F267" s="26"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="25" t="s">
+      <c r="A268" s="24" t="s">
         <v>1019</v>
       </c>
-      <c r="B268" s="26"/>
-      <c r="C268" s="26"/>
-      <c r="D268" s="27" t="s">
+      <c r="B268" s="25"/>
+      <c r="C268" s="25"/>
+      <c r="D268" s="26" t="s">
         <v>1043</v>
       </c>
-      <c r="E268" s="27"/>
-      <c r="F268" s="27">
+      <c r="E268" s="26"/>
+      <c r="F268" s="26">
         <v>36815</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="25" t="s">
+      <c r="A269" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="B269" s="26"/>
-      <c r="C269" s="26"/>
-      <c r="D269" s="27"/>
-      <c r="E269" s="27"/>
-      <c r="F269" s="27"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="25"/>
+      <c r="D269" s="26"/>
+      <c r="E269" s="26"/>
+      <c r="F269" s="26"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="25" t="s">
+      <c r="A270" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="B270" s="26"/>
-      <c r="C270" s="26"/>
-      <c r="D270" s="27" t="s">
+      <c r="B270" s="25"/>
+      <c r="C270" s="25"/>
+      <c r="D270" s="26" t="s">
         <v>1049</v>
       </c>
-      <c r="E270" s="27"/>
-      <c r="F270" s="27">
+      <c r="E270" s="26"/>
+      <c r="F270" s="26">
         <v>37811</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="25" t="s">
+      <c r="A271" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="B271" s="26"/>
-      <c r="C271" s="26"/>
-      <c r="D271" s="27"/>
-      <c r="E271" s="27"/>
-      <c r="F271" s="27"/>
+      <c r="B271" s="25"/>
+      <c r="C271" s="25"/>
+      <c r="D271" s="26"/>
+      <c r="E271" s="26"/>
+      <c r="F271" s="26"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="25" t="s">
+      <c r="A272" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="B272" s="26"/>
-      <c r="C272" s="26"/>
-      <c r="D272" s="27"/>
-      <c r="E272" s="27">
+      <c r="B272" s="25"/>
+      <c r="C272" s="25"/>
+      <c r="D272" s="26"/>
+      <c r="E272" s="26">
         <v>36543</v>
       </c>
-      <c r="F272" s="27">
+      <c r="F272" s="26">
         <v>36965</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="25" t="s">
+      <c r="A273" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="B273" s="26"/>
-      <c r="C273" s="26"/>
-      <c r="D273" s="27"/>
-      <c r="E273" s="27"/>
-      <c r="F273" s="27">
+      <c r="B273" s="25"/>
+      <c r="C273" s="25"/>
+      <c r="D273" s="26"/>
+      <c r="E273" s="26"/>
+      <c r="F273" s="26">
         <v>43647</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="25" t="s">
+      <c r="A274" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="B274" s="26"/>
-      <c r="C274" s="26"/>
-      <c r="D274" s="27"/>
-      <c r="E274" s="27"/>
-      <c r="F274" s="27"/>
+      <c r="B274" s="25"/>
+      <c r="C274" s="25"/>
+      <c r="D274" s="26"/>
+      <c r="E274" s="26"/>
+      <c r="F274" s="26"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="25" t="s">
+      <c r="A275" s="24" t="s">
         <v>747</v>
       </c>
-      <c r="B275" s="26"/>
-      <c r="C275" s="26"/>
-      <c r="D275" s="27"/>
-      <c r="E275" s="27"/>
-      <c r="F275" s="27"/>
+      <c r="B275" s="25"/>
+      <c r="C275" s="25"/>
+      <c r="D275" s="26"/>
+      <c r="E275" s="26"/>
+      <c r="F275" s="26"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="25" t="s">
+      <c r="A276" s="24" t="s">
         <v>997</v>
       </c>
-      <c r="B276" s="26"/>
-      <c r="C276" s="26"/>
-      <c r="D276" s="27">
+      <c r="B276" s="25"/>
+      <c r="C276" s="25"/>
+      <c r="D276" s="26">
         <v>39178</v>
       </c>
-      <c r="E276" s="27">
+      <c r="E276" s="26">
         <v>39448</v>
       </c>
-      <c r="F276" s="27">
+      <c r="F276" s="26">
         <v>41323</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="25" t="s">
+      <c r="A277" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="B277" s="26"/>
-      <c r="C277" s="26"/>
-      <c r="D277" s="27"/>
-      <c r="E277" s="27"/>
-      <c r="F277" s="27"/>
+      <c r="B277" s="25"/>
+      <c r="C277" s="25"/>
+      <c r="D277" s="26"/>
+      <c r="E277" s="26"/>
+      <c r="F277" s="26"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="25" t="s">
+      <c r="A278" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="B278" s="26"/>
-      <c r="C278" s="26"/>
-      <c r="D278" s="27"/>
-      <c r="E278" s="27"/>
-      <c r="F278" s="27">
+      <c r="B278" s="25"/>
+      <c r="C278" s="25"/>
+      <c r="D278" s="26"/>
+      <c r="E278" s="26"/>
+      <c r="F278" s="26">
         <v>43647</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="25" t="s">
+      <c r="A279" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="B279" s="26"/>
-      <c r="C279" s="26"/>
-      <c r="D279" s="27"/>
-      <c r="E279" s="27"/>
-      <c r="F279" s="27"/>
+      <c r="B279" s="25"/>
+      <c r="C279" s="25"/>
+      <c r="D279" s="26"/>
+      <c r="E279" s="26"/>
+      <c r="F279" s="26"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="25" t="s">
+      <c r="A280" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="B280" s="26"/>
-      <c r="C280" s="26"/>
-      <c r="D280" s="27"/>
-      <c r="E280" s="27"/>
-      <c r="F280" s="27"/>
+      <c r="B280" s="25"/>
+      <c r="C280" s="25"/>
+      <c r="D280" s="26"/>
+      <c r="E280" s="26"/>
+      <c r="F280" s="26"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="25" t="s">
+      <c r="A281" s="24" t="s">
         <v>1020</v>
       </c>
-      <c r="B281" s="26"/>
-      <c r="C281" s="26"/>
-      <c r="D281" s="27"/>
-      <c r="E281" s="27">
+      <c r="B281" s="25"/>
+      <c r="C281" s="25"/>
+      <c r="D281" s="26"/>
+      <c r="E281" s="26">
         <v>39356</v>
       </c>
-      <c r="F281" s="27">
+      <c r="F281" s="26">
         <v>45006</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="25" t="s">
+      <c r="A282" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="B282" s="26"/>
-      <c r="C282" s="26"/>
-      <c r="D282" s="27"/>
-      <c r="E282" s="27"/>
-      <c r="F282" s="27">
+      <c r="B282" s="25"/>
+      <c r="C282" s="25"/>
+      <c r="D282" s="26"/>
+      <c r="E282" s="26"/>
+      <c r="F282" s="26">
         <v>42614</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="25" t="s">
+      <c r="A283" s="24" t="s">
         <v>750</v>
       </c>
-      <c r="B283" s="26"/>
-      <c r="C283" s="26"/>
-      <c r="D283" s="27"/>
-      <c r="E283" s="27"/>
-      <c r="F283" s="27">
+      <c r="B283" s="25"/>
+      <c r="C283" s="25"/>
+      <c r="D283" s="26"/>
+      <c r="E283" s="26"/>
+      <c r="F283" s="26">
         <v>32433</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="25" t="s">
+      <c r="A284" s="24" t="s">
         <v>751</v>
       </c>
-      <c r="B284" s="26"/>
-      <c r="C284" s="26"/>
-      <c r="D284" s="27"/>
-      <c r="E284" s="27"/>
-      <c r="F284" s="27">
+      <c r="B284" s="25"/>
+      <c r="C284" s="25"/>
+      <c r="D284" s="26"/>
+      <c r="E284" s="26"/>
+      <c r="F284" s="26">
         <v>29783</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="25" t="s">
+      <c r="A285" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="B285" s="26"/>
-      <c r="C285" s="26"/>
-      <c r="D285" s="27"/>
-      <c r="E285" s="27"/>
-      <c r="F285" s="27"/>
+      <c r="B285" s="25"/>
+      <c r="C285" s="25"/>
+      <c r="D285" s="26"/>
+      <c r="E285" s="26"/>
+      <c r="F285" s="26"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="25" t="s">
+      <c r="A286" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="B286" s="26"/>
-      <c r="C286" s="26"/>
-      <c r="D286" s="27"/>
-      <c r="E286" s="27"/>
-      <c r="F286" s="27">
+      <c r="B286" s="25"/>
+      <c r="C286" s="25"/>
+      <c r="D286" s="26"/>
+      <c r="E286" s="26"/>
+      <c r="F286" s="26">
         <v>42614</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="25" t="s">
+      <c r="A287" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="B287" s="26"/>
-      <c r="C287" s="26"/>
-      <c r="D287" s="27"/>
-      <c r="E287" s="27"/>
-      <c r="F287" s="27"/>
+      <c r="B287" s="25"/>
+      <c r="C287" s="25"/>
+      <c r="D287" s="26"/>
+      <c r="E287" s="26"/>
+      <c r="F287" s="26"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="25" t="s">
+      <c r="A288" s="24" t="s">
         <v>754</v>
       </c>
-      <c r="B288" s="26"/>
-      <c r="C288" s="26"/>
-      <c r="D288" s="27"/>
-      <c r="E288" s="27"/>
-      <c r="F288" s="27"/>
+      <c r="B288" s="25"/>
+      <c r="C288" s="25"/>
+      <c r="D288" s="26"/>
+      <c r="E288" s="26"/>
+      <c r="F288" s="26"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="25" t="s">
+      <c r="A289" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="B289" s="26"/>
-      <c r="C289" s="26"/>
-      <c r="D289" s="27"/>
-      <c r="E289" s="27"/>
-      <c r="F289" s="27"/>
+      <c r="B289" s="25"/>
+      <c r="C289" s="25"/>
+      <c r="D289" s="26"/>
+      <c r="E289" s="26"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="25" t="s">
+      <c r="A290" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="B290" s="26"/>
-      <c r="C290" s="26"/>
-      <c r="D290" s="27"/>
-      <c r="E290" s="27"/>
-      <c r="F290" s="27"/>
+      <c r="B290" s="25"/>
+      <c r="C290" s="25"/>
+      <c r="D290" s="26"/>
+      <c r="E290" s="26"/>
+      <c r="F290" s="26"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="25" t="s">
+      <c r="A291" s="24" t="s">
         <v>1021</v>
       </c>
-      <c r="B291" s="26"/>
-      <c r="C291" s="26"/>
-      <c r="D291" s="27"/>
-      <c r="E291" s="27"/>
-      <c r="F291" s="27"/>
+      <c r="B291" s="25"/>
+      <c r="C291" s="25"/>
+      <c r="D291" s="26"/>
+      <c r="E291" s="26"/>
+      <c r="F291" s="26"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="25" t="s">
+      <c r="A292" s="24" t="s">
         <v>998</v>
       </c>
-      <c r="B292" s="26"/>
-      <c r="C292" s="26"/>
-      <c r="D292" s="27"/>
-      <c r="E292" s="27"/>
-      <c r="F292" s="27"/>
+      <c r="B292" s="25"/>
+      <c r="C292" s="25"/>
+      <c r="D292" s="26"/>
+      <c r="E292" s="26"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="25" t="s">
+      <c r="A293" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="B293" s="26"/>
-      <c r="C293" s="26"/>
-      <c r="D293" s="27"/>
-      <c r="E293" s="27"/>
-      <c r="F293" s="27"/>
+      <c r="B293" s="25"/>
+      <c r="C293" s="25"/>
+      <c r="D293" s="26"/>
+      <c r="E293" s="26"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="25" t="s">
+      <c r="A294" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="B294" s="26"/>
-      <c r="C294" s="26"/>
-      <c r="D294" s="27"/>
-      <c r="E294" s="27"/>
-      <c r="F294" s="27"/>
+      <c r="B294" s="25"/>
+      <c r="C294" s="25"/>
+      <c r="D294" s="26"/>
+      <c r="E294" s="26"/>
+      <c r="F294" s="26"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="25" t="s">
+      <c r="A295" s="24" t="s">
         <v>756</v>
       </c>
-      <c r="B295" s="26"/>
-      <c r="C295" s="26"/>
-      <c r="D295" s="27"/>
-      <c r="E295" s="27"/>
-      <c r="F295" s="27">
+      <c r="B295" s="25"/>
+      <c r="C295" s="25"/>
+      <c r="D295" s="26"/>
+      <c r="E295" s="26"/>
+      <c r="F295" s="26">
         <v>43665</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="25" t="s">
+      <c r="A296" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="B296" s="26"/>
-      <c r="C296" s="26"/>
-      <c r="D296" s="27"/>
-      <c r="E296" s="27"/>
-      <c r="F296" s="27">
+      <c r="B296" s="25"/>
+      <c r="C296" s="25"/>
+      <c r="D296" s="26"/>
+      <c r="E296" s="26"/>
+      <c r="F296" s="26">
         <v>44256</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="25" t="s">
+      <c r="A297" s="24" t="s">
         <v>757</v>
       </c>
-      <c r="B297" s="26"/>
-      <c r="C297" s="26"/>
-      <c r="D297" s="27"/>
-      <c r="E297" s="27"/>
-      <c r="F297" s="27"/>
+      <c r="B297" s="25"/>
+      <c r="C297" s="25"/>
+      <c r="D297" s="26"/>
+      <c r="E297" s="26"/>
+      <c r="F297" s="26"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="25" t="s">
+      <c r="A298" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="B298" s="26"/>
-      <c r="C298" s="26"/>
-      <c r="D298" s="27"/>
-      <c r="E298" s="27">
+      <c r="B298" s="25"/>
+      <c r="C298" s="25"/>
+      <c r="D298" s="26"/>
+      <c r="E298" s="26">
         <v>34417</v>
       </c>
-      <c r="F298" s="27">
+      <c r="F298" s="26">
         <v>35875</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="25" t="s">
+      <c r="A299" s="24" t="s">
         <v>1022</v>
       </c>
-      <c r="B299" s="26"/>
-      <c r="C299" s="26"/>
-      <c r="D299" s="27"/>
-      <c r="E299" s="27">
+      <c r="B299" s="25"/>
+      <c r="C299" s="25"/>
+      <c r="D299" s="26"/>
+      <c r="E299" s="26">
         <v>33848</v>
       </c>
-      <c r="F299" s="27">
+      <c r="F299" s="26">
         <v>35611</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="25" t="s">
+      <c r="A300" s="24" t="s">
         <v>759</v>
       </c>
-      <c r="B300" s="26"/>
-      <c r="C300" s="26"/>
-      <c r="D300" s="27"/>
-      <c r="E300" s="27"/>
-      <c r="F300" s="27"/>
+      <c r="B300" s="25"/>
+      <c r="C300" s="25"/>
+      <c r="D300" s="26"/>
+      <c r="E300" s="26"/>
+      <c r="F300" s="26"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="25" t="s">
+      <c r="A301" s="24" t="s">
         <v>760</v>
       </c>
-      <c r="B301" s="26"/>
-      <c r="C301" s="26"/>
-      <c r="D301" s="27"/>
-      <c r="E301" s="27"/>
-      <c r="F301" s="27"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="25"/>
+      <c r="D301" s="26"/>
+      <c r="E301" s="26"/>
+      <c r="F301" s="26"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="25" t="s">
+      <c r="A302" s="24" t="s">
         <v>978</v>
       </c>
-      <c r="B302" s="26"/>
-      <c r="C302" s="26"/>
-      <c r="D302" s="27"/>
-      <c r="E302" s="27"/>
-      <c r="F302" s="27"/>
+      <c r="B302" s="25"/>
+      <c r="C302" s="25"/>
+      <c r="D302" s="26"/>
+      <c r="E302" s="26"/>
+      <c r="F302" s="26"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="25" t="s">
+      <c r="A303" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="B303" s="26"/>
-      <c r="C303" s="26"/>
-      <c r="D303" s="27"/>
-      <c r="E303" s="27"/>
-      <c r="F303" s="27"/>
+      <c r="B303" s="25"/>
+      <c r="C303" s="25"/>
+      <c r="D303" s="26"/>
+      <c r="E303" s="26"/>
+      <c r="F303" s="26"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="25" t="s">
+      <c r="A304" s="24" t="s">
         <v>979</v>
       </c>
-      <c r="B304" s="26"/>
-      <c r="C304" s="26"/>
-      <c r="D304" s="27"/>
-      <c r="E304" s="27"/>
-      <c r="F304" s="27">
+      <c r="B304" s="25"/>
+      <c r="C304" s="25"/>
+      <c r="D304" s="26"/>
+      <c r="E304" s="26"/>
+      <c r="F304" s="26">
         <v>44837</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="25" t="s">
+      <c r="A305" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="B305" s="26"/>
-      <c r="C305" s="26"/>
-      <c r="D305" s="27">
+      <c r="B305" s="25"/>
+      <c r="C305" s="25"/>
+      <c r="D305" s="26">
         <v>37088</v>
       </c>
-      <c r="E305" s="27">
+      <c r="E305" s="26">
         <v>37515</v>
       </c>
-      <c r="F305" s="27"/>
+      <c r="F305" s="26"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="25" t="s">
+      <c r="A306" s="24" t="s">
         <v>1023</v>
       </c>
-      <c r="B306" s="26"/>
-      <c r="C306" s="26"/>
-      <c r="D306" s="27"/>
-      <c r="E306" s="27"/>
-      <c r="F306" s="27"/>
+      <c r="B306" s="25"/>
+      <c r="C306" s="25"/>
+      <c r="D306" s="26"/>
+      <c r="E306" s="26"/>
+      <c r="F306" s="26"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="25" t="s">
+      <c r="A307" s="24" t="s">
         <v>762</v>
       </c>
-      <c r="B307" s="26"/>
-      <c r="C307" s="26"/>
-      <c r="D307" s="27"/>
-      <c r="E307" s="27"/>
-      <c r="F307" s="27">
+      <c r="B307" s="25"/>
+      <c r="C307" s="25"/>
+      <c r="D307" s="26"/>
+      <c r="E307" s="26"/>
+      <c r="F307" s="26">
         <v>39937</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="25" t="s">
+      <c r="A308" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="B308" s="26"/>
-      <c r="C308" s="26"/>
-      <c r="D308" s="27"/>
-      <c r="E308" s="27"/>
-      <c r="F308" s="27"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="25"/>
+      <c r="D308" s="26"/>
+      <c r="E308" s="26"/>
+      <c r="F308" s="26"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="25" t="s">
+      <c r="A309" s="24" t="s">
         <v>763</v>
       </c>
-      <c r="B309" s="26"/>
-      <c r="C309" s="26"/>
-      <c r="D309" s="27">
+      <c r="B309" s="25"/>
+      <c r="C309" s="25"/>
+      <c r="D309" s="26">
         <v>36395</v>
       </c>
-      <c r="E309" s="27">
+      <c r="E309" s="26">
         <v>36465</v>
       </c>
-      <c r="F309" s="27">
+      <c r="F309" s="26">
         <v>39965</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="25" t="s">
+      <c r="A310" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="B310" s="26"/>
-      <c r="C310" s="26"/>
-      <c r="D310" s="27"/>
-      <c r="E310" s="27"/>
-      <c r="F310" s="27"/>
+      <c r="B310" s="25"/>
+      <c r="C310" s="25"/>
+      <c r="D310" s="26"/>
+      <c r="E310" s="26"/>
+      <c r="F310" s="26"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="25" t="s">
+      <c r="A311" s="24" t="s">
         <v>1024</v>
       </c>
-      <c r="B311" s="26"/>
-      <c r="C311" s="26"/>
-      <c r="D311" s="27"/>
-      <c r="E311" s="27">
+      <c r="B311" s="25"/>
+      <c r="C311" s="25"/>
+      <c r="D311" s="26"/>
+      <c r="E311" s="26">
         <v>33619</v>
       </c>
-      <c r="F311" s="27">
+      <c r="F311" s="26">
         <v>36332</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="25" t="s">
+      <c r="A312" s="24" t="s">
         <v>980</v>
       </c>
-      <c r="B312" s="26"/>
-      <c r="C312" s="26"/>
-      <c r="D312" s="27"/>
-      <c r="E312" s="27"/>
-      <c r="F312" s="27">
+      <c r="B312" s="25"/>
+      <c r="C312" s="25"/>
+      <c r="D312" s="26"/>
+      <c r="E312" s="26"/>
+      <c r="F312" s="26">
         <v>44880</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="25" t="s">
+      <c r="A313" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="B313" s="26"/>
-      <c r="C313" s="26"/>
-      <c r="D313" s="27"/>
-      <c r="E313" s="27"/>
-      <c r="F313" s="27"/>
+      <c r="B313" s="25"/>
+      <c r="C313" s="25"/>
+      <c r="D313" s="26"/>
+      <c r="E313" s="26"/>
+      <c r="F313" s="26"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="25" t="s">
+      <c r="A314" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="B314" s="26"/>
-      <c r="C314" s="26"/>
-      <c r="D314" s="27"/>
-      <c r="E314" s="27"/>
-      <c r="F314" s="27"/>
+      <c r="B314" s="25"/>
+      <c r="C314" s="25"/>
+      <c r="D314" s="26"/>
+      <c r="E314" s="26"/>
+      <c r="F314" s="26"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="25" t="s">
+      <c r="A315" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="B315" s="26"/>
-      <c r="C315" s="26"/>
-      <c r="D315" s="27"/>
-      <c r="E315" s="27"/>
-      <c r="F315" s="27"/>
+      <c r="B315" s="25"/>
+      <c r="C315" s="25"/>
+      <c r="D315" s="26"/>
+      <c r="E315" s="26"/>
+      <c r="F315" s="26"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="25" t="s">
+      <c r="A316" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="B316" s="26"/>
-      <c r="C316" s="26"/>
-      <c r="D316" s="27"/>
-      <c r="E316" s="27"/>
-      <c r="F316" s="27"/>
+      <c r="B316" s="25"/>
+      <c r="C316" s="25"/>
+      <c r="D316" s="26"/>
+      <c r="E316" s="26"/>
+      <c r="F316" s="26"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="25" t="s">
+      <c r="A317" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="B317" s="26"/>
-      <c r="C317" s="26"/>
-      <c r="D317" s="27"/>
-      <c r="E317" s="27"/>
-      <c r="F317" s="27"/>
+      <c r="B317" s="25"/>
+      <c r="C317" s="25"/>
+      <c r="D317" s="26"/>
+      <c r="E317" s="26"/>
+      <c r="F317" s="26"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="25" t="s">
+      <c r="A318" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="B318" s="26"/>
-      <c r="C318" s="26"/>
-      <c r="D318" s="27" t="s">
+      <c r="B318" s="25"/>
+      <c r="C318" s="25"/>
+      <c r="D318" s="26" t="s">
         <v>1057</v>
       </c>
-      <c r="E318" s="27"/>
-      <c r="F318" s="27">
+      <c r="E318" s="26"/>
+      <c r="F318" s="26">
         <v>39965</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="25" t="s">
+      <c r="A319" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="B319" s="26"/>
-      <c r="C319" s="26"/>
-      <c r="D319" s="27"/>
-      <c r="E319" s="27"/>
-      <c r="F319" s="27"/>
+      <c r="B319" s="25"/>
+      <c r="C319" s="25"/>
+      <c r="D319" s="26"/>
+      <c r="E319" s="26"/>
+      <c r="F319" s="26"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="25" t="s">
+      <c r="A320" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="B320" s="26"/>
-      <c r="C320" s="26"/>
-      <c r="D320" s="27"/>
-      <c r="E320" s="27"/>
-      <c r="F320" s="27"/>
+      <c r="B320" s="25"/>
+      <c r="C320" s="25"/>
+      <c r="D320" s="26"/>
+      <c r="E320" s="26"/>
+      <c r="F320" s="26"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" s="25" t="s">
+      <c r="A321" s="24" t="s">
         <v>764</v>
       </c>
-      <c r="B321" s="26"/>
-      <c r="C321" s="26"/>
-      <c r="D321" s="27"/>
-      <c r="E321" s="27">
+      <c r="B321" s="25"/>
+      <c r="C321" s="25"/>
+      <c r="D321" s="26"/>
+      <c r="E321" s="26">
         <v>36357</v>
       </c>
-      <c r="F321" s="27">
+      <c r="F321" s="26">
         <v>41354</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="25" t="s">
+      <c r="A322" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="B322" s="26"/>
-      <c r="C322" s="26"/>
-      <c r="D322" s="27"/>
-      <c r="E322" s="27"/>
-      <c r="F322" s="27"/>
+      <c r="B322" s="25"/>
+      <c r="C322" s="25"/>
+      <c r="D322" s="26"/>
+      <c r="E322" s="26"/>
+      <c r="F322" s="26"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="25" t="s">
+      <c r="A323" s="24" t="s">
         <v>765</v>
       </c>
-      <c r="B323" s="26"/>
-      <c r="C323" s="26"/>
-      <c r="D323" s="27" t="s">
+      <c r="B323" s="25"/>
+      <c r="C323" s="25"/>
+      <c r="D323" s="26" t="s">
         <v>1044</v>
       </c>
-      <c r="E323" s="27"/>
-      <c r="F323" s="27">
+      <c r="E323" s="26"/>
+      <c r="F323" s="26">
         <v>30165</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="25" t="s">
+      <c r="A324" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="B324" s="26"/>
-      <c r="C324" s="26"/>
-      <c r="D324" s="27"/>
-      <c r="E324" s="27"/>
-      <c r="F324" s="27"/>
+      <c r="B324" s="25"/>
+      <c r="C324" s="25"/>
+      <c r="D324" s="26"/>
+      <c r="E324" s="26"/>
+      <c r="F324" s="26"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" s="25" t="s">
+      <c r="A325" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="B325" s="26"/>
-      <c r="C325" s="26"/>
-      <c r="D325" s="27"/>
-      <c r="E325" s="27"/>
-      <c r="F325" s="27"/>
+      <c r="B325" s="25"/>
+      <c r="C325" s="25"/>
+      <c r="D325" s="26"/>
+      <c r="E325" s="26"/>
+      <c r="F325" s="26"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="25" t="s">
+      <c r="A326" s="24" t="s">
         <v>766</v>
       </c>
-      <c r="B326" s="26"/>
-      <c r="C326" s="26"/>
-      <c r="D326" s="27"/>
-      <c r="E326" s="27"/>
-      <c r="F326" s="27">
+      <c r="B326" s="25"/>
+      <c r="C326" s="25"/>
+      <c r="D326" s="26"/>
+      <c r="E326" s="26"/>
+      <c r="F326" s="26">
         <v>31376</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" s="25" t="s">
+      <c r="A327" s="24" t="s">
         <v>767</v>
       </c>
-      <c r="B327" s="26"/>
-      <c r="C327" s="26"/>
-      <c r="D327" s="27"/>
-      <c r="E327" s="27"/>
-      <c r="F327" s="27"/>
+      <c r="B327" s="25"/>
+      <c r="C327" s="25"/>
+      <c r="D327" s="26"/>
+      <c r="E327" s="26"/>
+      <c r="F327" s="26"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="25" t="s">
+      <c r="A328" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="B328" s="26"/>
-      <c r="C328" s="26"/>
-      <c r="D328" s="27"/>
-      <c r="E328" s="27"/>
-      <c r="F328" s="27"/>
+      <c r="B328" s="25"/>
+      <c r="C328" s="25"/>
+      <c r="D328" s="26"/>
+      <c r="E328" s="26"/>
+      <c r="F328" s="26"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A329" s="25" t="s">
+      <c r="A329" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="B329" s="26"/>
-      <c r="C329" s="26"/>
-      <c r="D329" s="27"/>
-      <c r="E329" s="27"/>
-      <c r="F329" s="27"/>
+      <c r="B329" s="25"/>
+      <c r="C329" s="25"/>
+      <c r="D329" s="26"/>
+      <c r="E329" s="26"/>
+      <c r="F329" s="26"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="25" t="s">
+      <c r="A330" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="B330" s="26"/>
-      <c r="C330" s="26"/>
-      <c r="D330" s="27"/>
-      <c r="E330" s="27"/>
-      <c r="F330" s="27"/>
+      <c r="B330" s="25"/>
+      <c r="C330" s="25"/>
+      <c r="D330" s="26"/>
+      <c r="E330" s="26"/>
+      <c r="F330" s="26"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331" s="25" t="s">
+      <c r="A331" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="B331" s="26"/>
-      <c r="C331" s="26"/>
-      <c r="D331" s="27"/>
-      <c r="E331" s="27"/>
-      <c r="F331" s="27"/>
+      <c r="B331" s="25"/>
+      <c r="C331" s="25"/>
+      <c r="D331" s="26"/>
+      <c r="E331" s="26"/>
+      <c r="F331" s="26"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" s="25" t="s">
+      <c r="A332" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="B332" s="26"/>
-      <c r="C332" s="26"/>
-      <c r="D332" s="27"/>
-      <c r="E332" s="27"/>
-      <c r="F332" s="27">
+      <c r="B332" s="25"/>
+      <c r="C332" s="25"/>
+      <c r="D332" s="26"/>
+      <c r="E332" s="26"/>
+      <c r="F332" s="26">
         <v>33483</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="25" t="s">
+      <c r="A333" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="B333" s="26"/>
-      <c r="C333" s="26"/>
-      <c r="D333" s="27"/>
-      <c r="E333" s="27">
+      <c r="B333" s="25"/>
+      <c r="C333" s="25"/>
+      <c r="D333" s="26"/>
+      <c r="E333" s="26">
         <v>34121</v>
       </c>
-      <c r="F333" s="27">
+      <c r="F333" s="26">
         <v>35611</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="25" t="s">
+      <c r="A334" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="B334" s="26"/>
-      <c r="C334" s="26"/>
-      <c r="D334" s="27"/>
-      <c r="E334" s="27"/>
-      <c r="F334" s="27"/>
+      <c r="B334" s="25"/>
+      <c r="C334" s="25"/>
+      <c r="D334" s="26"/>
+      <c r="E334" s="26"/>
+      <c r="F334" s="26"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" s="25" t="s">
+      <c r="A335" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="B335" s="26"/>
-      <c r="C335" s="26"/>
-      <c r="D335" s="27"/>
-      <c r="E335" s="27"/>
-      <c r="F335" s="27">
+      <c r="B335" s="25"/>
+      <c r="C335" s="25"/>
+      <c r="D335" s="26"/>
+      <c r="E335" s="26"/>
+      <c r="F335" s="26">
         <v>42709</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="25" t="s">
+      <c r="A336" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="B336" s="26"/>
-      <c r="C336" s="26"/>
-      <c r="D336" s="27"/>
-      <c r="E336" s="27"/>
-      <c r="F336" s="27">
+      <c r="B336" s="25"/>
+      <c r="C336" s="25"/>
+      <c r="D336" s="26"/>
+      <c r="E336" s="26"/>
+      <c r="F336" s="26">
         <v>38504</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A337" s="25" t="s">
+      <c r="A337" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="B337" s="26"/>
-      <c r="C337" s="26"/>
-      <c r="D337" s="27"/>
-      <c r="E337" s="27"/>
-      <c r="F337" s="27">
+      <c r="B337" s="25"/>
+      <c r="C337" s="25"/>
+      <c r="D337" s="26"/>
+      <c r="E337" s="26"/>
+      <c r="F337" s="26">
         <v>42614</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="25" t="s">
+      <c r="A338" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="B338" s="26"/>
-      <c r="C338" s="26"/>
-      <c r="D338" s="27"/>
-      <c r="E338" s="27"/>
-      <c r="F338" s="27">
+      <c r="B338" s="25"/>
+      <c r="C338" s="25"/>
+      <c r="D338" s="26"/>
+      <c r="E338" s="26"/>
+      <c r="F338" s="26">
         <v>43647</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A339" s="25" t="s">
+      <c r="A339" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="B339" s="26"/>
-      <c r="C339" s="26"/>
-      <c r="D339" s="27">
+      <c r="B339" s="25"/>
+      <c r="C339" s="25"/>
+      <c r="D339" s="26">
         <v>43633</v>
       </c>
-      <c r="E339" s="27">
+      <c r="E339" s="26">
         <v>43709</v>
       </c>
-      <c r="F339" s="27">
+      <c r="F339" s="26">
         <v>44743</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="25" t="s">
+      <c r="A340" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="B340" s="26"/>
-      <c r="C340" s="26"/>
-      <c r="D340" s="27"/>
-      <c r="E340" s="27"/>
-      <c r="F340" s="27"/>
+      <c r="B340" s="25"/>
+      <c r="C340" s="25"/>
+      <c r="D340" s="26"/>
+      <c r="E340" s="26"/>
+      <c r="F340" s="26"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A341" s="25" t="s">
+      <c r="A341" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="B341" s="26"/>
-      <c r="C341" s="26"/>
-      <c r="D341" s="27"/>
-      <c r="E341" s="27">
+      <c r="B341" s="25"/>
+      <c r="C341" s="25"/>
+      <c r="D341" s="26"/>
+      <c r="E341" s="26">
         <v>39084</v>
       </c>
-      <c r="F341" s="27">
+      <c r="F341" s="26">
         <v>39493</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="25" t="s">
+      <c r="A342" s="24" t="s">
         <v>1003</v>
       </c>
-      <c r="B342" s="26"/>
-      <c r="C342" s="26"/>
-      <c r="D342" s="27"/>
-      <c r="E342" s="27"/>
-      <c r="F342" s="27"/>
+      <c r="B342" s="25"/>
+      <c r="C342" s="25"/>
+      <c r="D342" s="26"/>
+      <c r="E342" s="26"/>
+      <c r="F342" s="26"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A343" s="25" t="s">
+      <c r="A343" s="24" t="s">
         <v>614</v>
       </c>
-      <c r="B343" s="26"/>
-      <c r="C343" s="26"/>
-      <c r="D343" s="27"/>
-      <c r="E343" s="27"/>
-      <c r="F343" s="27"/>
+      <c r="B343" s="25"/>
+      <c r="C343" s="25"/>
+      <c r="D343" s="26"/>
+      <c r="E343" s="26"/>
+      <c r="F343" s="26"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" s="25" t="s">
+      <c r="A344" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="B344" s="26"/>
-      <c r="C344" s="26"/>
-      <c r="D344" s="27"/>
-      <c r="E344" s="27"/>
-      <c r="F344" s="27"/>
+      <c r="B344" s="25"/>
+      <c r="C344" s="25"/>
+      <c r="D344" s="26"/>
+      <c r="E344" s="26"/>
+      <c r="F344" s="26"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A345" s="25" t="s">
+      <c r="A345" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="B345" s="26"/>
-      <c r="C345" s="26"/>
-      <c r="D345" s="27"/>
-      <c r="E345" s="27"/>
-      <c r="F345" s="27"/>
+      <c r="B345" s="25"/>
+      <c r="C345" s="25"/>
+      <c r="D345" s="26"/>
+      <c r="E345" s="26"/>
+      <c r="F345" s="26"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A346" s="25" t="s">
+      <c r="A346" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="B346" s="26"/>
-      <c r="C346" s="26"/>
-      <c r="D346" s="27"/>
-      <c r="E346" s="27"/>
-      <c r="F346" s="27"/>
+      <c r="B346" s="25"/>
+      <c r="C346" s="25"/>
+      <c r="D346" s="26"/>
+      <c r="E346" s="26"/>
+      <c r="F346" s="26"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A347" s="25" t="s">
+      <c r="A347" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="B347" s="26"/>
-      <c r="C347" s="26"/>
-      <c r="D347" s="27"/>
-      <c r="E347" s="27"/>
-      <c r="F347" s="27"/>
+      <c r="B347" s="25"/>
+      <c r="C347" s="25"/>
+      <c r="D347" s="26"/>
+      <c r="E347" s="26"/>
+      <c r="F347" s="26"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="25" t="s">
+      <c r="A348" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="B348" s="26"/>
-      <c r="C348" s="26" t="s">
+      <c r="B348" s="25"/>
+      <c r="C348" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D348" s="27"/>
-      <c r="E348" s="27">
+      <c r="D348" s="26"/>
+      <c r="E348" s="26">
         <v>34624</v>
       </c>
-      <c r="F348" s="27">
+      <c r="F348" s="26">
         <v>35217</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A349" s="25" t="s">
+      <c r="A349" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="B349" s="26"/>
-      <c r="C349" s="26"/>
-      <c r="D349" s="27"/>
-      <c r="E349" s="27"/>
-      <c r="F349" s="27"/>
+      <c r="B349" s="25"/>
+      <c r="C349" s="25"/>
+      <c r="D349" s="26"/>
+      <c r="E349" s="26"/>
+      <c r="F349" s="26"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A350" s="25" t="s">
+      <c r="A350" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="B350" s="26"/>
-      <c r="C350" s="26" t="s">
+      <c r="B350" s="25"/>
+      <c r="C350" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D350" s="27"/>
-      <c r="E350" s="27"/>
-      <c r="F350" s="27"/>
+      <c r="D350" s="26"/>
+      <c r="E350" s="26"/>
+      <c r="F350" s="26"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A351" s="25" t="s">
+      <c r="A351" s="24" t="s">
         <v>643</v>
       </c>
-      <c r="B351" s="26"/>
-      <c r="C351" s="26"/>
-      <c r="D351" s="27" t="s">
+      <c r="B351" s="25"/>
+      <c r="C351" s="25"/>
+      <c r="D351" s="26" t="s">
         <v>1051</v>
       </c>
-      <c r="E351" s="27"/>
-      <c r="F351" s="27">
+      <c r="E351" s="26"/>
+      <c r="F351" s="26">
         <v>34151</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A352" s="25" t="s">
+      <c r="A352" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="B352" s="26"/>
-      <c r="C352" s="26"/>
-      <c r="D352" s="27"/>
-      <c r="E352" s="27"/>
-      <c r="F352" s="27"/>
+      <c r="B352" s="25"/>
+      <c r="C352" s="25"/>
+      <c r="D352" s="26"/>
+      <c r="E352" s="26"/>
+      <c r="F352" s="26"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A353" s="25" t="s">
+      <c r="A353" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="B353" s="26"/>
-      <c r="C353" s="26" t="s">
+      <c r="B353" s="25"/>
+      <c r="C353" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D353" s="27"/>
-      <c r="E353" s="27"/>
-      <c r="F353" s="27"/>
+      <c r="D353" s="26"/>
+      <c r="E353" s="26"/>
+      <c r="F353" s="26"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="25" t="s">
+      <c r="A354" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="B354" s="26"/>
-      <c r="C354" s="26"/>
-      <c r="D354" s="27"/>
-      <c r="E354" s="27"/>
-      <c r="F354" s="27"/>
+      <c r="B354" s="25"/>
+      <c r="C354" s="25"/>
+      <c r="D354" s="26"/>
+      <c r="E354" s="26"/>
+      <c r="F354" s="26"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A355" s="25" t="s">
+      <c r="A355" s="24" t="s">
         <v>1026</v>
       </c>
-      <c r="B355" s="26"/>
-      <c r="C355" s="26" t="s">
+      <c r="B355" s="25"/>
+      <c r="C355" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D355" s="27"/>
-      <c r="E355" s="27"/>
-      <c r="F355" s="27"/>
+      <c r="D355" s="26"/>
+      <c r="E355" s="26"/>
+      <c r="F355" s="26"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A356" s="25" t="s">
+      <c r="A356" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="B356" s="26"/>
-      <c r="C356" s="26" t="s">
+      <c r="B356" s="25"/>
+      <c r="C356" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D356" s="27"/>
-      <c r="E356" s="27"/>
-      <c r="F356" s="27"/>
+      <c r="D356" s="26"/>
+      <c r="E356" s="26"/>
+      <c r="F356" s="26"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="25" t="s">
+      <c r="A357" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="B357" s="26"/>
-      <c r="C357" s="26" t="s">
+      <c r="B357" s="25"/>
+      <c r="C357" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D357" s="27"/>
-      <c r="E357" s="27"/>
-      <c r="F357" s="27"/>
+      <c r="D357" s="26"/>
+      <c r="E357" s="26"/>
+      <c r="F357" s="26"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="25" t="s">
+      <c r="A358" s="24" t="s">
         <v>1028</v>
       </c>
-      <c r="B358" s="26"/>
-      <c r="C358" s="26"/>
-      <c r="D358" s="27"/>
-      <c r="E358" s="27"/>
-      <c r="F358" s="27"/>
+      <c r="B358" s="25"/>
+      <c r="C358" s="25"/>
+      <c r="D358" s="26"/>
+      <c r="E358" s="26"/>
+      <c r="F358" s="26"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A359" s="25" t="s">
+      <c r="A359" s="24" t="s">
         <v>665</v>
       </c>
-      <c r="B359" s="26"/>
-      <c r="C359" s="26"/>
-      <c r="D359" s="27"/>
-      <c r="E359" s="27"/>
-      <c r="F359" s="27"/>
+      <c r="B359" s="25"/>
+      <c r="C359" s="25"/>
+      <c r="D359" s="26"/>
+      <c r="E359" s="26"/>
+      <c r="F359" s="26"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" s="25" t="s">
+      <c r="A360" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="B360" s="26"/>
-      <c r="C360" s="26"/>
-      <c r="D360" s="27"/>
-      <c r="E360" s="27"/>
-      <c r="F360" s="27"/>
+      <c r="B360" s="25"/>
+      <c r="C360" s="25"/>
+      <c r="D360" s="26"/>
+      <c r="E360" s="26"/>
+      <c r="F360" s="26"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="25" t="s">
+      <c r="A361" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="B361" s="26"/>
-      <c r="C361" s="26" t="s">
+      <c r="B361" s="25"/>
+      <c r="C361" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D361" s="27"/>
-      <c r="E361" s="27"/>
-      <c r="F361" s="27">
+      <c r="D361" s="26"/>
+      <c r="E361" s="26"/>
+      <c r="F361" s="26">
         <v>36815</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="25" t="s">
+      <c r="A362" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="B362" s="26"/>
-      <c r="C362" s="26"/>
-      <c r="D362" s="27"/>
-      <c r="E362" s="27">
+      <c r="B362" s="25"/>
+      <c r="C362" s="25"/>
+      <c r="D362" s="26"/>
+      <c r="E362" s="26">
         <v>34665</v>
       </c>
-      <c r="F362" s="27">
+      <c r="F362" s="26">
         <v>35207</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="25" t="s">
+      <c r="A363" s="24" t="s">
         <v>684</v>
       </c>
-      <c r="B363" s="26"/>
-      <c r="C363" s="26"/>
-      <c r="D363" s="27" t="s">
+      <c r="B363" s="25"/>
+      <c r="C363" s="25"/>
+      <c r="D363" s="26" t="s">
         <v>1048</v>
       </c>
-      <c r="E363" s="27"/>
-      <c r="F363" s="27">
+      <c r="E363" s="26"/>
+      <c r="F363" s="26">
         <v>41323</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" s="25" t="s">
+      <c r="A364" s="24" t="s">
         <v>687</v>
       </c>
-      <c r="B364" s="26"/>
-      <c r="C364" s="26"/>
-      <c r="D364" s="27"/>
-      <c r="E364" s="27"/>
-      <c r="F364" s="27">
+      <c r="B364" s="25"/>
+      <c r="C364" s="25"/>
+      <c r="D364" s="26"/>
+      <c r="E364" s="26"/>
+      <c r="F364" s="26">
         <v>43252</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" s="25" t="s">
+      <c r="A365" s="24" t="s">
         <v>688</v>
       </c>
-      <c r="B365" s="26"/>
-      <c r="C365" s="26"/>
-      <c r="D365" s="27"/>
-      <c r="E365" s="27"/>
-      <c r="F365" s="27"/>
+      <c r="B365" s="25"/>
+      <c r="C365" s="25"/>
+      <c r="D365" s="26"/>
+      <c r="E365" s="26"/>
+      <c r="F365" s="26"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="25" t="s">
+      <c r="A366" s="24" t="s">
         <v>706</v>
       </c>
-      <c r="B366" s="26"/>
-      <c r="C366" s="26" t="s">
+      <c r="B366" s="25"/>
+      <c r="C366" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D366" s="27"/>
-      <c r="E366" s="27"/>
-      <c r="F366" s="27"/>
+      <c r="D366" s="26"/>
+      <c r="E366" s="26"/>
+      <c r="F366" s="26"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="25" t="s">
+      <c r="A367" s="24" t="s">
         <v>707</v>
       </c>
-      <c r="B367" s="26"/>
-      <c r="C367" s="26"/>
-      <c r="D367" s="27"/>
-      <c r="E367" s="27"/>
-      <c r="F367" s="27"/>
+      <c r="B367" s="25"/>
+      <c r="C367" s="25"/>
+      <c r="D367" s="26"/>
+      <c r="E367" s="26"/>
+      <c r="F367" s="26"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="25" t="s">
+      <c r="A368" s="24" t="s">
         <v>723</v>
       </c>
-      <c r="B368" s="26"/>
-      <c r="C368" s="26" t="s">
+      <c r="B368" s="25"/>
+      <c r="C368" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D368" s="27"/>
-      <c r="E368" s="27"/>
-      <c r="F368" s="27"/>
+      <c r="D368" s="26"/>
+      <c r="E368" s="26"/>
+      <c r="F368" s="26"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="25" t="s">
+      <c r="A369" s="24" t="s">
         <v>1029</v>
       </c>
-      <c r="B369" s="26"/>
-      <c r="C369" s="26" t="s">
+      <c r="B369" s="25"/>
+      <c r="C369" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D369" s="27"/>
-      <c r="E369" s="27"/>
-      <c r="F369" s="27"/>
+      <c r="D369" s="26"/>
+      <c r="E369" s="26"/>
+      <c r="F369" s="26"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A370" s="25" t="s">
+      <c r="A370" s="24" t="s">
         <v>724</v>
       </c>
-      <c r="B370" s="26"/>
-      <c r="C370" s="26"/>
-      <c r="D370" s="27"/>
-      <c r="E370" s="27">
+      <c r="B370" s="25"/>
+      <c r="C370" s="25"/>
+      <c r="D370" s="26"/>
+      <c r="E370" s="26">
         <v>35226</v>
       </c>
-      <c r="F370" s="27">
+      <c r="F370" s="26">
         <v>35611</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A371" s="25" t="s">
+      <c r="A371" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="B371" s="26"/>
-      <c r="C371" s="26"/>
-      <c r="D371" s="27"/>
-      <c r="E371" s="27"/>
-      <c r="F371" s="27"/>
+      <c r="B371" s="25"/>
+      <c r="C371" s="25"/>
+      <c r="D371" s="26"/>
+      <c r="E371" s="26"/>
+      <c r="F371" s="26"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A372" s="25" t="s">
+      <c r="A372" s="24" t="s">
         <v>744</v>
       </c>
-      <c r="B372" s="26"/>
-      <c r="C372" s="26" t="s">
+      <c r="B372" s="25"/>
+      <c r="C372" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D372" s="27"/>
-      <c r="E372" s="27"/>
-      <c r="F372" s="27"/>
+      <c r="D372" s="26"/>
+      <c r="E372" s="26"/>
+      <c r="F372" s="26"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A373" s="25" t="s">
+      <c r="A373" s="24" t="s">
         <v>748</v>
       </c>
-      <c r="B373" s="26"/>
-      <c r="C373" s="26" t="s">
+      <c r="B373" s="25"/>
+      <c r="C373" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D373" s="27"/>
-      <c r="E373" s="27"/>
-      <c r="F373" s="27"/>
+      <c r="D373" s="26"/>
+      <c r="E373" s="26"/>
+      <c r="F373" s="26"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A374" s="25" t="s">
+      <c r="A374" s="24" t="s">
         <v>753</v>
       </c>
-      <c r="B374" s="26"/>
-      <c r="C374" s="26"/>
-      <c r="D374" s="27"/>
-      <c r="E374" s="27"/>
-      <c r="F374" s="27"/>
+      <c r="B374" s="25"/>
+      <c r="C374" s="25"/>
+      <c r="D374" s="26"/>
+      <c r="E374" s="26"/>
+      <c r="F374" s="26"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A375" s="25" t="s">
+      <c r="A375" s="24" t="s">
         <v>1025</v>
       </c>
-      <c r="B375" s="26"/>
-      <c r="C375" s="26" t="s">
+      <c r="B375" s="25"/>
+      <c r="C375" s="25" t="s">
         <v>974</v>
       </c>
-      <c r="D375" s="27"/>
-      <c r="E375" s="27"/>
-      <c r="F375" s="27"/>
+      <c r="D375" s="26"/>
+      <c r="E375" s="26"/>
+      <c r="F375" s="26"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="25" t="s">
+      <c r="A376" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="B376" s="26"/>
-      <c r="C376" s="26"/>
-      <c r="D376" s="27"/>
-      <c r="E376" s="27"/>
-      <c r="F376" s="27"/>
+      <c r="B376" s="25"/>
+      <c r="C376" s="25"/>
+      <c r="D376" s="26"/>
+      <c r="E376" s="26"/>
+      <c r="F376" s="26"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A377" s="25" t="s">
+      <c r="A377" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="B377" s="26"/>
-      <c r="C377" s="26" t="s">
+      <c r="B377" s="25"/>
+      <c r="C377" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="D377" s="27"/>
-      <c r="E377" s="27"/>
-      <c r="F377" s="27"/>
+      <c r="D377" s="26"/>
+      <c r="E377" s="26"/>
+      <c r="F377" s="26"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A378" s="25" t="s">
+      <c r="A378" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="B378" s="26"/>
-      <c r="C378" s="26"/>
-      <c r="D378" s="27"/>
-      <c r="E378" s="27"/>
-      <c r="F378" s="27"/>
+      <c r="B378" s="25"/>
+      <c r="C378" s="25"/>
+      <c r="D378" s="26"/>
+      <c r="E378" s="26"/>
+      <c r="F378" s="26"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" s="25" t="s">
+      <c r="A379" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="B379" s="26"/>
-      <c r="C379" s="26"/>
-      <c r="D379" s="27"/>
-      <c r="E379" s="27"/>
-      <c r="F379" s="27"/>
+      <c r="B379" s="25"/>
+      <c r="C379" s="25"/>
+      <c r="D379" s="26"/>
+      <c r="E379" s="26"/>
+      <c r="F379" s="26"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A380" s="25" t="s">
+      <c r="A380" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="B380" s="26"/>
-      <c r="C380" s="26"/>
-      <c r="D380" s="27"/>
-      <c r="E380" s="27">
+      <c r="B380" s="25"/>
+      <c r="C380" s="25"/>
+      <c r="D380" s="26"/>
+      <c r="E380" s="26">
         <v>31607</v>
       </c>
-      <c r="F380" s="27">
+      <c r="F380" s="26">
         <v>32003</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A381" s="25" t="s">
+      <c r="A381" s="24" t="s">
         <v>1033</v>
       </c>
-      <c r="B381" s="26"/>
-      <c r="C381" s="26"/>
-      <c r="D381" s="27"/>
-      <c r="E381" s="27"/>
-      <c r="F381" s="29">
+      <c r="B381" s="25"/>
+      <c r="C381" s="25"/>
+      <c r="D381" s="26"/>
+      <c r="E381" s="26"/>
+      <c r="F381" s="28">
         <v>44837</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="25" t="s">
+      <c r="A382" s="24" t="s">
         <v>1034</v>
       </c>
-      <c r="B382" s="25"/>
-      <c r="C382" s="25"/>
-      <c r="D382" s="28"/>
-      <c r="E382" s="28"/>
-      <c r="F382" s="29">
+      <c r="B382" s="24"/>
+      <c r="C382" s="24"/>
+      <c r="D382" s="27"/>
+      <c r="E382" s="27"/>
+      <c r="F382" s="28">
         <v>44837</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A383" s="25" t="s">
+      <c r="A383" s="24" t="s">
         <v>1035</v>
       </c>
-      <c r="B383" s="25"/>
-      <c r="C383" s="25"/>
-      <c r="D383" s="28"/>
-      <c r="E383" s="28"/>
-      <c r="F383" s="29">
+      <c r="B383" s="24"/>
+      <c r="C383" s="24"/>
+      <c r="D383" s="27"/>
+      <c r="E383" s="27"/>
+      <c r="F383" s="28">
         <v>44837</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A384" s="25" t="s">
+      <c r="A384" s="24" t="s">
         <v>1036</v>
       </c>
-      <c r="B384" s="25"/>
-      <c r="C384" s="25"/>
-      <c r="D384" s="28"/>
-      <c r="E384" s="28"/>
-      <c r="F384" s="29">
+      <c r="B384" s="24"/>
+      <c r="C384" s="24"/>
+      <c r="D384" s="27"/>
+      <c r="E384" s="27"/>
+      <c r="F384" s="28">
         <v>44837</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A385" s="25" t="s">
+      <c r="A385" s="24" t="s">
         <v>1037</v>
       </c>
-      <c r="B385" s="25"/>
-      <c r="C385" s="25"/>
-      <c r="D385" s="28"/>
-      <c r="E385" s="28"/>
-      <c r="F385" s="29">
+      <c r="B385" s="24"/>
+      <c r="C385" s="24"/>
+      <c r="D385" s="27"/>
+      <c r="E385" s="27"/>
+      <c r="F385" s="28">
         <v>44837</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A386" s="25" t="s">
+      <c r="A386" s="24" t="s">
         <v>1038</v>
       </c>
-      <c r="B386" s="25"/>
-      <c r="C386" s="25"/>
-      <c r="D386" s="28"/>
-      <c r="E386" s="28"/>
-      <c r="F386" s="29">
+      <c r="B386" s="24"/>
+      <c r="C386" s="24"/>
+      <c r="D386" s="27"/>
+      <c r="E386" s="27"/>
+      <c r="F386" s="28">
         <v>44837</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" s="25" t="s">
+      <c r="A387" s="24" t="s">
         <v>1039</v>
       </c>
-      <c r="B387" s="25"/>
-      <c r="C387" s="25"/>
-      <c r="D387" s="28"/>
-      <c r="E387" s="28"/>
-      <c r="F387" s="29">
+      <c r="B387" s="24"/>
+      <c r="C387" s="24"/>
+      <c r="D387" s="27"/>
+      <c r="E387" s="27"/>
+      <c r="F387" s="28">
         <v>44837</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="25" t="s">
+      <c r="A388" s="24" t="s">
         <v>1040</v>
       </c>
-      <c r="B388" s="25"/>
-      <c r="C388" s="25"/>
-      <c r="D388" s="28"/>
-      <c r="E388" s="28"/>
-      <c r="F388" s="29">
+      <c r="B388" s="24"/>
+      <c r="C388" s="24"/>
+      <c r="D388" s="27"/>
+      <c r="E388" s="27"/>
+      <c r="F388" s="28">
         <v>44837</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="25" t="s">
+      <c r="A389" s="24" t="s">
         <v>1031</v>
       </c>
-      <c r="B389" s="30">
+      <c r="B389" s="29">
         <v>43633</v>
       </c>
-      <c r="C389" s="30"/>
-      <c r="D389" s="31">
+      <c r="C389" s="29"/>
+      <c r="D389" s="30">
         <v>43633</v>
       </c>
-      <c r="E389" s="29">
+      <c r="E389" s="28">
         <v>43710</v>
       </c>
-      <c r="F389" s="29">
+      <c r="F389" s="28">
         <v>44743</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="25" t="s">
+      <c r="A390" s="24" t="s">
         <v>1058</v>
       </c>
-      <c r="B390" s="25"/>
-      <c r="C390" s="25"/>
-      <c r="D390" s="28"/>
-      <c r="E390" s="28"/>
-      <c r="F390" s="32">
+      <c r="B390" s="24"/>
+      <c r="C390" s="24"/>
+      <c r="D390" s="27"/>
+      <c r="E390" s="27"/>
+      <c r="F390" s="31">
         <v>44858</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A391" s="25" t="s">
+      <c r="A391" s="24" t="s">
         <v>1059</v>
       </c>
-      <c r="B391" s="25"/>
-      <c r="C391" s="25"/>
-      <c r="D391" s="28"/>
-      <c r="E391" s="28"/>
-      <c r="F391" s="32">
+      <c r="B391" s="24"/>
+      <c r="C391" s="24"/>
+      <c r="D391" s="27"/>
+      <c r="E391" s="27"/>
+      <c r="F391" s="31">
         <v>44942</v>
       </c>
     </row>
@@ -14990,23 +14937,17 @@
   </protectedRanges>
   <autoFilter ref="A1:F391" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" filter="1" showAutoFilter="1">
-      <selection activeCell="D364" sqref="D364"/>
+    <customSheetView guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" showAutoFilter="1">
+      <selection activeCell="C22" sqref="C22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="A1:F391" xr:uid="{00000000-0009-0000-0000-000001000000}">
-        <filterColumn colId="2">
-          <customFilters>
-            <customFilter operator="notEqual" val=" "/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="A1:F391" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
     </customSheetView>
     <customSheetView guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" showAutoFilter="1" hiddenColumns="1">
-      <selection activeCell="D381" sqref="D381"/>
+      <selection activeCell="H21" sqref="H21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-      <autoFilter ref="A1:F380" xr:uid="{E96DEDC7-F979-4526-97B4-3F4F7ED4C769}"/>
+      <autoFilter ref="A1:F391" xr:uid="{0B95021A-5987-42D1-8223-E349E80FF0EB}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A2:C381">

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -3552,18 +3552,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{ECC1B6B1-AC24-490F-946E-45AD7B4188C6}" diskRevisions="1" revisionId="351" version="35">
-  <header guid="{EBE33C03-8163-4A55-83AB-82301281AF58}" dateTime="2023-09-27T14:08:22" maxSheetId="3" userName="ASUS" r:id="rId33" minRId="347">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F827594B-8573-46E7-B91C-60C5F4B2673E}" dateTime="2023-09-27T14:13:37" maxSheetId="3" userName="ASUS" r:id="rId34">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
   <header guid="{ECC1B6B1-AC24-490F-946E-45AD7B4188C6}" dateTime="2023-09-27T14:48:42" maxSheetId="3" userName="ASUS" r:id="rId35">
     <sheetIdMap count="2">
       <sheetId val="1"/>
@@ -3571,16 +3559,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="347" sId="2" numFmtId="19">
-    <nc r="F81">
-      <v>35947</v>
-    </nc>
-  </rcc>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3603,18 +3581,6 @@
     <oldFormula>Sheet2!$A$1:$F$391</oldFormula>
   </rdn>
   <rcv guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="A1:F1" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-  </rfmt>
 </revisions>
 </file>
 

--- a/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
+++ b/MASTER FILE/REG. EMP PER OFFICE   2023.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\MASTER FILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\MASTER FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{4B05B40C-1ED6-43EE-986E-E073F82767D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,8 +36,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="DOLE - Personal View" guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
     <customWorkbookView name="ASUS - Personal View" guid="{0720371A-3F32-478A-9C76-851AFF5D4573}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="DOLE - Personal View" guid="{2BCCDE80-E09A-4D8D-B6B6-16DDAA1350C0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3234,7 +3233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
@@ -3584,7 +3583,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -3850,37 +3849,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I399"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>364</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>438</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>409</v>
       </c>
@@ -3897,7 +3896,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>5</v>
       </c>
@@ -3910,7 +3909,7 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>7</v>
       </c>
@@ -3923,7 +3922,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>23</v>
       </c>
@@ -3936,7 +3935,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>25</v>
       </c>
@@ -3949,7 +3948,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>27</v>
       </c>
@@ -3962,7 +3961,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>21</v>
       </c>
@@ -3975,7 +3974,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>31</v>
       </c>
@@ -3988,7 +3987,7 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>29</v>
       </c>
@@ -4001,7 +4000,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>34</v>
       </c>
@@ -4014,7 +4013,7 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>35</v>
       </c>
@@ -4027,7 +4026,7 @@
       </c>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>33</v>
       </c>
@@ -4040,7 +4039,7 @@
       </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>28</v>
       </c>
@@ -4053,7 +4052,7 @@
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>30</v>
       </c>
@@ -4066,7 +4065,7 @@
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>37</v>
       </c>
@@ -4079,7 +4078,7 @@
       </c>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>38</v>
       </c>
@@ -4092,7 +4091,7 @@
       </c>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>253</v>
       </c>
@@ -4105,7 +4104,7 @@
       </c>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>40</v>
       </c>
@@ -4118,7 +4117,7 @@
       </c>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>36</v>
       </c>
@@ -4131,7 +4130,7 @@
       </c>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>227</v>
       </c>
@@ -4144,7 +4143,7 @@
       </c>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>341</v>
       </c>
@@ -4157,7 +4156,7 @@
       </c>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>342</v>
       </c>
@@ -4170,7 +4169,7 @@
       </c>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>229</v>
       </c>
@@ -4183,7 +4182,7 @@
       </c>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>46</v>
       </c>
@@ -4196,7 +4195,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>47</v>
       </c>
@@ -4209,7 +4208,7 @@
       </c>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44</v>
       </c>
@@ -4222,7 +4221,7 @@
       </c>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>49</v>
       </c>
@@ -4236,7 +4235,7 @@
       <c r="E29" s="15"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>162</v>
       </c>
@@ -4249,7 +4248,7 @@
       </c>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>344</v>
       </c>
@@ -4262,7 +4261,7 @@
       </c>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>68</v>
       </c>
@@ -4275,7 +4274,7 @@
       </c>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>67</v>
       </c>
@@ -4288,7 +4287,7 @@
       </c>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>71</v>
       </c>
@@ -4301,7 +4300,7 @@
       </c>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>80</v>
       </c>
@@ -4314,7 +4313,7 @@
       </c>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>87</v>
       </c>
@@ -4327,7 +4326,7 @@
       </c>
       <c r="E36" s="15"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>85</v>
       </c>
@@ -4340,7 +4339,7 @@
       </c>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3